--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF5EE07-E6FC-4124-81D2-477C638361A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993C5DE-BBE2-4916-92A8-290FED434300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Составы" sheetId="1" r:id="rId1"/>
-    <sheet name="WDC" sheetId="4" r:id="rId2"/>
-    <sheet name="WCC" sheetId="5" r:id="rId3"/>
+    <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
+    <sheet name="WDC_2025" sheetId="4" r:id="rId2"/>
+    <sheet name="WCC_2025" sheetId="5" r:id="rId3"/>
     <sheet name="BAH" sheetId="6" r:id="rId4"/>
     <sheet name="SAU" sheetId="7" r:id="rId5"/>
     <sheet name="AUS" sheetId="8" r:id="rId6"/>
@@ -47,7 +47,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">BRA!$B$52:$C$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WCC!$B$1:$AD$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WCC_2025!$B$1:$AD$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2551,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -24439,8 +24439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E84A1A-5FE9-4A49-A123-94141DF43CB2}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993C5DE-BBE2-4916-92A8-290FED434300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07B494-F19D-4816-887B-6CB49121482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="585">
   <si>
     <t>Команда</t>
   </si>
@@ -1715,6 +1715,111 @@
   </si>
   <si>
     <t>JPN_S</t>
+  </si>
+  <si>
+    <t>+2 круга</t>
+  </si>
+  <si>
+    <t>01:26:07</t>
+  </si>
+  <si>
+    <t>+9.472</t>
+  </si>
+  <si>
+    <t>+3.494</t>
+  </si>
+  <si>
+    <t>+9.005</t>
+  </si>
+  <si>
+    <t>+11.667</t>
+  </si>
+  <si>
+    <t>+13.920</t>
+  </si>
+  <si>
+    <t>+0.326</t>
+  </si>
+  <si>
+    <t>+7.306</t>
+  </si>
+  <si>
+    <t>+2.730</t>
+  </si>
+  <si>
+    <t>+14.067</t>
+  </si>
+  <si>
+    <t>+2.729</t>
+  </si>
+  <si>
+    <t>+1.426</t>
+  </si>
+  <si>
+    <t>1:14.284</t>
+  </si>
+  <si>
+    <t>1:14.057</t>
+  </si>
+  <si>
+    <t>1:14.484</t>
+  </si>
+  <si>
+    <t>1:15.517</t>
+  </si>
+  <si>
+    <t>1:14.942</t>
+  </si>
+  <si>
+    <t>1:14.891</t>
+  </si>
+  <si>
+    <t>1:13.952</t>
+  </si>
+  <si>
+    <t>1:15.158</t>
+  </si>
+  <si>
+    <t>1:14.407</t>
+  </si>
+  <si>
+    <t>1:15.774</t>
+  </si>
+  <si>
+    <t>1:15.402</t>
+  </si>
+  <si>
+    <t>1:15.915</t>
+  </si>
+  <si>
+    <t>1:15.272</t>
+  </si>
+  <si>
+    <t>1:15.388</t>
+  </si>
+  <si>
+    <t>1:15.416</t>
+  </si>
+  <si>
+    <t>1:14.766</t>
+  </si>
+  <si>
+    <t>1:16.073</t>
+  </si>
+  <si>
+    <t>1:15.606</t>
+  </si>
+  <si>
+    <t>1:13.788</t>
+  </si>
+  <si>
+    <t>1:15.411</t>
+  </si>
+  <si>
+    <t>1:14.993</t>
+  </si>
+  <si>
+    <t>1:17.199</t>
   </si>
 </sst>
 </file>
@@ -2241,8 +2346,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8847BD"/>
       <color rgb="FFFF8700"/>
-      <color rgb="FF8847BD"/>
       <color rgb="FF1E41FF"/>
       <color rgb="FFB9DCFF"/>
       <color rgb="FFDC0000"/>
@@ -2551,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3038,7 +3143,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:A1048576"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3883,7 +3988,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>43</v>
       </c>
     </row>
@@ -3895,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>16</v>
       </c>
     </row>
@@ -4021,7 +4126,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4878,7 +4983,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="37">
-        <f t="shared" si="0"/>
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
         <v>9</v>
       </c>
     </row>
@@ -5004,7 +5109,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:A1048576"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5853,7 +5958,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>43</v>
       </c>
     </row>
@@ -5865,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>15</v>
       </c>
     </row>
@@ -5990,8 +6095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09603354-42DD-48EE-BB96-59B9DE298436}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6839,7 +6944,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
+        <f>SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
         <v>27</v>
       </c>
     </row>
@@ -6851,7 +6956,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
         <v>26</v>
       </c>
     </row>
@@ -6977,18 +7082,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA7B10F-E97F-41F2-9ECD-6C71DD3F4C40}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -7015,10 +7119,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
     </row>
@@ -7026,11 +7130,11 @@
       <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="27"/>
     </row>
@@ -7039,10 +7143,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="D5" s="28"/>
     </row>
@@ -7050,11 +7154,11 @@
       <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -7062,11 +7166,11 @@
       <c r="A7" s="47">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
     </row>
@@ -7074,11 +7178,11 @@
       <c r="A8" s="47">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="27"/>
     </row>
@@ -7086,22 +7190,22 @@
       <c r="A9" s="47">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
+      <c r="B9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="47">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="27"/>
     </row>
@@ -7109,11 +7213,11 @@
       <c r="A11" s="47">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="28"/>
     </row>
@@ -7121,11 +7225,11 @@
       <c r="A12" s="47">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="28"/>
     </row>
@@ -7133,22 +7237,22 @@
       <c r="A13" s="47">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
+      <c r="B13" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="28"/>
     </row>
@@ -7156,11 +7260,11 @@
       <c r="A15" s="47">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="28"/>
     </row>
@@ -7168,11 +7272,11 @@
       <c r="A16" s="47">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="27"/>
     </row>
@@ -7180,11 +7284,11 @@
       <c r="A17" s="47">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="28"/>
     </row>
@@ -7192,11 +7296,11 @@
       <c r="A18" s="47">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="27"/>
     </row>
@@ -7204,11 +7308,11 @@
       <c r="A19" s="47">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="28"/>
     </row>
@@ -7216,11 +7320,11 @@
       <c r="A20" s="47">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="28"/>
     </row>
@@ -7228,11 +7332,11 @@
       <c r="A21" s="47">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="28"/>
     </row>
@@ -7240,11 +7344,11 @@
       <c r="A22" s="47">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="28"/>
     </row>
@@ -7252,11 +7356,11 @@
       <c r="A23" s="47">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="27"/>
     </row>
@@ -7264,11 +7368,11 @@
       <c r="A24" s="47">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="28"/>
     </row>
@@ -7307,19 +7411,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" s="36">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -7327,419 +7431,419 @@
         <v>2</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="F29" s="36">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
+      <c r="B30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+        <v>553</v>
+      </c>
+      <c r="F30" s="37">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="F31" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="F32" s="41">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="47">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="F33" s="45">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
+      <c r="B34" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+        <v>557</v>
+      </c>
+      <c r="F34" s="37">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="47">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="F35" s="41">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="47">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="F36" s="40">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="47">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="F37" s="44">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="47">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="47">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="47">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="47">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="47">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="47">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="47">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="43">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="47">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="47">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="47">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>582</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="47">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="47">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
+      <c r="B49" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="F49" s="43">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -7765,123 +7869,138 @@
         <v>1</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="C53" s="36">
+        <f>SUMIF($C$28:$C$44,B53,$F$28:$F$44)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="47">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
+      <c r="B54" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="37">
+        <f>SUMIF($C$28:$C$44,B54,$F$28:$F$44)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="47">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
+      <c r="B55" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="45">
+        <f>SUMIF($C$28:$C$44,B55,$F$28:$F$44)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="47">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
+      <c r="B56" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="41">
+        <f>SUMIF($C$28:$C$44,B56,$F$28:$F$44)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="47">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
+      <c r="B57" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="40">
+        <f>SUMIF($C$28:$C$44,B57,$F$28:$F$44)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="47">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
+      <c r="B58" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="44">
+        <f>SUMIF($C$28:$C$44,B58,$F$28:$F$44)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="47">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
+      <c r="B59" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="38">
+        <f>SUMIF($C$28:$C$44,B59,$F$28:$F$44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="47">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
+      <c r="B60" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="43">
+        <f>SUMIF($C$28:$C$44,B60,$F$28:$F$44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="47">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
+      <c r="B61" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="39">
+        <f>SUMIF($C$28:$C$44,B61,$F$28:$F$44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="47">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
+      <c r="B62" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="42">
+        <f>SUMIF($C$28:$C$44,B62,$F$28:$F$44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="47">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
+      <c r="B63" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="46">
+        <f>SUMIF($C$28:$C$44,B63,$F$28:$F$44)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12459,7 +12578,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12628,7 +12747,9 @@
       <c r="L2" s="36">
         <v>15</v>
       </c>
-      <c r="M2" s="61"/>
+      <c r="M2" s="36">
+        <v>18</v>
+      </c>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
@@ -12646,8 +12767,8 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f t="shared" ref="AD2:AD23" si="0">SUM(C2:AC2)</f>
-        <v>185</v>
+        <f>SUM(C2:AC2)</f>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -12687,7 +12808,9 @@
       <c r="L3" s="36">
         <v>12</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="36">
+        <v>25</v>
+      </c>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
       <c r="P3" s="61"/>
@@ -12705,8 +12828,8 @@
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUM(C3:AC3)</f>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -12746,7 +12869,9 @@
       <c r="L4" s="37">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="37">
+        <v>15</v>
+      </c>
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
       <c r="P4" s="62"/>
@@ -12764,8 +12889,8 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
-        <f t="shared" si="0"/>
-        <v>137</v>
+        <f>SUM(C4:AC4)</f>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -12803,7 +12928,9 @@
       <c r="L5" s="40">
         <v>18</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="40">
+        <v>2</v>
+      </c>
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
@@ -12821,8 +12948,8 @@
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f>SUM(C5:AC5)</f>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -12862,7 +12989,9 @@
       <c r="L6" s="45">
         <v>1</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="45">
+        <v>12</v>
+      </c>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12880,8 +13009,8 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <f>SUM(C6:AC6)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -12917,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="38"/>
-      <c r="M7" s="69"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="69"/>
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
@@ -12935,7 +13064,7 @@
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:AC7)</f>
         <v>71</v>
       </c>
     </row>
@@ -12943,110 +13072,112 @@
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="60">
+      <c r="B8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41">
+        <v>4</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41">
         <v>10</v>
       </c>
-      <c r="D8" s="60">
-        <v>15</v>
-      </c>
-      <c r="E8" s="60">
+      <c r="I8" s="41">
+        <v>8</v>
+      </c>
+      <c r="J8" s="41">
+        <v>1</v>
+      </c>
+      <c r="K8" s="41">
+        <v>8</v>
+      </c>
+      <c r="L8" s="41">
         <v>10</v>
       </c>
-      <c r="F8" s="60">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60">
-        <v>4</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60">
-        <v>1</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60">
-        <v>2</v>
-      </c>
-      <c r="L8" s="60">
-        <v>8</v>
-      </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="60">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="M8" s="41">
+        <v>10</v>
+      </c>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="41">
+        <f>SUM(C8:AC8)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="B9" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="60">
+        <v>10</v>
+      </c>
+      <c r="D9" s="60">
+        <v>15</v>
+      </c>
+      <c r="E9" s="60">
+        <v>10</v>
+      </c>
+      <c r="F9" s="60">
+        <v>1</v>
+      </c>
+      <c r="G9" s="60">
+        <v>4</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60">
+        <v>1</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
-        <v>4</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41">
-        <v>10</v>
-      </c>
-      <c r="I9" s="41">
+      <c r="L9" s="60">
         <v>8</v>
       </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="41">
-        <v>8</v>
-      </c>
-      <c r="L9" s="41">
-        <v>10</v>
-      </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="41">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="M9" s="60"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="60">
+        <f>SUM(C9:AC9)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -13082,7 +13213,9 @@
         <v>4</v>
       </c>
       <c r="L10" s="37"/>
-      <c r="M10" s="62"/>
+      <c r="M10" s="37">
+        <v>6</v>
+      </c>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
@@ -13100,8 +13233,8 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>SUM(C10:AC10)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -13129,7 +13262,9 @@
       <c r="L11" s="41">
         <v>4</v>
       </c>
-      <c r="M11" s="65"/>
+      <c r="M11" s="41">
+        <v>4</v>
+      </c>
       <c r="N11" s="65"/>
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
@@ -13147,182 +13282,184 @@
       <c r="AB11" s="65"/>
       <c r="AC11" s="65"/>
       <c r="AD11" s="41">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(C11:AC11)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44">
-        <v>4</v>
-      </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="44">
+      <c r="B12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45">
         <v>6</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="44">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="45">
+        <v>8</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="45">
+        <f>SUM(C12:AC12)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
+      <c r="B13" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44">
+        <v>4</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="44">
         <v>6</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38">
-        <v>2</v>
-      </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="M13" s="44"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="44">
+        <f>SUM(C13:AC13)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34">
+      <c r="B14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <v>6</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34">
-        <v>1</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="34">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38">
+        <v>2</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="38">
+        <f>SUM(C14:AC14)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45">
+      <c r="B15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34">
         <v>6</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="45">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="34">
+        <f>SUM(C15:AC15)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -13350,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="63"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
@@ -13368,7 +13505,7 @@
       <c r="AB16" s="63"/>
       <c r="AC16" s="63"/>
       <c r="AD16" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:AC16)</f>
         <v>5</v>
       </c>
     </row>
@@ -13395,7 +13532,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="64"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
@@ -13413,7 +13550,7 @@
       <c r="AB17" s="64"/>
       <c r="AC17" s="64"/>
       <c r="AD17" s="46">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:AC17)</f>
         <v>5</v>
       </c>
     </row>
@@ -13438,7 +13575,7 @@
       <c r="L18" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="68"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="68"/>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
@@ -13456,7 +13593,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
       <c r="AD18" s="43">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:AC18)</f>
         <v>4</v>
       </c>
     </row>
@@ -13485,7 +13622,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="63"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="63"/>
       <c r="O19" s="63"/>
       <c r="P19" s="63"/>
@@ -13503,7 +13640,7 @@
       <c r="AB19" s="63"/>
       <c r="AC19" s="63"/>
       <c r="AD19" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:AC19)</f>
         <v>4</v>
       </c>
     </row>
@@ -13511,85 +13648,83 @@
       <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44">
+        <v>1</v>
+      </c>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="44">
+        <f>SUM(C20:AC20)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="43">
-        <f t="shared" si="0"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="34">
+        <f>SUM(C21:AC21)</f>
         <v>0</v>
       </c>
     </row>
@@ -13597,38 +13732,42 @@
       <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="46">
-        <f t="shared" si="0"/>
+      <c r="B22" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="43">
+        <f>SUM(C22:AC22)</f>
         <v>0</v>
       </c>
     </row>
@@ -13636,38 +13775,38 @@
       <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="44">
-        <f t="shared" si="0"/>
+      <c r="B23" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="46">
+        <f>SUM(C23:AC23)</f>
         <v>0</v>
       </c>
     </row>
@@ -22815,7 +22954,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22983,7 +23122,9 @@
       <c r="L2" s="36">
         <v>27</v>
       </c>
-      <c r="M2" s="61"/>
+      <c r="M2" s="36">
+        <v>43</v>
+      </c>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
@@ -23001,8 +23142,8 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f t="shared" ref="AD2:AD12" si="0">SUM(C2:AC2)</f>
-        <v>345</v>
+        <f>SUM(C2:AC2)</f>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -23040,7 +23181,9 @@
       <c r="L3" s="37">
         <v>25</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="37">
+        <v>21</v>
+      </c>
       <c r="N3" s="62"/>
       <c r="O3" s="62"/>
       <c r="P3" s="62"/>
@@ -23058,8 +23201,8 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
-        <f t="shared" si="0"/>
-        <v>178</v>
+        <f>SUM(C3:AC3)</f>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -23099,7 +23242,9 @@
       <c r="L4" s="40">
         <v>26</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="40">
+        <v>2</v>
+      </c>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
@@ -23117,8 +23262,8 @@
       <c r="AB4" s="66"/>
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
-        <f t="shared" si="0"/>
-        <v>163</v>
+        <f>SUM(C4:AC4)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -23158,7 +23303,9 @@
       <c r="L5" s="58">
         <v>1</v>
       </c>
-      <c r="M5" s="70"/>
+      <c r="M5" s="45">
+        <v>20</v>
+      </c>
       <c r="N5" s="70"/>
       <c r="O5" s="70"/>
       <c r="P5" s="70"/>
@@ -23176,8 +23323,8 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>SUM(C5:AC5)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -23215,7 +23362,7 @@
       <c r="L6" s="38">
         <v>2</v>
       </c>
-      <c r="M6" s="69"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
@@ -23233,7 +23380,7 @@
       <c r="AB6" s="69"/>
       <c r="AC6" s="69"/>
       <c r="AD6" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:AC6)</f>
         <v>79</v>
       </c>
     </row>
@@ -23272,7 +23419,9 @@
       <c r="L7" s="41">
         <v>14</v>
       </c>
-      <c r="M7" s="65"/>
+      <c r="M7" s="41">
+        <v>14</v>
+      </c>
       <c r="N7" s="65"/>
       <c r="O7" s="65"/>
       <c r="P7" s="65"/>
@@ -23290,8 +23439,8 @@
       <c r="AB7" s="65"/>
       <c r="AC7" s="65"/>
       <c r="AD7" s="41">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>SUM(C7:AC7)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -23315,7 +23464,9 @@
       <c r="L8" s="44">
         <v>6</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="44">
+        <v>1</v>
+      </c>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
       <c r="P8" s="67"/>
@@ -23333,8 +23484,8 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
       <c r="AD8" s="44">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C8:AC8)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -23362,7 +23513,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="63"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="63"/>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -23380,7 +23531,7 @@
       <c r="AB9" s="63"/>
       <c r="AC9" s="63"/>
       <c r="AD9" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:AC9)</f>
         <v>9</v>
       </c>
     </row>
@@ -23405,7 +23556,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="72"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
       <c r="P10" s="72"/>
@@ -23423,7 +23574,7 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
       <c r="AD10" s="34">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:AC10)</f>
         <v>7</v>
       </c>
     </row>
@@ -23450,7 +23601,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
-      <c r="M11" s="64"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
@@ -23468,7 +23619,7 @@
       <c r="AB11" s="64"/>
       <c r="AC11" s="64"/>
       <c r="AD11" s="46">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:AC11)</f>
         <v>5</v>
       </c>
     </row>
@@ -23491,7 +23642,7 @@
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
-      <c r="M12" s="68"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
       <c r="P12" s="68"/>
@@ -23509,7 +23660,7 @@
       <c r="AB12" s="68"/>
       <c r="AC12" s="68"/>
       <c r="AD12" s="43">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AC12)</f>
         <v>4</v>
       </c>
     </row>
@@ -24678,8 +24829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BDEF05-59C4-445E-9FB7-CA28C0FA2BC5}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25454,7 +25605,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
         <v>43</v>
       </c>
     </row>
@@ -25466,7 +25617,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
         <v>25</v>
       </c>
     </row>
@@ -28520,7 +28671,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:A1048576"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29368,7 +29519,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="37">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$45,B53,$F$28:$F$45)</f>
+        <f>SUMIF($C$28:$C$45,B53,$F$28:$F$45)</f>
         <v>34</v>
       </c>
     </row>
@@ -29380,7 +29531,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$45,B54,$F$28:$F$45)</f>
         <v>33</v>
       </c>
     </row>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07B494-F19D-4816-887B-6CB49121482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083F6F3-62E2-45F0-BAC7-B0DC69BF4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="21600" windowHeight="11320" tabRatio="936" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="616">
   <si>
     <t>Команда</t>
   </si>
@@ -1717,109 +1717,202 @@
     <t>JPN_S</t>
   </si>
   <si>
+    <t>01:23:32</t>
+  </si>
+  <si>
+    <t>+0.207</t>
+  </si>
+  <si>
+    <t>+0.488</t>
+  </si>
+  <si>
+    <t>+0.847</t>
+  </si>
+  <si>
+    <t>+0.101</t>
+  </si>
+  <si>
+    <t>+0.300</t>
+  </si>
+  <si>
+    <t>+0.829</t>
+  </si>
+  <si>
+    <t>+0.786</t>
+  </si>
+  <si>
+    <t>+7.663</t>
+  </si>
+  <si>
+    <t>1:36.231</t>
+  </si>
+  <si>
+    <t>1:36.225</t>
+  </si>
+  <si>
+    <t>1:36.770</t>
+  </si>
+  <si>
+    <t>1:37.599</t>
+  </si>
+  <si>
+    <t>1:37.323</t>
+  </si>
+  <si>
+    <t>1:37.394</t>
+  </si>
+  <si>
+    <t>1:37.456</t>
+  </si>
+  <si>
+    <t>1:37.826</t>
+  </si>
+  <si>
+    <t>1:39.908</t>
+  </si>
+  <si>
+    <t>1:36.378</t>
+  </si>
+  <si>
+    <t>1:37.900</t>
+  </si>
+  <si>
+    <t>1:40.670</t>
+  </si>
+  <si>
+    <t>1:39.537</t>
+  </si>
+  <si>
+    <t>1:39.174</t>
+  </si>
+  <si>
+    <t>1:39.963</t>
+  </si>
+  <si>
+    <t>1:39.507</t>
+  </si>
+  <si>
+    <t>1:41.021</t>
+  </si>
+  <si>
+    <t>1:41.002</t>
+  </si>
+  <si>
+    <t>1:43.308</t>
+  </si>
+  <si>
+    <t>1:42.930</t>
+  </si>
+  <si>
+    <t>1:43.178</t>
+  </si>
+  <si>
+    <t>1:43.291</t>
+  </si>
+  <si>
+    <t>1:14.284</t>
+  </si>
+  <si>
+    <t>01:26:07</t>
+  </si>
+  <si>
+    <t>1:14.057</t>
+  </si>
+  <si>
+    <t>+9.472</t>
+  </si>
+  <si>
+    <t>1:14.484</t>
+  </si>
+  <si>
+    <t>+3.494</t>
+  </si>
+  <si>
+    <t>1:15.517</t>
+  </si>
+  <si>
+    <t>+9.005</t>
+  </si>
+  <si>
+    <t>1:14.942</t>
+  </si>
+  <si>
+    <t>+11.667</t>
+  </si>
+  <si>
+    <t>1:14.891</t>
+  </si>
+  <si>
+    <t>+13.920</t>
+  </si>
+  <si>
+    <t>1:13.952</t>
+  </si>
+  <si>
+    <t>+0.326</t>
+  </si>
+  <si>
+    <t>1:15.158</t>
+  </si>
+  <si>
+    <t>+7.306</t>
+  </si>
+  <si>
+    <t>1:14.407</t>
+  </si>
+  <si>
+    <t>+2.730</t>
+  </si>
+  <si>
+    <t>1:15.774</t>
+  </si>
+  <si>
+    <t>+14.067</t>
+  </si>
+  <si>
+    <t>1:15.402</t>
+  </si>
+  <si>
+    <t>+2.729</t>
+  </si>
+  <si>
+    <t>1:15.915</t>
+  </si>
+  <si>
+    <t>+1.426</t>
+  </si>
+  <si>
+    <t>1:15.272</t>
+  </si>
+  <si>
+    <t>1:15.388</t>
+  </si>
+  <si>
+    <t>1:15.416</t>
+  </si>
+  <si>
+    <t>1:14.766</t>
+  </si>
+  <si>
+    <t>1:16.073</t>
+  </si>
+  <si>
+    <t>1:15.606</t>
+  </si>
+  <si>
+    <t>1:13.788</t>
+  </si>
+  <si>
+    <t>1:15.411</t>
+  </si>
+  <si>
+    <t>1:14.993</t>
+  </si>
+  <si>
+    <t>1:17.199</t>
+  </si>
+  <si>
     <t>+2 круга</t>
-  </si>
-  <si>
-    <t>01:26:07</t>
-  </si>
-  <si>
-    <t>+9.472</t>
-  </si>
-  <si>
-    <t>+3.494</t>
-  </si>
-  <si>
-    <t>+9.005</t>
-  </si>
-  <si>
-    <t>+11.667</t>
-  </si>
-  <si>
-    <t>+13.920</t>
-  </si>
-  <si>
-    <t>+0.326</t>
-  </si>
-  <si>
-    <t>+7.306</t>
-  </si>
-  <si>
-    <t>+2.730</t>
-  </si>
-  <si>
-    <t>+14.067</t>
-  </si>
-  <si>
-    <t>+2.729</t>
-  </si>
-  <si>
-    <t>+1.426</t>
-  </si>
-  <si>
-    <t>1:14.284</t>
-  </si>
-  <si>
-    <t>1:14.057</t>
-  </si>
-  <si>
-    <t>1:14.484</t>
-  </si>
-  <si>
-    <t>1:15.517</t>
-  </si>
-  <si>
-    <t>1:14.942</t>
-  </si>
-  <si>
-    <t>1:14.891</t>
-  </si>
-  <si>
-    <t>1:13.952</t>
-  </si>
-  <si>
-    <t>1:15.158</t>
-  </si>
-  <si>
-    <t>1:14.407</t>
-  </si>
-  <si>
-    <t>1:15.774</t>
-  </si>
-  <si>
-    <t>1:15.402</t>
-  </si>
-  <si>
-    <t>1:15.915</t>
-  </si>
-  <si>
-    <t>1:15.272</t>
-  </si>
-  <si>
-    <t>1:15.388</t>
-  </si>
-  <si>
-    <t>1:15.416</t>
-  </si>
-  <si>
-    <t>1:14.766</t>
-  </si>
-  <si>
-    <t>1:16.073</t>
-  </si>
-  <si>
-    <t>1:15.606</t>
-  </si>
-  <si>
-    <t>1:13.788</t>
-  </si>
-  <si>
-    <t>1:15.411</t>
-  </si>
-  <si>
-    <t>1:14.993</t>
-  </si>
-  <si>
-    <t>1:17.199</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2338,6 +2431,132 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2347,10 +2566,10 @@
   <colors>
     <mruColors>
       <color rgb="FF8847BD"/>
+      <color rgb="FFDC0000"/>
       <color rgb="FFFF8700"/>
       <color rgb="FF1E41FF"/>
       <color rgb="FFB9DCFF"/>
-      <color rgb="FFDC0000"/>
       <color rgb="FF00D2BE"/>
       <color rgb="FFF50537"/>
       <color rgb="FF52E252"/>
@@ -4000,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>16</v>
       </c>
     </row>
@@ -5970,7 +6189,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>15</v>
       </c>
     </row>
@@ -6956,7 +7175,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
         <v>26</v>
       </c>
     </row>
@@ -7082,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA7B10F-E97F-41F2-9ECD-6C71DD3F4C40}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7095,906 +7314,1012 @@
     <col min="6" max="6" width="5.26953125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="D3" s="121"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="D4" s="121"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="D5" s="122"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="D6" s="122"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="D7" s="121"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="D8" s="121"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="D10" s="121"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="D11" s="122"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="D12" s="122"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="D14" s="122"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="D15" s="122"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="F28" s="36">
+      <c r="D28" s="95" t="s">
+        <v>581</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>582</v>
+      </c>
+      <c r="F28" s="82">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="F29" s="36">
+      <c r="D29" s="95" t="s">
+        <v>583</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>584</v>
+      </c>
+      <c r="F29" s="82">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="D30" s="93" t="s">
+        <v>585</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>586</v>
+      </c>
+      <c r="F30" s="83">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="F31" s="45">
+      <c r="D31" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>588</v>
+      </c>
+      <c r="F31" s="90">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="F32" s="41">
+      <c r="D32" s="97" t="s">
+        <v>589</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="F32" s="87">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>556</v>
-      </c>
-      <c r="F33" s="45">
+      <c r="D33" s="90" t="s">
+        <v>591</v>
+      </c>
+      <c r="E33" s="115" t="s">
+        <v>592</v>
+      </c>
+      <c r="F33" s="90">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="F34" s="37">
+      <c r="D34" s="93" t="s">
+        <v>593</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" s="83">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>558</v>
-      </c>
-      <c r="F35" s="41">
+      <c r="D35" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>596</v>
+      </c>
+      <c r="F35" s="87">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>559</v>
-      </c>
-      <c r="F36" s="40">
+      <c r="D36" s="100" t="s">
+        <v>597</v>
+      </c>
+      <c r="E36" s="113" t="s">
+        <v>598</v>
+      </c>
+      <c r="F36" s="86">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="F37" s="44">
+      <c r="D37" s="99" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" s="112" t="s">
+        <v>600</v>
+      </c>
+      <c r="F37" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="F38" s="38">
+      <c r="D38" s="96" t="s">
+        <v>601</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>602</v>
+      </c>
+      <c r="F38" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="F39" s="44">
+      <c r="D39" s="99" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>604</v>
+      </c>
+      <c r="F39" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="E40" s="49" t="s">
+      <c r="D40" s="94" t="s">
+        <v>605</v>
+      </c>
+      <c r="E40" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="E41" s="55" t="s">
+      <c r="D41" s="100" t="s">
+        <v>606</v>
+      </c>
+      <c r="E41" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="E42" s="53" t="s">
+      <c r="D42" s="98" t="s">
+        <v>607</v>
+      </c>
+      <c r="E42" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="74" t="s">
-        <v>578</v>
-      </c>
-      <c r="E43" s="73" t="s">
+      <c r="D43" s="118" t="s">
+        <v>608</v>
+      </c>
+      <c r="E43" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="E44" s="56" t="s">
+      <c r="D44" s="102" t="s">
+        <v>609</v>
+      </c>
+      <c r="E44" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="96" t="s">
+        <v>610</v>
+      </c>
+      <c r="E45" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="E46" s="49" t="s">
+      <c r="D46" s="101" t="s">
+        <v>611</v>
+      </c>
+      <c r="E46" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="74" t="s">
-        <v>582</v>
-      </c>
-      <c r="E47" s="73" t="s">
+      <c r="D47" s="118" t="s">
+        <v>612</v>
+      </c>
+      <c r="E47" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="E48" s="53" t="s">
+      <c r="D48" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="E48" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="D49" s="102" t="s">
+        <v>614</v>
+      </c>
+      <c r="E49" s="114" t="s">
+        <v>615</v>
+      </c>
+      <c r="F49" s="88">
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+    </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="36">
-        <f>SUMIF($C$28:$C$44,B53,$F$28:$F$44)</f>
+      <c r="C53" s="82">
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$44,B53,$F$28:$F$44)</f>
         <v>43</v>
       </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="37">
-        <f>SUMIF($C$28:$C$44,B54,$F$28:$F$44)</f>
+      <c r="C54" s="83">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="45">
-        <f>SUMIF($C$28:$C$44,B55,$F$28:$F$44)</f>
+      <c r="C55" s="90">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="41">
-        <f>SUMIF($C$28:$C$44,B56,$F$28:$F$44)</f>
+      <c r="C56" s="87">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="40">
-        <f>SUMIF($C$28:$C$44,B57,$F$28:$F$44)</f>
+      <c r="C57" s="86">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="44">
-        <f>SUMIF($C$28:$C$44,B58,$F$28:$F$44)</f>
+      <c r="C58" s="89">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="38">
-        <f>SUMIF($C$28:$C$44,B59,$F$28:$F$44)</f>
+      <c r="C59" s="84">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="43">
-        <f>SUMIF($C$28:$C$44,B60,$F$28:$F$44)</f>
+      <c r="C60" s="88">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="39">
-        <f>SUMIF($C$28:$C$44,B61,$F$28:$F$44)</f>
+      <c r="C61" s="85">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="42">
-        <f>SUMIF($C$28:$C$44,B62,$F$28:$F$44)</f>
+      <c r="C62" s="105">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="46">
-        <f>SUMIF($C$28:$C$44,B63,$F$28:$F$44)</f>
+      <c r="C63" s="91">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
@@ -8010,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E87955-1CA6-44A1-B729-295862864CA2}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8048,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
     </row>
@@ -8059,11 +8384,11 @@
       <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="27"/>
     </row>
@@ -8071,11 +8396,11 @@
       <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="28"/>
     </row>
@@ -8083,11 +8408,11 @@
       <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -8096,10 +8421,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="D7" s="27"/>
     </row>
@@ -8107,11 +8432,11 @@
       <c r="A8" s="47">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="27"/>
     </row>
@@ -8119,22 +8444,22 @@
       <c r="A9" s="47">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
+      <c r="B9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="47">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="27"/>
     </row>
@@ -8142,11 +8467,11 @@
       <c r="A11" s="47">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="28"/>
     </row>
@@ -8154,11 +8479,11 @@
       <c r="A12" s="47">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="28"/>
     </row>
@@ -8166,22 +8491,22 @@
       <c r="A13" s="47">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
+      <c r="B13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="28"/>
     </row>
@@ -8189,11 +8514,11 @@
       <c r="A15" s="47">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="28"/>
     </row>
@@ -8201,11 +8526,11 @@
       <c r="A16" s="47">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="27"/>
     </row>
@@ -8213,11 +8538,11 @@
       <c r="A17" s="47">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="28"/>
     </row>
@@ -8225,11 +8550,11 @@
       <c r="A18" s="47">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="27"/>
     </row>
@@ -8237,11 +8562,11 @@
       <c r="A19" s="47">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="28"/>
     </row>
@@ -8249,11 +8574,11 @@
       <c r="A20" s="47">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="28"/>
     </row>
@@ -8261,11 +8586,11 @@
       <c r="A21" s="47">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="28"/>
     </row>
@@ -8273,11 +8598,11 @@
       <c r="A22" s="47">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
     </row>
@@ -8285,11 +8610,11 @@
       <c r="A23" s="47">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="27"/>
     </row>
@@ -8297,11 +8622,11 @@
       <c r="A24" s="47">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="28"/>
     </row>
@@ -8339,200 +8664,200 @@
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="F28" s="43">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="47">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>551</v>
+      </c>
+      <c r="F29" s="40">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="F31" s="41">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="F32" s="44">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="47">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" s="46">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="F34" s="44">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="47">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="F35" s="45">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="47">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="F36" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="47">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -8540,99 +8865,99 @@
         <v>11</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="47">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="47">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>571</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="47">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
+      <c r="B41" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>513</v>
+        <v>72</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>514</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="47">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -8640,139 +8965,139 @@
         <v>16</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="47">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="47">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="47">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="47">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="47">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
+      <c r="B48" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>513</v>
+        <v>72</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>514</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="47">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
+      <c r="B49" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -8797,110 +9122,120 @@
       <c r="A53" s="47">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
+      <c r="B53" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="41">
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="47">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
+      <c r="B54" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="43">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="47">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
+      <c r="B55" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="47">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
+      <c r="B56" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="47">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
+      <c r="B57" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="47">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
+      <c r="B58" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="45">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="47">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
+      <c r="B59" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="47">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
+      <c r="B60" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="47">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
+      <c r="B61" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="47">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
+      <c r="B62" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -8908,10 +9243,11 @@
         <v>11</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
+        <v>21</v>
+      </c>
+      <c r="C63" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12578,7 +12914,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12750,7 +13086,9 @@
       <c r="M2" s="36">
         <v>18</v>
       </c>
-      <c r="N2" s="61"/>
+      <c r="N2" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
@@ -12767,7 +13105,7 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f>SUM(C2:AC2)</f>
+        <f t="shared" ref="AD2:AD23" si="0">SUM(C2:AC2)</f>
         <v>203</v>
       </c>
     </row>
@@ -12811,7 +13149,9 @@
       <c r="M3" s="36">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
+      <c r="N3" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="O3" s="61"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="61"/>
@@ -12828,7 +13168,7 @@
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
-        <f>SUM(C3:AC3)</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
     </row>
@@ -12872,7 +13212,9 @@
       <c r="M4" s="37">
         <v>15</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="O4" s="62"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="62"/>
@@ -12889,7 +13231,7 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
-        <f>SUM(C4:AC4)</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
@@ -12931,7 +13273,9 @@
       <c r="M5" s="40">
         <v>2</v>
       </c>
-      <c r="N5" s="66"/>
+      <c r="N5" s="40">
+        <v>1</v>
+      </c>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
@@ -12948,8 +13292,8 @@
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
-        <f>SUM(C5:AC5)</f>
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -12992,7 +13336,9 @@
       <c r="M6" s="45">
         <v>12</v>
       </c>
-      <c r="N6" s="70"/>
+      <c r="N6" s="45" t="s">
+        <v>66</v>
+      </c>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
       <c r="Q6" s="70"/>
@@ -13009,7 +13355,7 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
-        <f>SUM(C6:AC6)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
@@ -13047,7 +13393,9 @@
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="69"/>
+      <c r="N7" s="38">
+        <v>2</v>
+      </c>
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
@@ -13064,120 +13412,124 @@
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
-        <f>SUM(C7:AC7)</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="B8" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="60">
+        <v>10</v>
+      </c>
+      <c r="D8" s="60">
+        <v>15</v>
+      </c>
+      <c r="E8" s="60">
+        <v>10</v>
+      </c>
+      <c r="F8" s="60">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60">
+        <v>4</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60">
         <v>2</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41">
-        <v>4</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41">
-        <v>10</v>
-      </c>
-      <c r="I8" s="41">
+      <c r="L8" s="60">
         <v>8</v>
       </c>
-      <c r="J8" s="41">
-        <v>1</v>
-      </c>
-      <c r="K8" s="41">
-        <v>8</v>
-      </c>
-      <c r="L8" s="41">
-        <v>10</v>
-      </c>
-      <c r="M8" s="41">
-        <v>10</v>
-      </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="41">
-        <f>SUM(C8:AC8)</f>
-        <v>54</v>
+      <c r="M8" s="60"/>
+      <c r="N8" s="79">
+        <v>19</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="60">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="B9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
+        <v>4</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41">
         <v>10</v>
       </c>
-      <c r="D9" s="60">
+      <c r="I9" s="41">
+        <v>8</v>
+      </c>
+      <c r="J9" s="41">
+        <v>1</v>
+      </c>
+      <c r="K9" s="41">
+        <v>8</v>
+      </c>
+      <c r="L9" s="41">
+        <v>10</v>
+      </c>
+      <c r="M9" s="41">
+        <v>10</v>
+      </c>
+      <c r="N9" s="41">
         <v>15</v>
       </c>
-      <c r="E9" s="60">
-        <v>10</v>
-      </c>
-      <c r="F9" s="60">
-        <v>1</v>
-      </c>
-      <c r="G9" s="60">
-        <v>4</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60">
-        <v>1</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60">
-        <v>2</v>
-      </c>
-      <c r="L9" s="60">
-        <v>8</v>
-      </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="60">
-        <f>SUM(C9:AC9)</f>
-        <v>51</v>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="41">
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -13216,7 +13568,9 @@
       <c r="M10" s="37">
         <v>6</v>
       </c>
-      <c r="N10" s="62"/>
+      <c r="N10" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
@@ -13233,7 +13587,7 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
-        <f>SUM(C10:AC10)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -13265,7 +13619,9 @@
       <c r="M11" s="41">
         <v>4</v>
       </c>
-      <c r="N11" s="65"/>
+      <c r="N11" s="41">
+        <v>12</v>
+      </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -13282,51 +13638,53 @@
       <c r="AB11" s="65"/>
       <c r="AC11" s="65"/>
       <c r="AD11" s="41">
-        <f>SUM(C11:AC11)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45">
-        <v>6</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="45">
-        <v>8</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="45">
-        <f>SUM(C12:AC12)</f>
-        <v>14</v>
+      <c r="B12" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43">
+        <v>4</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43">
+        <v>25</v>
+      </c>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="43">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
@@ -13353,7 +13711,9 @@
         <v>6</v>
       </c>
       <c r="M13" s="44"/>
-      <c r="N13" s="67"/>
+      <c r="N13" s="44">
+        <v>10</v>
+      </c>
       <c r="O13" s="67"/>
       <c r="P13" s="67"/>
       <c r="Q13" s="67"/>
@@ -13370,231 +13730,235 @@
       <c r="AB13" s="67"/>
       <c r="AC13" s="67"/>
       <c r="AD13" s="44">
-        <f>SUM(C13:AC13)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="B14" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45">
         <v>6</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38">
-        <v>2</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="38">
-        <f>SUM(C14:AC14)</f>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="45">
         <v>8</v>
+      </c>
+      <c r="N14" s="45">
+        <v>4</v>
+      </c>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34">
-        <v>6</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
+      <c r="B15" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46">
         <v>1</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="34">
-        <f>SUM(C15:AC15)</f>
-        <v>7</v>
+      <c r="E15" s="46">
+        <v>2</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46">
+        <v>2</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46">
+        <v>8</v>
+      </c>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="46">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="58">
+      <c r="B16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <v>6</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38">
         <v>2</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39">
-        <v>2</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39">
-        <v>1</v>
-      </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="39">
-        <f>SUM(C16:AC16)</f>
-        <v>5</v>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46">
+      <c r="B17" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34">
+        <v>6</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="46">
-        <v>2</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46">
-        <v>2</v>
-      </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="46">
-        <f>SUM(C17:AC17)</f>
-        <v>5</v>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43">
-        <v>4</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="43">
-        <f>SUM(C18:AC18)</f>
-        <v>4</v>
+      <c r="B18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44">
+        <v>1</v>
+      </c>
+      <c r="N18" s="44">
+        <v>6</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="44">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
@@ -13602,28 +13966,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="C19" s="58">
+        <v>2</v>
+      </c>
       <c r="D19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39">
+        <v>2</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39">
+        <v>1</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39">
-        <v>4</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="63"/>
       <c r="O19" s="63"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="63"/>
@@ -13640,49 +14006,57 @@
       <c r="AB19" s="63"/>
       <c r="AC19" s="63"/>
       <c r="AD19" s="39">
-        <f>SUM(C19:AC19)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44">
-        <v>1</v>
-      </c>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="44">
-        <f>SUM(C20:AC20)</f>
-        <v>1</v>
+      <c r="B20" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39">
+        <v>4</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -13707,7 +14081,9 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="71"/>
+      <c r="N21" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="O21" s="71"/>
       <c r="P21" s="71"/>
       <c r="Q21" s="71"/>
@@ -13724,7 +14100,7 @@
       <c r="AB21" s="71"/>
       <c r="AC21" s="71"/>
       <c r="AD21" s="34">
-        <f>SUM(C21:AC21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13750,7 +14126,9 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="68"/>
+      <c r="N22" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="O22" s="68"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="68"/>
@@ -13767,7 +14145,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
       <c r="AD22" s="43">
-        <f>SUM(C22:AC22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13789,7 +14167,9 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="64"/>
+      <c r="N23" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="O23" s="64"/>
       <c r="P23" s="64"/>
       <c r="Q23" s="64"/>
@@ -13806,7 +14186,7 @@
       <c r="AB23" s="64"/>
       <c r="AC23" s="64"/>
       <c r="AD23" s="46">
-        <f>SUM(C23:AC23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22954,7 +23334,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23125,7 +23505,7 @@
       <c r="M2" s="36">
         <v>43</v>
       </c>
-      <c r="N2" s="61"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
@@ -23142,7 +23522,7 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f>SUM(C2:AC2)</f>
+        <f t="shared" ref="AD2:AD12" si="0">SUM(C2:AC2)</f>
         <v>388</v>
       </c>
     </row>
@@ -23184,7 +23564,7 @@
       <c r="M3" s="37">
         <v>21</v>
       </c>
-      <c r="N3" s="62"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="62"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
@@ -23201,7 +23581,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
-        <f>SUM(C3:AC3)</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
     </row>
@@ -23245,7 +23625,9 @@
       <c r="M4" s="40">
         <v>2</v>
       </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="59">
+        <v>20</v>
+      </c>
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
@@ -23262,8 +23644,8 @@
       <c r="AB4" s="66"/>
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
-        <f>SUM(C4:AC4)</f>
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -23306,7 +23688,9 @@
       <c r="M5" s="45">
         <v>20</v>
       </c>
-      <c r="N5" s="70"/>
+      <c r="N5" s="45">
+        <v>4</v>
+      </c>
       <c r="O5" s="70"/>
       <c r="P5" s="70"/>
       <c r="Q5" s="70"/>
@@ -23323,345 +23707,355 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
-        <f>SUM(C5:AC5)</f>
-        <v>112</v>
+        <f t="shared" si="0"/>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="B6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="41">
+        <v>2</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
         <v>4</v>
       </c>
-      <c r="D6" s="38">
-        <v>16</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="59">
-        <v>13</v>
-      </c>
-      <c r="G6" s="38">
-        <v>12</v>
-      </c>
-      <c r="H6" s="38">
-        <v>6</v>
-      </c>
-      <c r="I6" s="38">
-        <v>12</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="F6" s="41">
         <v>4</v>
       </c>
-      <c r="K6" s="38">
-        <v>10</v>
-      </c>
-      <c r="L6" s="38">
-        <v>2</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="38">
-        <f>SUM(C6:AC6)</f>
-        <v>79</v>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="41">
+        <v>18</v>
+      </c>
+      <c r="I6" s="41">
+        <v>8</v>
+      </c>
+      <c r="J6" s="41">
+        <v>1</v>
+      </c>
+      <c r="K6" s="41">
+        <v>8</v>
+      </c>
+      <c r="L6" s="41">
+        <v>14</v>
+      </c>
+      <c r="M6" s="41">
+        <v>14</v>
+      </c>
+      <c r="N6" s="41">
+        <v>27</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="41">
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="B7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="38">
+        <v>4</v>
+      </c>
+      <c r="D7" s="38">
+        <v>16</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="59">
+        <v>13</v>
+      </c>
+      <c r="G7" s="38">
+        <v>12</v>
+      </c>
+      <c r="H7" s="38">
+        <v>6</v>
+      </c>
+      <c r="I7" s="38">
+        <v>12</v>
+      </c>
+      <c r="J7" s="38">
+        <v>4</v>
+      </c>
+      <c r="K7" s="38">
+        <v>10</v>
+      </c>
+      <c r="L7" s="38">
         <v>2</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
-        <v>4</v>
-      </c>
-      <c r="F7" s="41">
-        <v>4</v>
-      </c>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41">
-        <v>18</v>
-      </c>
-      <c r="I7" s="41">
-        <v>8</v>
-      </c>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
-        <v>8</v>
-      </c>
-      <c r="L7" s="41">
-        <v>14</v>
-      </c>
-      <c r="M7" s="41">
-        <v>14</v>
-      </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="41">
-        <f>SUM(C7:AC7)</f>
-        <v>74</v>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <v>2</v>
+      </c>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="38">
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44">
+      <c r="B8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43">
         <v>4</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44">
-        <v>6</v>
-      </c>
-      <c r="M8" s="44">
-        <v>1</v>
-      </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="44">
-        <f>SUM(C8:AC8)</f>
-        <v>11</v>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43">
+        <v>25</v>
+      </c>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="43">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="58">
-        <v>2</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39">
-        <v>2</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39">
+      <c r="B9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44">
         <v>4</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44">
+        <v>6</v>
+      </c>
+      <c r="M9" s="44">
         <v>1</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="39">
-        <f>SUM(C9:AC9)</f>
-        <v>9</v>
+      <c r="N9" s="44">
+        <v>16</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
-        <v>6</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42">
+      <c r="B10" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
         <v>1</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="34">
-        <f>SUM(C10:AC10)</f>
-        <v>7</v>
+      <c r="E10" s="46">
+        <v>2</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
+        <v>2</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46">
+        <v>8</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="46">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46">
+      <c r="B11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="58">
+        <v>2</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39">
+        <v>2</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39">
+        <v>4</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39">
         <v>1</v>
       </c>
-      <c r="E11" s="46">
-        <v>2</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46">
-        <v>2</v>
-      </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="46">
-        <f>SUM(C11:AC11)</f>
-        <v>5</v>
+      <c r="L11" s="39"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="39">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43">
-        <v>4</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="43">
-        <f>SUM(C12:AC12)</f>
-        <v>4</v>
+      <c r="B12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
+        <v>6</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -25617,7 +26011,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="40">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
         <v>25</v>
       </c>
     </row>
@@ -29531,7 +29925,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="36">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$45,B54,$F$28:$F$45)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$45,B54,$F$28:$F$45)</f>
         <v>33</v>
       </c>
     </row>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083F6F3-62E2-45F0-BAC7-B0DC69BF4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF550B-8F1B-49AF-A2DC-FEB06D2CB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="21600" windowHeight="11320" tabRatio="936" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="658">
   <si>
     <t>Команда</t>
   </si>
@@ -1913,6 +1913,132 @@
   </si>
   <si>
     <t>+2 круга</t>
+  </si>
+  <si>
+    <t>+11.817</t>
+  </si>
+  <si>
+    <t>1:30.094</t>
+  </si>
+  <si>
+    <t>1:30.990</t>
+  </si>
+  <si>
+    <t>1:31.090</t>
+  </si>
+  <si>
+    <t>1:30.429</t>
+  </si>
+  <si>
+    <t>1:30.960</t>
+  </si>
+  <si>
+    <t>1:31.850</t>
+  </si>
+  <si>
+    <t>1:30.950</t>
+  </si>
+  <si>
+    <t>1:30.924</t>
+  </si>
+  <si>
+    <t>1:31.132</t>
+  </si>
+  <si>
+    <t>1:31.224</t>
+  </si>
+  <si>
+    <t>1:31.241</t>
+  </si>
+  <si>
+    <t>1:31.870</t>
+  </si>
+  <si>
+    <t>1:30.732</t>
+  </si>
+  <si>
+    <t>1:31.608</t>
+  </si>
+  <si>
+    <t>1:31.826</t>
+  </si>
+  <si>
+    <t>1:31.739</t>
+  </si>
+  <si>
+    <t>1:31.492</t>
+  </si>
+  <si>
+    <t>1:30.991</t>
+  </si>
+  <si>
+    <t>1:31.479</t>
+  </si>
+  <si>
+    <t>1:31.520</t>
+  </si>
+  <si>
+    <t>1:31.614</t>
+  </si>
+  <si>
+    <t>1:32.739</t>
+  </si>
+  <si>
+    <t>01:22.18</t>
+  </si>
+  <si>
+    <t>+0.583</t>
+  </si>
+  <si>
+    <t>+7.200</t>
+  </si>
+  <si>
+    <t>+0.522</t>
+  </si>
+  <si>
+    <t>+12.440</t>
+  </si>
+  <si>
+    <t>+3.291</t>
+  </si>
+  <si>
+    <t>+3.166</t>
+  </si>
+  <si>
+    <t>+1.627</t>
+  </si>
+  <si>
+    <t>+5.708</t>
+  </si>
+  <si>
+    <t>+0.235</t>
+  </si>
+  <si>
+    <t>+0.151</t>
+  </si>
+  <si>
+    <t>+0.318</t>
+  </si>
+  <si>
+    <t>+0.274</t>
+  </si>
+  <si>
+    <t>+5.888</t>
+  </si>
+  <si>
+    <t>+4.185</t>
+  </si>
+  <si>
+    <t>+2.191</t>
+  </si>
+  <si>
+    <t>+12.458</t>
+  </si>
+  <si>
+    <t>+0.612</t>
+  </si>
+  <si>
+    <t>+0.256</t>
   </si>
 </sst>
 </file>
@@ -2566,8 +2692,8 @@
   <colors>
     <mruColors>
       <color rgb="FF8847BD"/>
+      <color rgb="FFFF8700"/>
       <color rgb="FFDC0000"/>
-      <color rgb="FFFF8700"/>
       <color rgb="FF1E41FF"/>
       <color rgb="FFB9DCFF"/>
       <color rgb="FF00D2BE"/>
@@ -7301,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA7B10F-E97F-41F2-9ECD-6C71DD3F4C40}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8164,7 +8290,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$44,B53,$F$28:$F$44)</f>
+        <f>SUMIF($C$28:$C$44,B53,$F$28:$F$44)</f>
         <v>43</v>
       </c>
       <c r="D53" s="81"/>
@@ -8179,7 +8305,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$44,B54,$F$28:$F$44)</f>
         <v>21</v>
       </c>
       <c r="D54" s="81"/>
@@ -8335,8 +8461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E87955-1CA6-44A1-B729-295862864CA2}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9126,7 +9252,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="41">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>27</v>
       </c>
     </row>
@@ -9138,7 +9264,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>25</v>
       </c>
     </row>
@@ -9259,8 +9385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C046ED-D745-4947-8D83-563F3182B19C}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9273,289 +9399,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="28"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -9565,605 +9748,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>639</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>618</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>616</v>
+      </c>
+      <c r="F29" s="83">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>619</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>640</v>
+      </c>
+      <c r="F30" s="82">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>620</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>642</v>
+      </c>
+      <c r="F32" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>622</v>
+      </c>
+      <c r="E33" s="115" t="s">
+        <v>643</v>
+      </c>
+      <c r="F33" s="90">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>644</v>
+      </c>
+      <c r="F34" s="84">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>624</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>645</v>
+      </c>
+      <c r="F35" s="87">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" s="115" t="s">
+        <v>646</v>
+      </c>
+      <c r="F36" s="90">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>626</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>647</v>
+      </c>
+      <c r="F37" s="104">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>648</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>649</v>
+      </c>
+      <c r="F39" s="86">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>629</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>650</v>
+      </c>
+      <c r="F41" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>631</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>651</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>632</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="F43" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>633</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>653</v>
+      </c>
+      <c r="F44" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>634</v>
+      </c>
+      <c r="E45" s="107" t="s">
+        <v>654</v>
+      </c>
+      <c r="F45" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>655</v>
+      </c>
+      <c r="F46" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>636</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>656</v>
+      </c>
+      <c r="F47" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>637</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>657</v>
+      </c>
+      <c r="F48" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="118" t="s">
+        <v>638</v>
+      </c>
+      <c r="E49" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>41</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>28</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="86">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>12</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="90">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>10</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="84">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="87">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>4</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="105">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12913,8 +13153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13089,7 +13329,9 @@
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="59">
+        <v>26</v>
+      </c>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
@@ -13105,8 +13347,8 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f t="shared" ref="AD2:AD23" si="0">SUM(C2:AC2)</f>
-        <v>203</v>
+        <f>SUM(C2:AC2)</f>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -13152,7 +13394,9 @@
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="82">
+        <v>15</v>
+      </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
@@ -13168,8 +13412,8 @@
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C3:AC3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -13215,7 +13459,9 @@
       <c r="N4" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="62"/>
+      <c r="O4" s="83">
+        <v>18</v>
+      </c>
       <c r="P4" s="62"/>
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
@@ -13231,8 +13477,8 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <f>SUM(C4:AC4)</f>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -13276,7 +13522,9 @@
       <c r="N5" s="40">
         <v>1</v>
       </c>
-      <c r="O5" s="66"/>
+      <c r="O5" s="86">
+        <v>12</v>
+      </c>
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
@@ -13292,8 +13540,8 @@
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(C5:AC5)</f>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -13339,7 +13587,9 @@
       <c r="N6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="70"/>
+      <c r="O6" s="90">
+        <v>8</v>
+      </c>
       <c r="P6" s="70"/>
       <c r="Q6" s="70"/>
       <c r="R6" s="70"/>
@@ -13355,8 +13605,8 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f>SUM(C6:AC6)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -13396,7 +13646,9 @@
       <c r="N7" s="38">
         <v>2</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="84">
+        <v>6</v>
+      </c>
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
       <c r="R7" s="69"/>
@@ -13412,8 +13664,8 @@
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f>SUM(C7:AC7)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -13453,7 +13705,7 @@
       <c r="N8" s="79">
         <v>19</v>
       </c>
-      <c r="O8" s="66"/>
+      <c r="O8" s="116"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
@@ -13469,7 +13721,7 @@
       <c r="AB8" s="66"/>
       <c r="AC8" s="66"/>
       <c r="AD8" s="60">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:AC8)</f>
         <v>70</v>
       </c>
     </row>
@@ -13512,7 +13764,7 @@
       <c r="N9" s="41">
         <v>15</v>
       </c>
-      <c r="O9" s="65"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
       <c r="R9" s="65"/>
@@ -13528,7 +13780,7 @@
       <c r="AB9" s="65"/>
       <c r="AC9" s="65"/>
       <c r="AD9" s="41">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:AC9)</f>
         <v>69</v>
       </c>
     </row>
@@ -13571,7 +13823,9 @@
       <c r="N10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="83">
+        <v>10</v>
+      </c>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
@@ -13587,8 +13841,8 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>SUM(C10:AC10)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -13622,7 +13876,9 @@
       <c r="N11" s="41">
         <v>12</v>
       </c>
-      <c r="O11" s="65"/>
+      <c r="O11" s="87">
+        <v>4</v>
+      </c>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
@@ -13638,8 +13894,8 @@
       <c r="AB11" s="65"/>
       <c r="AC11" s="65"/>
       <c r="AD11" s="41">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(C11:AC11)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -13667,7 +13923,7 @@
       <c r="N12" s="43">
         <v>25</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
@@ -13683,7 +13939,7 @@
       <c r="AB12" s="68"/>
       <c r="AC12" s="68"/>
       <c r="AD12" s="43">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AC12)</f>
         <v>29</v>
       </c>
     </row>
@@ -13714,7 +13970,7 @@
       <c r="N13" s="44">
         <v>10</v>
       </c>
-      <c r="O13" s="67"/>
+      <c r="O13" s="89"/>
       <c r="P13" s="67"/>
       <c r="Q13" s="67"/>
       <c r="R13" s="67"/>
@@ -13730,7 +13986,7 @@
       <c r="AB13" s="67"/>
       <c r="AC13" s="67"/>
       <c r="AD13" s="44">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:AC13)</f>
         <v>20</v>
       </c>
     </row>
@@ -13759,7 +14015,9 @@
       <c r="N14" s="45">
         <v>4</v>
       </c>
-      <c r="O14" s="70"/>
+      <c r="O14" s="90">
+        <v>2</v>
+      </c>
       <c r="P14" s="70"/>
       <c r="Q14" s="70"/>
       <c r="R14" s="70"/>
@@ -13775,8 +14033,8 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
       <c r="AD14" s="45">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(C14:AC14)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -13806,7 +14064,7 @@
       <c r="N15" s="46">
         <v>8</v>
       </c>
-      <c r="O15" s="64"/>
+      <c r="O15" s="91"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
       <c r="R15" s="64"/>
@@ -13822,7 +14080,7 @@
       <c r="AB15" s="64"/>
       <c r="AC15" s="64"/>
       <c r="AD15" s="46">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:AC15)</f>
         <v>13</v>
       </c>
     </row>
@@ -13851,7 +14109,7 @@
       <c r="N16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="69"/>
+      <c r="O16" s="84"/>
       <c r="P16" s="69"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="69"/>
@@ -13867,7 +14125,7 @@
       <c r="AB16" s="69"/>
       <c r="AC16" s="69"/>
       <c r="AD16" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:AC16)</f>
         <v>8</v>
       </c>
     </row>
@@ -13898,7 +14156,9 @@
       <c r="N17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="71"/>
+      <c r="O17" s="104">
+        <v>1</v>
+      </c>
       <c r="P17" s="71"/>
       <c r="Q17" s="71"/>
       <c r="R17" s="71"/>
@@ -13914,8 +14174,8 @@
       <c r="AB17" s="71"/>
       <c r="AC17" s="71"/>
       <c r="AD17" s="34">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(C17:AC17)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
@@ -13941,7 +14201,7 @@
       <c r="N18" s="44">
         <v>6</v>
       </c>
-      <c r="O18" s="67"/>
+      <c r="O18" s="89"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
@@ -13957,7 +14217,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="44">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:AC18)</f>
         <v>7</v>
       </c>
     </row>
@@ -13990,7 +14250,7 @@
       <c r="N19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="63"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="63"/>
       <c r="R19" s="63"/>
@@ -14006,7 +14266,7 @@
       <c r="AB19" s="63"/>
       <c r="AC19" s="63"/>
       <c r="AD19" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:AC19)</f>
         <v>5</v>
       </c>
     </row>
@@ -14039,7 +14299,7 @@
       <c r="N20" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="63"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
       <c r="R20" s="63"/>
@@ -14055,7 +14315,7 @@
       <c r="AB20" s="63"/>
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:AC20)</f>
         <v>4</v>
       </c>
     </row>
@@ -14084,7 +14344,7 @@
       <c r="N21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="71"/>
+      <c r="O21" s="104"/>
       <c r="P21" s="71"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="71"/>
@@ -14100,7 +14360,7 @@
       <c r="AB21" s="71"/>
       <c r="AC21" s="71"/>
       <c r="AD21" s="34">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:AC21)</f>
         <v>0</v>
       </c>
     </row>
@@ -14129,7 +14389,7 @@
       <c r="N22" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="68"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
@@ -14145,7 +14405,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
       <c r="AD22" s="43">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:AC22)</f>
         <v>0</v>
       </c>
     </row>
@@ -14170,7 +14430,7 @@
       <c r="N23" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="64"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="64"/>
       <c r="Q23" s="64"/>
       <c r="R23" s="64"/>
@@ -14186,7 +14446,7 @@
       <c r="AB23" s="64"/>
       <c r="AC23" s="64"/>
       <c r="AD23" s="46">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:AC23)</f>
         <v>0</v>
       </c>
     </row>
@@ -23334,7 +23594,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23506,7 +23766,9 @@
         <v>43</v>
       </c>
       <c r="N2" s="36"/>
-      <c r="O2" s="61"/>
+      <c r="O2" s="59">
+        <v>41</v>
+      </c>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
@@ -23522,8 +23784,8 @@
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
-        <f t="shared" ref="AD2:AD12" si="0">SUM(C2:AC2)</f>
-        <v>388</v>
+        <f>SUM(C2:AC2)</f>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -23565,7 +23827,9 @@
         <v>21</v>
       </c>
       <c r="N3" s="37"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="83">
+        <v>28</v>
+      </c>
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
@@ -23581,8 +23845,8 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
-        <f t="shared" si="0"/>
-        <v>199</v>
+        <f>SUM(C3:AC3)</f>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -23628,7 +23892,9 @@
       <c r="N4" s="59">
         <v>20</v>
       </c>
-      <c r="O4" s="66"/>
+      <c r="O4" s="86">
+        <v>12</v>
+      </c>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
       <c r="R4" s="66"/>
@@ -23644,8 +23910,8 @@
       <c r="AB4" s="66"/>
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C4:AC4)</f>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -23691,7 +23957,9 @@
       <c r="N5" s="45">
         <v>4</v>
       </c>
-      <c r="O5" s="70"/>
+      <c r="O5" s="90">
+        <v>10</v>
+      </c>
       <c r="P5" s="70"/>
       <c r="Q5" s="70"/>
       <c r="R5" s="70"/>
@@ -23707,8 +23975,8 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
-        <f t="shared" si="0"/>
-        <v>116</v>
+        <f>SUM(C5:AC5)</f>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -23752,7 +24020,9 @@
       <c r="N6" s="41">
         <v>27</v>
       </c>
-      <c r="O6" s="65"/>
+      <c r="O6" s="87">
+        <v>4</v>
+      </c>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
@@ -23768,8 +24038,8 @@
       <c r="AB6" s="65"/>
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f>SUM(C6:AC6)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -23811,7 +24081,9 @@
       <c r="N7" s="38">
         <v>2</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="84">
+        <v>6</v>
+      </c>
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
       <c r="R7" s="69"/>
@@ -23827,8 +24099,8 @@
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
-        <f t="shared" si="0"/>
-        <v>81</v>
+        <f>SUM(C7:AC7)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -23854,7 +24126,7 @@
       <c r="N8" s="43">
         <v>25</v>
       </c>
-      <c r="O8" s="68"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="68"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="68"/>
@@ -23870,7 +24142,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
       <c r="AD8" s="43">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:AC8)</f>
         <v>29</v>
       </c>
     </row>
@@ -23901,7 +24173,7 @@
       <c r="N9" s="44">
         <v>16</v>
       </c>
-      <c r="O9" s="67"/>
+      <c r="O9" s="89"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="67"/>
       <c r="R9" s="67"/>
@@ -23917,7 +24189,7 @@
       <c r="AB9" s="67"/>
       <c r="AC9" s="67"/>
       <c r="AD9" s="44">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:AC9)</f>
         <v>27</v>
       </c>
     </row>
@@ -23948,7 +24220,7 @@
       <c r="N10" s="46">
         <v>8</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="91"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
@@ -23964,7 +24236,7 @@
       <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
       <c r="AD10" s="46">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:AC10)</f>
         <v>13</v>
       </c>
     </row>
@@ -23995,7 +24267,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="58"/>
       <c r="N11" s="39"/>
-      <c r="O11" s="63"/>
+      <c r="O11" s="85"/>
       <c r="P11" s="63"/>
       <c r="Q11" s="63"/>
       <c r="R11" s="63"/>
@@ -24011,7 +24283,7 @@
       <c r="AB11" s="63"/>
       <c r="AC11" s="63"/>
       <c r="AD11" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:AC11)</f>
         <v>9</v>
       </c>
     </row>
@@ -24038,7 +24310,9 @@
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="72"/>
+      <c r="O12" s="105">
+        <v>1</v>
+      </c>
       <c r="P12" s="72"/>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
@@ -24054,8 +24328,8 @@
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
       <c r="AD12" s="34">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(C12:AC12)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF550B-8F1B-49AF-A2DC-FEB06D2CB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F11390-70EF-47FF-9F4C-167DCAA25E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="690">
   <si>
     <t>Команда</t>
   </si>
@@ -2039,6 +2039,102 @@
   </si>
   <si>
     <t>+0.256</t>
+  </si>
+  <si>
+    <t>1:17.885</t>
+  </si>
+  <si>
+    <t>1:16.127</t>
+  </si>
+  <si>
+    <t>1:16.953</t>
+  </si>
+  <si>
+    <t>1:17.531</t>
+  </si>
+  <si>
+    <t>1:17.494</t>
+  </si>
+  <si>
+    <t>1:17.436</t>
+  </si>
+  <si>
+    <t>1:16.779</t>
+  </si>
+  <si>
+    <t>1:17.303</t>
+  </si>
+  <si>
+    <t>1:17.997</t>
+  </si>
+  <si>
+    <t>1:17.936</t>
+  </si>
+  <si>
+    <t>1:19.190</t>
+  </si>
+  <si>
+    <t>1:17.720</t>
+  </si>
+  <si>
+    <t>1:18.676</t>
+  </si>
+  <si>
+    <t>1:18.789</t>
+  </si>
+  <si>
+    <t>1:18.394</t>
+  </si>
+  <si>
+    <t>1:18.330</t>
+  </si>
+  <si>
+    <t>1:18.488</t>
+  </si>
+  <si>
+    <t>1:18.509</t>
+  </si>
+  <si>
+    <t>1:18.271</t>
+  </si>
+  <si>
+    <t>1:17.634</t>
+  </si>
+  <si>
+    <t>1:17.644</t>
+  </si>
+  <si>
+    <t>01:36.14</t>
+  </si>
+  <si>
+    <t>+1.059</t>
+  </si>
+  <si>
+    <t>+8.460</t>
+  </si>
+  <si>
+    <t>+3.520</t>
+  </si>
+  <si>
+    <t>+24.300</t>
+  </si>
+  <si>
+    <t>+15.692</t>
+  </si>
+  <si>
+    <t>+1.952</t>
+  </si>
+  <si>
+    <t>+2.040</t>
+  </si>
+  <si>
+    <t>+1.863</t>
+  </si>
+  <si>
+    <t>+6.977</t>
+  </si>
+  <si>
+    <t>+5.579</t>
   </si>
 </sst>
 </file>
@@ -8305,7 +8401,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$44,B54,$F$28:$F$44)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$44,B54,$F$28:$F$44)</f>
         <v>21</v>
       </c>
       <c r="D54" s="81"/>
@@ -9264,7 +9360,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="43">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
         <v>25</v>
       </c>
     </row>
@@ -9385,8 +9481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C046ED-D745-4947-8D83-563F3182B19C}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10257,7 +10353,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
         <v>28</v>
       </c>
       <c r="D54" s="81"/>
@@ -10272,7 +10368,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="86">
-        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D55" s="81"/>
@@ -10287,7 +10383,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="90">
-        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D56" s="81"/>
@@ -10302,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="84">
-        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D57" s="81"/>
@@ -10317,7 +10413,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="87">
-        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="81"/>
@@ -10332,7 +10428,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="105">
-        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D59" s="81"/>
@@ -10347,7 +10443,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="89">
-        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -10362,7 +10458,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -10377,7 +10473,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -10392,7 +10488,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -10413,8 +10509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8818EDB6-5506-485F-B6BA-147FE5E9D10A}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10427,289 +10523,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="28"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -10719,605 +10872,661 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>658</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>679</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>680</v>
+      </c>
+      <c r="F29" s="82">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>660</v>
+      </c>
+      <c r="E30" s="113" t="s">
+        <v>681</v>
+      </c>
+      <c r="F30" s="86">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="F31" s="83">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>662</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>683</v>
+      </c>
+      <c r="F32" s="87">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>663</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>684</v>
+      </c>
+      <c r="F33" s="83">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>664</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>685</v>
+      </c>
+      <c r="F34" s="84">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>665</v>
+      </c>
+      <c r="E35" s="113" t="s">
+        <v>686</v>
+      </c>
+      <c r="F35" s="86">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="E36" s="115" t="s">
+        <v>687</v>
+      </c>
+      <c r="F36" s="90">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>667</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="F37" s="104">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>668</v>
+      </c>
+      <c r="E38" s="114" t="s">
+        <v>689</v>
+      </c>
+      <c r="F38" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>669</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>670</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>671</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>672</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>674</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>675</v>
+      </c>
+      <c r="E46" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>676</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>677</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="103" t="s">
+        <v>678</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>20</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="86">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>19</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="87">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>10</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="84">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="90">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="105">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13153,8 +13362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13332,7 +13541,9 @@
       <c r="O2" s="59">
         <v>26</v>
       </c>
-      <c r="P2" s="61"/>
+      <c r="P2" s="59">
+        <v>19</v>
+      </c>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
@@ -13348,7 +13559,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -13397,7 +13608,9 @@
       <c r="O3" s="82">
         <v>15</v>
       </c>
-      <c r="P3" s="61"/>
+      <c r="P3" s="82">
+        <v>25</v>
+      </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
@@ -13413,7 +13626,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -13462,7 +13675,9 @@
       <c r="O4" s="83">
         <v>18</v>
       </c>
-      <c r="P4" s="62"/>
+      <c r="P4" s="83">
+        <v>12</v>
+      </c>
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
       <c r="S4" s="62"/>
@@ -13478,7 +13693,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -13525,7 +13740,9 @@
       <c r="O5" s="86">
         <v>12</v>
       </c>
-      <c r="P5" s="66"/>
+      <c r="P5" s="86">
+        <v>15</v>
+      </c>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -13541,7 +13758,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -13590,7 +13807,9 @@
       <c r="O6" s="90">
         <v>8</v>
       </c>
-      <c r="P6" s="70"/>
+      <c r="P6" s="90" t="s">
+        <v>66</v>
+      </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
@@ -13649,7 +13868,9 @@
       <c r="O7" s="84">
         <v>6</v>
       </c>
-      <c r="P7" s="69"/>
+      <c r="P7" s="84">
+        <v>6</v>
+      </c>
       <c r="Q7" s="69"/>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
@@ -13665,123 +13886,127 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="60">
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87">
+        <v>4</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87">
+        <v>1</v>
+      </c>
+      <c r="H8" s="87">
         <v>10</v>
       </c>
-      <c r="D8" s="60">
+      <c r="I8" s="87">
+        <v>8</v>
+      </c>
+      <c r="J8" s="87">
+        <v>1</v>
+      </c>
+      <c r="K8" s="87">
+        <v>8</v>
+      </c>
+      <c r="L8" s="87">
+        <v>10</v>
+      </c>
+      <c r="M8" s="87">
+        <v>10</v>
+      </c>
+      <c r="N8" s="87">
         <v>15</v>
       </c>
-      <c r="E8" s="60">
+      <c r="O8" s="87"/>
+      <c r="P8" s="87">
         <v>10</v>
       </c>
-      <c r="F8" s="60">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60">
-        <v>4</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60">
-        <v>1</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60">
-        <v>2</v>
-      </c>
-      <c r="L8" s="60">
-        <v>8</v>
-      </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="79">
-        <v>19</v>
-      </c>
-      <c r="O8" s="116"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="60">
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="B9" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="116">
+        <v>10</v>
+      </c>
+      <c r="D9" s="116">
+        <v>15</v>
+      </c>
+      <c r="E9" s="116">
+        <v>10</v>
+      </c>
+      <c r="F9" s="116">
+        <v>1</v>
+      </c>
+      <c r="G9" s="116">
+        <v>4</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116">
+        <v>1</v>
+      </c>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="L9" s="116">
+        <v>8</v>
+      </c>
+      <c r="M9" s="116"/>
+      <c r="N9" s="79">
+        <v>19</v>
+      </c>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116">
         <v>4</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41">
-        <v>10</v>
-      </c>
-      <c r="I9" s="41">
-        <v>8</v>
-      </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="41">
-        <v>8</v>
-      </c>
-      <c r="L9" s="41">
-        <v>10</v>
-      </c>
-      <c r="M9" s="41">
-        <v>10</v>
-      </c>
-      <c r="N9" s="41">
-        <v>15</v>
-      </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="41">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="116">
         <f>SUM(C9:AC9)</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -13826,7 +14051,9 @@
       <c r="O10" s="83">
         <v>10</v>
       </c>
-      <c r="P10" s="62"/>
+      <c r="P10" s="83">
+        <v>8</v>
+      </c>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="S10" s="62"/>
@@ -13842,7 +14069,7 @@
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
         <f>SUM(C10:AC10)</f>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -13879,7 +14106,7 @@
       <c r="O11" s="87">
         <v>4</v>
       </c>
-      <c r="P11" s="65"/>
+      <c r="P11" s="87"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
       <c r="S11" s="65"/>
@@ -13924,7 +14151,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="88"/>
-      <c r="P12" s="68"/>
+      <c r="P12" s="88"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
@@ -13947,92 +14174,94 @@
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44">
+      <c r="B13" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90">
+        <v>6</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="90">
+        <v>8</v>
+      </c>
+      <c r="N13" s="90">
         <v>4</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="44">
-        <v>6</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44">
-        <v>10</v>
-      </c>
-      <c r="O13" s="89"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="44">
+      <c r="O13" s="90">
+        <v>2</v>
+      </c>
+      <c r="P13" s="90">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="90">
         <f>SUM(C13:AC13)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45">
+      <c r="B14" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89">
+        <v>4</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="89">
         <v>6</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="45">
-        <v>8</v>
-      </c>
-      <c r="N14" s="45">
-        <v>4</v>
-      </c>
-      <c r="O14" s="90">
-        <v>2</v>
-      </c>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="45">
+      <c r="M14" s="89"/>
+      <c r="N14" s="89">
+        <v>10</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="89">
         <f>SUM(C14:AC14)</f>
         <v>20</v>
       </c>
@@ -14065,7 +14294,7 @@
         <v>8</v>
       </c>
       <c r="O15" s="91"/>
-      <c r="P15" s="64"/>
+      <c r="P15" s="91"/>
       <c r="Q15" s="64"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
@@ -14088,92 +14317,94 @@
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38">
+      <c r="B16" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104">
         <v>6</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38">
-        <v>2</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="84"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="38">
+      <c r="M16" s="104"/>
+      <c r="N16" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="104">
+        <v>1</v>
+      </c>
+      <c r="P16" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="104">
         <f>SUM(C16:AC16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34">
+      <c r="B17" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84">
         <v>6</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34">
-        <v>1</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84">
+        <v>2</v>
+      </c>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="104">
-        <v>1</v>
-      </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="34">
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="84">
         <f>SUM(C17:AC17)</f>
         <v>8</v>
       </c>
@@ -14202,7 +14433,7 @@
         <v>6</v>
       </c>
       <c r="O18" s="89"/>
-      <c r="P18" s="67"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
@@ -14251,7 +14482,7 @@
         <v>66</v>
       </c>
       <c r="O19" s="85"/>
-      <c r="P19" s="63"/>
+      <c r="P19" s="85"/>
       <c r="Q19" s="63"/>
       <c r="R19" s="63"/>
       <c r="S19" s="63"/>
@@ -14300,7 +14531,7 @@
         <v>66</v>
       </c>
       <c r="O20" s="85"/>
-      <c r="P20" s="63"/>
+      <c r="P20" s="85"/>
       <c r="Q20" s="63"/>
       <c r="R20" s="63"/>
       <c r="S20" s="63"/>
@@ -14345,7 +14576,7 @@
         <v>66</v>
       </c>
       <c r="O21" s="104"/>
-      <c r="P21" s="71"/>
+      <c r="P21" s="104"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="71"/>
       <c r="S21" s="71"/>
@@ -14390,7 +14621,7 @@
         <v>66</v>
       </c>
       <c r="O22" s="88"/>
-      <c r="P22" s="68"/>
+      <c r="P22" s="88"/>
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
       <c r="S22" s="68"/>
@@ -14431,7 +14662,7 @@
         <v>66</v>
       </c>
       <c r="O23" s="91"/>
-      <c r="P23" s="64"/>
+      <c r="P23" s="91"/>
       <c r="Q23" s="64"/>
       <c r="R23" s="64"/>
       <c r="S23" s="64"/>
@@ -23594,7 +23825,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23769,7 +24000,9 @@
       <c r="O2" s="59">
         <v>41</v>
       </c>
-      <c r="P2" s="61"/>
+      <c r="P2" s="59">
+        <v>44</v>
+      </c>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
@@ -23785,7 +24018,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -23830,7 +24063,9 @@
       <c r="O3" s="83">
         <v>28</v>
       </c>
-      <c r="P3" s="62"/>
+      <c r="P3" s="83">
+        <v>20</v>
+      </c>
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
       <c r="S3" s="62"/>
@@ -23846,7 +24081,7 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
         <f>SUM(C3:AC3)</f>
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -23895,7 +24130,9 @@
       <c r="O4" s="86">
         <v>12</v>
       </c>
-      <c r="P4" s="66"/>
+      <c r="P4" s="86">
+        <v>19</v>
+      </c>
       <c r="Q4" s="66"/>
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
@@ -23911,7 +24148,7 @@
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
         <f>SUM(C4:AC4)</f>
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -23960,7 +24197,9 @@
       <c r="O5" s="90">
         <v>10</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="90">
+        <v>2</v>
+      </c>
       <c r="Q5" s="70"/>
       <c r="R5" s="70"/>
       <c r="S5" s="70"/>
@@ -23976,7 +24215,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -24023,7 +24262,9 @@
       <c r="O6" s="87">
         <v>4</v>
       </c>
-      <c r="P6" s="65"/>
+      <c r="P6" s="87">
+        <v>10</v>
+      </c>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
       <c r="S6" s="65"/>
@@ -24039,7 +24280,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -24084,7 +24325,9 @@
       <c r="O7" s="84">
         <v>6</v>
       </c>
-      <c r="P7" s="69"/>
+      <c r="P7" s="84">
+        <v>6</v>
+      </c>
       <c r="Q7" s="69"/>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
@@ -24100,7 +24343,7 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -24127,7 +24370,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="88"/>
-      <c r="P8" s="68"/>
+      <c r="P8" s="88"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
@@ -24174,7 +24417,7 @@
         <v>16</v>
       </c>
       <c r="O9" s="89"/>
-      <c r="P9" s="67"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="67"/>
       <c r="R9" s="67"/>
       <c r="S9" s="67"/>
@@ -24221,7 +24464,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="91"/>
-      <c r="P10" s="64"/>
+      <c r="P10" s="91"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
@@ -24268,7 +24511,7 @@
       <c r="M11" s="58"/>
       <c r="N11" s="39"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="63"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="63"/>
       <c r="R11" s="63"/>
       <c r="S11" s="63"/>
@@ -24313,7 +24556,9 @@
       <c r="O12" s="105">
         <v>1</v>
       </c>
-      <c r="P12" s="72"/>
+      <c r="P12" s="105">
+        <v>1</v>
+      </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72"/>
@@ -24329,7 +24574,7 @@
       <c r="AC12" s="72"/>
       <c r="AD12" s="34">
         <f>SUM(C12:AC12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F11390-70EF-47FF-9F4C-167DCAA25E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC677569-63EA-4ADE-9AB0-1717F3F84DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4987" uniqueCount="724">
   <si>
     <t>Команда</t>
   </si>
@@ -2135,6 +2135,108 @@
   </si>
   <si>
     <t>+5.579</t>
+  </si>
+  <si>
+    <t>1:11.121</t>
+  </si>
+  <si>
+    <t>1:11.529</t>
+  </si>
+  <si>
+    <t>1:11.273</t>
+  </si>
+  <si>
+    <t>1:11.384</t>
+  </si>
+  <si>
+    <t>1:11.808</t>
+  </si>
+  <si>
+    <t>1:10.382</t>
+  </si>
+  <si>
+    <t>1:11.677</t>
+  </si>
+  <si>
+    <t>1:11.579</t>
+  </si>
+  <si>
+    <t>1:11.771</t>
+  </si>
+  <si>
+    <t>1:12.158</t>
+  </si>
+  <si>
+    <t>1:11.569</t>
+  </si>
+  <si>
+    <t>1:11.691</t>
+  </si>
+  <si>
+    <t>1:11.856</t>
+  </si>
+  <si>
+    <t>1:11.368</t>
+  </si>
+  <si>
+    <t>1:11.854</t>
+  </si>
+  <si>
+    <t>1:12.073</t>
+  </si>
+  <si>
+    <t>1:11.881</t>
+  </si>
+  <si>
+    <t>1:11.532</t>
+  </si>
+  <si>
+    <t>1:11.034</t>
+  </si>
+  <si>
+    <t>1:12.698</t>
+  </si>
+  <si>
+    <t>01:31.01</t>
+  </si>
+  <si>
+    <t>+2.839</t>
+  </si>
+  <si>
+    <t>+5.756</t>
+  </si>
+  <si>
+    <t>+16.903</t>
+  </si>
+  <si>
+    <t>+9.701</t>
+  </si>
+  <si>
+    <t>+0.004</t>
+  </si>
+  <si>
+    <t>+23.559</t>
+  </si>
+  <si>
+    <t>+3.733</t>
+  </si>
+  <si>
+    <t>+6.257</t>
+  </si>
+  <si>
+    <t>+0.056</t>
+  </si>
+  <si>
+    <t>+1.534</t>
+  </si>
+  <si>
+    <t>+0.153</t>
+  </si>
+  <si>
+    <t>Круг: +1</t>
+  </si>
+  <si>
+    <t>Выбыл</t>
   </si>
 </sst>
 </file>
@@ -10353,7 +10455,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <f t="shared" ref="C54:C63" si="0">SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
         <v>28</v>
       </c>
       <c r="D54" s="81"/>
@@ -10509,8 +10611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8818EDB6-5506-485F-B6BA-147FE5E9D10A}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11366,7 +11468,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>44</v>
       </c>
       <c r="D53" s="81"/>
@@ -11381,7 +11483,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D54" s="81"/>
@@ -11396,7 +11498,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="86">
-        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D55" s="81"/>
@@ -11411,7 +11513,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="87">
-        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D56" s="81"/>
@@ -11426,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="84">
-        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D57" s="81"/>
@@ -11441,7 +11543,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="90">
-        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D58" s="81"/>
@@ -11456,7 +11558,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="105">
-        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D59" s="81"/>
@@ -11471,7 +11573,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="89">
-        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -11486,7 +11588,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -11501,7 +11603,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -11516,7 +11618,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -11535,8 +11637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFCBAF5-4298-4383-88A2-C0F31AFD220D}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11549,289 +11651,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="28"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -11841,605 +12000,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>710</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>691</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>711</v>
+      </c>
+      <c r="F29" s="82">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>692</v>
+      </c>
+      <c r="E30" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="F30" s="87">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>713</v>
+      </c>
+      <c r="F31" s="83">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>694</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>714</v>
+      </c>
+      <c r="F32" s="86">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>695</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>715</v>
+      </c>
+      <c r="F33" s="83">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>716</v>
+      </c>
+      <c r="F34" s="90">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>697</v>
+      </c>
+      <c r="E35" s="113" t="s">
+        <v>717</v>
+      </c>
+      <c r="F35" s="86">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>698</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>718</v>
+      </c>
+      <c r="F36" s="84">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>719</v>
+      </c>
+      <c r="F37" s="85">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>700</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>720</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>701</v>
+      </c>
+      <c r="E39" s="117" t="s">
+        <v>721</v>
+      </c>
+      <c r="F39" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>702</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>722</v>
+      </c>
+      <c r="F40" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>703</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>704</v>
+      </c>
+      <c r="E42" s="115" t="s">
+        <v>722</v>
+      </c>
+      <c r="F42" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="99" t="s">
+        <v>705</v>
+      </c>
+      <c r="E43" s="112" t="s">
+        <v>722</v>
+      </c>
+      <c r="F43" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>706</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>722</v>
+      </c>
+      <c r="F44" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>707</v>
+      </c>
+      <c r="E45" s="114" t="s">
+        <v>722</v>
+      </c>
+      <c r="F45" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>708</v>
+      </c>
+      <c r="E46" s="117" t="s">
+        <v>722</v>
+      </c>
+      <c r="F46" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="98" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>722</v>
+      </c>
+      <c r="F47" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>709</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>722</v>
+      </c>
+      <c r="F48" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>581</v>
+      </c>
+      <c r="E49" s="107" t="s">
+        <v>723</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>43</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>21</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="87">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>15</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="86">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>14</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="90">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="84">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="85">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="105">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13363,7 +13579,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13524,7 +13740,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K2" s="36">
         <v>25</v>
@@ -13544,7 +13760,9 @@
       <c r="P2" s="59">
         <v>19</v>
       </c>
-      <c r="Q2" s="61"/>
+      <c r="Q2" s="82">
+        <v>18</v>
+      </c>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
@@ -13559,7 +13777,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -13591,7 +13809,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" s="36">
         <v>18</v>
@@ -13611,7 +13829,9 @@
       <c r="P3" s="82">
         <v>25</v>
       </c>
-      <c r="Q3" s="61"/>
+      <c r="Q3" s="82">
+        <v>25</v>
+      </c>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="61"/>
@@ -13626,7 +13846,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -13678,7 +13898,9 @@
       <c r="P4" s="83">
         <v>12</v>
       </c>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="83">
+        <v>12</v>
+      </c>
       <c r="R4" s="62"/>
       <c r="S4" s="62"/>
       <c r="T4" s="62"/>
@@ -13693,7 +13915,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -13743,7 +13965,9 @@
       <c r="P5" s="86">
         <v>15</v>
       </c>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="86">
+        <v>10</v>
+      </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
@@ -13758,7 +13982,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -13810,7 +14034,7 @@
       <c r="P6" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="70"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
@@ -13832,122 +14056,126 @@
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="38">
+      <c r="B7" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="87">
+        <v>2</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87">
         <v>4</v>
       </c>
-      <c r="D7" s="38">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87">
+        <v>1</v>
+      </c>
+      <c r="H7" s="87">
         <v>10</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="59">
-        <v>13</v>
-      </c>
-      <c r="G7" s="38">
-        <v>12</v>
-      </c>
-      <c r="H7" s="38">
-        <v>6</v>
-      </c>
-      <c r="I7" s="38">
-        <v>12</v>
-      </c>
-      <c r="J7" s="38">
-        <v>4</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="I7" s="87">
+        <v>8</v>
+      </c>
+      <c r="J7" s="87">
+        <v>1</v>
+      </c>
+      <c r="K7" s="87">
+        <v>8</v>
+      </c>
+      <c r="L7" s="87">
         <v>10</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <v>2</v>
-      </c>
-      <c r="O7" s="84">
-        <v>6</v>
-      </c>
-      <c r="P7" s="84">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="38">
+      <c r="M7" s="87">
+        <v>10</v>
+      </c>
+      <c r="N7" s="87">
+        <v>15</v>
+      </c>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="87">
+        <v>15</v>
+      </c>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="87">
         <f>SUM(C7:AC7)</f>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="87">
+      <c r="B8" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="84">
+        <v>4</v>
+      </c>
+      <c r="D8" s="84">
+        <v>10</v>
+      </c>
+      <c r="E8" s="84"/>
+      <c r="F8" s="59">
+        <v>13</v>
+      </c>
+      <c r="G8" s="84">
+        <v>12</v>
+      </c>
+      <c r="H8" s="84">
+        <v>6</v>
+      </c>
+      <c r="I8" s="84">
+        <v>12</v>
+      </c>
+      <c r="J8" s="84">
+        <v>4</v>
+      </c>
+      <c r="K8" s="84">
+        <v>10</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84">
         <v>2</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87">
-        <v>4</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87">
-        <v>1</v>
-      </c>
-      <c r="H8" s="87">
-        <v>10</v>
-      </c>
-      <c r="I8" s="87">
-        <v>8</v>
-      </c>
-      <c r="J8" s="87">
-        <v>1</v>
-      </c>
-      <c r="K8" s="87">
-        <v>8</v>
-      </c>
-      <c r="L8" s="87">
-        <v>10</v>
-      </c>
-      <c r="M8" s="87">
-        <v>10</v>
-      </c>
-      <c r="N8" s="87">
-        <v>15</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="87">
+      <c r="O8" s="84">
+        <v>6</v>
+      </c>
+      <c r="P8" s="84">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>2</v>
+      </c>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="84">
         <f>SUM(C8:AC8)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -13991,7 +14219,9 @@
       <c r="P9" s="116">
         <v>4</v>
       </c>
-      <c r="Q9" s="66"/>
+      <c r="Q9" s="116">
+        <v>4</v>
+      </c>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
@@ -14006,7 +14236,7 @@
       <c r="AC9" s="66"/>
       <c r="AD9" s="116">
         <f>SUM(C9:AC9)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -14054,7 +14284,9 @@
       <c r="P10" s="83">
         <v>8</v>
       </c>
-      <c r="Q10" s="62"/>
+      <c r="Q10" s="83">
+        <v>9</v>
+      </c>
       <c r="R10" s="62"/>
       <c r="S10" s="62"/>
       <c r="T10" s="62"/>
@@ -14069,7 +14301,7 @@
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
         <f>SUM(C10:AC10)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -14107,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="87"/>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="87"/>
       <c r="R11" s="65"/>
       <c r="S11" s="65"/>
       <c r="T11" s="65"/>
@@ -14152,7 +14384,7 @@
       </c>
       <c r="O12" s="88"/>
       <c r="P12" s="88"/>
-      <c r="Q12" s="68"/>
+      <c r="Q12" s="88"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
@@ -14201,7 +14433,9 @@
       <c r="P13" s="90">
         <v>2</v>
       </c>
-      <c r="Q13" s="70"/>
+      <c r="Q13" s="90">
+        <v>6</v>
+      </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70"/>
@@ -14216,7 +14450,7 @@
       <c r="AC13" s="70"/>
       <c r="AD13" s="90">
         <f>SUM(C13:AC13)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -14248,7 +14482,7 @@
       </c>
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
-      <c r="Q14" s="67"/>
+      <c r="Q14" s="89"/>
       <c r="R14" s="67"/>
       <c r="S14" s="67"/>
       <c r="T14" s="67"/>
@@ -14295,7 +14529,7 @@
       </c>
       <c r="O15" s="91"/>
       <c r="P15" s="91"/>
-      <c r="Q15" s="64"/>
+      <c r="Q15" s="91"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
@@ -14346,7 +14580,7 @@
       <c r="P16" s="104">
         <v>1</v>
       </c>
-      <c r="Q16" s="71"/>
+      <c r="Q16" s="104"/>
       <c r="R16" s="71"/>
       <c r="S16" s="71"/>
       <c r="T16" s="71"/>
@@ -14391,7 +14625,7 @@
       </c>
       <c r="O17" s="84"/>
       <c r="P17" s="84"/>
-      <c r="Q17" s="69"/>
+      <c r="Q17" s="84"/>
       <c r="R17" s="69"/>
       <c r="S17" s="69"/>
       <c r="T17" s="69"/>
@@ -14434,7 +14668,7 @@
       </c>
       <c r="O18" s="89"/>
       <c r="P18" s="89"/>
-      <c r="Q18" s="67"/>
+      <c r="Q18" s="89"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
       <c r="T18" s="67"/>
@@ -14483,7 +14717,9 @@
       </c>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
-      <c r="Q19" s="63"/>
+      <c r="Q19" s="85">
+        <v>1</v>
+      </c>
       <c r="R19" s="63"/>
       <c r="S19" s="63"/>
       <c r="T19" s="63"/>
@@ -14498,7 +14734,7 @@
       <c r="AC19" s="63"/>
       <c r="AD19" s="39">
         <f>SUM(C19:AC19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
@@ -14532,7 +14768,9 @@
       </c>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
-      <c r="Q20" s="63"/>
+      <c r="Q20" s="85" t="s">
+        <v>66</v>
+      </c>
       <c r="R20" s="63"/>
       <c r="S20" s="63"/>
       <c r="T20" s="63"/>
@@ -14577,7 +14815,7 @@
       </c>
       <c r="O21" s="104"/>
       <c r="P21" s="104"/>
-      <c r="Q21" s="71"/>
+      <c r="Q21" s="104"/>
       <c r="R21" s="71"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -14622,7 +14860,7 @@
       </c>
       <c r="O22" s="88"/>
       <c r="P22" s="88"/>
-      <c r="Q22" s="68"/>
+      <c r="Q22" s="88"/>
       <c r="R22" s="68"/>
       <c r="S22" s="68"/>
       <c r="T22" s="68"/>
@@ -14663,7 +14901,7 @@
       </c>
       <c r="O23" s="91"/>
       <c r="P23" s="91"/>
-      <c r="Q23" s="64"/>
+      <c r="Q23" s="91"/>
       <c r="R23" s="64"/>
       <c r="S23" s="64"/>
       <c r="T23" s="64"/>
@@ -23825,7 +24063,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24003,7 +24241,9 @@
       <c r="P2" s="59">
         <v>44</v>
       </c>
-      <c r="Q2" s="61"/>
+      <c r="Q2" s="82">
+        <v>43</v>
+      </c>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
@@ -24018,7 +24258,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>473</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -24066,7 +24306,9 @@
       <c r="P3" s="83">
         <v>20</v>
       </c>
-      <c r="Q3" s="62"/>
+      <c r="Q3" s="58">
+        <v>21</v>
+      </c>
       <c r="R3" s="62"/>
       <c r="S3" s="62"/>
       <c r="T3" s="62"/>
@@ -24081,7 +24323,7 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
         <f>SUM(C3:AC3)</f>
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -24133,7 +24375,9 @@
       <c r="P4" s="86">
         <v>19</v>
       </c>
-      <c r="Q4" s="66"/>
+      <c r="Q4" s="86">
+        <v>14</v>
+      </c>
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
@@ -24148,7 +24392,7 @@
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
         <f>SUM(C4:AC4)</f>
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -24200,7 +24444,9 @@
       <c r="P5" s="90">
         <v>2</v>
       </c>
-      <c r="Q5" s="70"/>
+      <c r="Q5" s="90">
+        <v>6</v>
+      </c>
       <c r="R5" s="70"/>
       <c r="S5" s="70"/>
       <c r="T5" s="70"/>
@@ -24215,7 +24461,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -24265,7 +24511,9 @@
       <c r="P6" s="87">
         <v>10</v>
       </c>
-      <c r="Q6" s="65"/>
+      <c r="Q6" s="87">
+        <v>15</v>
+      </c>
       <c r="R6" s="65"/>
       <c r="S6" s="65"/>
       <c r="T6" s="65"/>
@@ -24280,7 +24528,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -24328,7 +24576,9 @@
       <c r="P7" s="84">
         <v>6</v>
       </c>
-      <c r="Q7" s="69"/>
+      <c r="Q7" s="84">
+        <v>2</v>
+      </c>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
@@ -24343,7 +24593,7 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -24371,7 +24621,7 @@
       </c>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
-      <c r="Q8" s="68"/>
+      <c r="Q8" s="88"/>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
       <c r="T8" s="68"/>
@@ -24418,7 +24668,7 @@
       </c>
       <c r="O9" s="89"/>
       <c r="P9" s="89"/>
-      <c r="Q9" s="67"/>
+      <c r="Q9" s="89"/>
       <c r="R9" s="67"/>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
@@ -24465,7 +24715,7 @@
       </c>
       <c r="O10" s="91"/>
       <c r="P10" s="91"/>
-      <c r="Q10" s="64"/>
+      <c r="Q10" s="91"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
@@ -24512,7 +24762,9 @@
       <c r="N11" s="39"/>
       <c r="O11" s="85"/>
       <c r="P11" s="85"/>
-      <c r="Q11" s="63"/>
+      <c r="Q11" s="85">
+        <v>1</v>
+      </c>
       <c r="R11" s="63"/>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
@@ -24527,7 +24779,7 @@
       <c r="AC11" s="63"/>
       <c r="AD11" s="39">
         <f>SUM(C11:AC11)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -24559,7 +24811,7 @@
       <c r="P12" s="105">
         <v>1</v>
       </c>
-      <c r="Q12" s="72"/>
+      <c r="Q12" s="105"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC677569-63EA-4ADE-9AB0-1717F3F84DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEAF6F-321C-45E0-A81D-2FBE8B6809B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4987" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4964" uniqueCount="763">
   <si>
     <t>Команда</t>
   </si>
@@ -2237,6 +2237,123 @@
   </si>
   <si>
     <t>Выбыл</t>
+  </si>
+  <si>
+    <t>1:20.665</t>
+  </si>
+  <si>
+    <t>1:21.622</t>
+  </si>
+  <si>
+    <t>1:22.001</t>
+  </si>
+  <si>
+    <t>1:22.519</t>
+  </si>
+  <si>
+    <t>1:22.150</t>
+  </si>
+  <si>
+    <t>1:23.173</t>
+  </si>
+  <si>
+    <t>1:22.958</t>
+  </si>
+  <si>
+    <t>1:21.981</t>
+  </si>
+  <si>
+    <t>1:22.208</t>
+  </si>
+  <si>
+    <t>1:23.120</t>
+  </si>
+  <si>
+    <t>1:22.808</t>
+  </si>
+  <si>
+    <t>1:23.191</t>
+  </si>
+  <si>
+    <t>1:21.943</t>
+  </si>
+  <si>
+    <t>1:23.529</t>
+  </si>
+  <si>
+    <t>1:23.217</t>
+  </si>
+  <si>
+    <t>1:24.160</t>
+  </si>
+  <si>
+    <t>1:22.838</t>
+  </si>
+  <si>
+    <t>1:24.572</t>
+  </si>
+  <si>
+    <t>1:25.115</t>
+  </si>
+  <si>
+    <t>1:25.209</t>
+  </si>
+  <si>
+    <t>1:25.608</t>
+  </si>
+  <si>
+    <t>1:26.132</t>
+  </si>
+  <si>
+    <t>01:23.52</t>
+  </si>
+  <si>
+    <t>+9.669</t>
+  </si>
+  <si>
+    <t>+4.142</t>
+  </si>
+  <si>
+    <t>+0.181</t>
+  </si>
+  <si>
+    <t>+4.335</t>
+  </si>
+  <si>
+    <t>+5.279</t>
+  </si>
+  <si>
+    <t>+0.168</t>
+  </si>
+  <si>
+    <t>+0.494</t>
+  </si>
+  <si>
+    <t>+1.102</t>
+  </si>
+  <si>
+    <t>+0.141</t>
+  </si>
+  <si>
+    <t>+0.656</t>
+  </si>
+  <si>
+    <t>+1.281</t>
+  </si>
+  <si>
+    <t>+0.361</t>
+  </si>
+  <si>
+    <t>+1.756</t>
+  </si>
+  <si>
+    <t>+0.671</t>
+  </si>
+  <si>
+    <t>+3.442</t>
+  </si>
+  <si>
+    <t>+0.727</t>
   </si>
 </sst>
 </file>
@@ -11637,8 +11754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFCBAF5-4298-4383-88A2-C0F31AFD220D}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12494,7 +12611,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>43</v>
       </c>
       <c r="D53" s="81"/>
@@ -12509,7 +12626,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D54" s="81"/>
@@ -12524,7 +12641,7 @@
         <v>15</v>
       </c>
       <c r="C55" s="87">
-        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D55" s="81"/>
@@ -12539,7 +12656,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="86">
-        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D56" s="81"/>
@@ -12554,7 +12671,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="90">
-        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D57" s="81"/>
@@ -12569,7 +12686,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="84">
-        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D58" s="81"/>
@@ -12584,7 +12701,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="85">
-        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D59" s="81"/>
@@ -12599,7 +12716,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="89">
-        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -12614,7 +12731,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -12629,7 +12746,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="105">
-        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -12644,7 +12761,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -12665,8 +12782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC45ADBE-F90E-444B-9AA3-911B2E42C3BD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12679,289 +12796,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
+      <c r="B19" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="28"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -12971,605 +13145,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>746</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>725</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>747</v>
+      </c>
+      <c r="F29" s="86">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>726</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>748</v>
+      </c>
+      <c r="F30" s="82">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>749</v>
+      </c>
+      <c r="F31" s="104">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="99" t="s">
+        <v>728</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>750</v>
+      </c>
+      <c r="F32" s="89">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>729</v>
+      </c>
+      <c r="E33" s="107" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="85">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>730</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>752</v>
+      </c>
+      <c r="F34" s="89">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E35" s="106" t="s">
+        <v>753</v>
+      </c>
+      <c r="F35" s="83">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>754</v>
+      </c>
+      <c r="F36" s="87">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>733</v>
+      </c>
+      <c r="E37" s="111" t="s">
+        <v>755</v>
+      </c>
+      <c r="F37" s="91">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>734</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>756</v>
+      </c>
+      <c r="F38" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>735</v>
+      </c>
+      <c r="E39" s="114" t="s">
+        <v>757</v>
+      </c>
+      <c r="F39" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="103" t="s">
+        <v>736</v>
+      </c>
+      <c r="E40" s="115" t="s">
+        <v>758</v>
+      </c>
+      <c r="F40" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>737</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>759</v>
+      </c>
+      <c r="F41" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>738</v>
+      </c>
+      <c r="E42" s="114" t="s">
+        <v>760</v>
+      </c>
+      <c r="F42" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>739</v>
+      </c>
+      <c r="E43" s="113" t="s">
+        <v>761</v>
+      </c>
+      <c r="F43" s="86">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>740</v>
+      </c>
+      <c r="E44" s="115" t="s">
+        <v>762</v>
+      </c>
+      <c r="F44" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>741</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="104" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="97" t="s">
+        <v>742</v>
+      </c>
+      <c r="E46" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="106" t="s">
+        <v>743</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>744</v>
+      </c>
+      <c r="E48" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>745</v>
+      </c>
+      <c r="E49" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
+        <v>41</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
+        <v>18</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="89">
+        <f>SUMIF($C$28:$C$47,B55,$F$28:$F$47)</f>
+        <v>16</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="105">
+        <f>SUMIF($C$28:$C$47,B56,$F$28:$F$47)</f>
+        <v>12</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="85">
+        <f>SUMIF($C$28:$C$47,B57,$F$28:$F$47)</f>
+        <v>8</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="83">
+        <f>SUMIF($C$28:$C$47,B58,$F$28:$F$47)</f>
+        <v>4</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="87">
+        <f>SUMIF($C$28:$C$47,B59,$F$28:$F$47)</f>
+        <v>2</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="91">
+        <f>SUMIF($C$28:$C$47,B60,$F$28:$F$47)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="84">
+        <f>SUMIF($C$28:$C$47,B61,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="88">
+        <f>SUMIF($C$28:$C$47,B62,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="90">
+        <f>SUMIF($C$28:$C$47,B63,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13579,7 +13810,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13716,54 +13947,56 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36">
+        <v>18</v>
+      </c>
+      <c r="D2" s="36">
         <v>25</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
+        <v>12</v>
+      </c>
+      <c r="F2" s="36">
+        <v>15</v>
+      </c>
+      <c r="G2" s="36">
+        <v>15</v>
+      </c>
+      <c r="H2" s="36">
         <v>18</v>
       </c>
-      <c r="E2" s="36">
+      <c r="I2" s="36">
         <v>25</v>
       </c>
-      <c r="F2" s="36">
+      <c r="J2" s="36">
+        <v>8</v>
+      </c>
+      <c r="K2" s="36">
         <v>18</v>
       </c>
-      <c r="G2" s="36">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36">
-        <v>15</v>
-      </c>
-      <c r="I2" s="36">
-        <v>18</v>
-      </c>
-      <c r="J2" s="36">
-        <v>2</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="L2" s="36">
+        <v>12</v>
+      </c>
+      <c r="M2" s="36">
         <v>25</v>
-      </c>
-      <c r="L2" s="36">
-        <v>15</v>
-      </c>
-      <c r="M2" s="36">
-        <v>18</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="82">
+        <v>15</v>
+      </c>
+      <c r="P2" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>25</v>
+      </c>
+      <c r="R2" s="59">
         <v>26</v>
       </c>
-      <c r="P2" s="59">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="82">
-        <v>18</v>
-      </c>
-      <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
       <c r="U2" s="61"/>
@@ -13777,7 +14010,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -13785,54 +14018,56 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="36">
+        <v>25</v>
+      </c>
+      <c r="D3" s="36">
         <v>18</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
-        <v>12</v>
-      </c>
       <c r="F3" s="36">
+        <v>18</v>
+      </c>
+      <c r="G3" s="36">
+        <v>18</v>
+      </c>
+      <c r="H3" s="36">
         <v>15</v>
       </c>
-      <c r="G3" s="36">
+      <c r="I3" s="36">
+        <v>18</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36">
+        <v>25</v>
+      </c>
+      <c r="L3" s="36">
         <v>15</v>
       </c>
-      <c r="H3" s="36">
+      <c r="M3" s="36">
         <v>18</v>
-      </c>
-      <c r="I3" s="36">
-        <v>25</v>
-      </c>
-      <c r="J3" s="36">
-        <v>8</v>
-      </c>
-      <c r="K3" s="36">
-        <v>18</v>
-      </c>
-      <c r="L3" s="36">
-        <v>12</v>
-      </c>
-      <c r="M3" s="36">
-        <v>25</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="59">
+        <v>26</v>
+      </c>
+      <c r="P3" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>18</v>
+      </c>
+      <c r="R3" s="82">
         <v>15</v>
       </c>
-      <c r="P3" s="82">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="82">
-        <v>25</v>
-      </c>
-      <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="61"/>
       <c r="U3" s="61"/>
@@ -13846,7 +14081,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -13901,7 +14136,9 @@
       <c r="Q4" s="83">
         <v>12</v>
       </c>
-      <c r="R4" s="62"/>
+      <c r="R4" s="83">
+        <v>4</v>
+      </c>
       <c r="S4" s="62"/>
       <c r="T4" s="62"/>
       <c r="U4" s="62"/>
@@ -13915,7 +14152,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -13968,7 +14205,7 @@
       <c r="Q5" s="86">
         <v>10</v>
       </c>
-      <c r="R5" s="66"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
       <c r="U5" s="66"/>
@@ -14035,7 +14272,7 @@
         <v>66</v>
       </c>
       <c r="Q6" s="90"/>
-      <c r="R6" s="70"/>
+      <c r="R6" s="90"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
       <c r="U6" s="70"/>
@@ -14098,7 +14335,9 @@
       <c r="Q7" s="87">
         <v>15</v>
       </c>
-      <c r="R7" s="65"/>
+      <c r="R7" s="87">
+        <v>2</v>
+      </c>
       <c r="S7" s="65"/>
       <c r="T7" s="65"/>
       <c r="U7" s="65"/>
@@ -14112,131 +14351,135 @@
       <c r="AC7" s="65"/>
       <c r="AD7" s="87">
         <f>SUM(C7:AC7)</f>
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="84">
+      <c r="B8" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="116">
+        <v>10</v>
+      </c>
+      <c r="D8" s="116">
+        <v>15</v>
+      </c>
+      <c r="E8" s="116">
+        <v>10</v>
+      </c>
+      <c r="F8" s="116">
+        <v>1</v>
+      </c>
+      <c r="G8" s="116">
         <v>4</v>
       </c>
-      <c r="D8" s="84">
-        <v>10</v>
-      </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="59">
-        <v>13</v>
-      </c>
-      <c r="G8" s="84">
-        <v>12</v>
-      </c>
-      <c r="H8" s="84">
-        <v>6</v>
-      </c>
-      <c r="I8" s="84">
-        <v>12</v>
-      </c>
-      <c r="J8" s="84">
+      <c r="H8" s="116"/>
+      <c r="I8" s="116">
+        <v>1</v>
+      </c>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116">
+        <v>2</v>
+      </c>
+      <c r="L8" s="116">
+        <v>8</v>
+      </c>
+      <c r="M8" s="116"/>
+      <c r="N8" s="79">
+        <v>19</v>
+      </c>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116">
         <v>4</v>
       </c>
-      <c r="K8" s="84">
-        <v>10</v>
-      </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84">
-        <v>2</v>
-      </c>
-      <c r="O8" s="84">
-        <v>6</v>
-      </c>
-      <c r="P8" s="84">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="84">
-        <v>2</v>
-      </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="84">
+      <c r="Q8" s="116">
+        <v>4</v>
+      </c>
+      <c r="R8" s="116">
+        <v>18</v>
+      </c>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="116">
         <f>SUM(C8:AC8)</f>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="116">
+      <c r="B9" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="84">
+        <v>4</v>
+      </c>
+      <c r="D9" s="84">
         <v>10</v>
       </c>
-      <c r="D9" s="116">
-        <v>15</v>
-      </c>
-      <c r="E9" s="116">
+      <c r="E9" s="84"/>
+      <c r="F9" s="59">
+        <v>13</v>
+      </c>
+      <c r="G9" s="84">
+        <v>12</v>
+      </c>
+      <c r="H9" s="84">
+        <v>6</v>
+      </c>
+      <c r="I9" s="84">
+        <v>12</v>
+      </c>
+      <c r="J9" s="84">
+        <v>4</v>
+      </c>
+      <c r="K9" s="84">
         <v>10</v>
       </c>
-      <c r="F9" s="116">
-        <v>1</v>
-      </c>
-      <c r="G9" s="116">
-        <v>4</v>
-      </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116">
-        <v>1</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116">
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84">
         <v>2</v>
       </c>
-      <c r="L9" s="116">
-        <v>8</v>
-      </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="79">
-        <v>19</v>
-      </c>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="116">
-        <v>4</v>
-      </c>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="116">
+      <c r="O9" s="84">
+        <v>6</v>
+      </c>
+      <c r="P9" s="84">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>2</v>
+      </c>
+      <c r="R9" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="84">
         <f>SUM(C9:AC9)</f>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -14287,7 +14530,9 @@
       <c r="Q10" s="83">
         <v>9</v>
       </c>
-      <c r="R10" s="62"/>
+      <c r="R10" s="83" t="s">
+        <v>66</v>
+      </c>
       <c r="S10" s="62"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
@@ -14340,7 +14585,9 @@
       </c>
       <c r="P11" s="87"/>
       <c r="Q11" s="87"/>
-      <c r="R11" s="65"/>
+      <c r="R11" s="87" t="s">
+        <v>66</v>
+      </c>
       <c r="S11" s="65"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
@@ -14385,7 +14632,7 @@
       <c r="O12" s="88"/>
       <c r="P12" s="88"/>
       <c r="Q12" s="88"/>
-      <c r="R12" s="68"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
@@ -14436,7 +14683,7 @@
       <c r="Q13" s="90">
         <v>6</v>
       </c>
-      <c r="R13" s="70"/>
+      <c r="R13" s="90"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
@@ -14483,7 +14730,9 @@
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
       <c r="Q14" s="89"/>
-      <c r="R14" s="67"/>
+      <c r="R14" s="89">
+        <v>6</v>
+      </c>
       <c r="S14" s="67"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
@@ -14497,244 +14746,252 @@
       <c r="AC14" s="67"/>
       <c r="AD14" s="89">
         <f>SUM(C14:AC14)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46">
+      <c r="B15" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104">
+        <v>6</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104">
         <v>1</v>
       </c>
-      <c r="E15" s="46">
-        <v>2</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46">
-        <v>2</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46">
-        <v>8</v>
-      </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="46">
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="104">
+        <v>1</v>
+      </c>
+      <c r="P15" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104">
+        <v>12</v>
+      </c>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="104">
         <f>SUM(C15:AC15)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104">
+      <c r="B16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89">
+        <v>1</v>
+      </c>
+      <c r="N16" s="89">
         <v>6</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104">
-        <v>1</v>
-      </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="104">
-        <v>1</v>
-      </c>
-      <c r="P16" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="104">
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89">
+        <v>10</v>
+      </c>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="89">
         <f>SUM(C16:AC16)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84">
-        <v>6</v>
-      </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84">
+      <c r="B17" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="58">
         <v>2</v>
       </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="84">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85">
+        <v>2</v>
+      </c>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85">
+        <v>1</v>
+      </c>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85">
+        <v>1</v>
+      </c>
+      <c r="R17" s="85">
+        <v>8</v>
+      </c>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="85">
         <f>SUM(C17:AC17)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44">
+      <c r="B18" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91">
         <v>1</v>
       </c>
-      <c r="N18" s="44">
-        <v>6</v>
-      </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="44">
+      <c r="E18" s="91">
+        <v>2</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91">
+        <v>2</v>
+      </c>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91">
+        <v>8</v>
+      </c>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91">
+        <v>1</v>
+      </c>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="91">
         <f>SUM(C18:AC18)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="58">
+      <c r="B19" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84">
+        <v>6</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84">
         <v>2</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="M19" s="84"/>
+      <c r="N19" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39">
-        <v>2</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85">
-        <v>1</v>
-      </c>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="39">
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="84">
         <f>SUM(C19:AC19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
@@ -14771,7 +15028,9 @@
       <c r="Q20" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="R20" s="63"/>
+      <c r="R20" s="85" t="s">
+        <v>66</v>
+      </c>
       <c r="S20" s="63"/>
       <c r="T20" s="63"/>
       <c r="U20" s="63"/>
@@ -14816,7 +15075,9 @@
       <c r="O21" s="104"/>
       <c r="P21" s="104"/>
       <c r="Q21" s="104"/>
-      <c r="R21" s="71"/>
+      <c r="R21" s="104" t="s">
+        <v>66</v>
+      </c>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
       <c r="U21" s="71"/>
@@ -14861,7 +15122,7 @@
       <c r="O22" s="88"/>
       <c r="P22" s="88"/>
       <c r="Q22" s="88"/>
-      <c r="R22" s="68"/>
+      <c r="R22" s="88"/>
       <c r="S22" s="68"/>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -14902,7 +15163,7 @@
       <c r="O23" s="91"/>
       <c r="P23" s="91"/>
       <c r="Q23" s="91"/>
-      <c r="R23" s="64"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="64"/>
       <c r="T23" s="64"/>
       <c r="U23" s="64"/>
@@ -24062,8 +24323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974D5FD-590E-4B73-AD04-D1CD08B49B7E}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24244,7 +24505,9 @@
       <c r="Q2" s="82">
         <v>43</v>
       </c>
-      <c r="R2" s="61"/>
+      <c r="R2" s="59">
+        <v>41</v>
+      </c>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
       <c r="U2" s="61"/>
@@ -24258,7 +24521,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>516</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -24309,7 +24572,9 @@
       <c r="Q3" s="58">
         <v>21</v>
       </c>
-      <c r="R3" s="62"/>
+      <c r="R3" s="83">
+        <v>4</v>
+      </c>
       <c r="S3" s="62"/>
       <c r="T3" s="62"/>
       <c r="U3" s="62"/>
@@ -24323,7 +24588,7 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
         <f>SUM(C3:AC3)</f>
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -24378,7 +24643,9 @@
       <c r="Q4" s="86">
         <v>14</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="86">
+        <v>18</v>
+      </c>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
       <c r="U4" s="66"/>
@@ -24392,7 +24659,7 @@
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
         <f>SUM(C4:AC4)</f>
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -24447,7 +24714,7 @@
       <c r="Q5" s="90">
         <v>6</v>
       </c>
-      <c r="R5" s="70"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="70"/>
       <c r="T5" s="70"/>
       <c r="U5" s="70"/>
@@ -24514,7 +24781,9 @@
       <c r="Q6" s="87">
         <v>15</v>
       </c>
-      <c r="R6" s="65"/>
+      <c r="R6" s="87">
+        <v>2</v>
+      </c>
       <c r="S6" s="65"/>
       <c r="T6" s="65"/>
       <c r="U6" s="65"/>
@@ -24528,7 +24797,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -24579,7 +24848,7 @@
       <c r="Q7" s="84">
         <v>2</v>
       </c>
-      <c r="R7" s="69"/>
+      <c r="R7" s="84"/>
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
       <c r="U7" s="69"/>
@@ -24600,137 +24869,141 @@
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43">
+      <c r="B8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89">
         <v>4</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43">
-        <v>25</v>
-      </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="43">
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89">
+        <v>6</v>
+      </c>
+      <c r="M8" s="89">
+        <v>1</v>
+      </c>
+      <c r="N8" s="89">
+        <v>16</v>
+      </c>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89">
+        <v>16</v>
+      </c>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44">
+      <c r="B9" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88">
         <v>4</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44">
-        <v>6</v>
-      </c>
-      <c r="M9" s="44">
-        <v>1</v>
-      </c>
-      <c r="N9" s="44">
-        <v>16</v>
-      </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="44">
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88">
+        <v>25</v>
+      </c>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="88">
         <f>SUM(C9:AC9)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46">
+      <c r="B10" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105">
+        <v>6</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
-        <v>2</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46">
-        <v>2</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46">
-        <v>8</v>
-      </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="46">
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105">
+        <v>1</v>
+      </c>
+      <c r="P10" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105">
+        <v>12</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="104">
         <f>SUM(C10:AC10)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -24765,7 +25038,9 @@
       <c r="Q11" s="85">
         <v>1</v>
       </c>
-      <c r="R11" s="63"/>
+      <c r="R11" s="85">
+        <v>8</v>
+      </c>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
@@ -24779,54 +25054,56 @@
       <c r="AC11" s="63"/>
       <c r="AD11" s="39">
         <f>SUM(C11:AC11)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
-        <v>6</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42">
+      <c r="B12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91">
         <v>1</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="105">
+      <c r="E12" s="91">
+        <v>2</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91">
+        <v>2</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91">
+        <v>8</v>
+      </c>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91">
         <v>1</v>
       </c>
-      <c r="P12" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="34">
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="91">
         <f>SUM(C12:AC12)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEAF6F-321C-45E0-A81D-2FBE8B6809B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9ABDA-BD3E-4E42-8B3D-35C0A28791AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4964" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="846">
   <si>
     <t>Команда</t>
   </si>
@@ -2354,6 +2354,255 @@
   </si>
   <si>
     <t>+0.727</t>
+  </si>
+  <si>
+    <t>1:48.255</t>
+  </si>
+  <si>
+    <t>1:48.578</t>
+  </si>
+  <si>
+    <t>1:48.734</t>
+  </si>
+  <si>
+    <t>1:48.920</t>
+  </si>
+  <si>
+    <t>1:48.884</t>
+  </si>
+  <si>
+    <t>1:49.026</t>
+  </si>
+  <si>
+    <t>1:49.173</t>
+  </si>
+  <si>
+    <t>1:49.125</t>
+  </si>
+  <si>
+    <t>1:49.392</t>
+  </si>
+  <si>
+    <t>1:49.308</t>
+  </si>
+  <si>
+    <t>1:49.263</t>
+  </si>
+  <si>
+    <t>1:49.404</t>
+  </si>
+  <si>
+    <t>1:49.323</t>
+  </si>
+  <si>
+    <t>1:49.598</t>
+  </si>
+  <si>
+    <t>1:49.748</t>
+  </si>
+  <si>
+    <t>1:49.910</t>
+  </si>
+  <si>
+    <t>1:50.013</t>
+  </si>
+  <si>
+    <t>1:50.106</t>
+  </si>
+  <si>
+    <t>1:50.049</t>
+  </si>
+  <si>
+    <t>1:50.268</t>
+  </si>
+  <si>
+    <t>1:50.079</t>
+  </si>
+  <si>
+    <t>1:49.781</t>
+  </si>
+  <si>
+    <t>00:27.20</t>
+  </si>
+  <si>
+    <t>+5.226</t>
+  </si>
+  <si>
+    <t>+3.393</t>
+  </si>
+  <si>
+    <t>+1.413</t>
+  </si>
+  <si>
+    <t>+0.463</t>
+  </si>
+  <si>
+    <t>+3.363</t>
+  </si>
+  <si>
+    <t>+2.079</t>
+  </si>
+  <si>
+    <t>+1.484</t>
+  </si>
+  <si>
+    <t>+0.066</t>
+  </si>
+  <si>
+    <t>+0.624</t>
+  </si>
+  <si>
+    <t>+0.275</t>
+  </si>
+  <si>
+    <t>+0.097</t>
+  </si>
+  <si>
+    <t>+3.034</t>
+  </si>
+  <si>
+    <t>+1.566</t>
+  </si>
+  <si>
+    <t>+4.591</t>
+  </si>
+  <si>
+    <t>+0.697</t>
+  </si>
+  <si>
+    <t>+0.430</t>
+  </si>
+  <si>
+    <t>+0.554</t>
+  </si>
+  <si>
+    <t>+4.378</t>
+  </si>
+  <si>
+    <t>+1.924</t>
+  </si>
+  <si>
+    <t>1:43.476</t>
+  </si>
+  <si>
+    <t>1:43.589</t>
+  </si>
+  <si>
+    <t>1:44.070</t>
+  </si>
+  <si>
+    <t>1:43.862</t>
+  </si>
+  <si>
+    <t>1:44.319</t>
+  </si>
+  <si>
+    <t>1:44.594</t>
+  </si>
+  <si>
+    <t>1:44.061</t>
+  </si>
+  <si>
+    <t>1:44.118</t>
+  </si>
+  <si>
+    <t>1:44.007</t>
+  </si>
+  <si>
+    <t>1:44.295</t>
+  </si>
+  <si>
+    <t>1:44.507</t>
+  </si>
+  <si>
+    <t>1:44.292</t>
+  </si>
+  <si>
+    <t>1:44.294</t>
+  </si>
+  <si>
+    <t>1:44.609</t>
+  </si>
+  <si>
+    <t>1:44.930</t>
+  </si>
+  <si>
+    <t>1:44.849</t>
+  </si>
+  <si>
+    <t>1:44.816</t>
+  </si>
+  <si>
+    <t>1:45.015</t>
+  </si>
+  <si>
+    <t>1:44.861</t>
+  </si>
+  <si>
+    <t>1:44.972</t>
+  </si>
+  <si>
+    <t>1:44.768</t>
+  </si>
+  <si>
+    <t>01:18.30</t>
+  </si>
+  <si>
+    <t>+3.907</t>
+  </si>
+  <si>
+    <t>+14.000</t>
+  </si>
+  <si>
+    <t>+4.289</t>
+  </si>
+  <si>
+    <t>+5.746</t>
+  </si>
+  <si>
+    <t>+1.626</t>
+  </si>
+  <si>
+    <t>+2.165</t>
+  </si>
+  <si>
+    <t>+2.563</t>
+  </si>
+  <si>
+    <t>+12.376</t>
+  </si>
+  <si>
+    <t>+7.010</t>
+  </si>
+  <si>
+    <t>+4.307</t>
+  </si>
+  <si>
+    <t>+2.158</t>
+  </si>
+  <si>
+    <t>+2.263</t>
+  </si>
+  <si>
+    <t>+1.529</t>
+  </si>
+  <si>
+    <t>+1.659</t>
+  </si>
+  <si>
+    <t>+1.128</t>
+  </si>
+  <si>
+    <t>+0.997</t>
+  </si>
+  <si>
+    <t>+0.230</t>
+  </si>
+  <si>
+    <t>+5.387</t>
+  </si>
+  <si>
+    <t>+5.792</t>
   </si>
 </sst>
 </file>
@@ -12782,8 +13031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC45ADBE-F90E-444B-9AA3-911B2E42C3BD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13639,7 +13888,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
         <v>41</v>
       </c>
       <c r="D53" s="81"/>
@@ -13654,7 +13903,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="86">
-        <f>SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D54" s="81"/>
@@ -13669,7 +13918,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="89">
-        <f>SUMIF($C$28:$C$47,B55,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D55" s="81"/>
@@ -13684,7 +13933,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="105">
-        <f>SUMIF($C$28:$C$47,B56,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D56" s="81"/>
@@ -13699,7 +13948,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="85">
-        <f>SUMIF($C$28:$C$47,B57,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D57" s="81"/>
@@ -13714,7 +13963,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="83">
-        <f>SUMIF($C$28:$C$47,B58,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="81"/>
@@ -13729,7 +13978,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="87">
-        <f>SUMIF($C$28:$C$47,B59,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D59" s="81"/>
@@ -13744,7 +13993,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="91">
-        <f>SUMIF($C$28:$C$47,B60,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D60" s="81"/>
@@ -13759,7 +14008,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="84">
-        <f>SUMIF($C$28:$C$47,B61,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -13774,7 +14023,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="88">
-        <f>SUMIF($C$28:$C$47,B62,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -13789,7 +14038,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="90">
-        <f>SUMIF($C$28:$C$47,B63,$F$28:$F$47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -13809,8 +14058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13947,58 +14196,62 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="36">
+        <v>25</v>
+      </c>
+      <c r="D2" s="36">
         <v>18</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
         <v>25</v>
       </c>
-      <c r="E2" s="36">
-        <v>12</v>
-      </c>
       <c r="F2" s="36">
+        <v>18</v>
+      </c>
+      <c r="G2" s="36">
+        <v>18</v>
+      </c>
+      <c r="H2" s="36">
         <v>15</v>
       </c>
-      <c r="G2" s="36">
+      <c r="I2" s="36">
+        <v>18</v>
+      </c>
+      <c r="J2" s="36">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36">
+        <v>25</v>
+      </c>
+      <c r="L2" s="36">
         <v>15</v>
       </c>
-      <c r="H2" s="36">
+      <c r="M2" s="36">
         <v>18</v>
-      </c>
-      <c r="I2" s="36">
-        <v>25</v>
-      </c>
-      <c r="J2" s="36">
-        <v>8</v>
-      </c>
-      <c r="K2" s="36">
-        <v>18</v>
-      </c>
-      <c r="L2" s="36">
-        <v>12</v>
-      </c>
-      <c r="M2" s="36">
-        <v>25</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="59">
+        <v>26</v>
+      </c>
+      <c r="P2" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>18</v>
+      </c>
+      <c r="R2" s="82">
         <v>15</v>
       </c>
-      <c r="P2" s="82">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="82">
-        <v>25</v>
-      </c>
-      <c r="R2" s="59">
+      <c r="S2" s="82">
+        <v>7</v>
+      </c>
+      <c r="T2" s="59">
         <v>26</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
       <c r="U2" s="61"/>
       <c r="V2" s="61"/>
       <c r="W2" s="61"/>
@@ -14010,7 +14263,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14018,58 +14271,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="36">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36">
         <v>25</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
+        <v>12</v>
+      </c>
+      <c r="F3" s="36">
+        <v>15</v>
+      </c>
+      <c r="G3" s="36">
+        <v>15</v>
+      </c>
+      <c r="H3" s="36">
         <v>18</v>
       </c>
-      <c r="E3" s="36">
+      <c r="I3" s="36">
         <v>25</v>
       </c>
-      <c r="F3" s="36">
+      <c r="J3" s="36">
+        <v>8</v>
+      </c>
+      <c r="K3" s="36">
         <v>18</v>
       </c>
-      <c r="G3" s="36">
-        <v>18</v>
-      </c>
-      <c r="H3" s="36">
-        <v>15</v>
-      </c>
-      <c r="I3" s="36">
-        <v>18</v>
-      </c>
-      <c r="J3" s="36">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36">
+      <c r="L3" s="36">
+        <v>12</v>
+      </c>
+      <c r="M3" s="36">
         <v>25</v>
-      </c>
-      <c r="L3" s="36">
-        <v>15</v>
-      </c>
-      <c r="M3" s="36">
-        <v>18</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="82">
+        <v>15</v>
+      </c>
+      <c r="P3" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>25</v>
+      </c>
+      <c r="R3" s="59">
         <v>26</v>
       </c>
-      <c r="P3" s="59">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="82">
+      <c r="S3" s="59">
+        <v>8</v>
+      </c>
+      <c r="T3" s="82">
         <v>18</v>
       </c>
-      <c r="R3" s="82">
-        <v>15</v>
-      </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
       <c r="U3" s="61"/>
       <c r="V3" s="61"/>
       <c r="W3" s="61"/>
@@ -14081,7 +14338,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14139,8 +14396,10 @@
       <c r="R4" s="83">
         <v>4</v>
       </c>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
+      <c r="S4" s="83">
+        <v>5</v>
+      </c>
+      <c r="T4" s="83"/>
       <c r="U4" s="62"/>
       <c r="V4" s="62"/>
       <c r="W4" s="62"/>
@@ -14152,7 +14411,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -14206,8 +14465,12 @@
         <v>10</v>
       </c>
       <c r="R5" s="86"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
+      <c r="S5" s="86">
+        <v>4</v>
+      </c>
+      <c r="T5" s="86">
+        <v>12</v>
+      </c>
       <c r="U5" s="66"/>
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
@@ -14219,7 +14482,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -14273,8 +14536,12 @@
       </c>
       <c r="Q6" s="90"/>
       <c r="R6" s="90"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
+      <c r="S6" s="90">
+        <v>2</v>
+      </c>
+      <c r="T6" s="90">
+        <v>15</v>
+      </c>
       <c r="U6" s="70"/>
       <c r="V6" s="70"/>
       <c r="W6" s="70"/>
@@ -14286,135 +14553,141 @@
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="87">
+      <c r="B7" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="116">
+        <v>10</v>
+      </c>
+      <c r="D7" s="116">
+        <v>15</v>
+      </c>
+      <c r="E7" s="116">
+        <v>10</v>
+      </c>
+      <c r="F7" s="116">
+        <v>1</v>
+      </c>
+      <c r="G7" s="116">
+        <v>4</v>
+      </c>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116">
+        <v>1</v>
+      </c>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116">
         <v>2</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87">
+      <c r="L7" s="116">
+        <v>8</v>
+      </c>
+      <c r="M7" s="116"/>
+      <c r="N7" s="79">
+        <v>19</v>
+      </c>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116">
         <v>4</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87">
-        <v>1</v>
-      </c>
-      <c r="H7" s="87">
-        <v>10</v>
-      </c>
-      <c r="I7" s="87">
+      <c r="Q7" s="116">
+        <v>4</v>
+      </c>
+      <c r="R7" s="116">
+        <v>18</v>
+      </c>
+      <c r="S7" s="116">
+        <v>6</v>
+      </c>
+      <c r="T7" s="116">
         <v>8</v>
       </c>
-      <c r="J7" s="87">
-        <v>1</v>
-      </c>
-      <c r="K7" s="87">
-        <v>8</v>
-      </c>
-      <c r="L7" s="87">
-        <v>10</v>
-      </c>
-      <c r="M7" s="87">
-        <v>10</v>
-      </c>
-      <c r="N7" s="87">
-        <v>15</v>
-      </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="87">
-        <v>15</v>
-      </c>
-      <c r="R7" s="87">
-        <v>2</v>
-      </c>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="87">
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="116">
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87">
+        <v>4</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87">
+        <v>1</v>
+      </c>
+      <c r="H8" s="87">
         <v>10</v>
       </c>
-      <c r="D8" s="116">
+      <c r="I8" s="87">
+        <v>8</v>
+      </c>
+      <c r="J8" s="87">
+        <v>1</v>
+      </c>
+      <c r="K8" s="87">
+        <v>8</v>
+      </c>
+      <c r="L8" s="87">
+        <v>10</v>
+      </c>
+      <c r="M8" s="87">
+        <v>10</v>
+      </c>
+      <c r="N8" s="87">
         <v>15</v>
       </c>
-      <c r="E8" s="116">
+      <c r="O8" s="87"/>
+      <c r="P8" s="87">
         <v>10</v>
       </c>
-      <c r="F8" s="116">
-        <v>1</v>
-      </c>
-      <c r="G8" s="116">
-        <v>4</v>
-      </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116">
-        <v>1</v>
-      </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116">
+      <c r="Q8" s="87">
+        <v>15</v>
+      </c>
+      <c r="R8" s="87">
         <v>2</v>
       </c>
-      <c r="L8" s="116">
-        <v>8</v>
-      </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="79">
-        <v>19</v>
-      </c>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="116">
-        <v>4</v>
-      </c>
-      <c r="R8" s="116">
-        <v>18</v>
-      </c>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="116">
+      <c r="S8" s="87"/>
+      <c r="T8" s="87">
+        <v>10</v>
+      </c>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -14466,8 +14739,10 @@
       <c r="R9" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84">
+        <v>1</v>
+      </c>
       <c r="U9" s="69"/>
       <c r="V9" s="69"/>
       <c r="W9" s="69"/>
@@ -14479,7 +14754,7 @@
       <c r="AC9" s="69"/>
       <c r="AD9" s="84">
         <f>SUM(C9:AC9)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -14533,8 +14808,12 @@
       <c r="R10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="S10" s="83">
+        <v>1</v>
+      </c>
+      <c r="T10" s="83">
+        <v>2</v>
+      </c>
       <c r="U10" s="62"/>
       <c r="V10" s="62"/>
       <c r="W10" s="62"/>
@@ -14546,7 +14825,7 @@
       <c r="AC10" s="62"/>
       <c r="AD10" s="37">
         <f>SUM(C10:AC10)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -14588,8 +14867,8 @@
       <c r="R11" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
       <c r="U11" s="65"/>
       <c r="V11" s="65"/>
       <c r="W11" s="65"/>
@@ -14608,198 +14887,204 @@
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43">
+      <c r="B12" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90">
+        <v>6</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="90">
+        <v>8</v>
+      </c>
+      <c r="N12" s="90">
         <v>4</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43">
-        <v>25</v>
-      </c>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="43">
+      <c r="O12" s="90">
+        <v>2</v>
+      </c>
+      <c r="P12" s="90">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="90">
+        <v>6</v>
+      </c>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90">
+        <v>6</v>
+      </c>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="90">
         <f>SUM(C12:AC12)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90">
-        <v>6</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="90">
-        <v>8</v>
-      </c>
-      <c r="N13" s="90">
+      <c r="B13" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88">
         <v>4</v>
       </c>
-      <c r="O13" s="90">
-        <v>2</v>
-      </c>
-      <c r="P13" s="90">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="90">
-        <v>6</v>
-      </c>
-      <c r="R13" s="90"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="90">
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88">
+        <v>25</v>
+      </c>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="88">
         <f>SUM(C13:AC13)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89">
+      <c r="B14" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104">
+        <v>6</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="104">
+        <v>1</v>
+      </c>
+      <c r="P14" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104">
+        <v>12</v>
+      </c>
+      <c r="S14" s="104">
+        <v>3</v>
+      </c>
+      <c r="T14" s="104">
         <v>4</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="89">
-        <v>6</v>
-      </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89">
-        <v>10</v>
-      </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89">
-        <v>6</v>
-      </c>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="89">
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="104">
         <f>SUM(C14:AC14)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104">
+      <c r="B15" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89">
+        <v>4</v>
+      </c>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="89">
         <v>6</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104">
-        <v>1</v>
-      </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="104">
-        <v>1</v>
-      </c>
-      <c r="P15" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104">
-        <v>12</v>
-      </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="104">
+      <c r="M15" s="89"/>
+      <c r="N15" s="89">
+        <v>10</v>
+      </c>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89">
+        <v>6</v>
+      </c>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -14831,8 +15116,8 @@
       <c r="R16" s="89">
         <v>10</v>
       </c>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="67"/>
       <c r="V16" s="67"/>
       <c r="W16" s="67"/>
@@ -14884,8 +15169,8 @@
       <c r="R17" s="85">
         <v>8</v>
       </c>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
       <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
@@ -14933,8 +15218,8 @@
       <c r="R18" s="91">
         <v>1</v>
       </c>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
       <c r="U18" s="64"/>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
@@ -14978,8 +15263,10 @@
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
       <c r="R19" s="84"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
+      <c r="S19" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="84"/>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="W19" s="69"/>
@@ -15031,8 +15318,8 @@
       <c r="R20" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="63"/>
@@ -15051,45 +15338,39 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="B21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="34">
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="46">
         <f>SUM(C21:AC21)</f>
         <v>0</v>
       </c>
@@ -15123,8 +15404,8 @@
       <c r="P22" s="88"/>
       <c r="Q22" s="88"/>
       <c r="R22" s="88"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
       <c r="U22" s="68"/>
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
@@ -15143,39 +15424,45 @@
       <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46" t="s">
+      <c r="B23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="46">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="34">
         <f>SUM(C23:AC23)</f>
         <v>0</v>
       </c>
@@ -15194,7 +15481,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A63" sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15207,289 +15494,345 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -15499,605 +15842,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>785</v>
+      </c>
+      <c r="F28" s="82">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>786</v>
+      </c>
+      <c r="F29" s="82">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>765</v>
+      </c>
+      <c r="E30" s="113" t="s">
+        <v>787</v>
+      </c>
+      <c r="F30" s="86">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>766</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>788</v>
+      </c>
+      <c r="F31" s="83">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>767</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>789</v>
+      </c>
+      <c r="F32" s="86">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>768</v>
+      </c>
+      <c r="E33" s="117" t="s">
+        <v>790</v>
+      </c>
+      <c r="F33" s="104">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="103" t="s">
+        <v>769</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>791</v>
+      </c>
+      <c r="F34" s="90">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>770</v>
+      </c>
+      <c r="E35" s="106" t="s">
+        <v>792</v>
+      </c>
+      <c r="F35" s="83">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>771</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>793</v>
+      </c>
+      <c r="F36" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>772</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>794</v>
+      </c>
+      <c r="F37" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="E38" s="114" t="s">
+        <v>795</v>
+      </c>
+      <c r="F38" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>774</v>
+      </c>
+      <c r="E39" s="115" t="s">
+        <v>796</v>
+      </c>
+      <c r="F39" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="F40" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>776</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>797</v>
+      </c>
+      <c r="F41" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>777</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="F42" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="99" t="s">
+        <v>778</v>
+      </c>
+      <c r="E43" s="112" t="s">
+        <v>799</v>
+      </c>
+      <c r="F43" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="98" t="s">
+        <v>779</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>800</v>
+      </c>
+      <c r="F44" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>780</v>
+      </c>
+      <c r="E45" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="F45" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>781</v>
+      </c>
+      <c r="E46" s="117" t="s">
+        <v>802</v>
+      </c>
+      <c r="F46" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>782</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>803</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="99" t="s">
+        <v>783</v>
+      </c>
+      <c r="E48" s="112" t="s">
+        <v>804</v>
+      </c>
+      <c r="F48" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>784</v>
+      </c>
+      <c r="E49" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$46,B53,$F$28:$F$46)</f>
+        <v>15</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$46,B54,$F$28:$F$46)</f>
+        <v>10</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="83">
+        <f>SUMIF($C$28:$C$46,B55,$F$28:$F$46)</f>
+        <v>6</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="105">
+        <f>SUMIF($C$28:$C$46,B56,$F$28:$F$46)</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="90">
+        <f>SUMIF($C$28:$C$46,B57,$F$28:$F$46)</f>
+        <v>2</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="87">
+        <f>SUMIF($C$28:$C$46,B58,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$46,B59,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$46,B60,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$46,B61,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$46,B62,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$46,B63,$F$28:$F$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16106,8 +16506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A5CF8-7B24-4532-83BD-6AD74629EAEB}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16120,289 +16520,309 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -16412,605 +16832,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>826</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>806</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>827</v>
+      </c>
+      <c r="F29" s="82">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>807</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>828</v>
+      </c>
+      <c r="F30" s="90">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>829</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>830</v>
+      </c>
+      <c r="F32" s="87">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>810</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" s="86">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>811</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>831</v>
+      </c>
+      <c r="F34" s="90">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>832</v>
+      </c>
+      <c r="F35" s="104">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>813</v>
+      </c>
+      <c r="E36" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="F36" s="83">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>814</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>834</v>
+      </c>
+      <c r="F37" s="84">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>815</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>835</v>
+      </c>
+      <c r="F38" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>816</v>
+      </c>
+      <c r="E39" s="107" t="s">
+        <v>836</v>
+      </c>
+      <c r="F39" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>817</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>837</v>
+      </c>
+      <c r="F40" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>818</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>838</v>
+      </c>
+      <c r="F41" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>810</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>819</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>840</v>
+      </c>
+      <c r="F43" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>820</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>841</v>
+      </c>
+      <c r="F44" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>821</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>654</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="98" t="s">
+        <v>822</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>842</v>
+      </c>
+      <c r="F46" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="99" t="s">
+        <v>823</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>843</v>
+      </c>
+      <c r="F47" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="96" t="s">
+        <v>824</v>
+      </c>
+      <c r="E48" s="109" t="s">
+        <v>844</v>
+      </c>
+      <c r="F48" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>825</v>
+      </c>
+      <c r="E49" s="114" t="s">
+        <v>845</v>
+      </c>
+      <c r="F49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$45,B53,$F$28:$F$45)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="90">
+        <f>SUMIF($C$28:$C$45,B54,$F$28:$F$45)</f>
+        <v>21</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="86">
+        <f>SUMIF($C$28:$C$45,B55,$F$28:$F$45)</f>
+        <v>20</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="87">
+        <f>SUMIF($C$28:$C$45,B56,$F$28:$F$45)</f>
+        <v>10</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="105">
+        <f>SUMIF($C$28:$C$45,B57,$F$28:$F$45)</f>
+        <v>4</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="83">
+        <f>SUMIF($C$28:$C$45,B58,$F$28:$F$45)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="84">
+        <f>SUMIF($C$28:$C$45,B59,$F$28:$F$45)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f>SUMIF($C$28:$C$45,B60,$F$28:$F$45)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$45,B61,$F$28:$F$45)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$45,B62,$F$28:$F$45)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$45,B63,$F$28:$F$45)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24323,8 +24800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974D5FD-590E-4B73-AD04-D1CD08B49B7E}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24508,8 +24985,12 @@
       <c r="R2" s="59">
         <v>41</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
+      <c r="S2" s="59">
+        <v>15</v>
+      </c>
+      <c r="T2" s="59">
+        <v>44</v>
+      </c>
       <c r="U2" s="61"/>
       <c r="V2" s="61"/>
       <c r="W2" s="61"/>
@@ -24521,7 +25002,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>557</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -24575,8 +25056,12 @@
       <c r="R3" s="83">
         <v>4</v>
       </c>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
+      <c r="S3" s="83">
+        <v>6</v>
+      </c>
+      <c r="T3" s="83">
+        <v>2</v>
+      </c>
       <c r="U3" s="62"/>
       <c r="V3" s="62"/>
       <c r="W3" s="62"/>
@@ -24588,7 +25073,7 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
         <f>SUM(C3:AC3)</f>
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -24646,8 +25131,12 @@
       <c r="R4" s="86">
         <v>18</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="S4" s="86">
+        <v>10</v>
+      </c>
+      <c r="T4" s="86">
+        <v>20</v>
+      </c>
       <c r="U4" s="66"/>
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
@@ -24659,7 +25148,7 @@
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
         <f>SUM(C4:AC4)</f>
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -24715,8 +25204,12 @@
         <v>6</v>
       </c>
       <c r="R5" s="90"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
+      <c r="S5" s="90">
+        <v>2</v>
+      </c>
+      <c r="T5" s="90">
+        <v>21</v>
+      </c>
       <c r="U5" s="70"/>
       <c r="V5" s="70"/>
       <c r="W5" s="70"/>
@@ -24728,7 +25221,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -24784,8 +25277,10 @@
       <c r="R6" s="87">
         <v>2</v>
       </c>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87">
+        <v>10</v>
+      </c>
       <c r="U6" s="65"/>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
@@ -24797,7 +25292,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -24849,8 +25344,10 @@
         <v>2</v>
       </c>
       <c r="R7" s="84"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84">
+        <v>1</v>
+      </c>
       <c r="U7" s="69"/>
       <c r="V7" s="69"/>
       <c r="W7" s="69"/>
@@ -24862,7 +25359,7 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -24898,8 +25395,8 @@
       <c r="R8" s="89">
         <v>16</v>
       </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
       <c r="U8" s="67"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
@@ -24941,8 +25438,8 @@
       <c r="P9" s="88"/>
       <c r="Q9" s="88"/>
       <c r="R9" s="88"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
       <c r="U9" s="68"/>
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
@@ -24990,8 +25487,12 @@
       <c r="R10" s="105">
         <v>12</v>
       </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
+      <c r="S10" s="105">
+        <v>3</v>
+      </c>
+      <c r="T10" s="105">
+        <v>4</v>
+      </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
@@ -25003,7 +25504,7 @@
       <c r="AC10" s="72"/>
       <c r="AD10" s="104">
         <f>SUM(C10:AC10)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -25041,8 +25542,8 @@
       <c r="R11" s="85">
         <v>8</v>
       </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
@@ -25090,8 +25591,8 @@
       <c r="R12" s="91">
         <v>1</v>
       </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
       <c r="U12" s="64"/>
       <c r="V12" s="64"/>
       <c r="W12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9ABDA-BD3E-4E42-8B3D-35C0A28791AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E588E53-7452-48F1-A3DA-F50DFECB0BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="886">
   <si>
     <t>Команда</t>
   </si>
@@ -2603,6 +2603,126 @@
   </si>
   <si>
     <t>+5.792</t>
+  </si>
+  <si>
+    <t>1:45.382</t>
+  </si>
+  <si>
+    <t>1:44.839</t>
+  </si>
+  <si>
+    <t>1:44.696</t>
+  </si>
+  <si>
+    <t>1:43.855</t>
+  </si>
+  <si>
+    <t>1:45.538</t>
+  </si>
+  <si>
+    <t>1:44.704</t>
+  </si>
+  <si>
+    <t>1:45.531</t>
+  </si>
+  <si>
+    <t>1:45.013</t>
+  </si>
+  <si>
+    <t>1:46.358</t>
+  </si>
+  <si>
+    <t>1:46.095</t>
+  </si>
+  <si>
+    <t>1:46.472</t>
+  </si>
+  <si>
+    <t>1:46.250</t>
+  </si>
+  <si>
+    <t>1:45.905</t>
+  </si>
+  <si>
+    <t>1:45.758</t>
+  </si>
+  <si>
+    <t>1:46.859</t>
+  </si>
+  <si>
+    <t>1:46.419</t>
+  </si>
+  <si>
+    <t>1:45.640</t>
+  </si>
+  <si>
+    <t>1:46.522</t>
+  </si>
+  <si>
+    <t>1:45.663</t>
+  </si>
+  <si>
+    <t>1:49.536</t>
+  </si>
+  <si>
+    <t>1:49.636</t>
+  </si>
+  <si>
+    <t>1:51.262</t>
+  </si>
+  <si>
+    <t>01:35.45</t>
+  </si>
+  <si>
+    <t>+6.261</t>
+  </si>
+  <si>
+    <t>+0.027</t>
+  </si>
+  <si>
+    <t>+8.014</t>
+  </si>
+  <si>
+    <t>+4.131</t>
+  </si>
+  <si>
+    <t>+0.120</t>
+  </si>
+  <si>
+    <t>+5.221</t>
+  </si>
+  <si>
+    <t>+3.632</t>
+  </si>
+  <si>
+    <t>+2.975</t>
+  </si>
+  <si>
+    <t>+3.094</t>
+  </si>
+  <si>
+    <t>+1.325</t>
+  </si>
+  <si>
+    <t>+8.000</t>
+  </si>
+  <si>
+    <t>+7.938</t>
+  </si>
+  <si>
+    <t>+0.127</t>
+  </si>
+  <si>
+    <t>+2.713</t>
+  </si>
+  <si>
+    <t>+0.045</t>
+  </si>
+  <si>
+    <t>+8.425</t>
+  </si>
+  <si>
+    <t>+28.163</t>
   </si>
 </sst>
 </file>
@@ -14059,7 +14179,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14196,63 +14316,65 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36">
+        <v>18</v>
+      </c>
+      <c r="D2" s="36">
         <v>25</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
+        <v>12</v>
+      </c>
+      <c r="F2" s="36">
+        <v>15</v>
+      </c>
+      <c r="G2" s="36">
+        <v>15</v>
+      </c>
+      <c r="H2" s="36">
         <v>18</v>
       </c>
-      <c r="E2" s="36">
+      <c r="I2" s="36">
         <v>25</v>
       </c>
-      <c r="F2" s="36">
+      <c r="J2" s="36">
+        <v>8</v>
+      </c>
+      <c r="K2" s="36">
         <v>18</v>
       </c>
-      <c r="G2" s="36">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36">
-        <v>15</v>
-      </c>
-      <c r="I2" s="36">
-        <v>18</v>
-      </c>
-      <c r="J2" s="36">
-        <v>2</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="L2" s="36">
+        <v>12</v>
+      </c>
+      <c r="M2" s="36">
         <v>25</v>
-      </c>
-      <c r="L2" s="36">
-        <v>15</v>
-      </c>
-      <c r="M2" s="36">
-        <v>18</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="82">
+        <v>15</v>
+      </c>
+      <c r="P2" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>25</v>
+      </c>
+      <c r="R2" s="59">
         <v>26</v>
       </c>
-      <c r="P2" s="59">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="82">
+      <c r="S2" s="59">
+        <v>8</v>
+      </c>
+      <c r="T2" s="82">
         <v>18</v>
       </c>
-      <c r="R2" s="82">
-        <v>15</v>
-      </c>
-      <c r="S2" s="82">
-        <v>7</v>
-      </c>
-      <c r="T2" s="59">
-        <v>26</v>
-      </c>
-      <c r="U2" s="61"/>
+      <c r="U2" s="82">
+        <v>25</v>
+      </c>
       <c r="V2" s="61"/>
       <c r="W2" s="61"/>
       <c r="X2" s="61"/>
@@ -14263,7 +14385,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14271,63 +14393,65 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="36">
+        <v>25</v>
+      </c>
+      <c r="D3" s="36">
         <v>18</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
-        <v>12</v>
-      </c>
       <c r="F3" s="36">
+        <v>18</v>
+      </c>
+      <c r="G3" s="36">
+        <v>18</v>
+      </c>
+      <c r="H3" s="36">
         <v>15</v>
       </c>
-      <c r="G3" s="36">
+      <c r="I3" s="36">
+        <v>18</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36">
+        <v>25</v>
+      </c>
+      <c r="L3" s="36">
         <v>15</v>
       </c>
-      <c r="H3" s="36">
+      <c r="M3" s="36">
         <v>18</v>
-      </c>
-      <c r="I3" s="36">
-        <v>25</v>
-      </c>
-      <c r="J3" s="36">
-        <v>8</v>
-      </c>
-      <c r="K3" s="36">
-        <v>18</v>
-      </c>
-      <c r="L3" s="36">
-        <v>12</v>
-      </c>
-      <c r="M3" s="36">
-        <v>25</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="59">
+        <v>26</v>
+      </c>
+      <c r="P3" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>18</v>
+      </c>
+      <c r="R3" s="82">
         <v>15</v>
       </c>
-      <c r="P3" s="82">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="82">
-        <v>25</v>
-      </c>
-      <c r="R3" s="59">
+      <c r="S3" s="82">
+        <v>7</v>
+      </c>
+      <c r="T3" s="59">
         <v>26</v>
       </c>
-      <c r="S3" s="59">
-        <v>8</v>
-      </c>
-      <c r="T3" s="82">
-        <v>18</v>
-      </c>
-      <c r="U3" s="61"/>
+      <c r="U3" s="82">
+        <v>15</v>
+      </c>
       <c r="V3" s="61"/>
       <c r="W3" s="61"/>
       <c r="X3" s="61"/>
@@ -14338,7 +14462,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14400,7 +14524,9 @@
         <v>5</v>
       </c>
       <c r="T4" s="83"/>
-      <c r="U4" s="62"/>
+      <c r="U4" s="83">
+        <v>10</v>
+      </c>
       <c r="V4" s="62"/>
       <c r="W4" s="62"/>
       <c r="X4" s="62"/>
@@ -14411,7 +14537,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -14471,7 +14597,9 @@
       <c r="T5" s="86">
         <v>12</v>
       </c>
-      <c r="U5" s="66"/>
+      <c r="U5" s="86">
+        <v>18</v>
+      </c>
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66"/>
@@ -14482,7 +14610,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -14542,7 +14670,9 @@
       <c r="T6" s="90">
         <v>15</v>
       </c>
-      <c r="U6" s="70"/>
+      <c r="U6" s="90">
+        <v>6</v>
+      </c>
       <c r="V6" s="70"/>
       <c r="W6" s="70"/>
       <c r="X6" s="70"/>
@@ -14553,279 +14683,283 @@
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="116">
+      <c r="B7" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="87">
+        <v>2</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87">
+        <v>4</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87">
+        <v>1</v>
+      </c>
+      <c r="H7" s="87">
         <v>10</v>
       </c>
-      <c r="D7" s="116">
+      <c r="I7" s="87">
+        <v>8</v>
+      </c>
+      <c r="J7" s="87">
+        <v>1</v>
+      </c>
+      <c r="K7" s="87">
+        <v>8</v>
+      </c>
+      <c r="L7" s="87">
+        <v>10</v>
+      </c>
+      <c r="M7" s="87">
+        <v>10</v>
+      </c>
+      <c r="N7" s="87">
         <v>15</v>
       </c>
-      <c r="E7" s="116">
+      <c r="O7" s="87"/>
+      <c r="P7" s="87">
         <v>10</v>
       </c>
-      <c r="F7" s="116">
-        <v>1</v>
-      </c>
-      <c r="G7" s="116">
-        <v>4</v>
-      </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116">
-        <v>1</v>
-      </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116">
+      <c r="Q7" s="87">
+        <v>15</v>
+      </c>
+      <c r="R7" s="87">
         <v>2</v>
       </c>
-      <c r="L7" s="116">
+      <c r="S7" s="87"/>
+      <c r="T7" s="87">
+        <v>10</v>
+      </c>
+      <c r="U7" s="87">
         <v>8</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="79">
-        <v>19</v>
-      </c>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="116">
-        <v>4</v>
-      </c>
-      <c r="R7" s="116">
-        <v>18</v>
-      </c>
-      <c r="S7" s="116">
-        <v>6</v>
-      </c>
-      <c r="T7" s="116">
-        <v>8</v>
-      </c>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="116">
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="87">
         <f>SUM(C7:AC7)</f>
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="87">
+      <c r="B8" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="116">
+        <v>10</v>
+      </c>
+      <c r="D8" s="116">
+        <v>15</v>
+      </c>
+      <c r="E8" s="116">
+        <v>10</v>
+      </c>
+      <c r="F8" s="116">
+        <v>1</v>
+      </c>
+      <c r="G8" s="116">
+        <v>4</v>
+      </c>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116">
+        <v>1</v>
+      </c>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116">
         <v>2</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87">
+      <c r="L8" s="116">
+        <v>8</v>
+      </c>
+      <c r="M8" s="116"/>
+      <c r="N8" s="79">
+        <v>19</v>
+      </c>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116">
         <v>4</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87">
-        <v>1</v>
-      </c>
-      <c r="H8" s="87">
-        <v>10</v>
-      </c>
-      <c r="I8" s="87">
+      <c r="Q8" s="116">
+        <v>4</v>
+      </c>
+      <c r="R8" s="116">
+        <v>18</v>
+      </c>
+      <c r="S8" s="116">
+        <v>6</v>
+      </c>
+      <c r="T8" s="116">
         <v>8</v>
       </c>
-      <c r="J8" s="87">
-        <v>1</v>
-      </c>
-      <c r="K8" s="87">
-        <v>8</v>
-      </c>
-      <c r="L8" s="87">
-        <v>10</v>
-      </c>
-      <c r="M8" s="87">
-        <v>10</v>
-      </c>
-      <c r="N8" s="87">
-        <v>15</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="87">
-        <v>15</v>
-      </c>
-      <c r="R8" s="87">
-        <v>2</v>
-      </c>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87">
-        <v>10</v>
-      </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="87">
+      <c r="U8" s="116"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="116">
         <f>SUM(C8:AC8)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="84">
+      <c r="B9" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="83">
+        <v>6</v>
+      </c>
+      <c r="D9" s="83">
+        <v>2</v>
+      </c>
+      <c r="E9" s="83">
+        <v>8</v>
+      </c>
+      <c r="F9" s="83">
+        <v>8</v>
+      </c>
+      <c r="G9" s="83">
+        <v>8</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83">
+        <v>2</v>
+      </c>
+      <c r="J9" s="83">
+        <v>3</v>
+      </c>
+      <c r="K9" s="83">
         <v>4</v>
       </c>
-      <c r="D9" s="84">
+      <c r="L9" s="83"/>
+      <c r="M9" s="83">
+        <v>6</v>
+      </c>
+      <c r="N9" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="83">
         <v>10</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="59">
+      <c r="P9" s="83">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="83">
+        <v>9</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="83">
+        <v>1</v>
+      </c>
+      <c r="T9" s="83">
+        <v>2</v>
+      </c>
+      <c r="U9" s="58">
         <v>13</v>
       </c>
-      <c r="G9" s="84">
-        <v>12</v>
-      </c>
-      <c r="H9" s="84">
-        <v>6</v>
-      </c>
-      <c r="I9" s="84">
-        <v>12</v>
-      </c>
-      <c r="J9" s="84">
-        <v>4</v>
-      </c>
-      <c r="K9" s="84">
-        <v>10</v>
-      </c>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84">
-        <v>2</v>
-      </c>
-      <c r="O9" s="84">
-        <v>6</v>
-      </c>
-      <c r="P9" s="84">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="84">
-        <v>2</v>
-      </c>
-      <c r="R9" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84">
-        <v>1</v>
-      </c>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="84">
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="83">
         <f>SUM(C9:AC9)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B10" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="84">
+        <v>4</v>
+      </c>
+      <c r="D10" s="84">
+        <v>10</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="59">
+        <v>13</v>
+      </c>
+      <c r="G10" s="84">
+        <v>12</v>
+      </c>
+      <c r="H10" s="84">
         <v>6</v>
       </c>
-      <c r="D10" s="37">
+      <c r="I10" s="84">
+        <v>12</v>
+      </c>
+      <c r="J10" s="84">
+        <v>4</v>
+      </c>
+      <c r="K10" s="84">
+        <v>10</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84">
         <v>2</v>
       </c>
-      <c r="E10" s="37">
-        <v>8</v>
-      </c>
-      <c r="F10" s="37">
-        <v>8</v>
-      </c>
-      <c r="G10" s="37">
-        <v>8</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37">
+      <c r="O10" s="84">
+        <v>6</v>
+      </c>
+      <c r="P10" s="84">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="84">
         <v>2</v>
       </c>
-      <c r="J10" s="37">
-        <v>3</v>
-      </c>
-      <c r="K10" s="37">
-        <v>4</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37">
-        <v>6</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="R10" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="83">
-        <v>10</v>
-      </c>
-      <c r="P10" s="83">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="83">
-        <v>9</v>
-      </c>
-      <c r="R10" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="83">
+      <c r="S10" s="84"/>
+      <c r="T10" s="84">
         <v>1</v>
       </c>
-      <c r="T10" s="83">
-        <v>2</v>
-      </c>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="37">
+      <c r="U10" s="84"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="84">
         <f>SUM(C10:AC10)</f>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -14869,7 +15003,9 @@
       </c>
       <c r="S11" s="87"/>
       <c r="T11" s="87"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="87">
+        <v>2</v>
+      </c>
       <c r="V11" s="65"/>
       <c r="W11" s="65"/>
       <c r="X11" s="65"/>
@@ -14880,7 +15016,7 @@
       <c r="AC11" s="65"/>
       <c r="AD11" s="41">
         <f>SUM(C11:AC11)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -14922,7 +15058,9 @@
       <c r="T12" s="90">
         <v>6</v>
       </c>
-      <c r="U12" s="70"/>
+      <c r="U12" s="90">
+        <v>1</v>
+      </c>
       <c r="V12" s="70"/>
       <c r="W12" s="70"/>
       <c r="X12" s="70"/>
@@ -14933,109 +15071,111 @@
       <c r="AC12" s="70"/>
       <c r="AD12" s="90">
         <f>SUM(C12:AC12)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88">
+      <c r="B13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104">
+        <v>6</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="104">
+        <v>1</v>
+      </c>
+      <c r="P13" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104">
+        <v>12</v>
+      </c>
+      <c r="S13" s="104">
+        <v>3</v>
+      </c>
+      <c r="T13" s="104">
         <v>4</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88">
-        <v>25</v>
-      </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="88">
+      <c r="U13" s="104">
+        <v>4</v>
+      </c>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="104">
         <f>SUM(C13:AC13)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104">
-        <v>6</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104">
-        <v>1</v>
-      </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104" t="s">
+      <c r="B14" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88">
+        <v>4</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="104">
-        <v>1</v>
-      </c>
-      <c r="P14" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104">
-        <v>12</v>
-      </c>
-      <c r="S14" s="104">
-        <v>3</v>
-      </c>
-      <c r="T14" s="104">
-        <v>4</v>
-      </c>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="104">
+      <c r="M14" s="88"/>
+      <c r="N14" s="88">
+        <v>25</v>
+      </c>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="88">
         <f>SUM(C14:AC14)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -15073,7 +15213,7 @@
       </c>
       <c r="S15" s="89"/>
       <c r="T15" s="89"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="67"/>
       <c r="W15" s="67"/>
       <c r="X15" s="67"/>
@@ -15118,7 +15258,7 @@
       </c>
       <c r="S16" s="89"/>
       <c r="T16" s="89"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="67"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67"/>
@@ -15171,7 +15311,7 @@
       </c>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="85"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -15220,7 +15360,7 @@
       </c>
       <c r="S18" s="91"/>
       <c r="T18" s="91"/>
-      <c r="U18" s="64"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
       <c r="X18" s="64"/>
@@ -15267,7 +15407,7 @@
         <v>66</v>
       </c>
       <c r="T19" s="84"/>
-      <c r="U19" s="69"/>
+      <c r="U19" s="84"/>
       <c r="V19" s="69"/>
       <c r="W19" s="69"/>
       <c r="X19" s="69"/>
@@ -15320,7 +15460,7 @@
       </c>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
-      <c r="U20" s="63"/>
+      <c r="U20" s="85"/>
       <c r="V20" s="63"/>
       <c r="W20" s="63"/>
       <c r="X20" s="63"/>
@@ -15338,39 +15478,45 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46" t="s">
+      <c r="B21" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="46">
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="104">
         <f>SUM(C21:AC21)</f>
         <v>0</v>
       </c>
@@ -15406,7 +15552,7 @@
       <c r="R22" s="88"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
-      <c r="U22" s="68"/>
+      <c r="U22" s="88"/>
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68"/>
@@ -15424,45 +15570,39 @@
       <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
+      <c r="B23" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="34">
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="91">
         <f>SUM(C23:AC23)</f>
         <v>0</v>
       </c>
@@ -16336,7 +16476,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$46,B53,$F$28:$F$46)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$46,B53,$F$28:$F$46)</f>
         <v>15</v>
       </c>
       <c r="D53" s="81"/>
@@ -16351,7 +16491,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="86">
-        <f>SUMIF($C$28:$C$46,B54,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D54" s="81"/>
@@ -16366,7 +16506,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="83">
-        <f>SUMIF($C$28:$C$46,B55,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D55" s="81"/>
@@ -16381,7 +16521,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="105">
-        <f>SUMIF($C$28:$C$46,B56,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D56" s="81"/>
@@ -16396,7 +16536,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="90">
-        <f>SUMIF($C$28:$C$46,B57,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D57" s="81"/>
@@ -16411,7 +16551,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="87">
-        <f>SUMIF($C$28:$C$46,B58,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D58" s="81"/>
@@ -16426,7 +16566,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="89">
-        <f>SUMIF($C$28:$C$46,B59,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D59" s="81"/>
@@ -16441,7 +16581,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="84">
-        <f>SUMIF($C$28:$C$46,B60,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -16456,7 +16596,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$46,B61,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -16471,7 +16611,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$46,B62,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -16486,7 +16626,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$46,B63,$F$28:$F$46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -16506,7 +16646,997 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A5CF8-7B24-4532-83BD-6AD74629EAEB}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>2</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
+        <v>3</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
+        <v>4</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
+        <v>5</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
+        <v>6</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
+        <v>7</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
+        <v>8</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
+        <v>9</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
+        <v>10</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
+        <v>11</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
+        <v>12</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
+        <v>13</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
+        <v>14</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="92">
+        <v>15</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="92">
+        <v>16</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="92">
+        <v>17</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="92">
+        <v>18</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="92">
+        <v>19</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="92">
+        <v>20</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="92">
+        <v>21</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="92">
+        <v>22</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="92">
+        <v>1</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>826</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="92">
+        <v>2</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>806</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>827</v>
+      </c>
+      <c r="F29" s="82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="92">
+        <v>3</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>807</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>828</v>
+      </c>
+      <c r="F30" s="90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="92">
+        <v>4</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>829</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="92">
+        <v>5</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>830</v>
+      </c>
+      <c r="F32" s="87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="92">
+        <v>6</v>
+      </c>
+      <c r="B33" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>810</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" s="86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="92">
+        <v>7</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>811</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>831</v>
+      </c>
+      <c r="F34" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="92">
+        <v>8</v>
+      </c>
+      <c r="B35" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>832</v>
+      </c>
+      <c r="F35" s="104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="92">
+        <v>9</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>813</v>
+      </c>
+      <c r="E36" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="F36" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="92">
+        <v>10</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>814</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>834</v>
+      </c>
+      <c r="F37" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="92">
+        <v>11</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>815</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>835</v>
+      </c>
+      <c r="F38" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="92">
+        <v>12</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>816</v>
+      </c>
+      <c r="E39" s="107" t="s">
+        <v>836</v>
+      </c>
+      <c r="F39" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="92">
+        <v>13</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>817</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>837</v>
+      </c>
+      <c r="F40" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="92">
+        <v>14</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>818</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>838</v>
+      </c>
+      <c r="F41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="92">
+        <v>15</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>810</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="92">
+        <v>16</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>819</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>840</v>
+      </c>
+      <c r="F43" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="92">
+        <v>17</v>
+      </c>
+      <c r="B44" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>820</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>841</v>
+      </c>
+      <c r="F44" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="92">
+        <v>18</v>
+      </c>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>821</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>654</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="92">
+        <v>19</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="98" t="s">
+        <v>822</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>842</v>
+      </c>
+      <c r="F46" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="92">
+        <v>20</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="99" t="s">
+        <v>823</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>843</v>
+      </c>
+      <c r="F47" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="92">
+        <v>21</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="96" t="s">
+        <v>824</v>
+      </c>
+      <c r="E48" s="109" t="s">
+        <v>844</v>
+      </c>
+      <c r="F48" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="92">
+        <v>22</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>825</v>
+      </c>
+      <c r="E49" s="114" t="s">
+        <v>845</v>
+      </c>
+      <c r="F49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="92">
+        <v>1</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$45,B53,$F$28:$F$45)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="92">
+        <v>2</v>
+      </c>
+      <c r="B54" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="90">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="92">
+        <v>3</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="86">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="92">
+        <v>4</v>
+      </c>
+      <c r="B56" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="87">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="92">
+        <v>5</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="105">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="92">
+        <v>6</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="92">
+        <v>7</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="92">
+        <v>8</v>
+      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="92">
+        <v>9</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="92">
+        <v>10</v>
+      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="92">
+        <v>11</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E93202-6135-4334-B4F1-B6DE1C0AA0D4}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
     </sheetView>
   </sheetViews>
@@ -16562,13 +17692,15 @@
       <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>14</v>
+      <c r="B4" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="27"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="92">
@@ -16581,65 +17713,76 @@
         <v>11</v>
       </c>
       <c r="D5" s="28"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>59</v>
+      <c r="B6" s="116" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="28"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>17</v>
+      <c r="B7" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="27"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>21</v>
+      <c r="B8" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="27"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="81"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>19</v>
+      <c r="B10" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="27"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="92">
@@ -16652,6 +17795,8 @@
         <v>17</v>
       </c>
       <c r="D11" s="28"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="92">
@@ -16664,64 +17809,73 @@
         <v>12</v>
       </c>
       <c r="D12" s="28"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>20</v>
+      <c r="B13" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>18</v>
+      <c r="B14" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="28"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>15</v>
+      <c r="B15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="28"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="92">
         <v>14</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="89" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>13</v>
+      <c r="B17" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="28"/>
     </row>
@@ -16729,49 +17883,57 @@
       <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>12</v>
+      <c r="B18" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="92">
         <v>17</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C19" s="88" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>19</v>
+      <c r="B20" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>16</v>
+      <c r="B21" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="92">
@@ -16791,11 +17953,11 @@
       <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>13</v>
+      <c r="B23" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="81"/>
@@ -16805,11 +17967,11 @@
       <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>11</v>
+      <c r="B24" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="81"/>
@@ -16856,38 +18018,38 @@
         <v>1</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>805</v>
+      <c r="D28" s="108" t="s">
+        <v>846</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="F28" s="82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="108" t="s">
-        <v>806</v>
-      </c>
-      <c r="E29" s="108" t="s">
-        <v>827</v>
-      </c>
-      <c r="F29" s="82">
+      <c r="B29" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>847</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>869</v>
+      </c>
+      <c r="F29" s="86">
         <v>18</v>
       </c>
     </row>
@@ -16895,19 +18057,19 @@
       <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>807</v>
-      </c>
-      <c r="E30" s="115" t="s">
-        <v>828</v>
-      </c>
-      <c r="F30" s="90">
+      <c r="B30" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>848</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>870</v>
+      </c>
+      <c r="F30" s="82">
         <v>15</v>
       </c>
     </row>
@@ -16915,39 +18077,39 @@
       <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>808</v>
-      </c>
-      <c r="E31" s="113" t="s">
-        <v>829</v>
-      </c>
-      <c r="F31" s="86">
-        <v>12</v>
+      <c r="B31" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>871</v>
+      </c>
+      <c r="F31" s="83">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="E32" s="110" t="s">
-        <v>830</v>
-      </c>
-      <c r="F32" s="87">
+      <c r="B32" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>872</v>
+      </c>
+      <c r="F32" s="83">
         <v>10</v>
       </c>
     </row>
@@ -16955,19 +18117,19 @@
       <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>810</v>
-      </c>
-      <c r="E33" s="113" t="s">
-        <v>419</v>
-      </c>
-      <c r="F33" s="86">
+      <c r="B33" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>851</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>873</v>
+      </c>
+      <c r="F33" s="87">
         <v>8</v>
       </c>
     </row>
@@ -16976,16 +18138,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C34" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="90" t="s">
-        <v>811</v>
+      <c r="D34" s="103" t="s">
+        <v>852</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>831</v>
+        <v>874</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -17002,10 +18164,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>832</v>
+        <v>875</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -17015,19 +18177,19 @@
       <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="106" t="s">
-        <v>813</v>
-      </c>
-      <c r="E36" s="106" t="s">
-        <v>833</v>
-      </c>
-      <c r="F36" s="83">
+      <c r="B36" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>854</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="F36" s="87">
         <v>2</v>
       </c>
     </row>
@@ -17035,19 +18197,19 @@
       <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="96" t="s">
-        <v>814</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>834</v>
-      </c>
-      <c r="F37" s="84">
+      <c r="B37" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>855</v>
+      </c>
+      <c r="E37" s="115" t="s">
+        <v>877</v>
+      </c>
+      <c r="F37" s="90">
         <v>1</v>
       </c>
     </row>
@@ -17055,19 +18217,19 @@
       <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="98" t="s">
-        <v>815</v>
-      </c>
-      <c r="E38" s="111" t="s">
-        <v>835</v>
-      </c>
-      <c r="F38" s="91">
+      <c r="B38" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>856</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>878</v>
+      </c>
+      <c r="F38" s="89">
         <v>0</v>
       </c>
     </row>
@@ -17075,19 +18237,19 @@
       <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>816</v>
-      </c>
-      <c r="E39" s="107" t="s">
-        <v>836</v>
-      </c>
-      <c r="F39" s="85">
+      <c r="B39" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>857</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="84">
         <v>0</v>
       </c>
     </row>
@@ -17095,19 +18257,19 @@
       <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>817</v>
-      </c>
-      <c r="E40" s="106" t="s">
-        <v>837</v>
-      </c>
-      <c r="F40" s="83">
+      <c r="B40" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="E40" s="113" t="s">
+        <v>879</v>
+      </c>
+      <c r="F40" s="86">
         <v>0</v>
       </c>
     </row>
@@ -17115,19 +18277,19 @@
       <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="102" t="s">
-        <v>818</v>
-      </c>
-      <c r="E41" s="114" t="s">
-        <v>838</v>
-      </c>
-      <c r="F41" s="88">
+      <c r="B41" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>859</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>880</v>
+      </c>
+      <c r="F41" s="91">
         <v>0</v>
       </c>
     </row>
@@ -17135,19 +18297,19 @@
       <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="99" t="s">
-        <v>810</v>
-      </c>
-      <c r="E42" s="112" t="s">
-        <v>839</v>
-      </c>
-      <c r="F42" s="89">
+      <c r="B42" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="E42" s="107" t="s">
+        <v>881</v>
+      </c>
+      <c r="F42" s="85">
         <v>0</v>
       </c>
     </row>
@@ -17155,19 +18317,19 @@
       <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="94" t="s">
-        <v>819</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>840</v>
-      </c>
-      <c r="F43" s="85">
+      <c r="B43" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>861</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>882</v>
+      </c>
+      <c r="F43" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17175,19 +18337,19 @@
       <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>820</v>
-      </c>
-      <c r="E44" s="110" t="s">
-        <v>841</v>
-      </c>
-      <c r="F44" s="87">
+      <c r="B44" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>862</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>883</v>
+      </c>
+      <c r="F44" s="88">
         <v>0</v>
       </c>
     </row>
@@ -17195,19 +18357,19 @@
       <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="118" t="s">
-        <v>821</v>
-      </c>
-      <c r="E45" s="117" t="s">
-        <v>654</v>
-      </c>
-      <c r="F45" s="104">
+      <c r="B45" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>863</v>
+      </c>
+      <c r="E45" s="112" t="s">
+        <v>884</v>
+      </c>
+      <c r="F45" s="89">
         <v>0</v>
       </c>
     </row>
@@ -17216,16 +18378,16 @@
         <v>19</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="C46" s="91" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -17235,19 +18397,19 @@
       <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="99" t="s">
-        <v>823</v>
-      </c>
-      <c r="E47" s="112" t="s">
-        <v>843</v>
-      </c>
-      <c r="F47" s="89">
+      <c r="B47" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="118" t="s">
+        <v>865</v>
+      </c>
+      <c r="E47" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="104">
         <v>0</v>
       </c>
     </row>
@@ -17255,19 +18417,19 @@
       <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="96" t="s">
-        <v>824</v>
-      </c>
-      <c r="E48" s="109" t="s">
-        <v>844</v>
-      </c>
-      <c r="F48" s="84">
+      <c r="B48" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>866</v>
+      </c>
+      <c r="E48" s="107" t="s">
+        <v>615</v>
+      </c>
+      <c r="F48" s="85">
         <v>0</v>
       </c>
     </row>
@@ -17275,20 +18437,20 @@
       <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="102" t="s">
-        <v>825</v>
-      </c>
-      <c r="E49" s="114" t="s">
-        <v>845</v>
-      </c>
-      <c r="F49" s="88">
-        <v>0</v>
+      <c r="B49" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>867</v>
+      </c>
+      <c r="E49" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -17326,8 +18488,8 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$45,B53,$F$28:$F$45)</f>
-        <v>44</v>
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>40</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -17337,12 +18499,12 @@
       <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="90">
-        <f>SUMIF($C$28:$C$45,B54,$F$28:$F$45)</f>
-        <v>21</v>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>23</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
@@ -17356,8 +18518,8 @@
         <v>14</v>
       </c>
       <c r="C55" s="86">
-        <f>SUMIF($C$28:$C$45,B55,$F$28:$F$45)</f>
-        <v>20</v>
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>18</v>
       </c>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
@@ -17371,7 +18533,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="87">
-        <f>SUMIF($C$28:$C$45,B56,$F$28:$F$45)</f>
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
         <v>10</v>
       </c>
       <c r="D56" s="81"/>
@@ -17382,12 +18544,12 @@
       <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="105">
-        <f>SUMIF($C$28:$C$45,B57,$F$28:$F$45)</f>
-        <v>4</v>
+      <c r="B57" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="90">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>7</v>
       </c>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
@@ -17397,12 +18559,12 @@
       <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="83">
-        <f>SUMIF($C$28:$C$45,B58,$F$28:$F$45)</f>
-        <v>2</v>
+      <c r="B58" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="105">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>4</v>
       </c>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
@@ -17412,12 +18574,12 @@
       <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="84">
-        <f>SUMIF($C$28:$C$45,B59,$F$28:$F$45)</f>
-        <v>1</v>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
@@ -17427,11 +18589,11 @@
       <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="89">
-        <f>SUMIF($C$28:$C$45,B60,$F$28:$F$45)</f>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -17446,7 +18608,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$45,B61,$F$28:$F$45)</f>
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -17461,7 +18623,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$45,B62,$F$28:$F$45)</f>
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -17476,7 +18638,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$45,B63,$F$28:$F$45)</f>
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -17488,919 +18650,6 @@
     <sortCondition descending="1" ref="C53:C63"/>
     <sortCondition ref="B53:B63"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E93202-6135-4334-B4F1-B6DE1C0AA0D4}">
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
-        <v>13</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
-        <v>15</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
-        <v>17</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
-        <v>18</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
-        <v>19</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
-        <v>20</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
-        <v>21</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
-        <v>22</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
-        <v>1</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
-        <v>2</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
-        <v>3</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
-        <v>4</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
-        <v>5</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
-        <v>6</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
-        <v>7</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
-        <v>8</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
-        <v>9</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
-        <v>10</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
-        <v>11</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
-        <v>12</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
-        <v>13</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
-        <v>14</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
-        <v>15</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
-        <v>16</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
-        <v>17</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
-        <v>18</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
-        <v>19</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
-        <v>20</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
-        <v>21</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
-        <v>22</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
-        <v>1</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
-        <v>2</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
-        <v>3</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
-        <v>4</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
-        <v>5</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
-        <v>6</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
-        <v>7</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
-        <v>8</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
-        <v>9</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
-        <v>10</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
-        <v>11</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24801,7 +25050,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24991,7 +25240,9 @@
       <c r="T2" s="59">
         <v>44</v>
       </c>
-      <c r="U2" s="61"/>
+      <c r="U2" s="82">
+        <v>40</v>
+      </c>
       <c r="V2" s="61"/>
       <c r="W2" s="61"/>
       <c r="X2" s="61"/>
@@ -25002,7 +25253,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>616</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -25062,7 +25313,9 @@
       <c r="T3" s="83">
         <v>2</v>
       </c>
-      <c r="U3" s="62"/>
+      <c r="U3" s="58">
+        <v>23</v>
+      </c>
       <c r="V3" s="62"/>
       <c r="W3" s="62"/>
       <c r="X3" s="62"/>
@@ -25073,7 +25326,7 @@
       <c r="AC3" s="62"/>
       <c r="AD3" s="37">
         <f>SUM(C3:AC3)</f>
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -25137,7 +25390,9 @@
       <c r="T4" s="86">
         <v>20</v>
       </c>
-      <c r="U4" s="66"/>
+      <c r="U4" s="86">
+        <v>18</v>
+      </c>
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
@@ -25148,7 +25403,7 @@
       <c r="AC4" s="66"/>
       <c r="AD4" s="40">
         <f>SUM(C4:AC4)</f>
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -25210,7 +25465,9 @@
       <c r="T5" s="90">
         <v>21</v>
       </c>
-      <c r="U5" s="70"/>
+      <c r="U5" s="90">
+        <v>7</v>
+      </c>
       <c r="V5" s="70"/>
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
@@ -25221,7 +25478,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -25281,7 +25538,9 @@
       <c r="T6" s="87">
         <v>10</v>
       </c>
-      <c r="U6" s="65"/>
+      <c r="U6" s="87">
+        <v>10</v>
+      </c>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
       <c r="X6" s="65"/>
@@ -25292,7 +25551,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -25348,7 +25607,7 @@
       <c r="T7" s="84">
         <v>1</v>
       </c>
-      <c r="U7" s="69"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="69"/>
       <c r="W7" s="69"/>
       <c r="X7" s="69"/>
@@ -25397,7 +25656,7 @@
       </c>
       <c r="S8" s="89"/>
       <c r="T8" s="89"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
@@ -25415,96 +25674,98 @@
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88">
+      <c r="B9" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105">
+        <v>6</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
+        <v>1</v>
+      </c>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105">
+        <v>1</v>
+      </c>
+      <c r="P9" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
+        <v>12</v>
+      </c>
+      <c r="S9" s="105">
+        <v>3</v>
+      </c>
+      <c r="T9" s="105">
         <v>4</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88">
-        <v>25</v>
-      </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="88">
+      <c r="U9" s="105">
+        <v>4</v>
+      </c>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="104">
         <f>SUM(C9:AC9)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105">
-        <v>6</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105">
-        <v>1</v>
-      </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105">
-        <v>1</v>
-      </c>
-      <c r="P10" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105">
-        <v>12</v>
-      </c>
-      <c r="S10" s="105">
-        <v>3</v>
-      </c>
-      <c r="T10" s="105">
+      <c r="B10" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88">
         <v>4</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="104">
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88">
+        <v>25</v>
+      </c>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="88">
         <f>SUM(C10:AC10)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -25544,7 +25805,7 @@
       </c>
       <c r="S11" s="85"/>
       <c r="T11" s="85"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
@@ -25593,7 +25854,7 @@
       </c>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
-      <c r="U12" s="64"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="64"/>
       <c r="W12" s="64"/>
       <c r="X12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E588E53-7452-48F1-A3DA-F50DFECB0BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8350F-77BD-4F3E-9C64-2E4E50233D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="916">
   <si>
     <t>Команда</t>
   </si>
@@ -2723,6 +2723,96 @@
   </si>
   <si>
     <t>+28.163</t>
+  </si>
+  <si>
+    <t>01:37:02</t>
+  </si>
+  <si>
+    <t>+12.331</t>
+  </si>
+  <si>
+    <t>+3.278</t>
+  </si>
+  <si>
+    <t>+21.813</t>
+  </si>
+  <si>
+    <t>+9.912</t>
+  </si>
+  <si>
+    <t>+10.219</t>
+  </si>
+  <si>
+    <t>+0.744</t>
+  </si>
+  <si>
+    <t>+0.517</t>
+  </si>
+  <si>
+    <t>1:29.657</t>
+  </si>
+  <si>
+    <t>1:30.270</t>
+  </si>
+  <si>
+    <t>1:29.948</t>
+  </si>
+  <si>
+    <t>1:30.306</t>
+  </si>
+  <si>
+    <t>1:30.866</t>
+  </si>
+  <si>
+    <t>1:30.704</t>
+  </si>
+  <si>
+    <t>1:30.012</t>
+  </si>
+  <si>
+    <t>1:30.935</t>
+  </si>
+  <si>
+    <t>1:31.562</t>
+  </si>
+  <si>
+    <t>1:31.157</t>
+  </si>
+  <si>
+    <t>1:31.101</t>
+  </si>
+  <si>
+    <t>1:30.920</t>
+  </si>
+  <si>
+    <t>1:30.453</t>
+  </si>
+  <si>
+    <t>1:31.787</t>
+  </si>
+  <si>
+    <t>1:31.488</t>
+  </si>
+  <si>
+    <t>1:31.218</t>
+  </si>
+  <si>
+    <t>1:31.182</t>
+  </si>
+  <si>
+    <t>1:30.806</t>
+  </si>
+  <si>
+    <t>1:31.844</t>
+  </si>
+  <si>
+    <t>1:31.023</t>
+  </si>
+  <si>
+    <t>1:30.971</t>
+  </si>
+  <si>
+    <t>1:31.793</t>
   </si>
 </sst>
 </file>
@@ -14178,8 +14268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14316,66 +14406,68 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="36">
+        <v>25</v>
+      </c>
+      <c r="D2" s="36">
         <v>18</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
         <v>25</v>
       </c>
-      <c r="E2" s="36">
-        <v>12</v>
-      </c>
       <c r="F2" s="36">
+        <v>18</v>
+      </c>
+      <c r="G2" s="36">
+        <v>18</v>
+      </c>
+      <c r="H2" s="36">
         <v>15</v>
       </c>
-      <c r="G2" s="36">
+      <c r="I2" s="36">
+        <v>18</v>
+      </c>
+      <c r="J2" s="36">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36">
+        <v>25</v>
+      </c>
+      <c r="L2" s="36">
         <v>15</v>
       </c>
-      <c r="H2" s="36">
+      <c r="M2" s="36">
         <v>18</v>
-      </c>
-      <c r="I2" s="36">
-        <v>25</v>
-      </c>
-      <c r="J2" s="36">
-        <v>8</v>
-      </c>
-      <c r="K2" s="36">
-        <v>18</v>
-      </c>
-      <c r="L2" s="36">
-        <v>12</v>
-      </c>
-      <c r="M2" s="36">
-        <v>25</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="59">
+        <v>26</v>
+      </c>
+      <c r="P2" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>18</v>
+      </c>
+      <c r="R2" s="82">
         <v>15</v>
       </c>
-      <c r="P2" s="82">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="82">
-        <v>25</v>
-      </c>
-      <c r="R2" s="59">
+      <c r="S2" s="82">
+        <v>7</v>
+      </c>
+      <c r="T2" s="59">
         <v>26</v>
       </c>
-      <c r="S2" s="59">
-        <v>8</v>
-      </c>
-      <c r="T2" s="82">
-        <v>18</v>
-      </c>
       <c r="U2" s="82">
-        <v>25</v>
-      </c>
-      <c r="V2" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="V2" s="59">
+        <v>26</v>
+      </c>
       <c r="W2" s="61"/>
       <c r="X2" s="61"/>
       <c r="Y2" s="61"/>
@@ -14385,7 +14477,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14393,66 +14485,68 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="36">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36">
         <v>25</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
+        <v>12</v>
+      </c>
+      <c r="F3" s="36">
+        <v>15</v>
+      </c>
+      <c r="G3" s="36">
+        <v>15</v>
+      </c>
+      <c r="H3" s="36">
         <v>18</v>
       </c>
-      <c r="E3" s="36">
+      <c r="I3" s="36">
         <v>25</v>
       </c>
-      <c r="F3" s="36">
+      <c r="J3" s="36">
+        <v>8</v>
+      </c>
+      <c r="K3" s="36">
         <v>18</v>
       </c>
-      <c r="G3" s="36">
-        <v>18</v>
-      </c>
-      <c r="H3" s="36">
-        <v>15</v>
-      </c>
-      <c r="I3" s="36">
-        <v>18</v>
-      </c>
-      <c r="J3" s="36">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36">
+      <c r="L3" s="36">
+        <v>12</v>
+      </c>
+      <c r="M3" s="36">
         <v>25</v>
-      </c>
-      <c r="L3" s="36">
-        <v>15</v>
-      </c>
-      <c r="M3" s="36">
-        <v>18</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="82">
+        <v>15</v>
+      </c>
+      <c r="P3" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>25</v>
+      </c>
+      <c r="R3" s="59">
         <v>26</v>
       </c>
-      <c r="P3" s="59">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="82">
+      <c r="S3" s="59">
+        <v>8</v>
+      </c>
+      <c r="T3" s="82">
         <v>18</v>
       </c>
-      <c r="R3" s="82">
+      <c r="U3" s="82">
+        <v>25</v>
+      </c>
+      <c r="V3" s="82">
         <v>15</v>
       </c>
-      <c r="S3" s="82">
-        <v>7</v>
-      </c>
-      <c r="T3" s="59">
-        <v>26</v>
-      </c>
-      <c r="U3" s="82">
-        <v>15</v>
-      </c>
-      <c r="V3" s="61"/>
       <c r="W3" s="61"/>
       <c r="X3" s="61"/>
       <c r="Y3" s="61"/>
@@ -14462,7 +14556,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14527,7 +14621,9 @@
       <c r="U4" s="83">
         <v>10</v>
       </c>
-      <c r="V4" s="62"/>
+      <c r="V4" s="83">
+        <v>6</v>
+      </c>
       <c r="W4" s="62"/>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
@@ -14537,7 +14633,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -14600,7 +14696,9 @@
       <c r="U5" s="86">
         <v>18</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="86">
+        <v>12</v>
+      </c>
       <c r="W5" s="66"/>
       <c r="X5" s="66"/>
       <c r="Y5" s="66"/>
@@ -14610,7 +14708,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -14673,7 +14771,9 @@
       <c r="U6" s="90">
         <v>6</v>
       </c>
-      <c r="V6" s="70"/>
+      <c r="V6" s="90">
+        <v>10</v>
+      </c>
       <c r="W6" s="70"/>
       <c r="X6" s="70"/>
       <c r="Y6" s="70"/>
@@ -14683,143 +14783,147 @@
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="87">
+      <c r="B7" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="116">
+        <v>10</v>
+      </c>
+      <c r="D7" s="116">
+        <v>15</v>
+      </c>
+      <c r="E7" s="116">
+        <v>10</v>
+      </c>
+      <c r="F7" s="116">
+        <v>1</v>
+      </c>
+      <c r="G7" s="116">
+        <v>4</v>
+      </c>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116">
+        <v>1</v>
+      </c>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116">
         <v>2</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87">
+      <c r="L7" s="116">
+        <v>8</v>
+      </c>
+      <c r="M7" s="116"/>
+      <c r="N7" s="79">
+        <v>19</v>
+      </c>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116">
         <v>4</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87">
-        <v>1</v>
-      </c>
-      <c r="H7" s="87">
-        <v>10</v>
-      </c>
-      <c r="I7" s="87">
+      <c r="Q7" s="116">
+        <v>4</v>
+      </c>
+      <c r="R7" s="116">
+        <v>18</v>
+      </c>
+      <c r="S7" s="116">
+        <v>6</v>
+      </c>
+      <c r="T7" s="116">
         <v>8</v>
       </c>
-      <c r="J7" s="87">
-        <v>1</v>
-      </c>
-      <c r="K7" s="87">
-        <v>8</v>
-      </c>
-      <c r="L7" s="87">
-        <v>10</v>
-      </c>
-      <c r="M7" s="87">
-        <v>10</v>
-      </c>
-      <c r="N7" s="87">
-        <v>15</v>
-      </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="87">
-        <v>15</v>
-      </c>
-      <c r="R7" s="87">
-        <v>2</v>
-      </c>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87">
-        <v>10</v>
-      </c>
-      <c r="U7" s="87">
-        <v>8</v>
-      </c>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="87">
+      <c r="U7" s="116"/>
+      <c r="V7" s="116">
+        <v>18</v>
+      </c>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="116">
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87">
+        <v>4</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87">
+        <v>1</v>
+      </c>
+      <c r="H8" s="87">
         <v>10</v>
       </c>
-      <c r="D8" s="116">
+      <c r="I8" s="87">
+        <v>8</v>
+      </c>
+      <c r="J8" s="87">
+        <v>1</v>
+      </c>
+      <c r="K8" s="87">
+        <v>8</v>
+      </c>
+      <c r="L8" s="87">
+        <v>10</v>
+      </c>
+      <c r="M8" s="87">
+        <v>10</v>
+      </c>
+      <c r="N8" s="87">
         <v>15</v>
       </c>
-      <c r="E8" s="116">
+      <c r="O8" s="87"/>
+      <c r="P8" s="87">
         <v>10</v>
       </c>
-      <c r="F8" s="116">
-        <v>1</v>
-      </c>
-      <c r="G8" s="116">
-        <v>4</v>
-      </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116">
-        <v>1</v>
-      </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116">
+      <c r="Q8" s="87">
+        <v>15</v>
+      </c>
+      <c r="R8" s="87">
         <v>2</v>
       </c>
-      <c r="L8" s="116">
+      <c r="S8" s="87"/>
+      <c r="T8" s="87">
+        <v>10</v>
+      </c>
+      <c r="U8" s="87">
         <v>8</v>
       </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="79">
-        <v>19</v>
-      </c>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="116">
-        <v>4</v>
-      </c>
-      <c r="R8" s="116">
-        <v>18</v>
-      </c>
-      <c r="S8" s="116">
-        <v>6</v>
-      </c>
-      <c r="T8" s="116">
+      <c r="V8" s="87">
         <v>8</v>
       </c>
-      <c r="U8" s="116"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="116">
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -14882,7 +14986,7 @@
       <c r="U9" s="58">
         <v>13</v>
       </c>
-      <c r="V9" s="62"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="62"/>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
@@ -14949,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="84"/>
-      <c r="V10" s="69"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="69"/>
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
@@ -15006,7 +15110,9 @@
       <c r="U11" s="87">
         <v>2</v>
       </c>
-      <c r="V11" s="65"/>
+      <c r="V11" s="87" t="s">
+        <v>66</v>
+      </c>
       <c r="W11" s="65"/>
       <c r="X11" s="65"/>
       <c r="Y11" s="65"/>
@@ -15023,114 +15129,116 @@
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90">
+      <c r="B12" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104">
         <v>6</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="90">
-        <v>8</v>
-      </c>
-      <c r="N12" s="90">
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="104">
+        <v>1</v>
+      </c>
+      <c r="P12" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104">
+        <v>12</v>
+      </c>
+      <c r="S12" s="104">
+        <v>3</v>
+      </c>
+      <c r="T12" s="104">
         <v>4</v>
       </c>
-      <c r="O12" s="90">
-        <v>2</v>
-      </c>
-      <c r="P12" s="90">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="90">
-        <v>6</v>
-      </c>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90">
-        <v>6</v>
-      </c>
-      <c r="U12" s="90">
-        <v>1</v>
-      </c>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="90">
+      <c r="U12" s="104">
+        <v>4</v>
+      </c>
+      <c r="V12" s="104">
+        <v>4</v>
+      </c>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="104">
         <f>SUM(C12:AC12)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104">
+      <c r="B13" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90">
         <v>6</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104">
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="90">
+        <v>8</v>
+      </c>
+      <c r="N13" s="90">
+        <v>4</v>
+      </c>
+      <c r="O13" s="90">
+        <v>2</v>
+      </c>
+      <c r="P13" s="90">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>6</v>
+      </c>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90">
+        <v>6</v>
+      </c>
+      <c r="U13" s="90">
         <v>1</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="104">
-        <v>1</v>
-      </c>
-      <c r="P13" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104">
-        <v>12</v>
-      </c>
-      <c r="S13" s="104">
-        <v>3</v>
-      </c>
-      <c r="T13" s="104">
-        <v>4</v>
-      </c>
-      <c r="U13" s="104">
-        <v>4</v>
-      </c>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="104">
+      <c r="V13" s="90"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="90">
         <f>SUM(C13:AC13)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -15165,7 +15273,9 @@
       <c r="S14" s="88"/>
       <c r="T14" s="88"/>
       <c r="U14" s="88"/>
-      <c r="V14" s="68"/>
+      <c r="V14" s="88">
+        <v>1</v>
+      </c>
       <c r="W14" s="68"/>
       <c r="X14" s="68"/>
       <c r="Y14" s="68"/>
@@ -15175,7 +15285,7 @@
       <c r="AC14" s="68"/>
       <c r="AD14" s="88">
         <f>SUM(C14:AC14)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -15214,7 +15324,9 @@
       <c r="S15" s="89"/>
       <c r="T15" s="89"/>
       <c r="U15" s="89"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="89">
+        <v>2</v>
+      </c>
       <c r="W15" s="67"/>
       <c r="X15" s="67"/>
       <c r="Y15" s="67"/>
@@ -15224,7 +15336,7 @@
       <c r="AC15" s="67"/>
       <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -15259,7 +15371,7 @@
       <c r="S16" s="89"/>
       <c r="T16" s="89"/>
       <c r="U16" s="89"/>
-      <c r="V16" s="67"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67"/>
       <c r="Y16" s="67"/>
@@ -15312,7 +15424,7 @@
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
       <c r="U17" s="85"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
@@ -15361,7 +15473,7 @@
       <c r="S18" s="91"/>
       <c r="T18" s="91"/>
       <c r="U18" s="91"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="91"/>
       <c r="W18" s="64"/>
       <c r="X18" s="64"/>
       <c r="Y18" s="64"/>
@@ -15408,7 +15520,7 @@
       </c>
       <c r="T19" s="84"/>
       <c r="U19" s="84"/>
-      <c r="V19" s="69"/>
+      <c r="V19" s="84"/>
       <c r="W19" s="69"/>
       <c r="X19" s="69"/>
       <c r="Y19" s="69"/>
@@ -15461,7 +15573,7 @@
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
-      <c r="V20" s="63"/>
+      <c r="V20" s="85"/>
       <c r="W20" s="63"/>
       <c r="X20" s="63"/>
       <c r="Y20" s="63"/>
@@ -15508,7 +15620,7 @@
       <c r="S21" s="104"/>
       <c r="T21" s="104"/>
       <c r="U21" s="104"/>
-      <c r="V21" s="71"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="71"/>
       <c r="X21" s="71"/>
       <c r="Y21" s="71"/>
@@ -15553,7 +15665,7 @@
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
       <c r="U22" s="88"/>
-      <c r="V22" s="68"/>
+      <c r="V22" s="88"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68"/>
       <c r="Y22" s="68"/>
@@ -15594,7 +15706,9 @@
       <c r="S23" s="91"/>
       <c r="T23" s="91"/>
       <c r="U23" s="91"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="91" t="s">
+        <v>66</v>
+      </c>
       <c r="W23" s="64"/>
       <c r="X23" s="64"/>
       <c r="Y23" s="64"/>
@@ -17636,8 +17750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E93202-6135-4334-B4F1-B6DE1C0AA0D4}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18488,7 +18602,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
         <v>40</v>
       </c>
       <c r="D53" s="81"/>
@@ -18503,7 +18617,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="83">
-        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D54" s="81"/>
@@ -18518,7 +18632,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="86">
-        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D55" s="81"/>
@@ -18533,7 +18647,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="87">
-        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D56" s="81"/>
@@ -18548,7 +18662,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="90">
-        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D57" s="81"/>
@@ -18563,7 +18677,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="105">
-        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="81"/>
@@ -18578,7 +18692,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="89">
-        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D59" s="81"/>
@@ -18593,7 +18707,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="84">
-        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -18608,7 +18722,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -18623,7 +18737,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -18638,7 +18752,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -18658,8 +18772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E72E00-7D95-4421-9D34-A607AF17EACD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18672,289 +18786,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -18964,605 +19135,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>886</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>895</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>887</v>
+      </c>
+      <c r="F29" s="86">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>896</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>888</v>
+      </c>
+      <c r="F30" s="82">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>897</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>889</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>898</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>890</v>
+      </c>
+      <c r="F32" s="90">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>899</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>891</v>
+      </c>
+      <c r="F33" s="87">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>900</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>892</v>
+      </c>
+      <c r="F34" s="83">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>901</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>893</v>
+      </c>
+      <c r="F35" s="104">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>902</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="89">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>903</v>
+      </c>
+      <c r="E37" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="88">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>904</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>905</v>
+      </c>
+      <c r="E39" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="90" t="s">
+        <v>906</v>
+      </c>
+      <c r="E40" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>907</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>908</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>909</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>910</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>911</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>912</v>
+      </c>
+      <c r="E46" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>913</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>914</v>
+      </c>
+      <c r="E48" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="98" t="s">
+        <v>915</v>
+      </c>
+      <c r="E49" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>41</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>30</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="90">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>10</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="87">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>8</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="83">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="105">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>4</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>2</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="88">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="84">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25050,7 +25278,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25243,7 +25471,9 @@
       <c r="U2" s="82">
         <v>40</v>
       </c>
-      <c r="V2" s="61"/>
+      <c r="V2" s="59">
+        <v>41</v>
+      </c>
       <c r="W2" s="61"/>
       <c r="X2" s="61"/>
       <c r="Y2" s="61"/>
@@ -25251,159 +25481,163 @@
       <c r="AA2" s="61"/>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
-      <c r="AD2" s="36">
+      <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>656</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="86">
+        <v>25</v>
+      </c>
+      <c r="D3" s="86">
+        <v>15</v>
+      </c>
+      <c r="E3" s="59">
+        <v>12</v>
+      </c>
+      <c r="F3" s="86">
         <v>11</v>
       </c>
-      <c r="C3" s="37">
+      <c r="G3" s="86">
+        <v>10</v>
+      </c>
+      <c r="H3" s="59">
+        <v>26</v>
+      </c>
+      <c r="I3" s="86">
+        <v>16</v>
+      </c>
+      <c r="J3" s="86">
+        <v>7</v>
+      </c>
+      <c r="K3" s="59">
+        <v>15</v>
+      </c>
+      <c r="L3" s="86">
+        <v>26</v>
+      </c>
+      <c r="M3" s="86">
+        <v>2</v>
+      </c>
+      <c r="N3" s="59">
+        <v>20</v>
+      </c>
+      <c r="O3" s="86">
+        <v>12</v>
+      </c>
+      <c r="P3" s="86">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="86">
+        <v>14</v>
+      </c>
+      <c r="R3" s="86">
         <v>18</v>
       </c>
-      <c r="D3" s="58">
-        <v>11</v>
-      </c>
-      <c r="E3" s="37">
-        <v>26</v>
-      </c>
-      <c r="F3" s="37">
-        <v>33</v>
-      </c>
-      <c r="G3" s="58">
-        <v>34</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37">
-        <v>12</v>
-      </c>
-      <c r="J3" s="58">
-        <v>9</v>
-      </c>
-      <c r="K3" s="37">
+      <c r="S3" s="86">
         <v>10</v>
       </c>
-      <c r="L3" s="37">
-        <v>25</v>
-      </c>
-      <c r="M3" s="37">
-        <v>21</v>
-      </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="83">
-        <v>28</v>
-      </c>
-      <c r="P3" s="83">
+      <c r="T3" s="86">
         <v>20</v>
       </c>
-      <c r="Q3" s="58">
-        <v>21</v>
-      </c>
-      <c r="R3" s="83">
-        <v>4</v>
-      </c>
-      <c r="S3" s="83">
-        <v>6</v>
-      </c>
-      <c r="T3" s="83">
-        <v>2</v>
-      </c>
-      <c r="U3" s="58">
-        <v>23</v>
-      </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="37">
+      <c r="U3" s="86">
+        <v>18</v>
+      </c>
+      <c r="V3" s="86">
+        <v>30</v>
+      </c>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="86">
         <f>SUM(C3:AC3)</f>
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="B4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="83">
+        <v>18</v>
+      </c>
+      <c r="D4" s="58">
+        <v>11</v>
+      </c>
+      <c r="E4" s="83">
+        <v>26</v>
+      </c>
+      <c r="F4" s="83">
+        <v>33</v>
+      </c>
+      <c r="G4" s="58">
+        <v>34</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83">
+        <v>12</v>
+      </c>
+      <c r="J4" s="58">
+        <v>9</v>
+      </c>
+      <c r="K4" s="83">
+        <v>10</v>
+      </c>
+      <c r="L4" s="83">
         <v>25</v>
       </c>
-      <c r="D4" s="40">
-        <v>15</v>
-      </c>
-      <c r="E4" s="59">
-        <v>12</v>
-      </c>
-      <c r="F4" s="40">
-        <v>11</v>
-      </c>
-      <c r="G4" s="40">
-        <v>10</v>
-      </c>
-      <c r="H4" s="59">
-        <v>26</v>
-      </c>
-      <c r="I4" s="40">
-        <v>16</v>
-      </c>
-      <c r="J4" s="40">
-        <v>7</v>
-      </c>
-      <c r="K4" s="59">
-        <v>15</v>
-      </c>
-      <c r="L4" s="40">
-        <v>26</v>
-      </c>
-      <c r="M4" s="40">
+      <c r="M4" s="83">
+        <v>21</v>
+      </c>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83">
+        <v>28</v>
+      </c>
+      <c r="P4" s="83">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>21</v>
+      </c>
+      <c r="R4" s="83">
+        <v>4</v>
+      </c>
+      <c r="S4" s="83">
+        <v>6</v>
+      </c>
+      <c r="T4" s="83">
         <v>2</v>
       </c>
-      <c r="N4" s="59">
-        <v>20</v>
-      </c>
-      <c r="O4" s="86">
-        <v>12</v>
-      </c>
-      <c r="P4" s="86">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="86">
-        <v>14</v>
-      </c>
-      <c r="R4" s="86">
-        <v>18</v>
-      </c>
-      <c r="S4" s="86">
-        <v>10</v>
-      </c>
-      <c r="T4" s="86">
-        <v>20</v>
-      </c>
-      <c r="U4" s="86">
-        <v>18</v>
-      </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="40">
+      <c r="U4" s="58">
+        <v>23</v>
+      </c>
+      <c r="V4" s="83">
+        <v>6</v>
+      </c>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="83">
         <f>SUM(C4:AC4)</f>
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -25468,7 +25702,9 @@
       <c r="U5" s="90">
         <v>7</v>
       </c>
-      <c r="V5" s="70"/>
+      <c r="V5" s="90">
+        <v>10</v>
+      </c>
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
@@ -25478,7 +25714,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -25541,7 +25777,9 @@
       <c r="U6" s="87">
         <v>10</v>
       </c>
-      <c r="V6" s="65"/>
+      <c r="V6" s="87">
+        <v>8</v>
+      </c>
       <c r="W6" s="65"/>
       <c r="X6" s="65"/>
       <c r="Y6" s="65"/>
@@ -25551,7 +25789,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -25608,7 +25846,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="84"/>
-      <c r="V7" s="69"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="69"/>
       <c r="X7" s="69"/>
       <c r="Y7" s="69"/>
@@ -25657,7 +25895,9 @@
       <c r="S8" s="89"/>
       <c r="T8" s="89"/>
       <c r="U8" s="89"/>
-      <c r="V8" s="67"/>
+      <c r="V8" s="89">
+        <v>2</v>
+      </c>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
       <c r="Y8" s="67"/>
@@ -25667,7 +25907,7 @@
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -25712,7 +25952,9 @@
       <c r="U9" s="105">
         <v>4</v>
       </c>
-      <c r="V9" s="72"/>
+      <c r="V9" s="105">
+        <v>4</v>
+      </c>
       <c r="W9" s="72"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
@@ -25722,7 +25964,7 @@
       <c r="AC9" s="72"/>
       <c r="AD9" s="104">
         <f>SUM(C9:AC9)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -25755,7 +25997,9 @@
       <c r="S10" s="88"/>
       <c r="T10" s="88"/>
       <c r="U10" s="88"/>
-      <c r="V10" s="68"/>
+      <c r="V10" s="88">
+        <v>1</v>
+      </c>
       <c r="W10" s="68"/>
       <c r="X10" s="68"/>
       <c r="Y10" s="68"/>
@@ -25765,7 +26009,7 @@
       <c r="AC10" s="68"/>
       <c r="AD10" s="88">
         <f>SUM(C10:AC10)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -25806,7 +26050,7 @@
       <c r="S11" s="85"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="63"/>
+      <c r="V11" s="85"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
@@ -25855,7 +26099,7 @@
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="91"/>
       <c r="W12" s="64"/>
       <c r="X12" s="64"/>
       <c r="Y12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8350F-77BD-4F3E-9C64-2E4E50233D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6282C3-4F74-4CC6-890D-E30B2284372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="956">
   <si>
     <t>Команда</t>
   </si>
@@ -2813,6 +2813,126 @@
   </si>
   <si>
     <t>1:31.793</t>
+  </si>
+  <si>
+    <t>1:36.130</t>
+  </si>
+  <si>
+    <t>1:35.880</t>
+  </si>
+  <si>
+    <t>1:36.195</t>
+  </si>
+  <si>
+    <t>1:37.138</t>
+  </si>
+  <si>
+    <t>1:37.173</t>
+  </si>
+  <si>
+    <t>1:37.479</t>
+  </si>
+  <si>
+    <t>1:37.670</t>
+  </si>
+  <si>
+    <t>1:37.681</t>
+  </si>
+  <si>
+    <t>1:38.412</t>
+  </si>
+  <si>
+    <t>1:37.347</t>
+  </si>
+  <si>
+    <t>1:38.088</t>
+  </si>
+  <si>
+    <t>1:38.159</t>
+  </si>
+  <si>
+    <t>1:38.951</t>
+  </si>
+  <si>
+    <t>1:39.092</t>
+  </si>
+  <si>
+    <t>1:39.398</t>
+  </si>
+  <si>
+    <t>1:38.243</t>
+  </si>
+  <si>
+    <t>1:37.914</t>
+  </si>
+  <si>
+    <t>1:39.655</t>
+  </si>
+  <si>
+    <t>1:39.147</t>
+  </si>
+  <si>
+    <t>1:40.371</t>
+  </si>
+  <si>
+    <t>1:40.360</t>
+  </si>
+  <si>
+    <t>1:45.446</t>
+  </si>
+  <si>
+    <t>01:38:40</t>
+  </si>
+  <si>
+    <t>+4.285</t>
+  </si>
+  <si>
+    <t>+5.918</t>
+  </si>
+  <si>
+    <t>+2.950</t>
+  </si>
+  <si>
+    <t>+2.389</t>
+  </si>
+  <si>
+    <t>+0.329</t>
+  </si>
+  <si>
+    <t>+0.513</t>
+  </si>
+  <si>
+    <t>+5.599</t>
+  </si>
+  <si>
+    <t>+0.475</t>
+  </si>
+  <si>
+    <t>+0.239</t>
+  </si>
+  <si>
+    <t>+1.628</t>
+  </si>
+  <si>
+    <t>+1.893</t>
+  </si>
+  <si>
+    <t>+2.420</t>
+  </si>
+  <si>
+    <t>+0.119</t>
+  </si>
+  <si>
+    <t>+0.684</t>
+  </si>
+  <si>
+    <t>+0.373</t>
+  </si>
+  <si>
+    <t>+0.681</t>
+  </si>
+  <si>
+    <t>+5.016</t>
   </si>
 </sst>
 </file>
@@ -14269,7 +14389,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14468,7 +14588,9 @@
       <c r="V2" s="59">
         <v>26</v>
       </c>
-      <c r="W2" s="61"/>
+      <c r="W2" s="82">
+        <v>25</v>
+      </c>
       <c r="X2" s="61"/>
       <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
@@ -14477,7 +14599,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14547,7 +14669,9 @@
       <c r="V3" s="82">
         <v>15</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="59">
+        <v>19</v>
+      </c>
       <c r="X3" s="61"/>
       <c r="Y3" s="61"/>
       <c r="Z3" s="61"/>
@@ -14556,7 +14680,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14624,7 +14748,7 @@
       <c r="V4" s="83">
         <v>6</v>
       </c>
-      <c r="W4" s="62"/>
+      <c r="W4" s="83"/>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
       <c r="Z4" s="62"/>
@@ -14699,7 +14823,9 @@
       <c r="V5" s="86">
         <v>12</v>
       </c>
-      <c r="W5" s="66"/>
+      <c r="W5" s="86">
+        <v>12</v>
+      </c>
       <c r="X5" s="66"/>
       <c r="Y5" s="66"/>
       <c r="Z5" s="66"/>
@@ -14708,7 +14834,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -14774,7 +14900,9 @@
       <c r="V6" s="90">
         <v>10</v>
       </c>
-      <c r="W6" s="70"/>
+      <c r="W6" s="90">
+        <v>15</v>
+      </c>
       <c r="X6" s="70"/>
       <c r="Y6" s="70"/>
       <c r="Z6" s="70"/>
@@ -14783,7 +14911,7 @@
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -14843,7 +14971,9 @@
       <c r="V7" s="116">
         <v>18</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="116">
+        <v>10</v>
+      </c>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
@@ -14852,7 +14982,7 @@
       <c r="AC7" s="66"/>
       <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -14914,7 +15044,9 @@
       <c r="V8" s="87">
         <v>8</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="87" t="s">
+        <v>66</v>
+      </c>
       <c r="X8" s="65"/>
       <c r="Y8" s="65"/>
       <c r="Z8" s="65"/>
@@ -14987,7 +15119,9 @@
         <v>13</v>
       </c>
       <c r="V9" s="83"/>
-      <c r="W9" s="62"/>
+      <c r="W9" s="83">
+        <v>8</v>
+      </c>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
@@ -14996,7 +15130,7 @@
       <c r="AC9" s="62"/>
       <c r="AD9" s="83">
         <f>SUM(C9:AC9)</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -15054,7 +15188,7 @@
       </c>
       <c r="U10" s="84"/>
       <c r="V10" s="84"/>
-      <c r="W10" s="69"/>
+      <c r="W10" s="84"/>
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
       <c r="Z10" s="69"/>
@@ -15070,175 +15204,179 @@
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41">
+      <c r="B11" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90">
+        <v>6</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="90">
+        <v>8</v>
+      </c>
+      <c r="N11" s="90">
         <v>4</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41">
-        <v>8</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41">
-        <v>4</v>
-      </c>
-      <c r="M11" s="41">
-        <v>4</v>
-      </c>
-      <c r="N11" s="41">
-        <v>12</v>
-      </c>
-      <c r="O11" s="87">
-        <v>4</v>
-      </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87">
+      <c r="O11" s="90">
         <v>2</v>
       </c>
-      <c r="V11" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="41">
+      <c r="P11" s="90">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="90">
+        <v>6</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90">
+        <v>6</v>
+      </c>
+      <c r="U11" s="90">
+        <v>1</v>
+      </c>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90">
+        <v>6</v>
+      </c>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="90">
         <f>SUM(C11:AC11)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104">
-        <v>6</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104">
-        <v>1</v>
-      </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104" t="s">
+      <c r="B12" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87">
+        <v>4</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87">
+        <v>8</v>
+      </c>
+      <c r="I12" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104" t="s">
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87">
+        <v>4</v>
+      </c>
+      <c r="M12" s="87">
+        <v>4</v>
+      </c>
+      <c r="N12" s="87">
+        <v>12</v>
+      </c>
+      <c r="O12" s="87">
+        <v>4</v>
+      </c>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="104">
-        <v>1</v>
-      </c>
-      <c r="P12" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104">
-        <v>12</v>
-      </c>
-      <c r="S12" s="104">
-        <v>3</v>
-      </c>
-      <c r="T12" s="104">
-        <v>4</v>
-      </c>
-      <c r="U12" s="104">
-        <v>4</v>
-      </c>
-      <c r="V12" s="104">
-        <v>4</v>
-      </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="104">
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87">
+        <v>2</v>
+      </c>
+      <c r="V12" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="87"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="87">
         <f>SUM(C12:AC12)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90">
+      <c r="B13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104">
         <v>6</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="90">
-        <v>8</v>
-      </c>
-      <c r="N13" s="90">
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="104">
+        <v>1</v>
+      </c>
+      <c r="P13" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104">
+        <v>12</v>
+      </c>
+      <c r="S13" s="104">
+        <v>3</v>
+      </c>
+      <c r="T13" s="104">
         <v>4</v>
       </c>
-      <c r="O13" s="90">
-        <v>2</v>
-      </c>
-      <c r="P13" s="90">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="90">
-        <v>6</v>
-      </c>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90">
-        <v>6</v>
-      </c>
-      <c r="U13" s="90">
-        <v>1</v>
-      </c>
-      <c r="V13" s="90"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="90">
+      <c r="U13" s="104">
+        <v>4</v>
+      </c>
+      <c r="V13" s="104">
+        <v>4</v>
+      </c>
+      <c r="W13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="104">
         <f>SUM(C13:AC13)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -15276,7 +15414,7 @@
       <c r="V14" s="88">
         <v>1</v>
       </c>
-      <c r="W14" s="68"/>
+      <c r="W14" s="88"/>
       <c r="X14" s="68"/>
       <c r="Y14" s="68"/>
       <c r="Z14" s="68"/>
@@ -15327,7 +15465,9 @@
       <c r="V15" s="89">
         <v>2</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="89">
+        <v>2</v>
+      </c>
       <c r="X15" s="67"/>
       <c r="Y15" s="67"/>
       <c r="Z15" s="67"/>
@@ -15336,105 +15476,107 @@
       <c r="AC15" s="67"/>
       <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89">
+      <c r="B16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="58">
+        <v>2</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85">
+        <v>2</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85">
         <v>1</v>
       </c>
-      <c r="N16" s="89">
-        <v>6</v>
-      </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89">
-        <v>10</v>
-      </c>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="89">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85">
+        <v>1</v>
+      </c>
+      <c r="R16" s="85">
+        <v>8</v>
+      </c>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85">
+        <v>4</v>
+      </c>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="85">
         <f>SUM(C16:AC16)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="58">
-        <v>2</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85">
-        <v>2</v>
-      </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85">
+      <c r="B17" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89">
         <v>1</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85">
-        <v>1</v>
-      </c>
-      <c r="R17" s="85">
-        <v>8</v>
-      </c>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="85">
+      <c r="N17" s="89">
+        <v>6</v>
+      </c>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89">
+        <v>10</v>
+      </c>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="89">
         <f>SUM(C17:AC17)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
@@ -15474,7 +15616,7 @@
       <c r="T18" s="91"/>
       <c r="U18" s="91"/>
       <c r="V18" s="91"/>
-      <c r="W18" s="64"/>
+      <c r="W18" s="91"/>
       <c r="X18" s="64"/>
       <c r="Y18" s="64"/>
       <c r="Z18" s="64"/>
@@ -15521,7 +15663,7 @@
       <c r="T19" s="84"/>
       <c r="U19" s="84"/>
       <c r="V19" s="84"/>
-      <c r="W19" s="69"/>
+      <c r="W19" s="84"/>
       <c r="X19" s="69"/>
       <c r="Y19" s="69"/>
       <c r="Z19" s="69"/>
@@ -15574,7 +15716,9 @@
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
-      <c r="W20" s="63"/>
+      <c r="W20" s="85">
+        <v>1</v>
+      </c>
       <c r="X20" s="63"/>
       <c r="Y20" s="63"/>
       <c r="Z20" s="63"/>
@@ -15583,7 +15727,7 @@
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
         <f>SUM(C20:AC20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -15621,7 +15765,7 @@
       <c r="T21" s="104"/>
       <c r="U21" s="104"/>
       <c r="V21" s="104"/>
-      <c r="W21" s="71"/>
+      <c r="W21" s="104"/>
       <c r="X21" s="71"/>
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
@@ -15666,7 +15810,7 @@
       <c r="T22" s="88"/>
       <c r="U22" s="88"/>
       <c r="V22" s="88"/>
-      <c r="W22" s="68"/>
+      <c r="W22" s="88"/>
       <c r="X22" s="68"/>
       <c r="Y22" s="68"/>
       <c r="Z22" s="68"/>
@@ -15709,7 +15853,7 @@
       <c r="V23" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="64"/>
+      <c r="W23" s="91"/>
       <c r="X23" s="64"/>
       <c r="Y23" s="64"/>
       <c r="Z23" s="64"/>
@@ -18772,8 +18916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E72E00-7D95-4421-9D34-A607AF17EACD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19629,7 +19773,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
         <v>41</v>
       </c>
       <c r="D53" s="81"/>
@@ -19644,7 +19788,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="86">
-        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D54" s="81"/>
@@ -19659,7 +19803,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="90">
-        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D55" s="81"/>
@@ -19674,7 +19818,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="87">
-        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D56" s="81"/>
@@ -19689,7 +19833,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="83">
-        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D57" s="81"/>
@@ -19704,7 +19848,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="105">
-        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="81"/>
@@ -19719,7 +19863,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="89">
-        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D59" s="81"/>
@@ -19734,7 +19878,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="88">
-        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D60" s="81"/>
@@ -19749,7 +19893,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="84">
-        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -19764,7 +19908,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="85">
-        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -19779,7 +19923,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -19799,8 +19943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB3CDFC-2B61-46F7-80FE-0E53DEDFC818}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19813,289 +19957,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -20105,605 +20306,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>916</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>938</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>939</v>
+      </c>
+      <c r="F29" s="82">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>918</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>940</v>
+      </c>
+      <c r="F30" s="90">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>919</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>941</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>920</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>721</v>
+      </c>
+      <c r="F32" s="86">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>921</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>942</v>
+      </c>
+      <c r="F33" s="83">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>922</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>943</v>
+      </c>
+      <c r="F34" s="90">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>923</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>944</v>
+      </c>
+      <c r="F35" s="85">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>924</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>945</v>
+      </c>
+      <c r="F36" s="89">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>925</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>946</v>
+      </c>
+      <c r="F37" s="85">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>926</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>947</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>927</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>948</v>
+      </c>
+      <c r="F39" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>928</v>
+      </c>
+      <c r="E40" s="117" t="s">
+        <v>949</v>
+      </c>
+      <c r="F40" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>929</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>930</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>950</v>
+      </c>
+      <c r="F42" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>931</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>951</v>
+      </c>
+      <c r="F43" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>932</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>952</v>
+      </c>
+      <c r="F44" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>933</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="F45" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>934</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>954</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>935</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>955</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>936</v>
+      </c>
+      <c r="E48" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>937</v>
+      </c>
+      <c r="E49" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>22</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="90">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>21</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="83">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>8</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="85">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="89">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="87">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="105">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20712,8 +20970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FC2F3-3365-4E0B-87CC-B9803103B30E}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20726,289 +20984,348 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -21018,603 +21335,661 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>916</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>938</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>939</v>
+      </c>
+      <c r="F29" s="82">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>918</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>940</v>
+      </c>
+      <c r="F30" s="90">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>919</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>941</v>
+      </c>
+      <c r="F31" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>920</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>721</v>
+      </c>
+      <c r="F32" s="86">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>921</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>942</v>
+      </c>
+      <c r="F33" s="83">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>922</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>943</v>
+      </c>
+      <c r="F34" s="90">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>923</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>944</v>
+      </c>
+      <c r="F35" s="85">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>924</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>945</v>
+      </c>
+      <c r="F36" s="89">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>925</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>946</v>
+      </c>
+      <c r="F37" s="85">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>926</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>947</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>927</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>948</v>
+      </c>
+      <c r="F39" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>928</v>
+      </c>
+      <c r="E40" s="117" t="s">
+        <v>949</v>
+      </c>
+      <c r="F40" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>929</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>930</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>950</v>
+      </c>
+      <c r="F42" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>931</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>951</v>
+      </c>
+      <c r="F43" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>932</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>952</v>
+      </c>
+      <c r="F44" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>933</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="F45" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>934</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>954</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>935</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>955</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>936</v>
+      </c>
+      <c r="E48" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>937</v>
+      </c>
+      <c r="E49" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>22</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="90">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>21</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="83">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>8</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="85">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="89">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="87">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="105">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25278,7 +25653,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25474,7 +25849,9 @@
       <c r="V2" s="59">
         <v>41</v>
       </c>
-      <c r="W2" s="61"/>
+      <c r="W2" s="59">
+        <v>44</v>
+      </c>
       <c r="X2" s="61"/>
       <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
@@ -25483,7 +25860,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>697</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -25553,7 +25930,9 @@
       <c r="V3" s="86">
         <v>30</v>
       </c>
-      <c r="W3" s="66"/>
+      <c r="W3" s="86">
+        <v>22</v>
+      </c>
       <c r="X3" s="66"/>
       <c r="Y3" s="66"/>
       <c r="Z3" s="66"/>
@@ -25562,7 +25941,7 @@
       <c r="AC3" s="66"/>
       <c r="AD3" s="86">
         <f>SUM(C3:AC3)</f>
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -25628,7 +26007,9 @@
       <c r="V4" s="83">
         <v>6</v>
       </c>
-      <c r="W4" s="62"/>
+      <c r="W4" s="83">
+        <v>8</v>
+      </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
       <c r="Z4" s="62"/>
@@ -25637,7 +26018,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="83">
         <f>SUM(C4:AC4)</f>
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -25705,7 +26086,9 @@
       <c r="V5" s="90">
         <v>10</v>
       </c>
-      <c r="W5" s="70"/>
+      <c r="W5" s="90">
+        <v>21</v>
+      </c>
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
       <c r="Z5" s="70"/>
@@ -25714,7 +26097,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -25780,7 +26163,7 @@
       <c r="V6" s="87">
         <v>8</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="87"/>
       <c r="X6" s="65"/>
       <c r="Y6" s="65"/>
       <c r="Z6" s="65"/>
@@ -25847,7 +26230,7 @@
       </c>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
-      <c r="W7" s="69"/>
+      <c r="W7" s="84"/>
       <c r="X7" s="69"/>
       <c r="Y7" s="69"/>
       <c r="Z7" s="69"/>
@@ -25898,7 +26281,9 @@
       <c r="V8" s="89">
         <v>2</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="89">
+        <v>2</v>
+      </c>
       <c r="X8" s="67"/>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -25907,7 +26292,7 @@
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -25955,7 +26340,7 @@
       <c r="V9" s="105">
         <v>4</v>
       </c>
-      <c r="W9" s="72"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
       <c r="Z9" s="72"/>
@@ -26000,7 +26385,7 @@
       <c r="V10" s="88">
         <v>1</v>
       </c>
-      <c r="W10" s="68"/>
+      <c r="W10" s="88"/>
       <c r="X10" s="68"/>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
@@ -26051,7 +26436,9 @@
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
       <c r="V11" s="85"/>
-      <c r="W11" s="63"/>
+      <c r="W11" s="85">
+        <v>5</v>
+      </c>
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
       <c r="Z11" s="63"/>
@@ -26060,7 +26447,7 @@
       <c r="AC11" s="63"/>
       <c r="AD11" s="39">
         <f>SUM(C11:AC11)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -26100,7 +26487,7 @@
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
       <c r="V12" s="91"/>
-      <c r="W12" s="64"/>
+      <c r="W12" s="91"/>
       <c r="X12" s="64"/>
       <c r="Y12" s="64"/>
       <c r="Z12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6282C3-4F74-4CC6-890D-E30B2284372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A6E20-B170-482A-B714-28A50DB6A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="992">
   <si>
     <t>Команда</t>
   </si>
@@ -2933,6 +2933,114 @@
   </si>
   <si>
     <t>+5.016</t>
+  </si>
+  <si>
+    <t>1:33.827</t>
+  </si>
+  <si>
+    <t>1:33.590</t>
+  </si>
+  <si>
+    <t>1:34.565</t>
+  </si>
+  <si>
+    <t>1:34.757</t>
+  </si>
+  <si>
+    <t>1:34.523</t>
+  </si>
+  <si>
+    <t>1:35.463</t>
+  </si>
+  <si>
+    <t>1:34.377</t>
+  </si>
+  <si>
+    <t>1:34.425</t>
+  </si>
+  <si>
+    <t>1:35.346</t>
+  </si>
+  <si>
+    <t>1:34.886</t>
+  </si>
+  <si>
+    <t>1:34.742</t>
+  </si>
+  <si>
+    <t>1:34.580</t>
+  </si>
+  <si>
+    <t>1:35.220</t>
+  </si>
+  <si>
+    <t>1:34.595</t>
+  </si>
+  <si>
+    <t>1:35.265</t>
+  </si>
+  <si>
+    <t>1:34.610</t>
+  </si>
+  <si>
+    <t>1:34.775</t>
+  </si>
+  <si>
+    <t>1:34.898</t>
+  </si>
+  <si>
+    <t>1:35.537</t>
+  </si>
+  <si>
+    <t>1:35.936</t>
+  </si>
+  <si>
+    <t>1:34.317</t>
+  </si>
+  <si>
+    <t>1:34.299</t>
+  </si>
+  <si>
+    <t>01:31.10</t>
+  </si>
+  <si>
+    <t>+51.045</t>
+  </si>
+  <si>
+    <t>+3.045</t>
+  </si>
+  <si>
+    <t>+0.759</t>
+  </si>
+  <si>
+    <t>+0.636</t>
+  </si>
+  <si>
+    <t>+0.662</t>
+  </si>
+  <si>
+    <t>+12.759</t>
+  </si>
+  <si>
+    <t>+0.690</t>
+  </si>
+  <si>
+    <t>+6.059</t>
+  </si>
+  <si>
+    <t>+3.801</t>
+  </si>
+  <si>
+    <t>+0.840</t>
+  </si>
+  <si>
+    <t>+0.457</t>
+  </si>
+  <si>
+    <t>+0.422</t>
+  </si>
+  <si>
+    <t>+4.919</t>
   </si>
 </sst>
 </file>
@@ -14389,7 +14497,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14591,7 +14699,7 @@
       <c r="W2" s="82">
         <v>25</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
@@ -14672,7 +14780,9 @@
       <c r="W3" s="59">
         <v>19</v>
       </c>
-      <c r="X3" s="61"/>
+      <c r="X3" s="82">
+        <v>12</v>
+      </c>
       <c r="Y3" s="61"/>
       <c r="Z3" s="61"/>
       <c r="AA3" s="61"/>
@@ -14680,7 +14790,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14749,7 +14859,9 @@
         <v>6</v>
       </c>
       <c r="W4" s="83"/>
-      <c r="X4" s="62"/>
+      <c r="X4" s="83">
+        <v>25</v>
+      </c>
       <c r="Y4" s="62"/>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
@@ -14757,7 +14869,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -14826,7 +14938,9 @@
       <c r="W5" s="86">
         <v>12</v>
       </c>
-      <c r="X5" s="66"/>
+      <c r="X5" s="59">
+        <v>19</v>
+      </c>
       <c r="Y5" s="66"/>
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
@@ -14834,7 +14948,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -14903,7 +15017,7 @@
       <c r="W6" s="90">
         <v>15</v>
       </c>
-      <c r="X6" s="70"/>
+      <c r="X6" s="90"/>
       <c r="Y6" s="70"/>
       <c r="Z6" s="70"/>
       <c r="AA6" s="70"/>
@@ -14974,7 +15088,7 @@
       <c r="W7" s="116">
         <v>10</v>
       </c>
-      <c r="X7" s="66"/>
+      <c r="X7" s="116"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
@@ -15047,7 +15161,9 @@
       <c r="W8" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="65"/>
+      <c r="X8" s="87">
+        <v>6</v>
+      </c>
       <c r="Y8" s="65"/>
       <c r="Z8" s="65"/>
       <c r="AA8" s="65"/>
@@ -15055,7 +15171,7 @@
       <c r="AC8" s="65"/>
       <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -15122,7 +15238,7 @@
       <c r="W9" s="83">
         <v>8</v>
       </c>
-      <c r="X9" s="62"/>
+      <c r="X9" s="83"/>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
       <c r="AA9" s="62"/>
@@ -15189,7 +15305,7 @@
       <c r="U10" s="84"/>
       <c r="V10" s="84"/>
       <c r="W10" s="84"/>
-      <c r="X10" s="69"/>
+      <c r="X10" s="84"/>
       <c r="Y10" s="69"/>
       <c r="Z10" s="69"/>
       <c r="AA10" s="69"/>
@@ -15246,7 +15362,9 @@
       <c r="W11" s="90">
         <v>6</v>
       </c>
-      <c r="X11" s="70"/>
+      <c r="X11" s="90">
+        <v>15</v>
+      </c>
       <c r="Y11" s="70"/>
       <c r="Z11" s="70"/>
       <c r="AA11" s="70"/>
@@ -15254,7 +15372,7 @@
       <c r="AC11" s="70"/>
       <c r="AD11" s="90">
         <f>SUM(C11:AC11)</f>
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -15305,7 +15423,7 @@
         <v>66</v>
       </c>
       <c r="W12" s="87"/>
-      <c r="X12" s="65"/>
+      <c r="X12" s="87"/>
       <c r="Y12" s="65"/>
       <c r="Z12" s="65"/>
       <c r="AA12" s="65"/>
@@ -15368,7 +15486,9 @@
       <c r="W13" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="71"/>
+      <c r="X13" s="104" t="s">
+        <v>66</v>
+      </c>
       <c r="Y13" s="71"/>
       <c r="Z13" s="71"/>
       <c r="AA13" s="71"/>
@@ -15415,7 +15535,9 @@
         <v>1</v>
       </c>
       <c r="W14" s="88"/>
-      <c r="X14" s="68"/>
+      <c r="X14" s="88">
+        <v>4</v>
+      </c>
       <c r="Y14" s="68"/>
       <c r="Z14" s="68"/>
       <c r="AA14" s="68"/>
@@ -15423,7 +15545,7 @@
       <c r="AC14" s="68"/>
       <c r="AD14" s="88">
         <f>SUM(C14:AC14)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -15468,7 +15590,9 @@
       <c r="W15" s="89">
         <v>2</v>
       </c>
-      <c r="X15" s="67"/>
+      <c r="X15" s="89">
+        <v>2</v>
+      </c>
       <c r="Y15" s="67"/>
       <c r="Z15" s="67"/>
       <c r="AA15" s="67"/>
@@ -15476,7 +15600,7 @@
       <c r="AC15" s="67"/>
       <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -15523,7 +15647,9 @@
       <c r="W16" s="85">
         <v>4</v>
       </c>
-      <c r="X16" s="63"/>
+      <c r="X16" s="85">
+        <v>10</v>
+      </c>
       <c r="Y16" s="63"/>
       <c r="Z16" s="63"/>
       <c r="AA16" s="63"/>
@@ -15531,7 +15657,7 @@
       <c r="AC16" s="63"/>
       <c r="AD16" s="85">
         <f>SUM(C16:AC16)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -15568,7 +15694,9 @@
       <c r="U17" s="89"/>
       <c r="V17" s="89"/>
       <c r="W17" s="89"/>
-      <c r="X17" s="67"/>
+      <c r="X17" s="89">
+        <v>8</v>
+      </c>
       <c r="Y17" s="67"/>
       <c r="Z17" s="67"/>
       <c r="AA17" s="67"/>
@@ -15576,7 +15704,7 @@
       <c r="AC17" s="67"/>
       <c r="AD17" s="89">
         <f>SUM(C17:AC17)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
@@ -15617,7 +15745,7 @@
       <c r="U18" s="91"/>
       <c r="V18" s="91"/>
       <c r="W18" s="91"/>
-      <c r="X18" s="64"/>
+      <c r="X18" s="91"/>
       <c r="Y18" s="64"/>
       <c r="Z18" s="64"/>
       <c r="AA18" s="64"/>
@@ -15664,7 +15792,9 @@
       <c r="U19" s="84"/>
       <c r="V19" s="84"/>
       <c r="W19" s="84"/>
-      <c r="X19" s="69"/>
+      <c r="X19" s="84">
+        <v>1</v>
+      </c>
       <c r="Y19" s="69"/>
       <c r="Z19" s="69"/>
       <c r="AA19" s="69"/>
@@ -15672,7 +15802,7 @@
       <c r="AC19" s="69"/>
       <c r="AD19" s="84">
         <f>SUM(C19:AC19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
@@ -15719,7 +15849,7 @@
       <c r="W20" s="85">
         <v>1</v>
       </c>
-      <c r="X20" s="63"/>
+      <c r="X20" s="85"/>
       <c r="Y20" s="63"/>
       <c r="Z20" s="63"/>
       <c r="AA20" s="63"/>
@@ -15766,7 +15896,9 @@
       <c r="U21" s="104"/>
       <c r="V21" s="104"/>
       <c r="W21" s="104"/>
-      <c r="X21" s="71"/>
+      <c r="X21" s="104" t="s">
+        <v>66</v>
+      </c>
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
       <c r="AA21" s="71"/>
@@ -15811,7 +15943,7 @@
       <c r="U22" s="88"/>
       <c r="V22" s="88"/>
       <c r="W22" s="88"/>
-      <c r="X22" s="68"/>
+      <c r="X22" s="88"/>
       <c r="Y22" s="68"/>
       <c r="Z22" s="68"/>
       <c r="AA22" s="68"/>
@@ -15854,7 +15986,7 @@
         <v>66</v>
       </c>
       <c r="W23" s="91"/>
-      <c r="X23" s="64"/>
+      <c r="X23" s="91"/>
       <c r="Y23" s="64"/>
       <c r="Z23" s="64"/>
       <c r="AA23" s="64"/>
@@ -20970,8 +21102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FC2F3-3365-4E0B-87CC-B9803103B30E}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21026,11 +21158,11 @@
       <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>17</v>
+      <c r="B4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="81"/>
@@ -21040,11 +21172,11 @@
       <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>13</v>
+      <c r="B5" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="81"/>
@@ -21054,11 +21186,11 @@
       <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>14</v>
+      <c r="B6" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="81"/>
@@ -21068,11 +21200,11 @@
       <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>11</v>
+      <c r="B7" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="81"/>
@@ -21082,11 +21214,11 @@
       <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>15</v>
+      <c r="B8" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="81"/>
@@ -21096,11 +21228,11 @@
       <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>14</v>
+      <c r="B9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -21111,7 +21243,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" s="85" t="s">
         <v>13</v>
@@ -21124,11 +21256,11 @@
       <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>16</v>
+      <c r="B11" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="81"/>
@@ -21138,11 +21270,11 @@
       <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>18</v>
+      <c r="B12" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="81"/>
@@ -21152,11 +21284,11 @@
       <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>15</v>
+      <c r="B13" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -21166,11 +21298,11 @@
       <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>21</v>
+      <c r="B14" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="81"/>
@@ -21180,11 +21312,11 @@
       <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>17</v>
+      <c r="B15" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="81"/>
@@ -21194,11 +21326,11 @@
       <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>18</v>
+      <c r="B16" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="81"/>
@@ -21208,11 +21340,11 @@
       <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>12</v>
+      <c r="B17" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="81"/>
@@ -21222,11 +21354,11 @@
       <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>11</v>
+      <c r="B18" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="81"/>
@@ -21236,11 +21368,11 @@
       <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>16</v>
+      <c r="B19" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
@@ -21250,11 +21382,11 @@
       <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>20</v>
+      <c r="B20" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="81"/>
@@ -21264,11 +21396,11 @@
       <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="105" t="s">
-        <v>19</v>
+      <c r="B21" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="81"/>
@@ -21278,11 +21410,11 @@
       <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>19</v>
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="81"/>
@@ -21292,11 +21424,11 @@
       <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>20</v>
+      <c r="B23" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="81"/>
@@ -21306,11 +21438,11 @@
       <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>12</v>
+      <c r="B24" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="81"/>
@@ -21318,8 +21450,6 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
@@ -21358,19 +21488,19 @@
       <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="108" t="s">
-        <v>916</v>
-      </c>
-      <c r="E28" s="108" t="s">
-        <v>938</v>
-      </c>
-      <c r="F28" s="82">
+      <c r="B28" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>956</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>978</v>
+      </c>
+      <c r="F28" s="83">
         <v>25</v>
       </c>
     </row>
@@ -21378,19 +21508,19 @@
       <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>21</v>
+      <c r="B29" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>917</v>
-      </c>
-      <c r="E29" s="108" t="s">
-        <v>939</v>
-      </c>
-      <c r="F29" s="82">
+        <v>957</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>385</v>
+      </c>
+      <c r="F29" s="86">
         <v>19</v>
       </c>
     </row>
@@ -21399,16 +21529,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C30" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="103" t="s">
-        <v>918</v>
+      <c r="D30" s="90" t="s">
+        <v>958</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>940</v>
+        <v>979</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -21418,19 +21548,19 @@
       <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>919</v>
-      </c>
-      <c r="E31" s="113" t="s">
-        <v>941</v>
-      </c>
-      <c r="F31" s="86">
+      <c r="B31" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>959</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>980</v>
+      </c>
+      <c r="F31" s="82">
         <v>12</v>
       </c>
     </row>
@@ -21438,19 +21568,19 @@
       <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>920</v>
-      </c>
-      <c r="E32" s="113" t="s">
-        <v>721</v>
-      </c>
-      <c r="F32" s="86">
+      <c r="B32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>960</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>981</v>
+      </c>
+      <c r="F32" s="85">
         <v>10</v>
       </c>
     </row>
@@ -21458,19 +21588,19 @@
       <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>921</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>942</v>
-      </c>
-      <c r="F33" s="83">
+      <c r="B33" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>961</v>
+      </c>
+      <c r="E33" s="112" t="s">
+        <v>982</v>
+      </c>
+      <c r="F33" s="89">
         <v>8</v>
       </c>
     </row>
@@ -21478,19 +21608,19 @@
       <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>922</v>
-      </c>
-      <c r="E34" s="115" t="s">
-        <v>943</v>
-      </c>
-      <c r="F34" s="90">
+      <c r="B34" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>962</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>983</v>
+      </c>
+      <c r="F34" s="87">
         <v>6</v>
       </c>
     </row>
@@ -21498,19 +21628,19 @@
       <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>923</v>
-      </c>
-      <c r="E35" s="107" t="s">
-        <v>944</v>
-      </c>
-      <c r="F35" s="85">
+      <c r="B35" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>963</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>984</v>
+      </c>
+      <c r="F35" s="88">
         <v>4</v>
       </c>
     </row>
@@ -21525,10 +21655,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -21538,19 +21668,19 @@
       <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="94" t="s">
-        <v>925</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>946</v>
-      </c>
-      <c r="F37" s="85">
+      <c r="B37" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>965</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>986</v>
+      </c>
+      <c r="F37" s="84">
         <v>1</v>
       </c>
     </row>
@@ -21558,19 +21688,19 @@
       <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="99" t="s">
-        <v>926</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>947</v>
-      </c>
-      <c r="F38" s="89">
+      <c r="B38" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>966</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" s="87">
         <v>0</v>
       </c>
     </row>
@@ -21578,19 +21708,19 @@
       <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>927</v>
-      </c>
-      <c r="E39" s="110" t="s">
-        <v>948</v>
-      </c>
-      <c r="F39" s="87">
+      <c r="B39" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="103" t="s">
+        <v>967</v>
+      </c>
+      <c r="E39" s="115" t="s">
+        <v>987</v>
+      </c>
+      <c r="F39" s="90">
         <v>0</v>
       </c>
     </row>
@@ -21598,19 +21728,19 @@
       <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="118" t="s">
-        <v>928</v>
-      </c>
-      <c r="E40" s="117" t="s">
-        <v>949</v>
-      </c>
-      <c r="F40" s="104">
+      <c r="B40" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>968</v>
+      </c>
+      <c r="E40" s="111" t="s">
+        <v>988</v>
+      </c>
+      <c r="F40" s="91">
         <v>0</v>
       </c>
     </row>
@@ -21618,19 +21748,19 @@
       <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="98" t="s">
-        <v>929</v>
-      </c>
-      <c r="E41" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="91">
+      <c r="B41" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>969</v>
+      </c>
+      <c r="E41" s="108" t="s">
+        <v>989</v>
+      </c>
+      <c r="F41" s="82">
         <v>0</v>
       </c>
     </row>
@@ -21645,10 +21775,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -21658,19 +21788,19 @@
       <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>931</v>
-      </c>
-      <c r="E43" s="114" t="s">
-        <v>951</v>
-      </c>
-      <c r="F43" s="88">
+      <c r="B43" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>971</v>
+      </c>
+      <c r="E43" s="113" t="s">
+        <v>991</v>
+      </c>
+      <c r="F43" s="86">
         <v>0</v>
       </c>
     </row>
@@ -21679,16 +21809,16 @@
         <v>17</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C44" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
       <c r="E44" s="109" t="s">
-        <v>952</v>
+        <v>71</v>
       </c>
       <c r="F44" s="84">
         <v>0</v>
@@ -21699,16 +21829,16 @@
         <v>18</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45" s="83" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>933</v>
+        <v>973</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>953</v>
+        <v>71</v>
       </c>
       <c r="F45" s="83">
         <v>0</v>
@@ -21718,19 +21848,19 @@
       <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="96" t="s">
-        <v>934</v>
-      </c>
-      <c r="E46" s="109" t="s">
-        <v>954</v>
-      </c>
-      <c r="F46" s="84">
+      <c r="B46" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>974</v>
+      </c>
+      <c r="E46" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="85">
         <v>0</v>
       </c>
     </row>
@@ -21745,10 +21875,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>935</v>
+        <v>975</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>955</v>
+        <v>71</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -21765,7 +21895,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="E48" s="117" t="s">
         <v>72</v>
@@ -21778,29 +21908,24 @@
       <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="97" t="s">
-        <v>937</v>
-      </c>
-      <c r="E49" s="110" t="s">
+      <c r="B49" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="118" t="s">
+        <v>977</v>
+      </c>
+      <c r="E49" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="81"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="119" t="s">
@@ -21830,12 +21955,12 @@
       <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="82">
+      <c r="B53" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="83">
         <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -21850,7 +21975,7 @@
       </c>
       <c r="C54" s="86">
         <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
@@ -21865,7 +21990,7 @@
       </c>
       <c r="C55" s="90">
         <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
@@ -21875,12 +22000,12 @@
       <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="83">
+      <c r="B56" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="82">
         <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
@@ -21890,12 +22015,12 @@
       <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="85">
+      <c r="B57" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="89">
         <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
@@ -21905,12 +22030,12 @@
       <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="89">
+      <c r="B58" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="85">
         <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
@@ -21925,7 +22050,7 @@
       </c>
       <c r="C59" s="87">
         <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
@@ -21935,12 +22060,12 @@
       <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="84">
+      <c r="B60" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="88">
         <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60" s="81"/>
       <c r="E60" s="81"/>
@@ -21950,12 +22075,12 @@
       <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="88">
+      <c r="B61" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="84">
         <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="81"/>
       <c r="E61" s="81"/>
@@ -21992,6 +22117,10 @@
       <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25653,7 +25782,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25852,7 +25981,9 @@
       <c r="W2" s="59">
         <v>44</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="82">
+        <v>12</v>
+      </c>
       <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
@@ -25860,7 +25991,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -25933,7 +26064,9 @@
       <c r="W3" s="86">
         <v>22</v>
       </c>
-      <c r="X3" s="66"/>
+      <c r="X3" s="59">
+        <v>19</v>
+      </c>
       <c r="Y3" s="66"/>
       <c r="Z3" s="66"/>
       <c r="AA3" s="66"/>
@@ -25941,7 +26074,7 @@
       <c r="AC3" s="66"/>
       <c r="AD3" s="86">
         <f>SUM(C3:AC3)</f>
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -26010,7 +26143,9 @@
       <c r="W4" s="83">
         <v>8</v>
       </c>
-      <c r="X4" s="62"/>
+      <c r="X4" s="83">
+        <v>25</v>
+      </c>
       <c r="Y4" s="62"/>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
@@ -26018,7 +26153,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="83">
         <f>SUM(C4:AC4)</f>
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -26089,7 +26224,9 @@
       <c r="W5" s="90">
         <v>21</v>
       </c>
-      <c r="X5" s="70"/>
+      <c r="X5" s="90">
+        <v>15</v>
+      </c>
       <c r="Y5" s="70"/>
       <c r="Z5" s="70"/>
       <c r="AA5" s="70"/>
@@ -26097,7 +26234,7 @@
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -26164,7 +26301,9 @@
         <v>8</v>
       </c>
       <c r="W6" s="87"/>
-      <c r="X6" s="65"/>
+      <c r="X6" s="87">
+        <v>6</v>
+      </c>
       <c r="Y6" s="65"/>
       <c r="Z6" s="65"/>
       <c r="AA6" s="65"/>
@@ -26172,7 +26311,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -26231,7 +26370,9 @@
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
       <c r="W7" s="84"/>
-      <c r="X7" s="69"/>
+      <c r="X7" s="84">
+        <v>1</v>
+      </c>
       <c r="Y7" s="69"/>
       <c r="Z7" s="69"/>
       <c r="AA7" s="69"/>
@@ -26239,7 +26380,7 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -26284,7 +26425,9 @@
       <c r="W8" s="89">
         <v>2</v>
       </c>
-      <c r="X8" s="67"/>
+      <c r="X8" s="89">
+        <v>10</v>
+      </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
       <c r="AA8" s="67"/>
@@ -26292,7 +26435,7 @@
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -26341,7 +26484,9 @@
         <v>4</v>
       </c>
       <c r="W9" s="105"/>
-      <c r="X9" s="72"/>
+      <c r="X9" s="105" t="s">
+        <v>66</v>
+      </c>
       <c r="Y9" s="72"/>
       <c r="Z9" s="72"/>
       <c r="AA9" s="72"/>
@@ -26386,7 +26531,9 @@
         <v>1</v>
       </c>
       <c r="W10" s="88"/>
-      <c r="X10" s="68"/>
+      <c r="X10" s="88">
+        <v>4</v>
+      </c>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
       <c r="AA10" s="68"/>
@@ -26394,7 +26541,7 @@
       <c r="AC10" s="68"/>
       <c r="AD10" s="88">
         <f>SUM(C10:AC10)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -26439,7 +26586,9 @@
       <c r="W11" s="85">
         <v>5</v>
       </c>
-      <c r="X11" s="63"/>
+      <c r="X11" s="85">
+        <v>10</v>
+      </c>
       <c r="Y11" s="63"/>
       <c r="Z11" s="63"/>
       <c r="AA11" s="63"/>
@@ -26447,7 +26596,7 @@
       <c r="AC11" s="63"/>
       <c r="AD11" s="39">
         <f>SUM(C11:AC11)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -26488,7 +26637,7 @@
       <c r="U12" s="91"/>
       <c r="V12" s="91"/>
       <c r="W12" s="91"/>
-      <c r="X12" s="64"/>
+      <c r="X12" s="91"/>
       <c r="Y12" s="64"/>
       <c r="Z12" s="64"/>
       <c r="AA12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A6E20-B170-482A-B714-28A50DB6A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE19E6-A9C2-4BE9-941A-C789F571D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -14497,7 +14497,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+      <selection activeCell="B1" sqref="B1:AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14634,72 +14634,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36">
+        <v>18</v>
+      </c>
+      <c r="D2" s="36">
         <v>25</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
+        <v>12</v>
+      </c>
+      <c r="F2" s="36">
+        <v>15</v>
+      </c>
+      <c r="G2" s="36">
+        <v>15</v>
+      </c>
+      <c r="H2" s="36">
         <v>18</v>
       </c>
-      <c r="E2" s="36">
+      <c r="I2" s="36">
         <v>25</v>
       </c>
-      <c r="F2" s="36">
+      <c r="J2" s="36">
+        <v>8</v>
+      </c>
+      <c r="K2" s="36">
         <v>18</v>
       </c>
-      <c r="G2" s="36">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36">
-        <v>15</v>
-      </c>
-      <c r="I2" s="36">
-        <v>18</v>
-      </c>
-      <c r="J2" s="36">
-        <v>2</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="L2" s="36">
+        <v>12</v>
+      </c>
+      <c r="M2" s="36">
         <v>25</v>
-      </c>
-      <c r="L2" s="36">
-        <v>15</v>
-      </c>
-      <c r="M2" s="36">
-        <v>18</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="82">
+        <v>15</v>
+      </c>
+      <c r="P2" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>25</v>
+      </c>
+      <c r="R2" s="59">
         <v>26</v>
       </c>
-      <c r="P2" s="59">
+      <c r="S2" s="59">
+        <v>8</v>
+      </c>
+      <c r="T2" s="82">
+        <v>18</v>
+      </c>
+      <c r="U2" s="82">
+        <v>25</v>
+      </c>
+      <c r="V2" s="82">
+        <v>15</v>
+      </c>
+      <c r="W2" s="59">
         <v>19</v>
       </c>
-      <c r="Q2" s="82">
-        <v>18</v>
-      </c>
-      <c r="R2" s="82">
-        <v>15</v>
-      </c>
-      <c r="S2" s="82">
-        <v>7</v>
-      </c>
-      <c r="T2" s="59">
-        <v>26</v>
-      </c>
-      <c r="U2" s="82">
-        <v>15</v>
-      </c>
-      <c r="V2" s="59">
-        <v>26</v>
-      </c>
-      <c r="W2" s="82">
-        <v>25</v>
-      </c>
-      <c r="X2" s="82"/>
+      <c r="X2" s="82">
+        <v>12</v>
+      </c>
       <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
@@ -14707,7 +14709,7 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14715,74 +14717,72 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="36">
+        <v>25</v>
+      </c>
+      <c r="D3" s="36">
         <v>18</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
-        <v>12</v>
-      </c>
       <c r="F3" s="36">
+        <v>18</v>
+      </c>
+      <c r="G3" s="36">
+        <v>18</v>
+      </c>
+      <c r="H3" s="36">
         <v>15</v>
       </c>
-      <c r="G3" s="36">
+      <c r="I3" s="36">
+        <v>18</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36">
+        <v>25</v>
+      </c>
+      <c r="L3" s="36">
         <v>15</v>
       </c>
-      <c r="H3" s="36">
+      <c r="M3" s="36">
         <v>18</v>
-      </c>
-      <c r="I3" s="36">
-        <v>25</v>
-      </c>
-      <c r="J3" s="36">
-        <v>8</v>
-      </c>
-      <c r="K3" s="36">
-        <v>18</v>
-      </c>
-      <c r="L3" s="36">
-        <v>12</v>
-      </c>
-      <c r="M3" s="36">
-        <v>25</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="59">
+        <v>26</v>
+      </c>
+      <c r="P3" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>18</v>
+      </c>
+      <c r="R3" s="82">
         <v>15</v>
       </c>
-      <c r="P3" s="82">
+      <c r="S3" s="82">
+        <v>7</v>
+      </c>
+      <c r="T3" s="59">
+        <v>26</v>
+      </c>
+      <c r="U3" s="82">
+        <v>15</v>
+      </c>
+      <c r="V3" s="59">
+        <v>26</v>
+      </c>
+      <c r="W3" s="82">
         <v>25</v>
       </c>
-      <c r="Q3" s="82">
-        <v>25</v>
-      </c>
-      <c r="R3" s="59">
-        <v>26</v>
-      </c>
-      <c r="S3" s="59">
-        <v>8</v>
-      </c>
-      <c r="T3" s="82">
-        <v>18</v>
-      </c>
-      <c r="U3" s="82">
-        <v>25</v>
-      </c>
-      <c r="V3" s="82">
-        <v>15</v>
-      </c>
-      <c r="W3" s="59">
-        <v>19</v>
-      </c>
-      <c r="X3" s="82">
-        <v>12</v>
-      </c>
+      <c r="X3" s="82"/>
       <c r="Y3" s="61"/>
       <c r="Z3" s="61"/>
       <c r="AA3" s="61"/>
@@ -14790,7 +14790,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -20932,7 +20932,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="82">
-        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>44</v>
       </c>
       <c r="D53" s="81"/>
@@ -20947,7 +20947,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="86">
-        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D54" s="81"/>
@@ -20962,7 +20962,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="90">
-        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D55" s="81"/>
@@ -20977,7 +20977,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="83">
-        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D56" s="81"/>
@@ -20992,7 +20992,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="85">
-        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D57" s="81"/>
@@ -21007,7 +21007,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="89">
-        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D58" s="81"/>
@@ -21022,7 +21022,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="87">
-        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D59" s="81"/>
@@ -21037,7 +21037,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="84">
-        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -21052,7 +21052,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="88">
-        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -21067,7 +21067,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="105">
-        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -21082,7 +21082,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -21102,7 +21102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FC2F3-3365-4E0B-87CC-B9803103B30E}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -21959,7 +21959,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="83">
-        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
         <v>25</v>
       </c>
       <c r="D53" s="81"/>
@@ -21974,7 +21974,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="86">
-        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D54" s="81"/>
@@ -21989,7 +21989,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="90">
-        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D55" s="81"/>
@@ -22004,7 +22004,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="82">
-        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D56" s="81"/>
@@ -22019,7 +22019,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="89">
-        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D57" s="81"/>
@@ -22034,7 +22034,7 @@
         <v>13</v>
       </c>
       <c r="C58" s="85">
-        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D58" s="81"/>
@@ -22049,7 +22049,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="87">
-        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D59" s="81"/>
@@ -22064,7 +22064,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="88">
-        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D60" s="81"/>
@@ -22079,7 +22079,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="84">
-        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D61" s="81"/>
@@ -22094,7 +22094,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="105">
-        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -22109,7 +22109,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -25781,8 +25781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974D5FD-590E-4B73-AD04-D1CD08B49B7E}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE19E6-A9C2-4BE9-941A-C789F571D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E1385-F42A-4333-BEF0-F5E03A253AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1030">
   <si>
     <t>Команда</t>
   </si>
@@ -3041,6 +3041,120 @@
   </si>
   <si>
     <t>+4.919</t>
+  </si>
+  <si>
+    <t>1:03.734</t>
+  </si>
+  <si>
+    <t>1:03.042</t>
+  </si>
+  <si>
+    <t>1:04.254</t>
+  </si>
+  <si>
+    <t>1:04.471</t>
+  </si>
+  <si>
+    <t>1:04.570</t>
+  </si>
+  <si>
+    <t>1:04.680</t>
+  </si>
+  <si>
+    <t>1:03.749</t>
+  </si>
+  <si>
+    <t>1:04.733</t>
+  </si>
+  <si>
+    <t>1:05.008</t>
+  </si>
+  <si>
+    <t>1:03.747</t>
+  </si>
+  <si>
+    <t>1:04.973</t>
+  </si>
+  <si>
+    <t>1:04.319</t>
+  </si>
+  <si>
+    <t>1:04.449</t>
+  </si>
+  <si>
+    <t>1:04.321</t>
+  </si>
+  <si>
+    <t>1:03.628</t>
+  </si>
+  <si>
+    <t>1:05.288</t>
+  </si>
+  <si>
+    <t>1:05.396</t>
+  </si>
+  <si>
+    <t>1:04.864</t>
+  </si>
+  <si>
+    <t>1:04.974</t>
+  </si>
+  <si>
+    <t>1:05.132</t>
+  </si>
+  <si>
+    <t>1:04.890</t>
+  </si>
+  <si>
+    <t>1:05.917</t>
+  </si>
+  <si>
+    <t>01:18:31</t>
+  </si>
+  <si>
+    <t>+6.778</t>
+  </si>
+  <si>
+    <t>+2.923</t>
+  </si>
+  <si>
+    <t>+0.730</t>
+  </si>
+  <si>
+    <t>+4.280</t>
+  </si>
+  <si>
+    <t>+1.636</t>
+  </si>
+  <si>
+    <t>+0.882</t>
+  </si>
+  <si>
+    <t>+0.224</t>
+  </si>
+  <si>
+    <t>+5.887</t>
+  </si>
+  <si>
+    <t>+5.110</t>
+  </si>
+  <si>
+    <t>+0.632</t>
+  </si>
+  <si>
+    <t>+4.103</t>
+  </si>
+  <si>
+    <t>+3.467</t>
+  </si>
+  <si>
+    <t>+3.795</t>
+  </si>
+  <si>
+    <t>+4.546</t>
+  </si>
+  <si>
+    <t>+6.162</t>
   </si>
 </sst>
 </file>
@@ -14496,8 +14610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AD23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14634,82 +14748,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="36">
+        <v>25</v>
+      </c>
+      <c r="D2" s="36">
         <v>18</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
         <v>25</v>
       </c>
-      <c r="E2" s="36">
-        <v>12</v>
-      </c>
       <c r="F2" s="36">
+        <v>18</v>
+      </c>
+      <c r="G2" s="36">
+        <v>18</v>
+      </c>
+      <c r="H2" s="36">
         <v>15</v>
       </c>
-      <c r="G2" s="36">
+      <c r="I2" s="36">
+        <v>18</v>
+      </c>
+      <c r="J2" s="36">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36">
+        <v>25</v>
+      </c>
+      <c r="L2" s="36">
         <v>15</v>
       </c>
-      <c r="H2" s="36">
+      <c r="M2" s="36">
         <v>18</v>
-      </c>
-      <c r="I2" s="36">
-        <v>25</v>
-      </c>
-      <c r="J2" s="36">
-        <v>8</v>
-      </c>
-      <c r="K2" s="36">
-        <v>18</v>
-      </c>
-      <c r="L2" s="36">
-        <v>12</v>
-      </c>
-      <c r="M2" s="36">
-        <v>25</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="59">
+        <v>26</v>
+      </c>
+      <c r="P2" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>18</v>
+      </c>
+      <c r="R2" s="82">
         <v>15</v>
       </c>
-      <c r="P2" s="82">
+      <c r="S2" s="82">
+        <v>7</v>
+      </c>
+      <c r="T2" s="59">
+        <v>26</v>
+      </c>
+      <c r="U2" s="82">
+        <v>15</v>
+      </c>
+      <c r="V2" s="59">
+        <v>26</v>
+      </c>
+      <c r="W2" s="82">
         <v>25</v>
       </c>
-      <c r="Q2" s="82">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82">
         <v>25</v>
       </c>
-      <c r="R2" s="59">
-        <v>26</v>
-      </c>
-      <c r="S2" s="59">
-        <v>8</v>
-      </c>
-      <c r="T2" s="82">
-        <v>18</v>
-      </c>
-      <c r="U2" s="82">
-        <v>25</v>
-      </c>
-      <c r="V2" s="82">
-        <v>15</v>
-      </c>
-      <c r="W2" s="59">
-        <v>19</v>
-      </c>
-      <c r="X2" s="82">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="61"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14717,80 +14831,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="36">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36">
         <v>25</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
+        <v>12</v>
+      </c>
+      <c r="F3" s="36">
+        <v>15</v>
+      </c>
+      <c r="G3" s="36">
+        <v>15</v>
+      </c>
+      <c r="H3" s="36">
         <v>18</v>
       </c>
-      <c r="E3" s="36">
+      <c r="I3" s="36">
         <v>25</v>
       </c>
-      <c r="F3" s="36">
+      <c r="J3" s="36">
+        <v>8</v>
+      </c>
+      <c r="K3" s="36">
         <v>18</v>
       </c>
-      <c r="G3" s="36">
-        <v>18</v>
-      </c>
-      <c r="H3" s="36">
-        <v>15</v>
-      </c>
-      <c r="I3" s="36">
-        <v>18</v>
-      </c>
-      <c r="J3" s="36">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36">
+      <c r="L3" s="36">
+        <v>12</v>
+      </c>
+      <c r="M3" s="36">
         <v>25</v>
-      </c>
-      <c r="L3" s="36">
-        <v>15</v>
-      </c>
-      <c r="M3" s="36">
-        <v>18</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="82">
+        <v>15</v>
+      </c>
+      <c r="P3" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>25</v>
+      </c>
+      <c r="R3" s="59">
         <v>26</v>
       </c>
-      <c r="P3" s="59">
+      <c r="S3" s="59">
+        <v>8</v>
+      </c>
+      <c r="T3" s="82">
+        <v>18</v>
+      </c>
+      <c r="U3" s="82">
+        <v>25</v>
+      </c>
+      <c r="V3" s="82">
+        <v>15</v>
+      </c>
+      <c r="W3" s="59">
         <v>19</v>
       </c>
-      <c r="Q3" s="82">
-        <v>18</v>
-      </c>
-      <c r="R3" s="82">
-        <v>15</v>
-      </c>
-      <c r="S3" s="82">
-        <v>7</v>
-      </c>
-      <c r="T3" s="59">
-        <v>26</v>
-      </c>
-      <c r="U3" s="82">
-        <v>15</v>
-      </c>
-      <c r="V3" s="59">
-        <v>26</v>
-      </c>
-      <c r="W3" s="82">
-        <v>25</v>
-      </c>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="61"/>
+      <c r="X3" s="82">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="82" t="s">
+        <v>66</v>
+      </c>
       <c r="Z3" s="61"/>
       <c r="AA3" s="61"/>
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14862,14 +14980,16 @@
       <c r="X4" s="83">
         <v>25</v>
       </c>
-      <c r="Y4" s="62"/>
+      <c r="Y4" s="58">
+        <v>19</v>
+      </c>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -14941,14 +15061,16 @@
       <c r="X5" s="59">
         <v>19</v>
       </c>
-      <c r="Y5" s="66"/>
+      <c r="Y5" s="86">
+        <v>1</v>
+      </c>
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -15018,14 +15140,16 @@
         <v>15</v>
       </c>
       <c r="X6" s="90"/>
-      <c r="Y6" s="70"/>
+      <c r="Y6" s="90">
+        <v>15</v>
+      </c>
       <c r="Z6" s="70"/>
       <c r="AA6" s="70"/>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -15089,14 +15213,16 @@
         <v>10</v>
       </c>
       <c r="X7" s="116"/>
-      <c r="Y7" s="66"/>
+      <c r="Y7" s="116">
+        <v>6</v>
+      </c>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
       <c r="AB7" s="66"/>
       <c r="AC7" s="66"/>
       <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -15164,7 +15290,7 @@
       <c r="X8" s="87">
         <v>6</v>
       </c>
-      <c r="Y8" s="65"/>
+      <c r="Y8" s="87"/>
       <c r="Z8" s="65"/>
       <c r="AA8" s="65"/>
       <c r="AB8" s="65"/>
@@ -15239,14 +15365,16 @@
         <v>8</v>
       </c>
       <c r="X9" s="83"/>
-      <c r="Y9" s="62"/>
+      <c r="Y9" s="83">
+        <v>8</v>
+      </c>
       <c r="Z9" s="62"/>
       <c r="AA9" s="62"/>
       <c r="AB9" s="62"/>
       <c r="AC9" s="62"/>
       <c r="AD9" s="83">
         <f>SUM(C9:AC9)</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -15306,7 +15434,7 @@
       <c r="V10" s="84"/>
       <c r="W10" s="84"/>
       <c r="X10" s="84"/>
-      <c r="Y10" s="69"/>
+      <c r="Y10" s="84"/>
       <c r="Z10" s="69"/>
       <c r="AA10" s="69"/>
       <c r="AB10" s="69"/>
@@ -15365,7 +15493,7 @@
       <c r="X11" s="90">
         <v>15</v>
       </c>
-      <c r="Y11" s="70"/>
+      <c r="Y11" s="90"/>
       <c r="Z11" s="70"/>
       <c r="AA11" s="70"/>
       <c r="AB11" s="70"/>
@@ -15424,14 +15552,16 @@
       </c>
       <c r="W12" s="87"/>
       <c r="X12" s="87"/>
-      <c r="Y12" s="65"/>
+      <c r="Y12" s="87">
+        <v>12</v>
+      </c>
       <c r="Z12" s="65"/>
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
       <c r="AC12" s="65"/>
       <c r="AD12" s="87">
         <f>SUM(C12:AC12)</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
@@ -15489,175 +15619,179 @@
       <c r="X13" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="71"/>
+      <c r="Y13" s="104">
+        <v>2</v>
+      </c>
       <c r="Z13" s="71"/>
       <c r="AA13" s="71"/>
       <c r="AB13" s="71"/>
       <c r="AC13" s="71"/>
       <c r="AD13" s="104">
         <f>SUM(C13:AC13)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88">
+      <c r="B14" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="58">
+        <v>2</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85">
+        <v>2</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85">
+        <v>1</v>
+      </c>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85">
+        <v>1</v>
+      </c>
+      <c r="R14" s="85">
+        <v>8</v>
+      </c>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85">
         <v>4</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88">
-        <v>25</v>
-      </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88">
-        <v>1</v>
-      </c>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="88">
+      <c r="X14" s="85">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="85">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="85">
         <f>SUM(C14:AC14)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89">
+      <c r="B15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88">
         <v>4</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89" t="s">
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="89">
-        <v>6</v>
-      </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89">
-        <v>10</v>
-      </c>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89">
-        <v>6</v>
-      </c>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89">
-        <v>2</v>
-      </c>
-      <c r="W15" s="89">
-        <v>2</v>
-      </c>
-      <c r="X15" s="89">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="89">
+      <c r="M15" s="88"/>
+      <c r="N15" s="88">
+        <v>25</v>
+      </c>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88">
+        <v>1</v>
+      </c>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="88">
         <f>SUM(C15:AC15)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="58">
+      <c r="B16" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89">
+        <v>4</v>
+      </c>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="89">
+        <v>6</v>
+      </c>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89">
+        <v>10</v>
+      </c>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89">
+        <v>6</v>
+      </c>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89">
         <v>2</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85">
+      <c r="W16" s="89">
         <v>2</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85">
-        <v>1</v>
-      </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85">
-        <v>1</v>
-      </c>
-      <c r="R16" s="85">
-        <v>8</v>
-      </c>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85">
-        <v>4</v>
-      </c>
-      <c r="X16" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="85">
+      <c r="X16" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="89">
         <f>SUM(C16:AC16)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -15697,7 +15831,7 @@
       <c r="X17" s="89">
         <v>8</v>
       </c>
-      <c r="Y17" s="67"/>
+      <c r="Y17" s="89"/>
       <c r="Z17" s="67"/>
       <c r="AA17" s="67"/>
       <c r="AB17" s="67"/>
@@ -15746,7 +15880,7 @@
       <c r="V18" s="91"/>
       <c r="W18" s="91"/>
       <c r="X18" s="91"/>
-      <c r="Y18" s="64"/>
+      <c r="Y18" s="91"/>
       <c r="Z18" s="64"/>
       <c r="AA18" s="64"/>
       <c r="AB18" s="64"/>
@@ -15795,7 +15929,7 @@
       <c r="X19" s="84">
         <v>1</v>
       </c>
-      <c r="Y19" s="69"/>
+      <c r="Y19" s="84"/>
       <c r="Z19" s="69"/>
       <c r="AA19" s="69"/>
       <c r="AB19" s="69"/>
@@ -15850,14 +15984,16 @@
         <v>1</v>
       </c>
       <c r="X20" s="85"/>
-      <c r="Y20" s="63"/>
+      <c r="Y20" s="85">
+        <v>4</v>
+      </c>
       <c r="Z20" s="63"/>
       <c r="AA20" s="63"/>
       <c r="AB20" s="63"/>
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
         <f>SUM(C20:AC20)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -15899,7 +16035,7 @@
       <c r="X21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="Y21" s="71"/>
+      <c r="Y21" s="104"/>
       <c r="Z21" s="71"/>
       <c r="AA21" s="71"/>
       <c r="AB21" s="71"/>
@@ -15944,7 +16080,7 @@
       <c r="V22" s="88"/>
       <c r="W22" s="88"/>
       <c r="X22" s="88"/>
-      <c r="Y22" s="68"/>
+      <c r="Y22" s="88"/>
       <c r="Z22" s="68"/>
       <c r="AA22" s="68"/>
       <c r="AB22" s="68"/>
@@ -15987,7 +16123,7 @@
       </c>
       <c r="W23" s="91"/>
       <c r="X23" s="91"/>
-      <c r="Y23" s="64"/>
+      <c r="Y23" s="91"/>
       <c r="Z23" s="64"/>
       <c r="AA23" s="64"/>
       <c r="AB23" s="64"/>
@@ -21102,8 +21238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FC2F3-3365-4E0B-87CC-B9803103B30E}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22129,8 +22265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E1650E-F39B-49B0-8B29-7BB87B468214}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22143,289 +22279,346 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -22435,605 +22628,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>992</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>993</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F29" s="83">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>994</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F30" s="90">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>995</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>557</v>
+      </c>
+      <c r="F31" s="87">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>996</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F32" s="85">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>997</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F33" s="83">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>998</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F34" s="86">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>999</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="85">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F36" s="104">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E37" s="113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F37" s="86">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F39" s="87">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F40" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>656</v>
+      </c>
+      <c r="F41" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E42" s="117" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F42" s="104">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="98" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F43" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F44" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="98" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F45" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E46" s="115" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F46" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="96" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E48" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="108" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E49" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="83">
+        <f>SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
+        <v>27</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="82">
+        <f>SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
+        <v>25</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="90">
+        <f>SUMIF($C$28:$C$47,B55,$F$28:$F$47)</f>
+        <v>15</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="85">
+        <f>SUMIF($C$28:$C$47,B56,$F$28:$F$47)</f>
+        <v>14</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="87">
+        <f>SUMIF($C$28:$C$47,B57,$F$28:$F$47)</f>
+        <v>12</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="86">
+        <f>SUMIF($C$28:$C$47,B58,$F$28:$F$47)</f>
+        <v>7</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="105">
+        <f>SUMIF($C$28:$C$47,B59,$F$28:$F$47)</f>
+        <v>2</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="89">
+        <f>SUMIF($C$28:$C$47,B60,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="84">
+        <f>SUMIF($C$28:$C$47,B61,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="88">
+        <f>SUMIF($C$28:$C$47,B62,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$47,B63,$F$28:$F$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25781,8 +26031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974D5FD-590E-4B73-AD04-D1CD08B49B7E}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25984,14 +26234,16 @@
       <c r="X2" s="82">
         <v>12</v>
       </c>
-      <c r="Y2" s="61"/>
+      <c r="Y2" s="82">
+        <v>25</v>
+      </c>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>753</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -26067,14 +26319,16 @@
       <c r="X3" s="59">
         <v>19</v>
       </c>
-      <c r="Y3" s="66"/>
+      <c r="Y3" s="86">
+        <v>7</v>
+      </c>
       <c r="Z3" s="66"/>
       <c r="AA3" s="66"/>
       <c r="AB3" s="66"/>
       <c r="AC3" s="66"/>
       <c r="AD3" s="86">
         <f>SUM(C3:AC3)</f>
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -26146,14 +26400,16 @@
       <c r="X4" s="83">
         <v>25</v>
       </c>
-      <c r="Y4" s="62"/>
+      <c r="Y4" s="58">
+        <v>27</v>
+      </c>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="83">
         <f>SUM(C4:AC4)</f>
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -26227,14 +26483,16 @@
       <c r="X5" s="90">
         <v>15</v>
       </c>
-      <c r="Y5" s="70"/>
+      <c r="Y5" s="90">
+        <v>15</v>
+      </c>
       <c r="Z5" s="70"/>
       <c r="AA5" s="70"/>
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -26304,14 +26562,16 @@
       <c r="X6" s="87">
         <v>6</v>
       </c>
-      <c r="Y6" s="65"/>
+      <c r="Y6" s="87">
+        <v>12</v>
+      </c>
       <c r="Z6" s="65"/>
       <c r="AA6" s="65"/>
       <c r="AB6" s="65"/>
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -26373,7 +26633,7 @@
       <c r="X7" s="84">
         <v>1</v>
       </c>
-      <c r="Y7" s="69"/>
+      <c r="Y7" s="84"/>
       <c r="Z7" s="69"/>
       <c r="AA7" s="69"/>
       <c r="AB7" s="69"/>
@@ -26428,7 +26688,7 @@
       <c r="X8" s="89">
         <v>10</v>
       </c>
-      <c r="Y8" s="67"/>
+      <c r="Y8" s="89"/>
       <c r="Z8" s="67"/>
       <c r="AA8" s="67"/>
       <c r="AB8" s="67"/>
@@ -26442,161 +26702,165 @@
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105">
-        <v>6</v>
-      </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105">
+      <c r="B9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="58">
+        <v>2</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85">
+        <v>2</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85">
+        <v>4</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85">
         <v>1</v>
       </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105">
+      <c r="L9" s="85"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85">
         <v>1</v>
       </c>
-      <c r="P9" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105">
-        <v>12</v>
-      </c>
-      <c r="S9" s="105">
-        <v>3</v>
-      </c>
-      <c r="T9" s="105">
-        <v>4</v>
-      </c>
-      <c r="U9" s="105">
-        <v>4</v>
-      </c>
-      <c r="V9" s="105">
-        <v>4</v>
-      </c>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="104">
+      <c r="R9" s="85">
+        <v>8</v>
+      </c>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85">
+        <v>5</v>
+      </c>
+      <c r="X9" s="85">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="85">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="85">
         <f>SUM(C9:AC9)</f>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88">
+      <c r="B10" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105">
+        <v>6</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105">
+        <v>1</v>
+      </c>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105">
+        <v>1</v>
+      </c>
+      <c r="P10" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105">
+        <v>12</v>
+      </c>
+      <c r="S10" s="105">
+        <v>3</v>
+      </c>
+      <c r="T10" s="105">
         <v>4</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88">
-        <v>25</v>
-      </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88">
-        <v>1</v>
-      </c>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88">
+      <c r="U10" s="105">
         <v>4</v>
       </c>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="88">
+      <c r="V10" s="105">
+        <v>4</v>
+      </c>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="105">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="104">
         <f>SUM(C10:AC10)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="58">
-        <v>2</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39">
-        <v>2</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39">
+      <c r="B11" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88">
         <v>4</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39">
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88">
+        <v>25</v>
+      </c>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88">
         <v>1</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85">
-        <v>1</v>
-      </c>
-      <c r="R11" s="85">
-        <v>8</v>
-      </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85">
-        <v>5</v>
-      </c>
-      <c r="X11" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="39">
+      <c r="W11" s="88"/>
+      <c r="X11" s="88">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="88">
         <f>SUM(C11:AC11)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -26638,7 +26902,7 @@
       <c r="V12" s="91"/>
       <c r="W12" s="91"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="64"/>
+      <c r="Y12" s="91"/>
       <c r="Z12" s="64"/>
       <c r="AA12" s="64"/>
       <c r="AB12" s="64"/>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E1385-F42A-4333-BEF0-F5E03A253AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0F7C2-BB36-48BC-8072-319B80511343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1027">
   <si>
     <t>Команда</t>
   </si>
@@ -3043,118 +3043,109 @@
     <t>+4.919</t>
   </si>
   <si>
-    <t>1:03.734</t>
-  </si>
-  <si>
-    <t>1:03.042</t>
-  </si>
-  <si>
-    <t>1:04.254</t>
-  </si>
-  <si>
-    <t>1:04.471</t>
-  </si>
-  <si>
-    <t>1:04.570</t>
-  </si>
-  <si>
-    <t>1:04.680</t>
-  </si>
-  <si>
-    <t>1:03.749</t>
-  </si>
-  <si>
-    <t>1:04.733</t>
-  </si>
-  <si>
-    <t>1:05.008</t>
-  </si>
-  <si>
-    <t>1:03.747</t>
-  </si>
-  <si>
-    <t>1:04.973</t>
-  </si>
-  <si>
-    <t>1:04.319</t>
-  </si>
-  <si>
-    <t>1:04.449</t>
-  </si>
-  <si>
-    <t>1:04.321</t>
-  </si>
-  <si>
-    <t>1:03.628</t>
-  </si>
-  <si>
-    <t>1:05.288</t>
-  </si>
-  <si>
-    <t>1:05.396</t>
-  </si>
-  <si>
-    <t>1:04.864</t>
-  </si>
-  <si>
-    <t>1:04.974</t>
-  </si>
-  <si>
-    <t>1:05.132</t>
-  </si>
-  <si>
-    <t>1:04.890</t>
-  </si>
-  <si>
-    <t>1:05.917</t>
-  </si>
-  <si>
-    <t>01:18:31</t>
-  </si>
-  <si>
-    <t>+6.778</t>
-  </si>
-  <si>
-    <t>+2.923</t>
-  </si>
-  <si>
-    <t>+0.730</t>
-  </si>
-  <si>
-    <t>+4.280</t>
-  </si>
-  <si>
-    <t>+1.636</t>
-  </si>
-  <si>
-    <t>+0.882</t>
-  </si>
-  <si>
-    <t>+0.224</t>
-  </si>
-  <si>
-    <t>+5.887</t>
-  </si>
-  <si>
-    <t>+5.110</t>
-  </si>
-  <si>
-    <t>+0.632</t>
-  </si>
-  <si>
-    <t>+4.103</t>
-  </si>
-  <si>
-    <t>+3.467</t>
-  </si>
-  <si>
-    <t>+3.795</t>
-  </si>
-  <si>
-    <t>+4.546</t>
-  </si>
-  <si>
-    <t>+6.162</t>
+    <t>1:04.037</t>
+  </si>
+  <si>
+    <t>1:04.075</t>
+  </si>
+  <si>
+    <t>1:04.785</t>
+  </si>
+  <si>
+    <t>1:05.175</t>
+  </si>
+  <si>
+    <t>1:04.325</t>
+  </si>
+  <si>
+    <t>1:04.929</t>
+  </si>
+  <si>
+    <t>1:04.622</t>
+  </si>
+  <si>
+    <t>1:05.321</t>
+  </si>
+  <si>
+    <t>1:04.183</t>
+  </si>
+  <si>
+    <t>1:03.443</t>
+  </si>
+  <si>
+    <t>1:05.461</t>
+  </si>
+  <si>
+    <t>1:05.247</t>
+  </si>
+  <si>
+    <t>1:04.389</t>
+  </si>
+  <si>
+    <t>1:04.805</t>
+  </si>
+  <si>
+    <t>1:05.158</t>
+  </si>
+  <si>
+    <t>1:05.105</t>
+  </si>
+  <si>
+    <t>1:06.172</t>
+  </si>
+  <si>
+    <t>1:05.955</t>
+  </si>
+  <si>
+    <t>1:06.250</t>
+  </si>
+  <si>
+    <t>1:05.577</t>
+  </si>
+  <si>
+    <t>1:05.538</t>
+  </si>
+  <si>
+    <t>1:06.806</t>
+  </si>
+  <si>
+    <t>+6.613</t>
+  </si>
+  <si>
+    <t>+0.299</t>
+  </si>
+  <si>
+    <t>+0.856</t>
+  </si>
+  <si>
+    <t>+4.795</t>
+  </si>
+  <si>
+    <t>+3.081</t>
+  </si>
+  <si>
+    <t>+7.107</t>
+  </si>
+  <si>
+    <t>+0.092</t>
+  </si>
+  <si>
+    <t>+0.667</t>
+  </si>
+  <si>
+    <t>+18.199</t>
+  </si>
+  <si>
+    <t>+5.630</t>
+  </si>
+  <si>
+    <t>+4.805</t>
+  </si>
+  <si>
+    <t>+3.100</t>
+  </si>
+  <si>
+    <t>01:20:46</t>
   </si>
 </sst>
 </file>
@@ -14611,7 +14602,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14899,8 +14890,8 @@
       <c r="X3" s="82">
         <v>12</v>
       </c>
-      <c r="Y3" s="82" t="s">
-        <v>66</v>
+      <c r="Y3" s="82">
+        <v>15</v>
       </c>
       <c r="Z3" s="61"/>
       <c r="AA3" s="61"/>
@@ -14908,7 +14899,7 @@
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14980,8 +14971,8 @@
       <c r="X4" s="83">
         <v>25</v>
       </c>
-      <c r="Y4" s="58">
-        <v>19</v>
+      <c r="Y4" s="83">
+        <v>12</v>
       </c>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
@@ -14989,7 +14980,7 @@
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -15062,7 +15053,7 @@
         <v>19</v>
       </c>
       <c r="Y5" s="86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
@@ -15070,7 +15061,7 @@
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -15140,16 +15131,14 @@
         <v>15</v>
       </c>
       <c r="X6" s="90"/>
-      <c r="Y6" s="90">
-        <v>15</v>
-      </c>
+      <c r="Y6" s="90"/>
       <c r="Z6" s="70"/>
       <c r="AA6" s="70"/>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -15213,16 +15202,14 @@
         <v>10</v>
       </c>
       <c r="X7" s="116"/>
-      <c r="Y7" s="116">
-        <v>6</v>
-      </c>
+      <c r="Y7" s="116"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
       <c r="AB7" s="66"/>
       <c r="AC7" s="66"/>
       <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -15366,7 +15353,7 @@
       </c>
       <c r="X9" s="83"/>
       <c r="Y9" s="83">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="62"/>
       <c r="AA9" s="62"/>
@@ -15374,7 +15361,7 @@
       <c r="AC9" s="62"/>
       <c r="AD9" s="83">
         <f>SUM(C9:AC9)</f>
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -15493,7 +15480,9 @@
       <c r="X11" s="90">
         <v>15</v>
       </c>
-      <c r="Y11" s="90"/>
+      <c r="Y11" s="90" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" s="70"/>
       <c r="AA11" s="70"/>
       <c r="AB11" s="70"/>
@@ -15553,7 +15542,7 @@
       <c r="W12" s="87"/>
       <c r="X12" s="87"/>
       <c r="Y12" s="87">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="65"/>
       <c r="AA12" s="65"/>
@@ -15561,182 +15550,172 @@
       <c r="AC12" s="65"/>
       <c r="AD12" s="87">
         <f>SUM(C12:AC12)</f>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104">
-        <v>6</v>
-      </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104">
+      <c r="B13" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88">
+        <v>4</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88">
+        <v>25</v>
+      </c>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88">
         <v>1</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="104">
-        <v>1</v>
-      </c>
-      <c r="P13" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104">
-        <v>12</v>
-      </c>
-      <c r="S13" s="104">
-        <v>3</v>
-      </c>
-      <c r="T13" s="104">
+      <c r="W13" s="88"/>
+      <c r="X13" s="88">
         <v>4</v>
       </c>
-      <c r="U13" s="104">
-        <v>4</v>
-      </c>
-      <c r="V13" s="104">
-        <v>4</v>
-      </c>
-      <c r="W13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y13" s="104">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="104">
+      <c r="Y13" s="88">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="88">
         <f>SUM(C13:AC13)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="58">
-        <v>2</v>
-      </c>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104">
+        <v>6</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85">
-        <v>2</v>
-      </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85">
+      <c r="M14" s="104"/>
+      <c r="N14" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="104">
         <v>1</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85" t="s">
+      <c r="P14" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104">
+        <v>12</v>
+      </c>
+      <c r="S14" s="104">
+        <v>3</v>
+      </c>
+      <c r="T14" s="104">
+        <v>4</v>
+      </c>
+      <c r="U14" s="104">
+        <v>4</v>
+      </c>
+      <c r="V14" s="104">
+        <v>4</v>
+      </c>
+      <c r="W14" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85">
-        <v>1</v>
-      </c>
-      <c r="R14" s="85">
-        <v>8</v>
-      </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85">
-        <v>4</v>
-      </c>
-      <c r="X14" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="85">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="85">
+      <c r="X14" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="104">
         <f>SUM(C14:AC14)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88">
-        <v>4</v>
-      </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88">
-        <v>25</v>
-      </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88">
+      <c r="B15" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89">
         <v>1</v>
       </c>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="88">
+      <c r="N15" s="89">
+        <v>6</v>
+      </c>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89">
+        <v>10</v>
+      </c>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -15784,61 +15763,75 @@
       <c r="X16" s="89">
         <v>2</v>
       </c>
-      <c r="Y16" s="89"/>
+      <c r="Y16" s="89">
+        <v>2</v>
+      </c>
       <c r="Z16" s="67"/>
       <c r="AA16" s="67"/>
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
       <c r="AD16" s="89">
         <f>SUM(C16:AC16)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89">
+      <c r="B17" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="58">
+        <v>2</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85">
+        <v>2</v>
+      </c>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85">
         <v>1</v>
       </c>
-      <c r="N17" s="89">
-        <v>6</v>
-      </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89">
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85">
+        <v>1</v>
+      </c>
+      <c r="R17" s="85">
+        <v>8</v>
+      </c>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85">
+        <v>4</v>
+      </c>
+      <c r="X17" s="85">
         <v>10</v>
       </c>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="89">
+      <c r="Y17" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="85">
         <f>SUM(C17:AC17)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
@@ -15984,16 +15977,14 @@
         <v>1</v>
       </c>
       <c r="X20" s="85"/>
-      <c r="Y20" s="85">
-        <v>4</v>
-      </c>
+      <c r="Y20" s="85"/>
       <c r="Z20" s="63"/>
       <c r="AA20" s="63"/>
       <c r="AB20" s="63"/>
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
         <f>SUM(C20:AC20)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -22661,7 +22652,7 @@
         <v>992</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -22672,38 +22663,38 @@
         <v>2</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C29" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="93" t="s">
         <v>993</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F29" s="83">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="103" t="s">
+      <c r="B30" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="108" t="s">
         <v>994</v>
       </c>
-      <c r="E30" s="115" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F30" s="90">
+      <c r="E30" s="108" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F30" s="82">
         <v>15</v>
       </c>
     </row>
@@ -22711,19 +22702,19 @@
       <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="97" t="s">
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>995</v>
       </c>
-      <c r="E31" s="110" t="s">
-        <v>557</v>
-      </c>
-      <c r="F31" s="87">
+      <c r="E31" s="106" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F31" s="83">
         <v>12</v>
       </c>
     </row>
@@ -22731,19 +22722,19 @@
       <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="99" t="s">
         <v>996</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="112" t="s">
         <v>1017</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="89">
         <v>10</v>
       </c>
     </row>
@@ -22751,19 +22742,19 @@
       <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="93" t="s">
+      <c r="B33" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="102" t="s">
         <v>997</v>
       </c>
-      <c r="E33" s="106" t="s">
+      <c r="E33" s="114" t="s">
         <v>1018</v>
       </c>
-      <c r="F33" s="83">
+      <c r="F33" s="88">
         <v>8</v>
       </c>
     </row>
@@ -22771,19 +22762,19 @@
       <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="100" t="s">
+      <c r="B34" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="97" t="s">
         <v>998</v>
       </c>
-      <c r="E34" s="113" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F34" s="86">
+      <c r="E34" s="110" t="s">
+        <v>762</v>
+      </c>
+      <c r="F34" s="87">
         <v>6</v>
       </c>
     </row>
@@ -22791,19 +22782,19 @@
       <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="94" t="s">
+      <c r="B35" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="113" t="s">
         <v>999</v>
       </c>
-      <c r="E35" s="107" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="85">
+      <c r="E35" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F35" s="86">
         <v>4</v>
       </c>
     </row>
@@ -22811,19 +22802,19 @@
       <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="118" t="s">
+      <c r="B36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="99" t="s">
         <v>1000</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="112" t="s">
         <v>1020</v>
       </c>
-      <c r="F36" s="104">
+      <c r="F36" s="89">
         <v>2</v>
       </c>
     </row>
@@ -22831,39 +22822,39 @@
       <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="113" t="s">
+      <c r="B37" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="101" t="s">
         <v>1001</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="107" t="s">
         <v>1021</v>
       </c>
-      <c r="F37" s="86">
-        <v>1</v>
+      <c r="F37" s="85">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="99" t="s">
+      <c r="B38" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="100" t="s">
         <v>1002</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="113" t="s">
         <v>1022</v>
       </c>
-      <c r="F38" s="89">
+      <c r="F38" s="86">
         <v>0</v>
       </c>
     </row>
@@ -22871,19 +22862,19 @@
       <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="97" t="s">
+      <c r="B39" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="118" t="s">
         <v>1003</v>
       </c>
-      <c r="E39" s="110" t="s">
+      <c r="E39" s="117" t="s">
         <v>1023</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="104">
         <v>0</v>
       </c>
     </row>
@@ -22891,19 +22882,19 @@
       <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="99" t="s">
+      <c r="B40" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="94" t="s">
         <v>1004</v>
       </c>
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="107" t="s">
         <v>1024</v>
       </c>
-      <c r="F40" s="89">
+      <c r="F40" s="85">
         <v>0</v>
       </c>
     </row>
@@ -22912,7 +22903,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C41" s="84" t="s">
         <v>12</v>
@@ -22921,7 +22912,7 @@
         <v>1005</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>656</v>
+        <v>1025</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -22931,19 +22922,19 @@
       <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="118" t="s">
+      <c r="B42" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="103" t="s">
         <v>1006</v>
       </c>
-      <c r="E42" s="117" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F42" s="104">
+      <c r="E42" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="90">
         <v>0</v>
       </c>
     </row>
@@ -22951,19 +22942,19 @@
       <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="98" t="s">
+      <c r="B43" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
         <v>1007</v>
       </c>
-      <c r="E43" s="111" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F43" s="91">
+      <c r="E43" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="88">
         <v>0</v>
       </c>
     </row>
@@ -22971,19 +22962,19 @@
       <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="102" t="s">
+      <c r="B44" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="97" t="s">
         <v>1008</v>
       </c>
-      <c r="E44" s="114" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F44" s="88">
+      <c r="E44" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="87">
         <v>0</v>
       </c>
     </row>
@@ -22991,19 +22982,19 @@
       <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="98" t="s">
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
         <v>1009</v>
       </c>
-      <c r="E45" s="111" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F45" s="91">
+      <c r="E45" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="104">
         <v>0</v>
       </c>
     </row>
@@ -23011,19 +23002,19 @@
       <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="90" t="s">
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
         <v>1010</v>
       </c>
-      <c r="E46" s="115" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F46" s="90">
+      <c r="E46" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="84">
         <v>0</v>
       </c>
     </row>
@@ -23031,19 +23022,19 @@
       <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="102" t="s">
+      <c r="B47" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="98" t="s">
         <v>1011</v>
       </c>
-      <c r="E47" s="114" t="s">
+      <c r="E47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="91">
         <v>0</v>
       </c>
     </row>
@@ -23051,19 +23042,19 @@
       <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="96" t="s">
+      <c r="B48" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="98" t="s">
         <v>1012</v>
       </c>
-      <c r="E48" s="109" t="s">
+      <c r="E48" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="84">
+      <c r="F48" s="91">
         <v>0</v>
       </c>
     </row>
@@ -23071,19 +23062,19 @@
       <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="108" t="s">
+      <c r="B49" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="90" t="s">
         <v>1013</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="82" t="s">
+      <c r="F49" s="90" t="s">
         <v>66</v>
       </c>
     </row>
@@ -23118,12 +23109,12 @@
       <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="83">
-        <f>SUMIF($C$28:$C$47,B53,$F$28:$F$47)</f>
-        <v>27</v>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>40</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -23133,12 +23124,12 @@
       <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="82">
-        <f>SUMIF($C$28:$C$47,B54,$F$28:$F$47)</f>
-        <v>25</v>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>30</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
@@ -23148,12 +23139,12 @@
       <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="90">
-        <f>SUMIF($C$28:$C$47,B55,$F$28:$F$47)</f>
-        <v>15</v>
+      <c r="B55" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="89">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>12</v>
       </c>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
@@ -23163,12 +23154,12 @@
       <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="85">
-        <f>SUMIF($C$28:$C$47,B56,$F$28:$F$47)</f>
-        <v>14</v>
+      <c r="B56" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="88">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>8</v>
       </c>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
@@ -23182,8 +23173,8 @@
         <v>15</v>
       </c>
       <c r="C57" s="87">
-        <f>SUMIF($C$28:$C$47,B57,$F$28:$F$47)</f>
-        <v>12</v>
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>6</v>
       </c>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
@@ -23197,8 +23188,8 @@
         <v>14</v>
       </c>
       <c r="C58" s="86">
-        <f>SUMIF($C$28:$C$47,B58,$F$28:$F$47)</f>
-        <v>7</v>
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>4</v>
       </c>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
@@ -23208,11 +23199,11 @@
       <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="105">
-        <f>SUMIF($C$28:$C$47,B59,$F$28:$F$47)</f>
+      <c r="B59" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="85">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
         <v>2</v>
       </c>
       <c r="D59" s="81"/>
@@ -23223,11 +23214,11 @@
       <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="89">
-        <f>SUMIF($C$28:$C$47,B60,$F$28:$F$47)</f>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D60" s="81"/>
@@ -23238,11 +23229,11 @@
       <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="84">
-        <f>SUMIF($C$28:$C$47,B61,$F$28:$F$47)</f>
+      <c r="B61" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="105">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D61" s="81"/>
@@ -23253,11 +23244,11 @@
       <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="88">
-        <f>SUMIF($C$28:$C$47,B62,$F$28:$F$47)</f>
+      <c r="B62" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="91">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D62" s="81"/>
@@ -23268,11 +23259,11 @@
       <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="91">
-        <f>SUMIF($C$28:$C$47,B63,$F$28:$F$47)</f>
+      <c r="B63" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="90">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
         <v>0</v>
       </c>
       <c r="D63" s="81"/>
@@ -26032,7 +26023,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26235,7 +26226,7 @@
         <v>12</v>
       </c>
       <c r="Y2" s="82">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61"/>
@@ -26243,173 +26234,173 @@
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="86">
+      <c r="B3" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="83">
+        <v>18</v>
+      </c>
+      <c r="D3" s="58">
+        <v>11</v>
+      </c>
+      <c r="E3" s="83">
+        <v>26</v>
+      </c>
+      <c r="F3" s="83">
+        <v>33</v>
+      </c>
+      <c r="G3" s="58">
+        <v>34</v>
+      </c>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83">
+        <v>12</v>
+      </c>
+      <c r="J3" s="58">
+        <v>9</v>
+      </c>
+      <c r="K3" s="83">
+        <v>10</v>
+      </c>
+      <c r="L3" s="83">
         <v>25</v>
       </c>
-      <c r="D3" s="86">
-        <v>15</v>
-      </c>
-      <c r="E3" s="59">
-        <v>12</v>
-      </c>
-      <c r="F3" s="86">
-        <v>11</v>
-      </c>
-      <c r="G3" s="86">
-        <v>10</v>
-      </c>
-      <c r="H3" s="59">
-        <v>26</v>
-      </c>
-      <c r="I3" s="86">
-        <v>16</v>
-      </c>
-      <c r="J3" s="86">
-        <v>7</v>
-      </c>
-      <c r="K3" s="59">
-        <v>15</v>
-      </c>
-      <c r="L3" s="86">
-        <v>26</v>
-      </c>
-      <c r="M3" s="86">
+      <c r="M3" s="83">
+        <v>21</v>
+      </c>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83">
+        <v>28</v>
+      </c>
+      <c r="P3" s="83">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>21</v>
+      </c>
+      <c r="R3" s="83">
+        <v>4</v>
+      </c>
+      <c r="S3" s="83">
+        <v>6</v>
+      </c>
+      <c r="T3" s="83">
         <v>2</v>
       </c>
-      <c r="N3" s="59">
-        <v>20</v>
-      </c>
-      <c r="O3" s="86">
-        <v>12</v>
-      </c>
-      <c r="P3" s="86">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="86">
-        <v>14</v>
-      </c>
-      <c r="R3" s="86">
-        <v>18</v>
-      </c>
-      <c r="S3" s="86">
-        <v>10</v>
-      </c>
-      <c r="T3" s="86">
-        <v>20</v>
-      </c>
-      <c r="U3" s="86">
-        <v>18</v>
-      </c>
-      <c r="V3" s="86">
+      <c r="U3" s="58">
+        <v>23</v>
+      </c>
+      <c r="V3" s="83">
+        <v>6</v>
+      </c>
+      <c r="W3" s="83">
+        <v>8</v>
+      </c>
+      <c r="X3" s="83">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="83">
         <v>30</v>
       </c>
-      <c r="W3" s="86">
-        <v>22</v>
-      </c>
-      <c r="X3" s="59">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="86">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="86">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="83">
         <f>SUM(C3:AC3)</f>
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="86">
+        <v>25</v>
+      </c>
+      <c r="D4" s="86">
+        <v>15</v>
+      </c>
+      <c r="E4" s="59">
+        <v>12</v>
+      </c>
+      <c r="F4" s="86">
         <v>11</v>
       </c>
-      <c r="C4" s="83">
+      <c r="G4" s="86">
+        <v>10</v>
+      </c>
+      <c r="H4" s="59">
+        <v>26</v>
+      </c>
+      <c r="I4" s="86">
+        <v>16</v>
+      </c>
+      <c r="J4" s="86">
+        <v>7</v>
+      </c>
+      <c r="K4" s="59">
+        <v>15</v>
+      </c>
+      <c r="L4" s="86">
+        <v>26</v>
+      </c>
+      <c r="M4" s="86">
+        <v>2</v>
+      </c>
+      <c r="N4" s="59">
+        <v>20</v>
+      </c>
+      <c r="O4" s="86">
+        <v>12</v>
+      </c>
+      <c r="P4" s="86">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="86">
+        <v>14</v>
+      </c>
+      <c r="R4" s="86">
         <v>18</v>
       </c>
-      <c r="D4" s="58">
-        <v>11</v>
-      </c>
-      <c r="E4" s="83">
-        <v>26</v>
-      </c>
-      <c r="F4" s="83">
-        <v>33</v>
-      </c>
-      <c r="G4" s="58">
-        <v>34</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83">
-        <v>12</v>
-      </c>
-      <c r="J4" s="58">
-        <v>9</v>
-      </c>
-      <c r="K4" s="83">
+      <c r="S4" s="86">
         <v>10</v>
       </c>
-      <c r="L4" s="83">
-        <v>25</v>
-      </c>
-      <c r="M4" s="83">
-        <v>21</v>
-      </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83">
-        <v>28</v>
-      </c>
-      <c r="P4" s="83">
+      <c r="T4" s="86">
         <v>20</v>
       </c>
-      <c r="Q4" s="58">
-        <v>21</v>
-      </c>
-      <c r="R4" s="83">
+      <c r="U4" s="86">
+        <v>18</v>
+      </c>
+      <c r="V4" s="86">
+        <v>30</v>
+      </c>
+      <c r="W4" s="86">
+        <v>22</v>
+      </c>
+      <c r="X4" s="59">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="86">
         <v>4</v>
       </c>
-      <c r="S4" s="83">
-        <v>6</v>
-      </c>
-      <c r="T4" s="83">
-        <v>2</v>
-      </c>
-      <c r="U4" s="58">
-        <v>23</v>
-      </c>
-      <c r="V4" s="83">
-        <v>6</v>
-      </c>
-      <c r="W4" s="83">
-        <v>8</v>
-      </c>
-      <c r="X4" s="83">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="58">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="83">
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="86">
         <f>SUM(C4:AC4)</f>
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -26483,16 +26474,14 @@
       <c r="X5" s="90">
         <v>15</v>
       </c>
-      <c r="Y5" s="90">
-        <v>15</v>
-      </c>
+      <c r="Y5" s="90"/>
       <c r="Z5" s="70"/>
       <c r="AA5" s="70"/>
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -26563,7 +26552,7 @@
         <v>6</v>
       </c>
       <c r="Y6" s="87">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z6" s="65"/>
       <c r="AA6" s="65"/>
@@ -26571,7 +26560,7 @@
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -26688,71 +26677,65 @@
       <c r="X8" s="89">
         <v>10</v>
       </c>
-      <c r="Y8" s="89"/>
+      <c r="Y8" s="89">
+        <v>12</v>
+      </c>
       <c r="Z8" s="67"/>
       <c r="AA8" s="67"/>
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="58">
-        <v>2</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85">
-        <v>2</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85">
+      <c r="B9" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88">
         <v>4</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85">
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88">
+        <v>25</v>
+      </c>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88">
         <v>1</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85">
-        <v>1</v>
-      </c>
-      <c r="R9" s="85">
+      <c r="W9" s="88"/>
+      <c r="X9" s="88">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="88">
         <v>8</v>
       </c>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85">
-        <v>5</v>
-      </c>
-      <c r="X9" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="85">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="85">
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="88">
         <f>SUM(C9:AC9)</f>
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -26804,63 +26787,71 @@
       <c r="X10" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Y10" s="105">
-        <v>2</v>
-      </c>
+      <c r="Y10" s="105"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="72"/>
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
       <c r="AD10" s="104">
         <f>SUM(C10:AC10)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88">
+      <c r="B11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="58">
+        <v>2</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85">
+        <v>2</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85">
         <v>4</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88">
-        <v>25</v>
-      </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88">
+      <c r="J11" s="85"/>
+      <c r="K11" s="85">
         <v>1</v>
       </c>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="88">
+      <c r="L11" s="85"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85">
+        <v>1</v>
+      </c>
+      <c r="R11" s="85">
+        <v>8</v>
+      </c>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85">
+        <v>5</v>
+      </c>
+      <c r="X11" s="85">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="85">
         <f>SUM(C11:AC11)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0F7C2-BB36-48BC-8072-319B80511343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D20C6C-84C9-48D3-90C0-FD4ECB588A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1109">
   <si>
     <t>Команда</t>
   </si>
@@ -3146,6 +3146,252 @@
   </si>
   <si>
     <t>01:20:46</t>
+  </si>
+  <si>
+    <t>1:33.078</t>
+  </si>
+  <si>
+    <t>1:33.069</t>
+  </si>
+  <si>
+    <t>1:33.408</t>
+  </si>
+  <si>
+    <t>1:33.318</t>
+  </si>
+  <si>
+    <t>1:33.465</t>
+  </si>
+  <si>
+    <t>1:33.638</t>
+  </si>
+  <si>
+    <t>1:33.680</t>
+  </si>
+  <si>
+    <t>1:33.527</t>
+  </si>
+  <si>
+    <t>1:33.977</t>
+  </si>
+  <si>
+    <t>1:33.947</t>
+  </si>
+  <si>
+    <t>1:34.095</t>
+  </si>
+  <si>
+    <t>1:33.662</t>
+  </si>
+  <si>
+    <t>1:33.842</t>
+  </si>
+  <si>
+    <t>1:34.074</t>
+  </si>
+  <si>
+    <t>1:34.278</t>
+  </si>
+  <si>
+    <t>1:34.269</t>
+  </si>
+  <si>
+    <t>1:34.562</t>
+  </si>
+  <si>
+    <t>1:34.730</t>
+  </si>
+  <si>
+    <t>1:34.829</t>
+  </si>
+  <si>
+    <t>1:34.808</t>
+  </si>
+  <si>
+    <t>1:33.526</t>
+  </si>
+  <si>
+    <t>0:00.000</t>
+  </si>
+  <si>
+    <t>00:28.17</t>
+  </si>
+  <si>
+    <t>+0.734</t>
+  </si>
+  <si>
+    <t>+3.772</t>
+  </si>
+  <si>
+    <t>+0.585</t>
+  </si>
+  <si>
+    <t>+0.654</t>
+  </si>
+  <si>
+    <t>+1.963</t>
+  </si>
+  <si>
+    <t>+0.809</t>
+  </si>
+  <si>
+    <t>+4.332</t>
+  </si>
+  <si>
+    <t>+1.644</t>
+  </si>
+  <si>
+    <t>+1.815</t>
+  </si>
+  <si>
+    <t>+1.282</t>
+  </si>
+  <si>
+    <t>+0.282</t>
+  </si>
+  <si>
+    <t>+0.536</t>
+  </si>
+  <si>
+    <t>+2.428</t>
+  </si>
+  <si>
+    <t>+1.941</t>
+  </si>
+  <si>
+    <t>+5.184</t>
+  </si>
+  <si>
+    <t>+2.297</t>
+  </si>
+  <si>
+    <t>+0.017</t>
+  </si>
+  <si>
+    <t>+4.926</t>
+  </si>
+  <si>
+    <t>+18.369</t>
+  </si>
+  <si>
+    <t>1:33.863</t>
+  </si>
+  <si>
+    <t>1:33.862</t>
+  </si>
+  <si>
+    <t>1:35.765</t>
+  </si>
+  <si>
+    <t>1:35.074</t>
+  </si>
+  <si>
+    <t>1:34.296</t>
+  </si>
+  <si>
+    <t>1:34.502</t>
+  </si>
+  <si>
+    <t>1:35.491</t>
+  </si>
+  <si>
+    <t>1:35.688</t>
+  </si>
+  <si>
+    <t>1:35.022</t>
+  </si>
+  <si>
+    <t>1:35.341</t>
+  </si>
+  <si>
+    <t>1:36.183</t>
+  </si>
+  <si>
+    <t>1:34.747</t>
+  </si>
+  <si>
+    <t>1:35.312</t>
+  </si>
+  <si>
+    <t>1:33.824</t>
+  </si>
+  <si>
+    <t>1:35.187</t>
+  </si>
+  <si>
+    <t>1:35.434</t>
+  </si>
+  <si>
+    <t>1:35.344</t>
+  </si>
+  <si>
+    <t>1:36.241</t>
+  </si>
+  <si>
+    <t>1:36.398</t>
+  </si>
+  <si>
+    <t>1:36.504</t>
+  </si>
+  <si>
+    <t>1:37.136</t>
+  </si>
+  <si>
+    <t>01:27:55</t>
+  </si>
+  <si>
+    <t>+0.263</t>
+  </si>
+  <si>
+    <t>+39.488</t>
+  </si>
+  <si>
+    <t>+7.281</t>
+  </si>
+  <si>
+    <t>+7.918</t>
+  </si>
+  <si>
+    <t>+4.355</t>
+  </si>
+  <si>
+    <t>+2.655</t>
+  </si>
+  <si>
+    <t>+0.277</t>
+  </si>
+  <si>
+    <t>+3.852</t>
+  </si>
+  <si>
+    <t>+0.161</t>
+  </si>
+  <si>
+    <t>+1.920</t>
+  </si>
+  <si>
+    <t>+0.341</t>
+  </si>
+  <si>
+    <t>+0.347</t>
+  </si>
+  <si>
+    <t>+1.917</t>
+  </si>
+  <si>
+    <t>+1.250</t>
+  </si>
+  <si>
+    <t>+0.362</t>
+  </si>
+  <si>
+    <t>+10.190</t>
+  </si>
+  <si>
+    <t>+9.519</t>
+  </si>
+  <si>
+    <t>+2.849</t>
   </si>
 </sst>
 </file>
@@ -3440,7 +3686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3790,6 +4036,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -14602,7 +14851,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14808,13 +15057,17 @@
       <c r="Y2" s="82">
         <v>25</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="Z2" s="82">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="82">
+        <v>18</v>
+      </c>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -14893,13 +15146,17 @@
       <c r="Y3" s="82">
         <v>15</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
+      <c r="Z3" s="82">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="82">
+        <v>25</v>
+      </c>
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -14974,13 +15231,17 @@
       <c r="Y4" s="83">
         <v>12</v>
       </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
+      <c r="Z4" s="83">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="83">
+        <v>15</v>
+      </c>
       <c r="AB4" s="62"/>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -15055,13 +15316,15 @@
       <c r="Y5" s="86">
         <v>4</v>
       </c>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
+      <c r="Z5" s="86">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="86"/>
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -15132,13 +15395,15 @@
       </c>
       <c r="X6" s="90"/>
       <c r="Y6" s="90"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90">
+        <v>12</v>
+      </c>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -15203,13 +15468,17 @@
       </c>
       <c r="X7" s="116"/>
       <c r="Y7" s="116"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
+      <c r="Z7" s="79">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="116">
+        <v>4</v>
+      </c>
       <c r="AB7" s="66"/>
       <c r="AC7" s="66"/>
       <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -15278,13 +15547,17 @@
         <v>6</v>
       </c>
       <c r="Y8" s="87"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="Z8" s="87">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="87">
+        <v>2</v>
+      </c>
       <c r="AB8" s="65"/>
       <c r="AC8" s="65"/>
       <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -15355,8 +15628,8 @@
       <c r="Y9" s="83">
         <v>18</v>
       </c>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
       <c r="AB9" s="62"/>
       <c r="AC9" s="62"/>
       <c r="AD9" s="83">
@@ -15422,8 +15695,8 @@
       <c r="W10" s="84"/>
       <c r="X10" s="84"/>
       <c r="Y10" s="84"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
       <c r="AD10" s="84">
@@ -15483,239 +15756,247 @@
       <c r="Y11" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
+      <c r="Z11" s="90">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="90">
+        <v>10</v>
+      </c>
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="90">
         <f>SUM(C11:AC11)</f>
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87">
+      <c r="B12" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88">
         <v>4</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87">
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88">
+        <v>25</v>
+      </c>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88">
+        <v>1</v>
+      </c>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="88">
         <v>8</v>
       </c>
-      <c r="I12" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87">
-        <v>4</v>
-      </c>
-      <c r="M12" s="87">
-        <v>4</v>
-      </c>
-      <c r="N12" s="87">
-        <v>12</v>
-      </c>
-      <c r="O12" s="87">
-        <v>4</v>
-      </c>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87">
-        <v>2</v>
-      </c>
-      <c r="V12" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87">
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88">
         <v>6</v>
       </c>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="87">
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="88">
         <f>SUM(C12:AC12)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88">
+      <c r="B13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87">
         <v>4</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87">
+        <v>8</v>
+      </c>
+      <c r="I13" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88">
-        <v>25</v>
-      </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88">
-        <v>1</v>
-      </c>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88">
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87">
         <v>4</v>
       </c>
-      <c r="Y13" s="88">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="88">
+      <c r="M13" s="87">
+        <v>4</v>
+      </c>
+      <c r="N13" s="87">
+        <v>12</v>
+      </c>
+      <c r="O13" s="87">
+        <v>4</v>
+      </c>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87">
+        <v>2</v>
+      </c>
+      <c r="V13" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="87">
         <f>SUM(C13:AC13)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104">
+      <c r="B14" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89">
+        <v>1</v>
+      </c>
+      <c r="N14" s="89">
         <v>6</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104">
-        <v>1</v>
-      </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="104">
-        <v>1</v>
-      </c>
-      <c r="P14" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104">
-        <v>12</v>
-      </c>
-      <c r="S14" s="104">
-        <v>3</v>
-      </c>
-      <c r="T14" s="104">
-        <v>4</v>
-      </c>
-      <c r="U14" s="104">
-        <v>4</v>
-      </c>
-      <c r="V14" s="104">
-        <v>4</v>
-      </c>
-      <c r="W14" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="104">
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89">
+        <v>10</v>
+      </c>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="89">
         <f>SUM(C14:AC14)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89">
+      <c r="B15" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104">
+        <v>6</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104">
         <v>1</v>
       </c>
-      <c r="N15" s="89">
-        <v>6</v>
-      </c>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89">
-        <v>10</v>
-      </c>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="89">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="89">
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="104">
+        <v>1</v>
+      </c>
+      <c r="P15" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104">
+        <v>12</v>
+      </c>
+      <c r="S15" s="104">
+        <v>3</v>
+      </c>
+      <c r="T15" s="104">
+        <v>4</v>
+      </c>
+      <c r="U15" s="104">
+        <v>4</v>
+      </c>
+      <c r="V15" s="104">
+        <v>4</v>
+      </c>
+      <c r="W15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="104">
         <f>SUM(C15:AC15)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -15766,8 +16047,8 @@
       <c r="Y16" s="89">
         <v>2</v>
       </c>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
       <c r="AD16" s="89">
@@ -15825,13 +16106,15 @@
       <c r="Y17" s="58">
         <v>2</v>
       </c>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
+      <c r="Z17" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="85"/>
       <c r="AB17" s="63"/>
       <c r="AC17" s="63"/>
       <c r="AD17" s="85">
         <f>SUM(C17:AC17)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
@@ -15874,8 +16157,10 @@
       <c r="W18" s="91"/>
       <c r="X18" s="91"/>
       <c r="Y18" s="91"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91" t="s">
+        <v>66</v>
+      </c>
       <c r="AB18" s="64"/>
       <c r="AC18" s="64"/>
       <c r="AD18" s="91">
@@ -15923,8 +16208,8 @@
         <v>1</v>
       </c>
       <c r="Y19" s="84"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
       <c r="AB19" s="69"/>
       <c r="AC19" s="69"/>
       <c r="AD19" s="84">
@@ -15978,8 +16263,10 @@
       </c>
       <c r="X20" s="85"/>
       <c r="Y20" s="85"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
+      <c r="Z20" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="85"/>
       <c r="AB20" s="63"/>
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
@@ -15991,92 +16278,94 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104" t="s">
+      <c r="B21" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104" t="s">
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104" t="s">
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="104">
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="88">
         <f>SUM(C21:AC21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43" t="s">
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43" t="s">
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="43">
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="104">
         <f>SUM(C22:AC22)</f>
         <v>0</v>
       </c>
@@ -16115,8 +16404,8 @@
       <c r="W23" s="91"/>
       <c r="X23" s="91"/>
       <c r="Y23" s="91"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
       <c r="AB23" s="64"/>
       <c r="AC23" s="64"/>
       <c r="AD23" s="91">
@@ -22256,7 +22545,2047 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E1650E-F39B-49B0-8B29-7BB87B468214}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>2</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
+        <v>3</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
+        <v>4</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
+        <v>5</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
+        <v>6</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
+        <v>7</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
+        <v>8</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
+        <v>9</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
+        <v>10</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
+        <v>11</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
+        <v>12</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
+        <v>13</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
+        <v>14</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="92">
+        <v>15</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="92">
+        <v>16</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="92">
+        <v>17</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="92">
+        <v>18</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="92">
+        <v>19</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="92">
+        <v>20</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="92">
+        <v>21</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="92">
+        <v>22</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="92">
+        <v>1</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>992</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F28" s="82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="92">
+        <v>2</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>993</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F29" s="83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="92">
+        <v>3</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>994</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F30" s="82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="92">
+        <v>4</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>995</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F31" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="92">
+        <v>5</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="99" t="s">
+        <v>996</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F32" s="89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="92">
+        <v>6</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>997</v>
+      </c>
+      <c r="E33" s="114" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F33" s="88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="92">
+        <v>7</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>998</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>762</v>
+      </c>
+      <c r="F34" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="92">
+        <v>8</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>999</v>
+      </c>
+      <c r="E35" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F35" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="92">
+        <v>9</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F36" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="92">
+        <v>10</v>
+      </c>
+      <c r="B37" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F37" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="92">
+        <v>11</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E38" s="113" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F38" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="92">
+        <v>12</v>
+      </c>
+      <c r="B39" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E39" s="117" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F39" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="92">
+        <v>13</v>
+      </c>
+      <c r="B40" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F40" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="92">
+        <v>14</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F41" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="92">
+        <v>15</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E42" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="92">
+        <v>16</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="92">
+        <v>17</v>
+      </c>
+      <c r="B44" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="92">
+        <v>18</v>
+      </c>
+      <c r="B45" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="92">
+        <v>19</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="92">
+        <v>20</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="98" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="92">
+        <v>21</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="92">
+        <v>22</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="92">
+        <v>1</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f t="shared" ref="C53:C63" si="0">SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>40</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="92">
+        <v>2</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="83">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="92">
+        <v>3</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="89">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="92">
+        <v>4</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="88">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="92">
+        <v>5</v>
+      </c>
+      <c r="B57" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="87">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="92">
+        <v>6</v>
+      </c>
+      <c r="B58" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="86">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="92">
+        <v>7</v>
+      </c>
+      <c r="B59" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="85">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="92">
+        <v>8</v>
+      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="92">
+        <v>9</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="92">
+        <v>10</v>
+      </c>
+      <c r="B62" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="92">
+        <v>11</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D35309-372E-42E4-9B88-611D1B62DD81}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" activeCellId="1" sqref="B28:B35 F28:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>2</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
+        <v>3</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
+        <v>4</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
+        <v>5</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
+        <v>6</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
+        <v>7</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
+        <v>8</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
+        <v>9</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
+        <v>10</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
+        <v>11</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
+        <v>12</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
+        <v>13</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
+        <v>14</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="92">
+        <v>15</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="92">
+        <v>16</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="92">
+        <v>17</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="92">
+        <v>18</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="92">
+        <v>19</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="92">
+        <v>20</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="92">
+        <v>21</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="92">
+        <v>22</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="92">
+        <v>1</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F28" s="82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="92">
+        <v>2</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F29" s="86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="92">
+        <v>3</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F30" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="92">
+        <v>4</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F31" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="92">
+        <v>5</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>420</v>
+      </c>
+      <c r="F32" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="92">
+        <v>6</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F33" s="87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="92">
+        <v>7</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F34" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="92">
+        <v>8</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F35" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="92">
+        <v>9</v>
+      </c>
+      <c r="B36" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E36" s="115" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F36" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="92">
+        <v>10</v>
+      </c>
+      <c r="B37" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F37" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="92">
+        <v>11</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F38" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="92">
+        <v>12</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F39" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="92">
+        <v>13</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F40" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="92">
+        <v>14</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E41" s="112" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F41" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="92">
+        <v>15</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E42" s="114" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="92">
+        <v>16</v>
+      </c>
+      <c r="B43" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E43" s="117" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F43" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="92">
+        <v>17</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F44" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="92">
+        <v>18</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="98" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F45" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="92">
+        <v>19</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="92">
+        <v>20</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="92">
+        <v>21</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="106" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E48" s="106" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F48" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="92">
+        <v>22</v>
+      </c>
+      <c r="B49" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E49" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="92">
+        <v>1</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>14</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="92">
+        <v>2</v>
+      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>11</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="92">
+        <v>3</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="83">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>5</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="92">
+        <v>4</v>
+      </c>
+      <c r="B56" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="87">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="92">
+        <v>5</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="90">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>2</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="92">
+        <v>6</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="85">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="92">
+        <v>7</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="92">
+        <v>8</v>
+      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="92">
+        <v>9</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="92">
+        <v>10</v>
+      </c>
+      <c r="B62" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="105">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="92">
+        <v>11</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EA377F-7BBC-437B-9604-374B6D501500}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
     </sheetView>
   </sheetViews>
@@ -22298,11 +24627,11 @@
       <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>11</v>
+      <c r="B3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="81"/>
@@ -22312,11 +24641,11 @@
       <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>11</v>
+      <c r="B4" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="81"/>
@@ -22326,11 +24655,11 @@
       <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>14</v>
+      <c r="B5" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="81"/>
@@ -22340,11 +24669,11 @@
       <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>21</v>
+      <c r="B6" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="81"/>
@@ -22354,11 +24683,11 @@
       <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>14</v>
+      <c r="B7" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="81"/>
@@ -22368,11 +24697,11 @@
       <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>15</v>
+      <c r="B8" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="81"/>
@@ -22382,11 +24711,11 @@
       <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>20</v>
+      <c r="B9" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -22396,11 +24725,11 @@
       <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>17</v>
+      <c r="B10" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="81"/>
@@ -22410,11 +24739,11 @@
       <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>21</v>
+      <c r="B11" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="81"/>
@@ -22452,11 +24781,11 @@
       <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>17</v>
+      <c r="B14" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="81"/>
@@ -22466,11 +24795,11 @@
       <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>15</v>
+      <c r="B15" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="81"/>
@@ -22480,11 +24809,11 @@
       <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>19</v>
+      <c r="B16" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="81"/>
@@ -22494,11 +24823,11 @@
       <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>19</v>
+      <c r="B17" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="81"/>
@@ -22508,11 +24837,11 @@
       <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>18</v>
+      <c r="B18" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="81"/>
@@ -22522,11 +24851,11 @@
       <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>20</v>
+      <c r="B19" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
@@ -22536,11 +24865,11 @@
       <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>12</v>
+      <c r="B20" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="81"/>
@@ -22551,7 +24880,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>12</v>
@@ -22564,11 +24893,11 @@
       <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>18</v>
+      <c r="B22" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="81"/>
@@ -22578,11 +24907,11 @@
       <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>13</v>
+      <c r="B23" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="81"/>
@@ -22592,11 +24921,11 @@
       <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>13</v>
+      <c r="B24" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="81"/>
@@ -22643,16 +24972,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>992</v>
+        <v>1069</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1026</v>
+        <v>1090</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -22662,19 +24991,19 @@
       <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>993</v>
-      </c>
-      <c r="E29" s="106" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F29" s="83">
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F29" s="82">
         <v>18</v>
       </c>
     </row>
@@ -22682,19 +25011,19 @@
       <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="108" t="s">
-        <v>994</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F30" s="82">
+      <c r="B30" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F30" s="83">
         <v>15</v>
       </c>
     </row>
@@ -22702,19 +25031,19 @@
       <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>995</v>
-      </c>
-      <c r="E31" s="106" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F31" s="83">
+      <c r="B31" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F31" s="90">
         <v>12</v>
       </c>
     </row>
@@ -22722,19 +25051,19 @@
       <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="99" t="s">
-        <v>996</v>
-      </c>
-      <c r="E32" s="112" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F32" s="89">
+      <c r="B32" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F32" s="90">
         <v>10</v>
       </c>
     </row>
@@ -22742,19 +25071,19 @@
       <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>997</v>
-      </c>
-      <c r="E33" s="114" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F33" s="88">
+      <c r="B33" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E33" s="112" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F33" s="89">
         <v>8</v>
       </c>
     </row>
@@ -22762,19 +25091,19 @@
       <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>998</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>762</v>
-      </c>
-      <c r="F34" s="87">
+      <c r="B34" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E34" s="114" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F34" s="88">
         <v>6</v>
       </c>
     </row>
@@ -22782,17 +25111,17 @@
       <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>59</v>
+      <c r="B35" s="116" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="113" t="s">
-        <v>999</v>
+      <c r="D35" s="100" t="s">
+        <v>1076</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>1019</v>
+        <v>1097</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -22802,19 +25131,19 @@
       <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="99" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="112" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F36" s="89">
+      <c r="B36" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F36" s="87">
         <v>2</v>
       </c>
     </row>
@@ -22822,39 +25151,39 @@
       <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F37" s="85">
-        <v>2</v>
+      <c r="B37" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E37" s="114" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F37" s="88">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="100" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E38" s="113" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F38" s="86">
+      <c r="B38" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F38" s="87">
         <v>0</v>
       </c>
     </row>
@@ -22862,19 +25191,19 @@
       <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="118" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E39" s="117" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F39" s="104">
+      <c r="B39" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F39" s="89">
         <v>0</v>
       </c>
     </row>
@@ -22882,19 +25211,19 @@
       <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E40" s="107" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F40" s="85">
+      <c r="B40" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F40" s="84">
         <v>0</v>
       </c>
     </row>
@@ -22902,19 +25231,19 @@
       <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="96" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F41" s="84">
+      <c r="B41" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="107" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F41" s="85">
         <v>0</v>
       </c>
     </row>
@@ -22922,19 +25251,19 @@
       <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E42" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="90">
+      <c r="B42" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="123" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E42" s="117" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F42" s="104">
         <v>0</v>
       </c>
     </row>
@@ -22942,19 +25271,19 @@
       <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E43" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="88">
+      <c r="B43" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F43" s="83">
         <v>0</v>
       </c>
     </row>
@@ -22962,19 +25291,19 @@
       <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E44" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="87">
+      <c r="B44" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F44" s="86">
         <v>0</v>
       </c>
     </row>
@@ -22982,19 +25311,19 @@
       <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="118" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E45" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="104">
+      <c r="B45" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E45" s="109" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F45" s="84">
         <v>0</v>
       </c>
     </row>
@@ -23002,19 +25331,19 @@
       <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="96" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E46" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="84">
+      <c r="B46" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E46" s="117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F46" s="104">
         <v>0</v>
       </c>
     </row>
@@ -23029,7 +25358,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>1011</v>
+        <v>1087</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>71</v>
@@ -23042,19 +25371,19 @@
       <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="98" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E48" s="111" t="s">
+      <c r="B48" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E48" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="91">
+      <c r="F48" s="85">
         <v>0</v>
       </c>
     </row>
@@ -23062,19 +25391,19 @@
       <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="90" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E49" s="115" t="s">
+      <c r="B49" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E49" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="90" t="s">
+      <c r="F49" s="91" t="s">
         <v>66</v>
       </c>
     </row>
@@ -23114,7 +25443,7 @@
       </c>
       <c r="C53" s="82">
         <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -23124,12 +25453,12 @@
       <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="83">
+      <c r="B54" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="90">
         <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
@@ -23139,12 +25468,12 @@
       <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="89">
+      <c r="B55" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="83">
         <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
@@ -23154,10 +25483,10 @@
       <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="88">
+      <c r="B56" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="89">
         <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
         <v>8</v>
       </c>
@@ -23169,12 +25498,12 @@
       <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="87">
+      <c r="B57" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="88">
         <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
@@ -23199,10 +25528,10 @@
       <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="85">
+      <c r="B59" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="87">
         <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
         <v>2</v>
       </c>
@@ -23229,10 +25558,10 @@
       <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="105">
+      <c r="B61" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="85">
         <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
         <v>0</v>
       </c>
@@ -23244,10 +25573,10 @@
       <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="91">
+      <c r="B62" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="105">
         <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
         <v>0</v>
       </c>
@@ -23259,10 +25588,10 @@
       <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="90">
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
         <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
         <v>0</v>
       </c>
@@ -23275,1832 +25604,6 @@
     <sortCondition descending="1" ref="C53:C63"/>
     <sortCondition ref="B53:B63"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D35309-372E-42E4-9B88-611D1B62DD81}">
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
-        <v>13</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
-        <v>15</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
-        <v>17</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
-        <v>18</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
-        <v>19</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
-        <v>20</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
-        <v>21</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
-        <v>22</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
-        <v>1</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
-        <v>2</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
-        <v>3</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
-        <v>4</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
-        <v>5</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
-        <v>6</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
-        <v>7</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
-        <v>8</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
-        <v>9</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
-        <v>10</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
-        <v>11</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
-        <v>12</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
-        <v>13</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
-        <v>14</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
-        <v>15</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
-        <v>16</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
-        <v>17</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
-        <v>18</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
-        <v>19</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
-        <v>20</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
-        <v>21</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
-        <v>22</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
-        <v>1</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
-        <v>2</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
-        <v>3</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
-        <v>4</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
-        <v>5</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
-        <v>6</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
-        <v>7</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
-        <v>8</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
-        <v>9</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
-        <v>10</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
-        <v>11</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EA377F-7BBC-437B-9604-374B6D501500}">
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
-        <v>13</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
-        <v>15</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
-        <v>17</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
-        <v>18</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
-        <v>19</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
-        <v>20</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
-        <v>21</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
-        <v>22</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
-        <v>1</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
-        <v>2</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
-        <v>3</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
-        <v>4</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
-        <v>5</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
-        <v>6</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
-        <v>7</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
-        <v>8</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
-        <v>9</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
-        <v>10</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
-        <v>11</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
-        <v>12</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
-        <v>13</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
-        <v>14</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
-        <v>15</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
-        <v>16</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
-        <v>17</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
-        <v>18</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
-        <v>19</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
-        <v>20</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
-        <v>21</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
-        <v>22</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
-        <v>1</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
-        <v>2</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
-        <v>3</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
-        <v>4</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
-        <v>5</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
-        <v>6</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
-        <v>7</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
-        <v>8</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
-        <v>9</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
-        <v>10</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
-        <v>11</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26023,7 +26526,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26228,13 +26731,17 @@
       <c r="Y2" s="82">
         <v>40</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="Z2" s="82">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="82">
+        <v>43</v>
+      </c>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>793</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -26309,13 +26816,17 @@
       <c r="Y3" s="83">
         <v>30</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
+      <c r="Z3" s="83">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="83">
+        <v>15</v>
+      </c>
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="83">
         <f>SUM(C3:AC3)</f>
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -26394,13 +26905,17 @@
       <c r="Y4" s="86">
         <v>4</v>
       </c>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
+      <c r="Z4" s="59">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="86">
+        <v>4</v>
+      </c>
       <c r="AB4" s="66"/>
       <c r="AC4" s="66"/>
       <c r="AD4" s="86">
         <f>SUM(C4:AC4)</f>
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -26475,13 +26990,17 @@
         <v>15</v>
       </c>
       <c r="Y5" s="90"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
+      <c r="Z5" s="90">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="90">
+        <v>22</v>
+      </c>
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -26554,13 +27073,17 @@
       <c r="Y6" s="87">
         <v>6</v>
       </c>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
+      <c r="Z6" s="87">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="87">
+        <v>2</v>
+      </c>
       <c r="AB6" s="65"/>
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -26623,8 +27146,8 @@
         <v>1</v>
       </c>
       <c r="Y7" s="84"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
       <c r="AB7" s="69"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
@@ -26680,13 +27203,15 @@
       <c r="Y8" s="89">
         <v>12</v>
       </c>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89">
+        <v>8</v>
+      </c>
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -26729,70 +27254,72 @@
       <c r="Y9" s="88">
         <v>8</v>
       </c>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88">
+        <v>7</v>
+      </c>
       <c r="AB9" s="68"/>
       <c r="AC9" s="68"/>
       <c r="AD9" s="88">
         <f>SUM(C9:AC9)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105">
-        <v>6</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105">
+      <c r="B10" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="58">
+        <v>2</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85">
+        <v>2</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85">
+        <v>4</v>
+      </c>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85">
         <v>1</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105">
+      <c r="L10" s="85"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85">
         <v>1</v>
       </c>
-      <c r="P10" s="105">
+      <c r="R10" s="85">
+        <v>8</v>
+      </c>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85">
+        <v>5</v>
+      </c>
+      <c r="X10" s="85">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="85">
         <v>1</v>
       </c>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105">
-        <v>12</v>
-      </c>
-      <c r="S10" s="105">
-        <v>3</v>
-      </c>
-      <c r="T10" s="105">
-        <v>4</v>
-      </c>
-      <c r="U10" s="105">
-        <v>4</v>
-      </c>
-      <c r="V10" s="105">
-        <v>4</v>
-      </c>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="104">
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="85">
         <f>SUM(C10:AC10)</f>
         <v>36</v>
       </c>
@@ -26801,57 +27328,59 @@
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="58">
-        <v>2</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85">
-        <v>2</v>
-      </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85">
+      <c r="B11" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105">
+        <v>6</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105">
+        <v>1</v>
+      </c>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105">
+        <v>1</v>
+      </c>
+      <c r="P11" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105">
+        <v>12</v>
+      </c>
+      <c r="S11" s="105">
+        <v>3</v>
+      </c>
+      <c r="T11" s="105">
         <v>4</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85">
-        <v>1</v>
-      </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85">
-        <v>1</v>
-      </c>
-      <c r="R11" s="85">
-        <v>8</v>
-      </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85">
-        <v>5</v>
-      </c>
-      <c r="X11" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="85">
+      <c r="U11" s="105">
+        <v>4</v>
+      </c>
+      <c r="V11" s="105">
+        <v>4</v>
+      </c>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="104">
         <f>SUM(C11:AC11)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -26894,8 +27423,8 @@
       <c r="W12" s="91"/>
       <c r="X12" s="91"/>
       <c r="Y12" s="91"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
       <c r="AB12" s="64"/>
       <c r="AC12" s="64"/>
       <c r="AD12" s="91">

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D20C6C-84C9-48D3-90C0-FD4ECB588A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68701AC9-7456-4B79-AA4C-8441C46C11DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -1630,9 +1630,6 @@
     <t>AUS</t>
   </si>
   <si>
-    <t>JPN</t>
-  </si>
-  <si>
     <t>CHI</t>
   </si>
   <si>
@@ -1714,9 +1711,6 @@
     <t>BEL_S</t>
   </si>
   <si>
-    <t>JPN_S</t>
-  </si>
-  <si>
     <t>01:23:32</t>
   </si>
   <si>
@@ -3392,6 +3386,12 @@
   </si>
   <si>
     <t>+2.849</t>
+  </si>
+  <si>
+    <t>JAP_S</t>
+  </si>
+  <si>
+    <t>JAP</t>
   </si>
 </sst>
 </file>
@@ -9177,10 +9177,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -9197,10 +9197,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -9217,10 +9217,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F30" s="83">
         <v>15</v>
@@ -9237,10 +9237,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E31" s="115" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F31" s="90">
         <v>12</v>
@@ -9257,10 +9257,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -9277,10 +9277,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="90" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E33" s="115" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F33" s="90">
         <v>8</v>
@@ -9297,10 +9297,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F34" s="83">
         <v>6</v>
@@ -9317,10 +9317,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F35" s="87">
         <v>4</v>
@@ -9337,10 +9337,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E36" s="113" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F36" s="86">
         <v>2</v>
@@ -9357,10 +9357,10 @@
         <v>16</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E37" s="112" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F37" s="89">
         <v>1</v>
@@ -9377,10 +9377,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="96" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E38" s="109" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F38" s="84">
         <v>0</v>
@@ -9397,10 +9397,10 @@
         <v>16</v>
       </c>
       <c r="D39" s="99" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F39" s="89">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E40" s="107" t="s">
         <v>71</v>
@@ -9437,7 +9437,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E41" s="113" t="s">
         <v>71</v>
@@ -9457,7 +9457,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E42" s="111" t="s">
         <v>71</v>
@@ -9477,7 +9477,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E43" s="117" t="s">
         <v>71</v>
@@ -9497,7 +9497,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E44" s="114" t="s">
         <v>71</v>
@@ -9517,7 +9517,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E45" s="109" t="s">
         <v>71</v>
@@ -9537,7 +9537,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -9557,7 +9557,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E47" s="117" t="s">
         <v>71</v>
@@ -9577,7 +9577,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -9597,10 +9597,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F49" s="88">
         <v>0</v>
@@ -10153,10 +10153,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F28" s="43">
         <v>25</v>
@@ -10173,10 +10173,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F29" s="40">
         <v>19</v>
@@ -10193,10 +10193,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F30" s="41">
         <v>15</v>
@@ -10213,10 +10213,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F31" s="41">
         <v>12</v>
@@ -10233,10 +10233,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F32" s="44">
         <v>10</v>
@@ -10253,10 +10253,10 @@
         <v>18</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F33" s="46">
         <v>8</v>
@@ -10273,10 +10273,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F34" s="44">
         <v>6</v>
@@ -10293,10 +10293,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F35" s="45">
         <v>4</v>
@@ -10313,10 +10313,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F36" s="38">
         <v>2</v>
@@ -10333,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E37" s="55" t="s">
         <v>72</v>
@@ -10353,7 +10353,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>72</v>
@@ -10373,7 +10373,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E39" s="56" t="s">
         <v>72</v>
@@ -10393,7 +10393,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E40" s="73" t="s">
         <v>72</v>
@@ -10413,7 +10413,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>72</v>
@@ -10433,7 +10433,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E42" s="53" t="s">
         <v>72</v>
@@ -10453,7 +10453,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>72</v>
@@ -10473,7 +10473,7 @@
         <v>19</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E44" s="73" t="s">
         <v>72</v>
@@ -10493,7 +10493,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E45" s="51" t="s">
         <v>72</v>
@@ -10513,7 +10513,7 @@
         <v>17</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E46" s="57" t="s">
         <v>72</v>
@@ -10533,7 +10533,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>72</v>
@@ -10553,7 +10553,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>72</v>
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>72</v>
@@ -11134,10 +11134,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -11154,10 +11154,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F29" s="83">
         <v>18</v>
@@ -11174,10 +11174,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="95" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -11194,10 +11194,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -11214,10 +11214,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F32" s="83">
         <v>10</v>
@@ -11234,10 +11234,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="103" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E33" s="115" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F33" s="90">
         <v>8</v>
@@ -11254,10 +11254,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F34" s="84">
         <v>6</v>
@@ -11274,10 +11274,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F35" s="87">
         <v>4</v>
@@ -11294,10 +11294,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F36" s="90">
         <v>2</v>
@@ -11314,10 +11314,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F37" s="104">
         <v>1</v>
@@ -11334,10 +11334,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -11354,10 +11354,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E39" s="113" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F39" s="86">
         <v>0</v>
@@ -11374,7 +11374,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E40" s="110" t="s">
         <v>132</v>
@@ -11394,10 +11394,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -11414,10 +11414,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F42" s="89">
         <v>0</v>
@@ -11434,10 +11434,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F43" s="85">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E44" s="114" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F44" s="88">
         <v>0</v>
@@ -11474,10 +11474,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F45" s="85">
         <v>0</v>
@@ -11494,10 +11494,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -11514,10 +11514,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E47" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F47" s="84">
         <v>0</v>
@@ -11534,10 +11534,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F48" s="91">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E49" s="117" t="s">
         <v>71</v>
@@ -12162,10 +12162,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -12182,10 +12182,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F29" s="82">
         <v>19</v>
@@ -12202,10 +12202,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E30" s="113" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F30" s="86">
         <v>15</v>
@@ -12222,10 +12222,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -12242,10 +12242,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -12262,10 +12262,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F33" s="83">
         <v>8</v>
@@ -12282,10 +12282,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F34" s="84">
         <v>6</v>
@@ -12302,10 +12302,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -12322,10 +12322,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F36" s="90">
         <v>2</v>
@@ -12342,10 +12342,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F37" s="104">
         <v>1</v>
@@ -12362,10 +12362,10 @@
         <v>20</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E38" s="114" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F38" s="88">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E40" s="112" t="s">
         <v>71</v>
@@ -12422,7 +12422,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="94" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>71</v>
@@ -12442,7 +12442,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E42" s="112" t="s">
         <v>71</v>
@@ -12462,7 +12462,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E43" s="114" t="s">
         <v>71</v>
@@ -12482,7 +12482,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E44" s="111" t="s">
         <v>71</v>
@@ -12502,7 +12502,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -12522,7 +12522,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -12542,7 +12542,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>71</v>
@@ -12562,7 +12562,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -12582,7 +12582,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="103" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E49" s="115" t="s">
         <v>72</v>
@@ -13188,10 +13188,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -13208,10 +13208,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -13228,10 +13228,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F30" s="87">
         <v>15</v>
@@ -13248,10 +13248,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -13268,10 +13268,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F32" s="86">
         <v>10</v>
@@ -13288,10 +13288,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F33" s="83">
         <v>9</v>
@@ -13308,10 +13308,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -13328,10 +13328,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -13348,10 +13348,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="96" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E36" s="109" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F36" s="84">
         <v>2</v>
@@ -13368,10 +13368,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F37" s="85">
         <v>1</v>
@@ -13388,10 +13388,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -13408,10 +13408,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F39" s="104">
         <v>0</v>
@@ -13428,10 +13428,10 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E40" s="110" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F40" s="87">
         <v>0</v>
@@ -13448,10 +13448,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -13468,10 +13468,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E42" s="115" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F42" s="90">
         <v>0</v>
@@ -13488,10 +13488,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F43" s="89">
         <v>0</v>
@@ -13508,10 +13508,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E44" s="109" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F44" s="84">
         <v>0</v>
@@ -13528,10 +13528,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="102" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E45" s="114" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F45" s="88">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -13571,7 +13571,7 @@
         <v>315</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F47" s="91">
         <v>0</v>
@@ -13588,10 +13588,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F48" s="91">
         <v>0</v>
@@ -13608,10 +13608,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="94" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E49" s="107" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F49" s="85" t="s">
         <v>66</v>
@@ -14216,10 +14216,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -14236,10 +14236,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -14256,10 +14256,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -14276,10 +14276,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="118" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E31" s="117" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F31" s="104">
         <v>12</v>
@@ -14296,10 +14296,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F32" s="89">
         <v>10</v>
@@ -14316,10 +14316,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F33" s="85">
         <v>8</v>
@@ -14336,10 +14336,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="99" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E34" s="112" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F34" s="89">
         <v>6</v>
@@ -14356,10 +14356,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E35" s="106" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F35" s="83">
         <v>4</v>
@@ -14376,10 +14376,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -14396,10 +14396,10 @@
         <v>18</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F37" s="91">
         <v>1</v>
@@ -14416,10 +14416,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F38" s="91">
         <v>0</v>
@@ -14436,10 +14436,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E39" s="114" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F39" s="88">
         <v>0</v>
@@ -14456,10 +14456,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E40" s="115" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F40" s="90">
         <v>0</v>
@@ -14476,10 +14476,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -14496,10 +14496,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E42" s="114" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F42" s="88">
         <v>0</v>
@@ -14516,10 +14516,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="100" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F43" s="86">
         <v>0</v>
@@ -14536,10 +14536,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="90" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E44" s="115" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F44" s="90">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>72</v>
@@ -14576,7 +14576,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E46" s="110" t="s">
         <v>72</v>
@@ -14596,7 +14596,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E47" s="106" t="s">
         <v>72</v>
@@ -14616,7 +14616,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>72</v>
@@ -14636,7 +14636,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -14850,7 +14850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -16818,10 +16818,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F28" s="82">
         <v>8</v>
@@ -16838,10 +16838,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F29" s="82">
         <v>7</v>
@@ -16858,10 +16858,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E30" s="113" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F30" s="86">
         <v>6</v>
@@ -16878,10 +16878,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F31" s="83">
         <v>5</v>
@@ -16898,10 +16898,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F32" s="86">
         <v>4</v>
@@ -16918,10 +16918,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="118" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F33" s="104">
         <v>3</v>
@@ -16938,10 +16938,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="103" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F34" s="90">
         <v>2</v>
@@ -16958,10 +16958,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E35" s="106" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F35" s="83">
         <v>1</v>
@@ -16978,10 +16978,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F36" s="87">
         <v>0</v>
@@ -16998,10 +16998,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F37" s="85">
         <v>0</v>
@@ -17018,10 +17018,10 @@
         <v>20</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E38" s="114" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F38" s="88">
         <v>0</v>
@@ -17038,10 +17038,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="90" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E39" s="115" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F39" s="90">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E40" s="110" t="s">
         <v>499</v>
@@ -17078,10 +17078,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -17098,10 +17098,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -17118,10 +17118,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F43" s="89">
         <v>0</v>
@@ -17138,10 +17138,10 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F44" s="91">
         <v>0</v>
@@ -17158,10 +17158,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F45" s="85">
         <v>0</v>
@@ -17178,10 +17178,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -17198,10 +17198,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -17218,10 +17218,10 @@
         <v>16</v>
       </c>
       <c r="D48" s="99" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E48" s="112" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F48" s="89">
         <v>0</v>
@@ -17238,7 +17238,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -17808,10 +17808,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -17828,10 +17828,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -17848,10 +17848,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -17868,10 +17868,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -17888,10 +17888,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -17908,7 +17908,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E33" s="113" t="s">
         <v>419</v>
@@ -17928,10 +17928,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -17948,10 +17948,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -17968,10 +17968,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F36" s="83">
         <v>2</v>
@@ -17988,10 +17988,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E37" s="109" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F37" s="84">
         <v>1</v>
@@ -18008,10 +18008,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F38" s="91">
         <v>0</v>
@@ -18028,10 +18028,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F39" s="85">
         <v>0</v>
@@ -18048,10 +18048,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E40" s="106" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F40" s="83">
         <v>0</v>
@@ -18068,10 +18068,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -18088,10 +18088,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F42" s="89">
         <v>0</v>
@@ -18108,10 +18108,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F43" s="85">
         <v>0</v>
@@ -18128,10 +18128,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E44" s="110" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F44" s="87">
         <v>0</v>
@@ -18148,10 +18148,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E45" s="117" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F45" s="104">
         <v>0</v>
@@ -18168,10 +18168,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -18188,10 +18188,10 @@
         <v>16</v>
       </c>
       <c r="D47" s="99" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E47" s="112" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F47" s="89">
         <v>0</v>
@@ -18208,10 +18208,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="96" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E48" s="109" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F48" s="84">
         <v>0</v>
@@ -18228,10 +18228,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F49" s="88">
         <v>0</v>
@@ -18830,10 +18830,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -18850,10 +18850,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -18870,10 +18870,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -18890,10 +18890,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F31" s="83">
         <v>13</v>
@@ -18910,10 +18910,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F32" s="83">
         <v>10</v>
@@ -18930,10 +18930,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F33" s="87">
         <v>8</v>
@@ -18950,10 +18950,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="103" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -18970,10 +18970,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -18990,10 +18990,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -19010,10 +19010,10 @@
         <v>17</v>
       </c>
       <c r="D37" s="90" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E37" s="115" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F37" s="90">
         <v>1</v>
@@ -19030,10 +19030,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -19050,7 +19050,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="96" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E39" s="109" t="s">
         <v>225</v>
@@ -19070,10 +19070,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E40" s="113" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F40" s="86">
         <v>0</v>
@@ -19090,10 +19090,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F41" s="91">
         <v>0</v>
@@ -19110,10 +19110,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F42" s="85">
         <v>0</v>
@@ -19130,10 +19130,10 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E43" s="114" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F43" s="88">
         <v>0</v>
@@ -19150,10 +19150,10 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E44" s="114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F44" s="88">
         <v>0</v>
@@ -19170,10 +19170,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="99" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E45" s="112" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F45" s="89">
         <v>0</v>
@@ -19190,10 +19190,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -19210,7 +19210,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E47" s="117" t="s">
         <v>71</v>
@@ -19230,10 +19230,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F48" s="85">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -19857,10 +19857,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -19877,10 +19877,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -19897,10 +19897,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -19917,10 +19917,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -19937,10 +19937,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="103" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E32" s="115" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F32" s="90">
         <v>10</v>
@@ -19957,10 +19957,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F33" s="87">
         <v>8</v>
@@ -19977,10 +19977,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F34" s="83">
         <v>6</v>
@@ -19997,10 +19997,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -20017,7 +20017,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E36" s="112" t="s">
         <v>71</v>
@@ -20037,7 +20037,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E37" s="114" t="s">
         <v>71</v>
@@ -20057,7 +20057,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E38" s="112" t="s">
         <v>71</v>
@@ -20077,7 +20077,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E39" s="107" t="s">
         <v>71</v>
@@ -20097,7 +20097,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="90" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E40" s="115" t="s">
         <v>71</v>
@@ -20117,7 +20117,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E41" s="109" t="s">
         <v>71</v>
@@ -20137,7 +20137,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E42" s="111" t="s">
         <v>71</v>
@@ -20157,7 +20157,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E43" s="107" t="s">
         <v>71</v>
@@ -20177,7 +20177,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E44" s="106" t="s">
         <v>71</v>
@@ -20197,7 +20197,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -20217,7 +20217,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E46" s="114" t="s">
         <v>71</v>
@@ -20237,7 +20237,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>71</v>
@@ -20257,7 +20257,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E48" s="110" t="s">
         <v>72</v>
@@ -20277,7 +20277,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E49" s="111" t="s">
         <v>72</v>
@@ -20884,10 +20884,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -20904,10 +20904,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F29" s="82">
         <v>19</v>
@@ -20924,10 +20924,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -20944,10 +20944,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -20964,10 +20964,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F32" s="86">
         <v>10</v>
@@ -20984,10 +20984,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F33" s="83">
         <v>8</v>
@@ -21004,10 +21004,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -21024,10 +21024,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F35" s="85">
         <v>4</v>
@@ -21044,10 +21044,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -21064,10 +21064,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F37" s="85">
         <v>1</v>
@@ -21084,10 +21084,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -21104,10 +21104,10 @@
         <v>15</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E39" s="110" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F39" s="87">
         <v>0</v>
@@ -21124,10 +21124,10 @@
         <v>19</v>
       </c>
       <c r="D40" s="118" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E40" s="117" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F40" s="104">
         <v>0</v>
@@ -21144,7 +21144,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E41" s="111" t="s">
         <v>226</v>
@@ -21164,10 +21164,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -21184,10 +21184,10 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E43" s="114" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F43" s="88">
         <v>0</v>
@@ -21204,10 +21204,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E44" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F44" s="84">
         <v>0</v>
@@ -21224,10 +21224,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F45" s="83">
         <v>0</v>
@@ -21244,10 +21244,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F46" s="84">
         <v>0</v>
@@ -21264,10 +21264,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -21284,7 +21284,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E48" s="117" t="s">
         <v>72</v>
@@ -21304,7 +21304,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E49" s="110" t="s">
         <v>72</v>
@@ -21911,10 +21911,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F28" s="83">
         <v>25</v>
@@ -21931,7 +21931,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E29" s="113" t="s">
         <v>385</v>
@@ -21951,10 +21951,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="90" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -21971,10 +21971,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E31" s="108" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F31" s="82">
         <v>12</v>
@@ -21991,10 +21991,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F32" s="85">
         <v>10</v>
@@ -22011,10 +22011,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E33" s="112" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F33" s="89">
         <v>8</v>
@@ -22031,10 +22031,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F34" s="87">
         <v>6</v>
@@ -22051,10 +22051,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E35" s="114" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F35" s="88">
         <v>4</v>
@@ -22071,10 +22071,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -22091,10 +22091,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E37" s="109" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F37" s="84">
         <v>1</v>
@@ -22111,7 +22111,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E38" s="110" t="s">
         <v>421</v>
@@ -22131,10 +22131,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E39" s="115" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F39" s="90">
         <v>0</v>
@@ -22151,10 +22151,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F40" s="91">
         <v>0</v>
@@ -22171,10 +22171,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F41" s="82">
         <v>0</v>
@@ -22191,10 +22191,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -22211,10 +22211,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="100" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F43" s="86">
         <v>0</v>
@@ -22231,7 +22231,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E44" s="109" t="s">
         <v>71</v>
@@ -22251,7 +22251,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E45" s="106" t="s">
         <v>71</v>
@@ -22271,7 +22271,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -22291,7 +22291,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E47" s="114" t="s">
         <v>71</v>
@@ -22311,7 +22311,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E48" s="117" t="s">
         <v>72</v>
@@ -22331,7 +22331,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E49" s="117" t="s">
         <v>72</v>
@@ -22938,10 +22938,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -22958,10 +22958,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F29" s="83">
         <v>18</v>
@@ -22978,10 +22978,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -22998,10 +22998,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -23018,10 +23018,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F32" s="89">
         <v>10</v>
@@ -23038,10 +23038,10 @@
         <v>20</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F33" s="88">
         <v>8</v>
@@ -23058,10 +23058,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F34" s="87">
         <v>6</v>
@@ -23078,10 +23078,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="113" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -23098,10 +23098,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -23118,10 +23118,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F37" s="85">
         <v>2</v>
@@ -23138,10 +23138,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="113" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F38" s="86">
         <v>0</v>
@@ -23158,10 +23158,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F39" s="104">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F40" s="85">
         <v>0</v>
@@ -23198,10 +23198,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>17</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E42" s="115" t="s">
         <v>71</v>
@@ -23238,7 +23238,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E43" s="114" t="s">
         <v>71</v>
@@ -23258,7 +23258,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E44" s="110" t="s">
         <v>71</v>
@@ -23278,7 +23278,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -23298,7 +23298,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E46" s="109" t="s">
         <v>71</v>
@@ -23318,7 +23318,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>71</v>
@@ -23338,7 +23338,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -23358,7 +23358,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E49" s="115" t="s">
         <v>72</v>
@@ -23572,8 +23572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D35309-372E-42E4-9B88-611D1B62DD81}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" activeCellId="1" sqref="B28:B35 F28:F35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23951,10 +23951,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F28" s="82">
         <v>8</v>
@@ -23971,10 +23971,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F29" s="86">
         <v>7</v>
@@ -23991,10 +23991,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F30" s="82">
         <v>6</v>
@@ -24011,10 +24011,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F31" s="83">
         <v>5</v>
@@ -24031,7 +24031,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="113" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E32" s="113" t="s">
         <v>420</v>
@@ -24051,10 +24051,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F33" s="87">
         <v>3</v>
@@ -24071,10 +24071,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F34" s="90">
         <v>2</v>
@@ -24091,10 +24091,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F35" s="85">
         <v>1</v>
@@ -24111,10 +24111,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F36" s="90">
         <v>0</v>
@@ -24131,10 +24131,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F37" s="104">
         <v>0</v>
@@ -24151,10 +24151,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="96" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E38" s="109" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F38" s="84">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>15</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E39" s="110" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F39" s="87">
         <v>0</v>
@@ -24191,10 +24191,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E40" s="112" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F40" s="89">
         <v>0</v>
@@ -24211,10 +24211,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="99" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E41" s="112" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F41" s="89">
         <v>0</v>
@@ -24231,10 +24231,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E42" s="114" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F42" s="88">
         <v>0</v>
@@ -24251,10 +24251,10 @@
         <v>19</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E43" s="117" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F44" s="91">
         <v>0</v>
@@ -24291,10 +24291,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E45" s="111" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F45" s="91">
         <v>0</v>
@@ -24311,10 +24311,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F46" s="84">
         <v>0</v>
@@ -24331,10 +24331,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -24351,10 +24351,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E48" s="106" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F48" s="83">
         <v>0</v>
@@ -24371,7 +24371,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="94" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E49" s="107" t="s">
         <v>72</v>
@@ -24978,10 +24978,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -24998,10 +24998,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -25018,10 +25018,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F30" s="83">
         <v>15</v>
@@ -25038,10 +25038,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E31" s="115" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F31" s="90">
         <v>12</v>
@@ -25058,10 +25058,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="90" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E32" s="115" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F32" s="90">
         <v>10</v>
@@ -25078,10 +25078,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E33" s="112" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F33" s="89">
         <v>8</v>
@@ -25098,10 +25098,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F34" s="88">
         <v>6</v>
@@ -25118,10 +25118,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -25138,10 +25138,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -25158,10 +25158,10 @@
         <v>20</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E37" s="114" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F37" s="88">
         <v>1</v>
@@ -25178,10 +25178,10 @@
         <v>15</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E38" s="110" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F38" s="87">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>359</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F39" s="89">
         <v>0</v>
@@ -25218,10 +25218,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="96" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E40" s="109" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F40" s="84">
         <v>0</v>
@@ -25238,10 +25238,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="107" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F41" s="85">
         <v>0</v>
@@ -25258,10 +25258,10 @@
         <v>19</v>
       </c>
       <c r="D42" s="123" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E42" s="117" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E43" s="106" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F43" s="83">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="113" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E44" s="113" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F44" s="86">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E45" s="109" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F45" s="84">
         <v>0</v>
@@ -25338,10 +25338,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -25358,7 +25358,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>71</v>
@@ -25378,7 +25378,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>71</v>
@@ -25398,7 +25398,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E49" s="111" t="s">
         <v>72</v>
@@ -28358,8 +28358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E84A1A-5FE9-4A49-A123-94141DF43CB2}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28398,7 +28398,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -28406,7 +28406,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -28414,7 +28414,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -28422,7 +28422,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -28430,23 +28430,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>546</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s">
         <v>524</v>
-      </c>
-      <c r="B10" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -28454,7 +28454,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -28462,7 +28462,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -28470,7 +28470,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -28478,7 +28478,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -28486,7 +28486,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -28494,15 +28494,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B17" t="s">
         <v>534</v>
-      </c>
-      <c r="B17" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>166</v>
@@ -28510,7 +28510,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -28518,7 +28518,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -28526,7 +28526,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -28534,7 +28534,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -28542,15 +28542,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23" t="s">
         <v>538</v>
-      </c>
-      <c r="B23" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -28558,7 +28558,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>549</v>
+        <v>1107</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>167</v>
@@ -28566,7 +28566,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>1108</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -28574,7 +28574,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -28582,10 +28582,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" t="s">
         <v>544</v>
-      </c>
-      <c r="B28" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/F1_Manager_2025.xlsx
+++ b/F1_Manager_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68701AC9-7456-4B79-AA4C-8441C46C11DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EEFE2-E348-4451-9FAE-A2B02776741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="936" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2025" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="1145">
   <si>
     <t>Команда</t>
   </si>
@@ -1600,18 +1600,6 @@
     <t>Race_Teams</t>
   </si>
   <si>
-    <t>Неизвестный пилот</t>
-  </si>
-  <si>
-    <t>Неизвестная команда</t>
-  </si>
-  <si>
-    <t>Неизвестное время</t>
-  </si>
-  <si>
-    <t>Неизвестное кол-во очков</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -3392,6 +3380,126 @@
   </si>
   <si>
     <t>JAP</t>
+  </si>
+  <si>
+    <t>01:24:59</t>
+  </si>
+  <si>
+    <t>+0.073</t>
+  </si>
+  <si>
+    <t>+12.424</t>
+  </si>
+  <si>
+    <t>+2.708</t>
+  </si>
+  <si>
+    <t>+2.296</t>
+  </si>
+  <si>
+    <t>+1.228</t>
+  </si>
+  <si>
+    <t>+1.165</t>
+  </si>
+  <si>
+    <t>+10.095</t>
+  </si>
+  <si>
+    <t>+7.468</t>
+  </si>
+  <si>
+    <t>+4.500</t>
+  </si>
+  <si>
+    <t>+3.177</t>
+  </si>
+  <si>
+    <t>+11.274</t>
+  </si>
+  <si>
+    <t>+6.668</t>
+  </si>
+  <si>
+    <t>+0.005</t>
+  </si>
+  <si>
+    <t>+4.923</t>
+  </si>
+  <si>
+    <t>+6.459</t>
+  </si>
+  <si>
+    <t>+1.518</t>
+  </si>
+  <si>
+    <t>+2.915</t>
+  </si>
+  <si>
+    <t>1:24.531</t>
+  </si>
+  <si>
+    <t>1:24.915</t>
+  </si>
+  <si>
+    <t>1:25.157</t>
+  </si>
+  <si>
+    <t>1:26.043</t>
+  </si>
+  <si>
+    <t>1:25.953</t>
+  </si>
+  <si>
+    <t>1:25.804</t>
+  </si>
+  <si>
+    <t>1:25.596</t>
+  </si>
+  <si>
+    <t>1:25.943</t>
+  </si>
+  <si>
+    <t>1:25.309</t>
+  </si>
+  <si>
+    <t>1:25.980</t>
+  </si>
+  <si>
+    <t>1:25.634</t>
+  </si>
+  <si>
+    <t>1:25.937</t>
+  </si>
+  <si>
+    <t>1:26.081</t>
+  </si>
+  <si>
+    <t>1:25.817</t>
+  </si>
+  <si>
+    <t>1:25.735</t>
+  </si>
+  <si>
+    <t>1:26.640</t>
+  </si>
+  <si>
+    <t>1:25.814</t>
+  </si>
+  <si>
+    <t>1:26.581</t>
+  </si>
+  <si>
+    <t>1:26.804</t>
+  </si>
+  <si>
+    <t>1:26.638</t>
+  </si>
+  <si>
+    <t>1:26.953</t>
+  </si>
+  <si>
+    <t>1:26.980</t>
   </si>
 </sst>
 </file>
@@ -3686,7 +3794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4039,6 +4147,9 @@
     <xf numFmtId="164" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9177,10 +9288,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -9197,10 +9308,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -9217,10 +9328,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F30" s="83">
         <v>15</v>
@@ -9237,10 +9348,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E31" s="115" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F31" s="90">
         <v>12</v>
@@ -9257,10 +9368,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -9277,10 +9388,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="90" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E33" s="115" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F33" s="90">
         <v>8</v>
@@ -9297,10 +9408,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F34" s="83">
         <v>6</v>
@@ -9317,10 +9428,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F35" s="87">
         <v>4</v>
@@ -9337,10 +9448,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E36" s="113" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F36" s="86">
         <v>2</v>
@@ -9357,10 +9468,10 @@
         <v>16</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E37" s="112" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F37" s="89">
         <v>1</v>
@@ -9377,10 +9488,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="96" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E38" s="109" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F38" s="84">
         <v>0</v>
@@ -9397,10 +9508,10 @@
         <v>16</v>
       </c>
       <c r="D39" s="99" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F39" s="89">
         <v>0</v>
@@ -9417,7 +9528,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E40" s="107" t="s">
         <v>71</v>
@@ -9437,7 +9548,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E41" s="113" t="s">
         <v>71</v>
@@ -9457,7 +9568,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E42" s="111" t="s">
         <v>71</v>
@@ -9477,7 +9588,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E43" s="117" t="s">
         <v>71</v>
@@ -9497,7 +9608,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E44" s="114" t="s">
         <v>71</v>
@@ -9517,7 +9628,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E45" s="109" t="s">
         <v>71</v>
@@ -9537,7 +9648,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -9557,7 +9668,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E47" s="117" t="s">
         <v>71</v>
@@ -9577,7 +9688,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -9597,10 +9708,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F49" s="88">
         <v>0</v>
@@ -10153,10 +10264,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F28" s="43">
         <v>25</v>
@@ -10173,10 +10284,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F29" s="40">
         <v>19</v>
@@ -10193,10 +10304,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F30" s="41">
         <v>15</v>
@@ -10213,10 +10324,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F31" s="41">
         <v>12</v>
@@ -10233,10 +10344,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F32" s="44">
         <v>10</v>
@@ -10253,10 +10364,10 @@
         <v>18</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F33" s="46">
         <v>8</v>
@@ -10273,10 +10384,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F34" s="44">
         <v>6</v>
@@ -10293,10 +10404,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F35" s="45">
         <v>4</v>
@@ -10313,10 +10424,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F36" s="38">
         <v>2</v>
@@ -10333,7 +10444,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E37" s="55" t="s">
         <v>72</v>
@@ -10353,7 +10464,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>72</v>
@@ -10373,7 +10484,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E39" s="56" t="s">
         <v>72</v>
@@ -10393,7 +10504,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E40" s="73" t="s">
         <v>72</v>
@@ -10413,7 +10524,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>72</v>
@@ -10433,7 +10544,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E42" s="53" t="s">
         <v>72</v>
@@ -10453,7 +10564,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>72</v>
@@ -10473,7 +10584,7 @@
         <v>19</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E44" s="73" t="s">
         <v>72</v>
@@ -10493,7 +10604,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E45" s="51" t="s">
         <v>72</v>
@@ -10513,7 +10624,7 @@
         <v>17</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E46" s="57" t="s">
         <v>72</v>
@@ -10533,7 +10644,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>72</v>
@@ -10553,7 +10664,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>72</v>
@@ -10573,7 +10684,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>72</v>
@@ -11134,10 +11245,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -11154,10 +11265,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F29" s="83">
         <v>18</v>
@@ -11174,10 +11285,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="95" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -11194,10 +11305,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -11214,10 +11325,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F32" s="83">
         <v>10</v>
@@ -11234,10 +11345,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="103" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E33" s="115" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F33" s="90">
         <v>8</v>
@@ -11254,10 +11365,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F34" s="84">
         <v>6</v>
@@ -11274,10 +11385,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F35" s="87">
         <v>4</v>
@@ -11294,10 +11405,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F36" s="90">
         <v>2</v>
@@ -11314,10 +11425,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F37" s="104">
         <v>1</v>
@@ -11334,10 +11445,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -11354,10 +11465,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E39" s="113" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F39" s="86">
         <v>0</v>
@@ -11374,7 +11485,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E40" s="110" t="s">
         <v>132</v>
@@ -11394,10 +11505,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -11414,10 +11525,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F42" s="89">
         <v>0</v>
@@ -11434,10 +11545,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F43" s="85">
         <v>0</v>
@@ -11454,10 +11565,10 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E44" s="114" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F44" s="88">
         <v>0</v>
@@ -11474,10 +11585,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F45" s="85">
         <v>0</v>
@@ -11494,10 +11605,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -11514,10 +11625,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E47" s="109" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F47" s="84">
         <v>0</v>
@@ -11534,10 +11645,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F48" s="91">
         <v>0</v>
@@ -11554,7 +11665,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E49" s="117" t="s">
         <v>71</v>
@@ -12162,10 +12273,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -12182,10 +12293,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F29" s="82">
         <v>19</v>
@@ -12202,10 +12313,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E30" s="113" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="86">
         <v>15</v>
@@ -12222,10 +12333,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -12242,10 +12353,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -12262,10 +12373,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F33" s="83">
         <v>8</v>
@@ -12282,10 +12393,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F34" s="84">
         <v>6</v>
@@ -12302,10 +12413,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -12322,10 +12433,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F36" s="90">
         <v>2</v>
@@ -12342,10 +12453,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F37" s="104">
         <v>1</v>
@@ -12362,10 +12473,10 @@
         <v>20</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E38" s="114" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F38" s="88">
         <v>0</v>
@@ -12402,7 +12513,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E40" s="112" t="s">
         <v>71</v>
@@ -12422,7 +12533,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="94" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>71</v>
@@ -12442,7 +12553,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E42" s="112" t="s">
         <v>71</v>
@@ -12462,7 +12573,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E43" s="114" t="s">
         <v>71</v>
@@ -12482,7 +12593,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E44" s="111" t="s">
         <v>71</v>
@@ -12502,7 +12613,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -12522,7 +12633,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -12542,7 +12653,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>71</v>
@@ -12562,7 +12673,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -12582,7 +12693,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="103" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E49" s="115" t="s">
         <v>72</v>
@@ -13188,10 +13299,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -13208,10 +13319,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -13228,10 +13339,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F30" s="87">
         <v>15</v>
@@ -13248,10 +13359,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -13268,10 +13379,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F32" s="86">
         <v>10</v>
@@ -13288,10 +13399,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F33" s="83">
         <v>9</v>
@@ -13308,10 +13419,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -13328,10 +13439,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -13348,10 +13459,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="96" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E36" s="109" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F36" s="84">
         <v>2</v>
@@ -13368,10 +13479,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F37" s="85">
         <v>1</v>
@@ -13388,10 +13499,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -13408,10 +13519,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F39" s="104">
         <v>0</v>
@@ -13428,10 +13539,10 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E40" s="110" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F40" s="87">
         <v>0</v>
@@ -13448,10 +13559,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -13468,10 +13579,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E42" s="115" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F42" s="90">
         <v>0</v>
@@ -13488,10 +13599,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F43" s="89">
         <v>0</v>
@@ -13508,10 +13619,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E44" s="109" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F44" s="84">
         <v>0</v>
@@ -13528,10 +13639,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="102" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E45" s="114" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F45" s="88">
         <v>0</v>
@@ -13548,10 +13659,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -13571,7 +13682,7 @@
         <v>315</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F47" s="91">
         <v>0</v>
@@ -13588,10 +13699,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F48" s="91">
         <v>0</v>
@@ -13608,10 +13719,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="94" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E49" s="107" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F49" s="85" t="s">
         <v>66</v>
@@ -14216,10 +14327,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -14236,10 +14347,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -14256,10 +14367,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -14276,10 +14387,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="118" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E31" s="117" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F31" s="104">
         <v>12</v>
@@ -14296,10 +14407,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F32" s="89">
         <v>10</v>
@@ -14316,10 +14427,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F33" s="85">
         <v>8</v>
@@ -14336,10 +14447,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="99" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E34" s="112" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F34" s="89">
         <v>6</v>
@@ -14356,10 +14467,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E35" s="106" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F35" s="83">
         <v>4</v>
@@ -14376,10 +14487,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -14396,10 +14507,10 @@
         <v>18</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F37" s="91">
         <v>1</v>
@@ -14416,10 +14527,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F38" s="91">
         <v>0</v>
@@ -14436,10 +14547,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E39" s="114" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F39" s="88">
         <v>0</v>
@@ -14456,10 +14567,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E40" s="115" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F40" s="90">
         <v>0</v>
@@ -14476,10 +14587,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -14496,10 +14607,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E42" s="114" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F42" s="88">
         <v>0</v>
@@ -14516,10 +14627,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="100" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F43" s="86">
         <v>0</v>
@@ -14536,10 +14647,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="90" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E44" s="115" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F44" s="90">
         <v>0</v>
@@ -14556,7 +14667,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>72</v>
@@ -14576,7 +14687,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E46" s="110" t="s">
         <v>72</v>
@@ -14596,7 +14707,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E47" s="106" t="s">
         <v>72</v>
@@ -14616,7 +14727,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>72</v>
@@ -14636,7 +14747,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -14851,7 +14962,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14988,86 +15099,90 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36">
+        <v>18</v>
+      </c>
+      <c r="D2" s="36">
         <v>25</v>
       </c>
-      <c r="D2" s="36">
+      <c r="E2" s="36">
+        <v>12</v>
+      </c>
+      <c r="F2" s="36">
+        <v>15</v>
+      </c>
+      <c r="G2" s="36">
+        <v>15</v>
+      </c>
+      <c r="H2" s="36">
         <v>18</v>
       </c>
-      <c r="E2" s="36">
+      <c r="I2" s="36">
         <v>25</v>
       </c>
-      <c r="F2" s="36">
+      <c r="J2" s="36">
+        <v>8</v>
+      </c>
+      <c r="K2" s="36">
         <v>18</v>
       </c>
-      <c r="G2" s="36">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36">
-        <v>15</v>
-      </c>
-      <c r="I2" s="36">
-        <v>18</v>
-      </c>
-      <c r="J2" s="36">
-        <v>2</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="L2" s="36">
+        <v>12</v>
+      </c>
+      <c r="M2" s="36">
         <v>25</v>
-      </c>
-      <c r="L2" s="36">
-        <v>15</v>
-      </c>
-      <c r="M2" s="36">
-        <v>18</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="82">
+        <v>15</v>
+      </c>
+      <c r="P2" s="82">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>25</v>
+      </c>
+      <c r="R2" s="59">
         <v>26</v>
       </c>
-      <c r="P2" s="59">
+      <c r="S2" s="59">
+        <v>8</v>
+      </c>
+      <c r="T2" s="82">
+        <v>18</v>
+      </c>
+      <c r="U2" s="82">
+        <v>25</v>
+      </c>
+      <c r="V2" s="82">
+        <v>15</v>
+      </c>
+      <c r="W2" s="59">
         <v>19</v>
       </c>
-      <c r="Q2" s="82">
-        <v>18</v>
-      </c>
-      <c r="R2" s="82">
+      <c r="X2" s="82">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="82">
         <v>15</v>
       </c>
-      <c r="S2" s="82">
-        <v>7</v>
-      </c>
-      <c r="T2" s="59">
+      <c r="Z2" s="82">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="82">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="59">
         <v>26</v>
       </c>
-      <c r="U2" s="82">
-        <v>15</v>
-      </c>
-      <c r="V2" s="59">
-        <v>26</v>
-      </c>
-      <c r="W2" s="82">
-        <v>25</v>
-      </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="82">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="82">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
       <c r="AD2" s="36">
         <f>SUM(C2:AC2)</f>
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -15075,88 +15190,88 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="36">
+        <v>25</v>
+      </c>
+      <c r="D3" s="36">
         <v>18</v>
       </c>
-      <c r="D3" s="36">
+      <c r="E3" s="36">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
-        <v>12</v>
-      </c>
       <c r="F3" s="36">
+        <v>18</v>
+      </c>
+      <c r="G3" s="36">
+        <v>18</v>
+      </c>
+      <c r="H3" s="36">
         <v>15</v>
       </c>
-      <c r="G3" s="36">
+      <c r="I3" s="36">
+        <v>18</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36">
+        <v>25</v>
+      </c>
+      <c r="L3" s="36">
         <v>15</v>
       </c>
-      <c r="H3" s="36">
+      <c r="M3" s="36">
         <v>18</v>
-      </c>
-      <c r="I3" s="36">
-        <v>25</v>
-      </c>
-      <c r="J3" s="36">
-        <v>8</v>
-      </c>
-      <c r="K3" s="36">
-        <v>18</v>
-      </c>
-      <c r="L3" s="36">
-        <v>12</v>
-      </c>
-      <c r="M3" s="36">
-        <v>25</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="59">
+        <v>26</v>
+      </c>
+      <c r="P3" s="59">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>18</v>
+      </c>
+      <c r="R3" s="82">
         <v>15</v>
       </c>
-      <c r="P3" s="82">
+      <c r="S3" s="82">
+        <v>7</v>
+      </c>
+      <c r="T3" s="59">
+        <v>26</v>
+      </c>
+      <c r="U3" s="82">
+        <v>15</v>
+      </c>
+      <c r="V3" s="59">
+        <v>26</v>
+      </c>
+      <c r="W3" s="82">
         <v>25</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82">
         <v>25</v>
       </c>
-      <c r="R3" s="59">
-        <v>26</v>
-      </c>
-      <c r="S3" s="59">
+      <c r="Z3" s="82">
         <v>8</v>
       </c>
-      <c r="T3" s="82">
+      <c r="AA3" s="82">
         <v>18</v>
       </c>
-      <c r="U3" s="82">
-        <v>25</v>
-      </c>
-      <c r="V3" s="82">
-        <v>15</v>
-      </c>
-      <c r="W3" s="59">
-        <v>19</v>
-      </c>
-      <c r="X3" s="82">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="82">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="82">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="82">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="61"/>
+      <c r="AB3" s="82">
+        <v>18</v>
+      </c>
       <c r="AC3" s="61"/>
       <c r="AD3" s="36">
         <f>SUM(C3:AC3)</f>
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -15237,11 +15352,13 @@
       <c r="AA4" s="83">
         <v>15</v>
       </c>
-      <c r="AB4" s="62"/>
+      <c r="AB4" s="83">
+        <v>8</v>
+      </c>
       <c r="AC4" s="62"/>
       <c r="AD4" s="37">
         <f>SUM(C4:AC4)</f>
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -15320,11 +15437,13 @@
         <v>4</v>
       </c>
       <c r="AA5" s="86"/>
-      <c r="AB5" s="66"/>
+      <c r="AB5" s="86">
+        <v>10</v>
+      </c>
       <c r="AC5" s="66"/>
       <c r="AD5" s="40">
         <f>SUM(C5:AC5)</f>
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -15399,11 +15518,13 @@
       <c r="AA6" s="90">
         <v>12</v>
       </c>
-      <c r="AB6" s="70"/>
+      <c r="AB6" s="90">
+        <v>4</v>
+      </c>
       <c r="AC6" s="70"/>
       <c r="AD6" s="45">
         <f>SUM(C6:AC6)</f>
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -15474,11 +15595,13 @@
       <c r="AA7" s="116">
         <v>4</v>
       </c>
-      <c r="AB7" s="66"/>
+      <c r="AB7" s="116">
+        <v>15</v>
+      </c>
       <c r="AC7" s="66"/>
       <c r="AD7" s="116">
         <f>SUM(C7:AC7)</f>
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -15553,11 +15676,13 @@
       <c r="AA8" s="87">
         <v>2</v>
       </c>
-      <c r="AB8" s="65"/>
+      <c r="AB8" s="87">
+        <v>6</v>
+      </c>
       <c r="AC8" s="65"/>
       <c r="AD8" s="87">
         <f>SUM(C8:AC8)</f>
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -15630,7 +15755,7 @@
       </c>
       <c r="Z9" s="83"/>
       <c r="AA9" s="83"/>
-      <c r="AB9" s="62"/>
+      <c r="AB9" s="83"/>
       <c r="AC9" s="62"/>
       <c r="AD9" s="83">
         <f>SUM(C9:AC9)</f>
@@ -15697,7 +15822,7 @@
       <c r="Y10" s="84"/>
       <c r="Z10" s="84"/>
       <c r="AA10" s="84"/>
-      <c r="AB10" s="69"/>
+      <c r="AB10" s="84"/>
       <c r="AC10" s="69"/>
       <c r="AD10" s="84">
         <f>SUM(C10:AC10)</f>
@@ -15762,7 +15887,7 @@
       <c r="AA11" s="90">
         <v>10</v>
       </c>
-      <c r="AB11" s="70"/>
+      <c r="AB11" s="90"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="90">
         <f>SUM(C11:AC11)</f>
@@ -15815,7 +15940,7 @@
       <c r="AA12" s="88">
         <v>6</v>
       </c>
-      <c r="AB12" s="68"/>
+      <c r="AB12" s="88"/>
       <c r="AC12" s="68"/>
       <c r="AD12" s="88">
         <f>SUM(C12:AC12)</f>
@@ -15826,177 +15951,181 @@
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87">
+      <c r="B13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104">
+        <v>6</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="104">
+        <v>1</v>
+      </c>
+      <c r="P13" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104">
+        <v>12</v>
+      </c>
+      <c r="S13" s="104">
+        <v>3</v>
+      </c>
+      <c r="T13" s="104">
         <v>4</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87">
-        <v>8</v>
-      </c>
-      <c r="I13" s="87" t="s">
+      <c r="U13" s="104">
+        <v>4</v>
+      </c>
+      <c r="V13" s="104">
+        <v>4</v>
+      </c>
+      <c r="W13" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87">
-        <v>4</v>
-      </c>
-      <c r="M13" s="87">
-        <v>4</v>
-      </c>
-      <c r="N13" s="87">
+      <c r="X13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="104">
         <v>12</v>
       </c>
-      <c r="O13" s="87">
-        <v>4</v>
-      </c>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87">
-        <v>2</v>
-      </c>
-      <c r="V13" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="87">
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="104">
         <f>SUM(C13:AC13)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89">
+      <c r="B14" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87">
+        <v>4</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87">
+        <v>8</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87">
+        <v>4</v>
+      </c>
+      <c r="M14" s="87">
+        <v>4</v>
+      </c>
+      <c r="N14" s="87">
+        <v>12</v>
+      </c>
+      <c r="O14" s="87">
+        <v>4</v>
+      </c>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87">
+        <v>2</v>
+      </c>
+      <c r="V14" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87">
         <v>1</v>
       </c>
-      <c r="N14" s="89">
-        <v>6</v>
-      </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89">
-        <v>10</v>
-      </c>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="89">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="89">
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="87">
         <f>SUM(C14:AC14)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104">
+      <c r="B15" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89">
+        <v>1</v>
+      </c>
+      <c r="N15" s="89">
         <v>6</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104">
-        <v>1</v>
-      </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="104">
-        <v>1</v>
-      </c>
-      <c r="P15" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104">
-        <v>12</v>
-      </c>
-      <c r="S15" s="104">
-        <v>3</v>
-      </c>
-      <c r="T15" s="104">
-        <v>4</v>
-      </c>
-      <c r="U15" s="104">
-        <v>4</v>
-      </c>
-      <c r="V15" s="104">
-        <v>4</v>
-      </c>
-      <c r="W15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="X15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="104">
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89">
+        <v>10</v>
+      </c>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="89">
         <f>SUM(C15:AC15)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -16049,7 +16178,7 @@
       </c>
       <c r="Z16" s="89"/>
       <c r="AA16" s="89"/>
-      <c r="AB16" s="67"/>
+      <c r="AB16" s="89"/>
       <c r="AC16" s="67"/>
       <c r="AD16" s="89">
         <f>SUM(C16:AC16)</f>
@@ -16110,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="85"/>
-      <c r="AB17" s="63"/>
+      <c r="AB17" s="85"/>
       <c r="AC17" s="63"/>
       <c r="AD17" s="85">
         <f>SUM(C17:AC17)</f>
@@ -16161,7 +16290,7 @@
       <c r="AA18" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="AB18" s="64"/>
+      <c r="AB18" s="91"/>
       <c r="AC18" s="64"/>
       <c r="AD18" s="91">
         <f>SUM(C18:AC18)</f>
@@ -16210,7 +16339,7 @@
       <c r="Y19" s="84"/>
       <c r="Z19" s="84"/>
       <c r="AA19" s="84"/>
-      <c r="AB19" s="69"/>
+      <c r="AB19" s="84"/>
       <c r="AC19" s="69"/>
       <c r="AD19" s="84">
         <f>SUM(C19:AC19)</f>
@@ -16267,7 +16396,7 @@
         <v>66</v>
       </c>
       <c r="AA20" s="85"/>
-      <c r="AB20" s="63"/>
+      <c r="AB20" s="85"/>
       <c r="AC20" s="63"/>
       <c r="AD20" s="39">
         <f>SUM(C20:AC20)</f>
@@ -16278,96 +16407,98 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88" t="s">
+      <c r="B21" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88" t="s">
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88" t="s">
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="88">
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="104">
         <f>SUM(C21:AC21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104" t="s">
+      <c r="B22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104" t="s">
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104" t="s">
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="104">
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="88">
         <f>SUM(C22:AC22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
@@ -16406,7 +16537,7 @@
       <c r="Y23" s="91"/>
       <c r="Z23" s="91"/>
       <c r="AA23" s="91"/>
-      <c r="AB23" s="64"/>
+      <c r="AB23" s="91"/>
       <c r="AC23" s="64"/>
       <c r="AD23" s="91">
         <f>SUM(C23:AC23)</f>
@@ -16818,10 +16949,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F28" s="82">
         <v>8</v>
@@ -16838,10 +16969,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F29" s="82">
         <v>7</v>
@@ -16858,10 +16989,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E30" s="113" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F30" s="86">
         <v>6</v>
@@ -16878,10 +17009,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F31" s="83">
         <v>5</v>
@@ -16898,10 +17029,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F32" s="86">
         <v>4</v>
@@ -16918,10 +17049,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="118" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F33" s="104">
         <v>3</v>
@@ -16938,10 +17069,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="103" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F34" s="90">
         <v>2</v>
@@ -16958,10 +17089,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E35" s="106" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F35" s="83">
         <v>1</v>
@@ -16978,10 +17109,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F36" s="87">
         <v>0</v>
@@ -16998,10 +17129,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F37" s="85">
         <v>0</v>
@@ -17018,10 +17149,10 @@
         <v>20</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E38" s="114" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F38" s="88">
         <v>0</v>
@@ -17038,10 +17169,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="90" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E39" s="115" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F39" s="90">
         <v>0</v>
@@ -17058,7 +17189,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E40" s="110" t="s">
         <v>499</v>
@@ -17078,10 +17209,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -17098,10 +17229,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -17118,10 +17249,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F43" s="89">
         <v>0</v>
@@ -17138,10 +17269,10 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F44" s="91">
         <v>0</v>
@@ -17158,10 +17289,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F45" s="85">
         <v>0</v>
@@ -17178,10 +17309,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -17198,10 +17329,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -17218,10 +17349,10 @@
         <v>16</v>
       </c>
       <c r="D48" s="99" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E48" s="112" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F48" s="89">
         <v>0</v>
@@ -17238,7 +17369,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -17808,10 +17939,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -17828,10 +17959,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -17848,10 +17979,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -17868,10 +17999,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -17888,10 +18019,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F32" s="87">
         <v>10</v>
@@ -17908,7 +18039,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E33" s="113" t="s">
         <v>419</v>
@@ -17928,10 +18059,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -17948,10 +18079,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -17968,10 +18099,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F36" s="83">
         <v>2</v>
@@ -17988,10 +18119,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E37" s="109" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F37" s="84">
         <v>1</v>
@@ -18008,10 +18139,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F38" s="91">
         <v>0</v>
@@ -18028,10 +18159,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F39" s="85">
         <v>0</v>
@@ -18048,10 +18179,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E40" s="106" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F40" s="83">
         <v>0</v>
@@ -18068,10 +18199,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F41" s="88">
         <v>0</v>
@@ -18088,10 +18219,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F42" s="89">
         <v>0</v>
@@ -18108,10 +18239,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F43" s="85">
         <v>0</v>
@@ -18128,10 +18259,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E44" s="110" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F44" s="87">
         <v>0</v>
@@ -18148,10 +18279,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E45" s="117" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F45" s="104">
         <v>0</v>
@@ -18168,10 +18299,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -18188,10 +18319,10 @@
         <v>16</v>
       </c>
       <c r="D47" s="99" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E47" s="112" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F47" s="89">
         <v>0</v>
@@ -18208,10 +18339,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="96" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E48" s="109" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F48" s="84">
         <v>0</v>
@@ -18228,10 +18359,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F49" s="88">
         <v>0</v>
@@ -18830,10 +18961,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -18850,10 +18981,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -18870,10 +19001,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -18890,10 +19021,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F31" s="83">
         <v>13</v>
@@ -18910,10 +19041,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F32" s="83">
         <v>10</v>
@@ -18930,10 +19061,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F33" s="87">
         <v>8</v>
@@ -18950,10 +19081,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="103" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -18970,10 +19101,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -18990,10 +19121,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -19010,10 +19141,10 @@
         <v>17</v>
       </c>
       <c r="D37" s="90" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E37" s="115" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F37" s="90">
         <v>1</v>
@@ -19030,10 +19161,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -19050,7 +19181,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="96" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E39" s="109" t="s">
         <v>225</v>
@@ -19070,10 +19201,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E40" s="113" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F40" s="86">
         <v>0</v>
@@ -19090,10 +19221,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F41" s="91">
         <v>0</v>
@@ -19110,10 +19241,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F42" s="85">
         <v>0</v>
@@ -19130,10 +19261,10 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E43" s="114" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F43" s="88">
         <v>0</v>
@@ -19150,10 +19281,10 @@
         <v>20</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E44" s="114" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F44" s="88">
         <v>0</v>
@@ -19170,10 +19301,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="99" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E45" s="112" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F45" s="89">
         <v>0</v>
@@ -19190,10 +19321,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F46" s="91">
         <v>0</v>
@@ -19210,7 +19341,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E47" s="117" t="s">
         <v>71</v>
@@ -19230,10 +19361,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F48" s="85">
         <v>0</v>
@@ -19250,7 +19381,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="96" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E49" s="109" t="s">
         <v>72</v>
@@ -19857,10 +19988,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F28" s="82">
         <v>26</v>
@@ -19877,10 +20008,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F29" s="86">
         <v>18</v>
@@ -19897,10 +20028,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -19917,10 +20048,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -19937,10 +20068,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="103" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E32" s="115" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F32" s="90">
         <v>10</v>
@@ -19957,10 +20088,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F33" s="87">
         <v>8</v>
@@ -19977,10 +20108,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F34" s="83">
         <v>6</v>
@@ -19997,10 +20128,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F35" s="104">
         <v>4</v>
@@ -20017,7 +20148,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E36" s="112" t="s">
         <v>71</v>
@@ -20037,7 +20168,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E37" s="114" t="s">
         <v>71</v>
@@ -20057,7 +20188,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E38" s="112" t="s">
         <v>71</v>
@@ -20077,7 +20208,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E39" s="107" t="s">
         <v>71</v>
@@ -20097,7 +20228,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="90" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E40" s="115" t="s">
         <v>71</v>
@@ -20117,7 +20248,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E41" s="109" t="s">
         <v>71</v>
@@ -20137,7 +20268,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E42" s="111" t="s">
         <v>71</v>
@@ -20157,7 +20288,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E43" s="107" t="s">
         <v>71</v>
@@ -20177,7 +20308,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E44" s="106" t="s">
         <v>71</v>
@@ -20197,7 +20328,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -20217,7 +20348,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E46" s="114" t="s">
         <v>71</v>
@@ -20237,7 +20368,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E47" s="109" t="s">
         <v>71</v>
@@ -20257,7 +20388,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E48" s="110" t="s">
         <v>72</v>
@@ -20277,7 +20408,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E49" s="111" t="s">
         <v>72</v>
@@ -20884,10 +21015,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -20904,10 +21035,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F29" s="82">
         <v>19</v>
@@ -20924,10 +21055,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -20944,10 +21075,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F31" s="86">
         <v>12</v>
@@ -20964,10 +21095,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F32" s="86">
         <v>10</v>
@@ -20984,10 +21115,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F33" s="83">
         <v>8</v>
@@ -21004,10 +21135,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F34" s="90">
         <v>6</v>
@@ -21024,10 +21155,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F35" s="85">
         <v>4</v>
@@ -21044,10 +21175,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -21064,10 +21195,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="F37" s="85">
         <v>1</v>
@@ -21084,10 +21215,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F38" s="89">
         <v>0</v>
@@ -21104,10 +21235,10 @@
         <v>15</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E39" s="110" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F39" s="87">
         <v>0</v>
@@ -21124,10 +21255,10 @@
         <v>19</v>
       </c>
       <c r="D40" s="118" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E40" s="117" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F40" s="104">
         <v>0</v>
@@ -21144,7 +21275,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E41" s="111" t="s">
         <v>226</v>
@@ -21164,10 +21295,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -21184,10 +21315,10 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E43" s="114" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F43" s="88">
         <v>0</v>
@@ -21204,10 +21335,10 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E44" s="109" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F44" s="84">
         <v>0</v>
@@ -21224,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F45" s="83">
         <v>0</v>
@@ -21244,10 +21375,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F46" s="84">
         <v>0</v>
@@ -21264,10 +21395,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -21284,7 +21415,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E48" s="117" t="s">
         <v>72</v>
@@ -21304,7 +21435,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E49" s="110" t="s">
         <v>72</v>
@@ -21911,10 +22042,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F28" s="83">
         <v>25</v>
@@ -21931,7 +22062,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E29" s="113" t="s">
         <v>385</v>
@@ -21951,10 +22082,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="90" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F30" s="90">
         <v>15</v>
@@ -21971,10 +22102,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E31" s="108" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F31" s="82">
         <v>12</v>
@@ -21991,10 +22122,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F32" s="85">
         <v>10</v>
@@ -22011,10 +22142,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E33" s="112" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F33" s="89">
         <v>8</v>
@@ -22031,10 +22162,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F34" s="87">
         <v>6</v>
@@ -22051,10 +22182,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E35" s="114" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F35" s="88">
         <v>4</v>
@@ -22071,10 +22202,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -22091,10 +22222,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E37" s="109" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F37" s="84">
         <v>1</v>
@@ -22111,7 +22242,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E38" s="110" t="s">
         <v>421</v>
@@ -22131,10 +22262,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="103" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E39" s="115" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F39" s="90">
         <v>0</v>
@@ -22151,10 +22282,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F40" s="91">
         <v>0</v>
@@ -22171,10 +22302,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F41" s="82">
         <v>0</v>
@@ -22191,10 +22322,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F42" s="91">
         <v>0</v>
@@ -22211,10 +22342,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="100" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F43" s="86">
         <v>0</v>
@@ -22231,7 +22362,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E44" s="109" t="s">
         <v>71</v>
@@ -22251,7 +22382,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E45" s="106" t="s">
         <v>71</v>
@@ -22271,7 +22402,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>71</v>
@@ -22291,7 +22422,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E47" s="114" t="s">
         <v>71</v>
@@ -22311,7 +22442,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E48" s="117" t="s">
         <v>72</v>
@@ -22331,7 +22462,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E49" s="117" t="s">
         <v>72</v>
@@ -22938,10 +23069,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -22958,10 +23089,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F29" s="83">
         <v>18</v>
@@ -22978,10 +23109,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F30" s="82">
         <v>15</v>
@@ -22998,10 +23129,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F31" s="83">
         <v>12</v>
@@ -23018,10 +23149,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F32" s="89">
         <v>10</v>
@@ -23038,10 +23169,10 @@
         <v>20</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F33" s="88">
         <v>8</v>
@@ -23058,10 +23189,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F34" s="87">
         <v>6</v>
@@ -23078,10 +23209,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="113" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -23098,10 +23229,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F36" s="89">
         <v>2</v>
@@ -23118,10 +23249,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F37" s="85">
         <v>2</v>
@@ -23138,10 +23269,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E38" s="113" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F38" s="86">
         <v>0</v>
@@ -23158,10 +23289,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F39" s="104">
         <v>0</v>
@@ -23178,10 +23309,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F40" s="85">
         <v>0</v>
@@ -23198,10 +23329,10 @@
         <v>12</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F41" s="84">
         <v>0</v>
@@ -23218,7 +23349,7 @@
         <v>17</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="115" t="s">
         <v>71</v>
@@ -23238,7 +23369,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E43" s="114" t="s">
         <v>71</v>
@@ -23258,7 +23389,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E44" s="110" t="s">
         <v>71</v>
@@ -23278,7 +23409,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E45" s="117" t="s">
         <v>71</v>
@@ -23298,7 +23429,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E46" s="109" t="s">
         <v>71</v>
@@ -23318,7 +23449,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>71</v>
@@ -23338,7 +23469,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>71</v>
@@ -23358,7 +23489,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E49" s="115" t="s">
         <v>72</v>
@@ -23951,10 +24082,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F28" s="82">
         <v>8</v>
@@ -23971,10 +24102,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F29" s="86">
         <v>7</v>
@@ -23991,10 +24122,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F30" s="82">
         <v>6</v>
@@ -24011,10 +24142,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F31" s="83">
         <v>5</v>
@@ -24031,7 +24162,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="113" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E32" s="113" t="s">
         <v>420</v>
@@ -24051,10 +24182,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E33" s="110" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F33" s="87">
         <v>3</v>
@@ -24071,10 +24202,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F34" s="90">
         <v>2</v>
@@ -24091,10 +24222,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F35" s="85">
         <v>1</v>
@@ -24111,10 +24242,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E36" s="115" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F36" s="90">
         <v>0</v>
@@ -24131,10 +24262,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F37" s="104">
         <v>0</v>
@@ -24151,10 +24282,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="96" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E38" s="109" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F38" s="84">
         <v>0</v>
@@ -24171,10 +24302,10 @@
         <v>15</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E39" s="110" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F39" s="87">
         <v>0</v>
@@ -24191,10 +24322,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E40" s="112" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F40" s="89">
         <v>0</v>
@@ -24211,10 +24342,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="99" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E41" s="112" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F41" s="89">
         <v>0</v>
@@ -24231,10 +24362,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E42" s="114" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="F42" s="88">
         <v>0</v>
@@ -24251,10 +24382,10 @@
         <v>19</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E43" s="117" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
@@ -24271,10 +24402,10 @@
         <v>18</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F44" s="91">
         <v>0</v>
@@ -24291,10 +24422,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E45" s="111" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F45" s="91">
         <v>0</v>
@@ -24311,10 +24442,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="96" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F46" s="84">
         <v>0</v>
@@ -24331,10 +24462,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F47" s="88">
         <v>0</v>
@@ -24351,10 +24482,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E48" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F48" s="83">
         <v>0</v>
@@ -24371,7 +24502,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="94" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E49" s="107" t="s">
         <v>72</v>
@@ -24585,8 +24716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EA377F-7BBC-437B-9604-374B6D501500}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" activeCellId="1" sqref="B28:B37 F28:F37"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24978,10 +25109,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F28" s="82">
         <v>25</v>
@@ -24998,10 +25129,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F29" s="82">
         <v>18</v>
@@ -25018,10 +25149,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F30" s="83">
         <v>15</v>
@@ -25038,10 +25169,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E31" s="115" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F31" s="90">
         <v>12</v>
@@ -25058,10 +25189,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="90" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E32" s="115" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="F32" s="90">
         <v>10</v>
@@ -25078,10 +25209,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E33" s="112" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F33" s="89">
         <v>8</v>
@@ -25098,10 +25229,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="F34" s="88">
         <v>6</v>
@@ -25118,10 +25249,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F35" s="86">
         <v>4</v>
@@ -25138,10 +25269,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E36" s="110" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F36" s="87">
         <v>2</v>
@@ -25158,10 +25289,10 @@
         <v>20</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E37" s="114" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F37" s="88">
         <v>1</v>
@@ -25178,10 +25309,10 @@
         <v>15</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E38" s="110" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F38" s="87">
         <v>0</v>
@@ -25201,7 +25332,7 @@
         <v>359</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F39" s="89">
         <v>0</v>
@@ -25218,10 +25349,10 @@
         <v>12</v>
       </c>
       <c r="D40" s="96" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E40" s="109" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F40" s="84">
         <v>0</v>
@@ -25238,10 +25369,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="107" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F41" s="85">
         <v>0</v>
@@ -25258,10 +25389,10 @@
         <v>19</v>
       </c>
       <c r="D42" s="123" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E42" s="117" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
@@ -25278,10 +25409,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E43" s="106" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F43" s="83">
         <v>0</v>
@@ -25298,10 +25429,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="113" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E44" s="113" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F44" s="86">
         <v>0</v>
@@ -25318,10 +25449,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E45" s="109" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F45" s="84">
         <v>0</v>
@@ -25338,10 +25469,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F46" s="104">
         <v>0</v>
@@ -25358,7 +25489,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>71</v>
@@ -25378,7 +25509,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>71</v>
@@ -25398,7 +25529,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E49" s="111" t="s">
         <v>72</v>
@@ -25612,8 +25743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F3704E-95D4-42E5-983D-8B7F29D1619D}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25626,289 +25757,340 @@
     <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="B9" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="B13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="27"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="28"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="27"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="28"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
+      <c r="B22" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="27"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -25918,605 +26100,662 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F28" s="82">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F29" s="82">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
+      <c r="B30" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E30" s="113" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F30" s="86">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
+      <c r="B31" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F31" s="104">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F32" s="86">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
+      <c r="B33" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F33" s="83">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
+      <c r="B34" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F34" s="87">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
+      <c r="B35" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E35" s="115" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F35" s="90">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="B36" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F36" s="104">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
+      <c r="B37" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E37" s="110" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F37" s="87">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
+      <c r="B38" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F38" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
+      <c r="B39" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F39" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
+      <c r="B40" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F40" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
+      <c r="B41" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F41" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
+      <c r="B42" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
+      <c r="B43" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E43" s="115" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F43" s="90">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
+      <c r="B44" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F44" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
+      <c r="B45" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E45" s="114" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F45" s="88">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
+      <c r="B47" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E47" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
+      <c r="B48" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E48" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E49" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>44</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>25</v>
+      </c>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="105">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>14</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B56" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="83">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>8</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B57" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="87">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>7</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="90">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>4</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
-      </c>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:C63">
+    <sortCondition descending="1" ref="C53:C63"/>
+    <sortCondition ref="B53:B63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26526,7 +26765,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26737,185 +26976,191 @@
       <c r="AA2" s="82">
         <v>43</v>
       </c>
-      <c r="AB2" s="61"/>
+      <c r="AB2" s="59">
+        <v>44</v>
+      </c>
       <c r="AC2" s="61"/>
       <c r="AD2" s="31">
         <f>SUM(C2:AC2)</f>
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="86">
+        <v>25</v>
+      </c>
+      <c r="D3" s="86">
+        <v>15</v>
+      </c>
+      <c r="E3" s="59">
+        <v>12</v>
+      </c>
+      <c r="F3" s="86">
         <v>11</v>
       </c>
-      <c r="C3" s="83">
+      <c r="G3" s="86">
+        <v>10</v>
+      </c>
+      <c r="H3" s="59">
+        <v>26</v>
+      </c>
+      <c r="I3" s="86">
+        <v>16</v>
+      </c>
+      <c r="J3" s="86">
+        <v>7</v>
+      </c>
+      <c r="K3" s="59">
+        <v>15</v>
+      </c>
+      <c r="L3" s="86">
+        <v>26</v>
+      </c>
+      <c r="M3" s="86">
+        <v>2</v>
+      </c>
+      <c r="N3" s="59">
+        <v>20</v>
+      </c>
+      <c r="O3" s="86">
+        <v>12</v>
+      </c>
+      <c r="P3" s="86">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="86">
+        <v>14</v>
+      </c>
+      <c r="R3" s="86">
         <v>18</v>
       </c>
-      <c r="D3" s="58">
+      <c r="S3" s="86">
+        <v>10</v>
+      </c>
+      <c r="T3" s="86">
+        <v>20</v>
+      </c>
+      <c r="U3" s="86">
+        <v>18</v>
+      </c>
+      <c r="V3" s="86">
+        <v>30</v>
+      </c>
+      <c r="W3" s="86">
+        <v>22</v>
+      </c>
+      <c r="X3" s="59">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="86">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="59">
         <v>11</v>
       </c>
-      <c r="E3" s="83">
-        <v>26</v>
-      </c>
-      <c r="F3" s="83">
-        <v>33</v>
-      </c>
-      <c r="G3" s="58">
-        <v>34</v>
-      </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83">
-        <v>12</v>
-      </c>
-      <c r="J3" s="58">
-        <v>9</v>
-      </c>
-      <c r="K3" s="83">
-        <v>10</v>
-      </c>
-      <c r="L3" s="83">
+      <c r="AA3" s="86">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="86">
         <v>25</v>
       </c>
-      <c r="M3" s="83">
-        <v>21</v>
-      </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83">
-        <v>28</v>
-      </c>
-      <c r="P3" s="83">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="58">
-        <v>21</v>
-      </c>
-      <c r="R3" s="83">
-        <v>4</v>
-      </c>
-      <c r="S3" s="83">
-        <v>6</v>
-      </c>
-      <c r="T3" s="83">
-        <v>2</v>
-      </c>
-      <c r="U3" s="58">
-        <v>23</v>
-      </c>
-      <c r="V3" s="83">
-        <v>6</v>
-      </c>
-      <c r="W3" s="83">
-        <v>8</v>
-      </c>
-      <c r="X3" s="83">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="83">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="83">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="83">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="83">
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="86">
         <f>SUM(C3:AC3)</f>
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="86">
+      <c r="B4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="83">
+        <v>18</v>
+      </c>
+      <c r="D4" s="58">
+        <v>11</v>
+      </c>
+      <c r="E4" s="83">
+        <v>26</v>
+      </c>
+      <c r="F4" s="83">
+        <v>33</v>
+      </c>
+      <c r="G4" s="58">
+        <v>34</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83">
+        <v>12</v>
+      </c>
+      <c r="J4" s="58">
+        <v>9</v>
+      </c>
+      <c r="K4" s="83">
+        <v>10</v>
+      </c>
+      <c r="L4" s="83">
         <v>25</v>
       </c>
-      <c r="D4" s="86">
+      <c r="M4" s="83">
+        <v>21</v>
+      </c>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83">
+        <v>28</v>
+      </c>
+      <c r="P4" s="83">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>21</v>
+      </c>
+      <c r="R4" s="83">
+        <v>4</v>
+      </c>
+      <c r="S4" s="83">
+        <v>6</v>
+      </c>
+      <c r="T4" s="83">
+        <v>2</v>
+      </c>
+      <c r="U4" s="58">
+        <v>23</v>
+      </c>
+      <c r="V4" s="83">
+        <v>6</v>
+      </c>
+      <c r="W4" s="83">
+        <v>8</v>
+      </c>
+      <c r="X4" s="83">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="83">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="83">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="83">
         <v>15</v>
       </c>
-      <c r="E4" s="59">
-        <v>12</v>
-      </c>
-      <c r="F4" s="86">
-        <v>11</v>
-      </c>
-      <c r="G4" s="86">
-        <v>10</v>
-      </c>
-      <c r="H4" s="59">
-        <v>26</v>
-      </c>
-      <c r="I4" s="86">
-        <v>16</v>
-      </c>
-      <c r="J4" s="86">
-        <v>7</v>
-      </c>
-      <c r="K4" s="59">
-        <v>15</v>
-      </c>
-      <c r="L4" s="86">
-        <v>26</v>
-      </c>
-      <c r="M4" s="86">
-        <v>2</v>
-      </c>
-      <c r="N4" s="59">
-        <v>20</v>
-      </c>
-      <c r="O4" s="86">
-        <v>12</v>
-      </c>
-      <c r="P4" s="86">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="86">
-        <v>14</v>
-      </c>
-      <c r="R4" s="86">
-        <v>18</v>
-      </c>
-      <c r="S4" s="86">
-        <v>10</v>
-      </c>
-      <c r="T4" s="86">
-        <v>20</v>
-      </c>
-      <c r="U4" s="86">
-        <v>18</v>
-      </c>
-      <c r="V4" s="86">
-        <v>30</v>
-      </c>
-      <c r="W4" s="86">
-        <v>22</v>
-      </c>
-      <c r="X4" s="59">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="86">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="59">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="86">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="86">
+      <c r="AB4" s="83">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="83">
         <f>SUM(C4:AC4)</f>
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -26996,11 +27241,13 @@
       <c r="AA5" s="90">
         <v>22</v>
       </c>
-      <c r="AB5" s="70"/>
+      <c r="AB5" s="90">
+        <v>4</v>
+      </c>
       <c r="AC5" s="70"/>
       <c r="AD5" s="45">
         <f>SUM(C5:AC5)</f>
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -27079,11 +27326,13 @@
       <c r="AA6" s="87">
         <v>2</v>
       </c>
-      <c r="AB6" s="65"/>
+      <c r="AB6" s="87">
+        <v>7</v>
+      </c>
       <c r="AC6" s="65"/>
       <c r="AD6" s="41">
         <f>SUM(C6:AC6)</f>
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -27148,7 +27397,7 @@
       <c r="Y7" s="84"/>
       <c r="Z7" s="84"/>
       <c r="AA7" s="84"/>
-      <c r="AB7" s="69"/>
+      <c r="AB7" s="84"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="38">
         <f>SUM(C7:AC7)</f>
@@ -27207,7 +27456,7 @@
       <c r="AA8" s="89">
         <v>8</v>
       </c>
-      <c r="AB8" s="67"/>
+      <c r="AB8" s="89"/>
       <c r="AC8" s="67"/>
       <c r="AD8" s="89">
         <f>SUM(C8:AC8)</f>
@@ -27218,167 +27467,169 @@
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88">
+      <c r="B9" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105">
+        <v>6</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
+        <v>1</v>
+      </c>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105">
+        <v>1</v>
+      </c>
+      <c r="P9" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
+        <v>12</v>
+      </c>
+      <c r="S9" s="105">
+        <v>3</v>
+      </c>
+      <c r="T9" s="105">
         <v>4</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88">
-        <v>25</v>
-      </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88">
-        <v>1</v>
-      </c>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88">
+      <c r="U9" s="105">
         <v>4</v>
       </c>
-      <c r="Y9" s="88">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="88">
+      <c r="V9" s="105">
+        <v>4</v>
+      </c>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="105">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="104">
         <f>SUM(C9:AC9)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="58">
-        <v>2</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85">
-        <v>2</v>
-      </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85">
+      <c r="B10" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88">
         <v>4</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85">
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88">
+        <v>25</v>
+      </c>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88">
         <v>1</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85">
-        <v>1</v>
-      </c>
-      <c r="R10" s="85">
+      <c r="W10" s="88"/>
+      <c r="X10" s="88">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="88">
         <v>8</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85">
-        <v>5</v>
-      </c>
-      <c r="X10" s="85">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="85">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="85">
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="88">
         <f>SUM(C10:AC10)</f>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105">
-        <v>6</v>
-      </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105">
+      <c r="B11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="58">
+        <v>2</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85">
+        <v>2</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85">
+        <v>4</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85">
         <v>1</v>
       </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105">
+      <c r="L11" s="85"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85">
         <v>1</v>
       </c>
-      <c r="P11" s="105">
+      <c r="R11" s="85">
+        <v>8</v>
+      </c>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85">
+        <v>5</v>
+      </c>
+      <c r="X11" s="85">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="85">
         <v>1</v>
       </c>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105">
-        <v>12</v>
-      </c>
-      <c r="S11" s="105">
-        <v>3</v>
-      </c>
-      <c r="T11" s="105">
-        <v>4</v>
-      </c>
-      <c r="U11" s="105">
-        <v>4</v>
-      </c>
-      <c r="V11" s="105">
-        <v>4</v>
-      </c>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="104">
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="85">
         <f>SUM(C11:AC11)</f>
         <v>36</v>
       </c>
@@ -27425,7 +27676,7 @@
       <c r="Y12" s="91"/>
       <c r="Z12" s="91"/>
       <c r="AA12" s="91"/>
-      <c r="AB12" s="64"/>
+      <c r="AB12" s="91"/>
       <c r="AC12" s="64"/>
       <c r="AD12" s="91">
         <f>SUM(C12:AC12)</f>
@@ -27445,303 +27696,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6A3835-7E0E-4A36-8AF7-79C3210DE784}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>512</v>
+      <c r="B3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>512</v>
+      <c r="B4" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>512</v>
+      <c r="B5" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>512</v>
+      <c r="B6" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>512</v>
+      <c r="B7" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>512</v>
+      <c r="B8" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>512</v>
+      <c r="B9" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>512</v>
+      <c r="B10" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="A11" s="92">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>512</v>
+      <c r="B11" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="A12" s="92">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>512</v>
+      <c r="B12" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>512</v>
+      <c r="B13" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>512</v>
+      <c r="B14" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="A15" s="92">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>512</v>
+      <c r="B15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>512</v>
+      <c r="B16" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="92">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>512</v>
+      <c r="B17" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>512</v>
+      <c r="B18" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="92">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B19" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="92">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>512</v>
+      <c r="B20" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="92">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>512</v>
+      <c r="B21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="28"/>
+      <c r="B22" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="92">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>512</v>
+      <c r="B23" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="92">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>512</v>
+      <c r="B24" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="120" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="75"/>
@@ -27751,602 +28001,481 @@
       <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="92">
         <v>1</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="124"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="82"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="92">
         <v>2</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="82"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="92">
         <v>3</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B30" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="100"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="92">
         <v>4</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B31" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="104"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="92">
         <v>5</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="86"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="92">
         <v>6</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B33" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="92">
         <v>7</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B34" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="97"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="92">
         <v>8</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B35" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="103"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="92">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B36" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="118"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="92">
         <v>10</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B37" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="87"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="92">
         <v>11</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B38" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="91"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="92">
         <v>12</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B39" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="93"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="83"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="92">
         <v>13</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B40" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="99"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="89"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="92">
         <v>14</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B41" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="98"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="91"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="92">
         <v>15</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B42" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="99"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="92">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B43" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="90"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="90"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="92">
         <v>17</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B44" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="102"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="88"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="92">
         <v>18</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B45" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="102"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="88"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="92">
         <v>19</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B46" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="96"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="84"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="92">
         <v>20</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B47" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="92">
         <v>21</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B48" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="92">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="96"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="84"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="119" t="s">
         <v>510</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="92">
         <v>1</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>514</v>
+      <c r="B53" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="82">
+        <f>SUMIF($C$28:$C$48,B53,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="92">
         <v>2</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>514</v>
+      <c r="B54" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="86">
+        <f>SUMIF($C$28:$C$48,B54,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="92">
         <v>3</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>514</v>
+      <c r="B55" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="105">
+        <f>SUMIF($C$28:$C$48,B55,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="92">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>514</v>
+      <c r="B56" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="83">
+        <f>SUMIF($C$28:$C$48,B56,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="92">
         <v>5</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>514</v>
+      <c r="B57" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="87">
+        <f>SUMIF($C$28:$C$48,B57,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="92">
         <v>6</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>514</v>
+      <c r="B58" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="90">
+        <f>SUMIF($C$28:$C$48,B58,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="92">
         <v>7</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>514</v>
+      <c r="B59" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="89">
+        <f>SUMIF($C$28:$C$48,B59,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="92">
         <v>8</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>514</v>
+      <c r="B60" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="84">
+        <f>SUMIF($C$28:$C$48,B60,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="92">
         <v>9</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>514</v>
+      <c r="B61" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="88">
+        <f>SUMIF($C$28:$C$48,B61,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="92">
         <v>10</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>514</v>
+      <c r="B62" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="85">
+        <f>SUMIF($C$28:$C$48,B62,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="92">
         <v>11</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>514</v>
+      <c r="B63" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="91">
+        <f>SUMIF($C$28:$C$48,B63,$F$28:$F$48)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28358,7 +28487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E84A1A-5FE9-4A49-A123-94141DF43CB2}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -28366,15 +28495,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -28382,15 +28511,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -28398,7 +28527,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -28406,7 +28535,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -28414,7 +28543,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -28422,7 +28551,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -28430,23 +28559,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -28454,7 +28583,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -28462,7 +28591,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -28470,7 +28599,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -28478,7 +28607,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -28486,7 +28615,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -28494,15 +28623,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>166</v>
@@ -28510,7 +28639,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -28518,7 +28647,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -28526,7 +28655,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -28534,7 +28663,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -28542,15 +28671,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B23" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -28558,7 +28687,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>167</v>
@@ -28566,7 +28695,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -28574,7 +28703,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -28582,10 +28711,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B28" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
